--- a/dataset/lg/maaruthi.xlsx
+++ b/dataset/lg/maaruthi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F117"/>
+  <dimension ref="A1:E117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>type</t>
+          <t>padyam</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>padyam</t>
+          <t>class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>class</t>
+          <t>satakam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>satakam</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>lg</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>శ్రీమద్రామ పదారవిందయుగళిన్‌ సేవించి, యస్మద్గురు
 స్వామిన్‌ వేడ్క భజించి, సత్కవి నమస్కారంబుఁ గావించి, వా
@@ -477,32 +474,29 @@
 నా మీదం గృపజేసి కైకొను మమందప్రీతితో మారుతీ!</t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
           <t>[('శ్రీ', 'U'), ('మ', '|'), ('ద్రా', 'U'), ('మ', '|'), ('ప', '|'), ('దా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళిన్', 'U'), ('సే', 'U'), ('విం', 'U'), ('చి', '|'), ('య', 'U'), ('స్మ', 'U'), ('ద్గు', '|'), ('రు', 'U'), ('స్వా', 'U'), ('మిన్', 'U'), ('వే', 'U'), ('డ్క', '|'), ('భ', '|'), ('జిం', 'U'), ('చి', '|'), ('స', 'U'), ('త్క', '|'), ('వి', '|'), ('న', '|'), ('మ', 'U'), ('స్కా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('వా', 'U'), ('గ్భూ', 'U'), ('మ', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('నీ', 'U'), ('కు', '|'), ('నొ', 'U'), ('క్క', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బున్', 'U'), ('భ', 'U'), ('క్తి', '|'), ('న', 'U'), ('ర్పిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('నా', 'U'), ('మీ', 'U'), ('దం', 'U'), ('గృ', '|'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('కై', 'U'), ('కొ', '|'), ('ను', '|'), ('మ', '|'), ('మం', 'U'), ('ద', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('తో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B3" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
         <is>
           <t>అనఘా! నీవు జనించి నప్పుడె సముద్యద్భూరితేజంబునన్‌
 వినువీథిం గనుపట్టు బాలరవి సద్బింబంబు నీక్షించి, యె
@@ -510,32 +504,29 @@
 జనముల్‌ మింటికి దాటితౌఁ ద్రిభువనశ్లాఘ్యుండవై మారుతీ!</t>
         </is>
       </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('న', '|'), ('ఘా', 'U'), ('నీ', 'U'), ('వు', '|'), ('జ', '|'), ('నిం', 'U'), ('చి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('ద్భూ', 'U'), ('రి', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వి', '|'), ('ను', '|'), ('వీ', 'U'), ('థిం', 'U'), ('గ', '|'), ('ను', '|'), ('ప', 'U'), ('ట్టు', '|'), ('బా', 'U'), ('ల', '|'), ('ర', '|'), ('వి', '|'), ('స', 'U'), ('ద్బిం', 'U'), ('బం', 'U'), ('బు', '|'), ('నీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('యె', 'U'), ('ఱ్ఱ', '|'), ('ని', '|'), ('పం', 'U'), ('డం', 'U'), ('చు', 'U'), ('గ్ర', '|'), ('సిం', 'U'), ('ప', '|'), ('బ', 'U'), ('త్రి', '|'), ('ప', '|'), ('తి', '|'), ('లీ', 'U'), ('లన్', 'U'), ('వే', 'U'), ('డ్క', '|'), ('ము', 'U'), ('న్నూ', 'U'), ('రు', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('ముల్', 'U'), ('మిం', 'U'), ('టి', '|'), ('కి', '|'), ('దా', 'U'), ('టి', '|'), ('తౌ', 'U'), ('ద్రి', '|'), ('భు', '|'), ('వ', '|'), ('న', 'U'), ('శ్లా', 'U'), ('ఘ్యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B4" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>నిజగర్భస్థితశైవతేజము, సమున్నిద్రాత్మ తేజంబుఁ గూ
 డ జగత్ప్రాణుఁ డమోఘ కేసరివనాటక్షేత్రమందర్థి నిం
@@ -543,32 +534,29 @@
 త్రిజగంబుల్‌ గొనియాడ బుట్టితివి గాదే నీవిలన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('జ', '|'), ('గ', 'U'), ('ర్భ', 'U'), ('స్థి', '|'), ('త', '|'), ('శై', 'U'), ('వ', '|'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('స', '|'), ('ము', 'U'), ('న్ని', '|'), ('ద్రా', 'U'), ('త్మ', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('గూ', 'U'), ('డ', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్రా', 'U'), ('ణు', '|'), ('డ', '|'), ('మో', 'U'), ('ఘ', '|'), ('కే', 'U'), ('స', '|'), ('రి', '|'), ('వ', '|'), ('నా', 'U'), ('ట', 'U'), ('క్షే', 'U'), ('త్ర', '|'), ('మం', 'U'), ('ద', 'U'), ('ర్థి', '|'), ('నిం', 'U'), ('చ', '|'), ('జ', '|'), ('య', 'U'), ('శ్రీ', 'U'), ('మ', '|'), ('హి', '|'), ('మా', 'U'), ('ప్తి', '|'), ('న', 'U'), ('య్యు', '|'), ('భ', '|'), ('య', '|'), ('తే', 'U'), ('జం', 'U'), ('బుల్', 'U'), ('ర', '|'), ('హిన్', 'U'), ('మి', 'U'), ('శ్ర', '|'), ('మై', 'U'), ('త్రి', '|'), ('జ', '|'), ('గం', 'U'), ('బుల్', 'U'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డ', '|'), ('బు', 'U'), ('ట్టి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దే', 'U'), ('నీ', 'U'), ('వి', '|'), ('లన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B5" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
         <is>
           <t>అనిమేషేభము తెల్లపండనుచు బాల్యక్రీడలన్‌ మ్రింగ నొ
 య్యన డాయం బవిచే బలారి నిను మూర్ఛాక్రాంతునిం జేయ బూ
@@ -576,32 +564,29 @@
 హనుమంతుండను పేరు నాడమరె నీకన్వర్థమై మారుతీ!</t>
         </is>
       </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ని', '|'), ('మే', 'U'), ('షే', 'U'), ('భ', '|'), ('ము', '|'), ('తె', 'U'), ('ల్ల', '|'), ('పం', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('బా', 'U'), ('ల్య', 'U'), ('క్రీ', 'U'), ('డ', '|'), ('లన్', 'U'), ('మ్రిం', 'U'), ('గ', '|'), ('నొ', 'U'), ('య్య', '|'), ('న', '|'), ('డా', 'U'), ('యం', 'U'), ('బ', '|'), ('వి', '|'), ('చే', 'U'), ('బ', '|'), ('లా', 'U'), ('రి', '|'), ('ని', '|'), ('ను', '|'), ('మూ', 'U'), ('ర్ఛా', 'U'), ('క్రాం', 'U'), ('తు', '|'), ('నిం', 'U'), ('జే', 'U'), ('య', '|'), ('బూ', 'U'), ('ర్వ', '|'), ('న', '|'), ('గా', 'U'), ('ధి', 'U'), ('త్య', '|'), ('క', '|'), ('మీ', 'U'), ('ద', '|'), ('వా', 'U'), ('మ', '|'), ('హ', '|'), ('ను', '|'), ('వున్', 'U'), ('భ', 'U'), ('గ్నం', 'U'), ('బు', '|'), ('గా', 'U'), ('వ్రా', 'U'), ('లి', '|'), ('నన్', 'U'), ('హ', '|'), ('ను', '|'), ('మం', 'U'), ('తుం', 'U'), ('డ', '|'), ('ను', '|'), ('పే', 'U'), ('రు', '|'), ('నా', 'U'), ('డ', '|'), ('మ', '|'), ('రె', '|'), ('నీ', 'U'), ('క', 'U'), ('న్వ', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B6" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
         <is>
           <t>అపుడా గంధవహుండు నీదయిన మూర్ఛావస్థ వీక్షించి, తా
 గుపితుండై నిజమూర్తి వైభవము సంకోచింపఁగాఁ జేయ న
@@ -609,32 +594,29 @@
 త్కృపతో నీకు వరంబులిచ్చిరిగదా బృందారకుల్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('పు', '|'), ('డా', 'U'), ('గం', 'U'), ('ధ', '|'), ('వ', '|'), ('హుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('ద', '|'), ('యి', '|'), ('న', '|'), ('మూ', 'U'), ('ర్ఛా', 'U'), ('వ', 'U'), ('స్థ', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('తా', 'U'), ('గు', '|'), ('పి', '|'), ('తుం', 'U'), ('డై', 'U'), ('ని', '|'), ('జ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('సం', 'U'), ('కో', 'U'), ('చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('జే', 'U'), ('య', '|'), ('న', 'U'), ('చ్చ', '|'), ('పు', '|'), ('గూ', 'U'), ('ర్మిన్', 'U'), ('ని', '|'), ('ఖి', '|'), ('లా', 'U'), ('స్త్ర', '|'), ('శ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('బం', 'U'), ('చ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('లే', 'U'), ('కుం', 'U'), ('డ', '|'), ('స', 'U'), ('త్కృ', '|'), ('ప', '|'), ('తో', 'U'), ('నీ', 'U'), ('కు', '|'), ('వ', '|'), ('రం', 'U'), ('బు', '|'), ('లి', 'U'), ('చ్చి', '|'), ('రి', '|'), ('గ', '|'), ('దా', 'U'), ('బృం', 'U'), ('దా', 'U'), ('ర', '|'), ('కుల్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B7" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
         <is>
           <t>ఒక పాదంబు మహోదయాచలముపై నొప్పారఁగా నుంచి వే
 ఱొక పాదం బపరాద్రి మీఁద నిడి యయ్యుష్ణాంశుచే బల్విడిన్‌
@@ -642,32 +624,29 @@
 పక దివ్యోరుతర ప్రభావము నుతింపన్‌ శక్యమే? మారుతీ!</t>
         </is>
       </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
           <t>[('ఒ', '|'), ('క', '|'), ('పా', 'U'), ('దం', 'U'), ('బు', '|'), ('మ', '|'), ('హో', 'U'), ('ద', '|'), ('యా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('పై', 'U'), ('నొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గా', 'U'), ('నుం', 'U'), ('చి', '|'), ('వే', 'U'), ('ఱొ', '|'), ('క', '|'), ('పా', 'U'), ('దం', 'U'), ('బ', '|'), ('ప', '|'), ('రా', 'U'), ('ద్రి', '|'), ('మీ', 'U'), ('ద', '|'), ('ని', '|'), ('డి', '|'), ('య', 'U'), ('య్యు', 'U'), ('ష్ణాం', 'U'), ('శు', '|'), ('చే', 'U'), ('బ', 'U'), ('ల్వి', '|'), ('డిన్', 'U'), ('స', '|'), ('క', '|'), ('లా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('భ్య', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('భ', '|'), ('వ', 'U'), ('చ్చా', 'U'), ('తు', 'U'), ('ర్య', '|'), ('మే', 'U'), ('మం', 'U'), ('దు', '|'), ('దా', 'U'), ('ప', '|'), ('క', '|'), ('ది', 'U'), ('వ్యో', 'U'), ('రు', '|'), ('త', '|'), ('ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('ను', '|'), ('తిం', 'U'), ('పన్', 'U'), ('శ', 'U'), ('క్య', '|'), ('మే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B8" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
         <is>
           <t>బలవంతుండగు వాలి ప్రోలు వెడలింపం, బత్నిఁ గోల్పోయి మి
 క్కిలి దుఃఖంబున ఘోరకాననములం గ్రీడించి వర్తించు నా
@@ -675,32 +654,29 @@
 బలభిత్సూతికిఁ జిక్కకుండ ననుకంపం బ్రోవవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('ల', '|'), ('వం', 'U'), ('తుం', 'U'), ('డ', '|'), ('గు', '|'), ('వా', 'U'), ('లి', 'U'), ('ప్రో', 'U'), ('లు', '|'), ('వె', '|'), ('డ', '|'), ('లిం', 'U'), ('పం', 'U'), ('బ', 'U'), ('త్ని', '|'), ('గో', 'U'), ('ల్పో', 'U'), ('యి', '|'), ('మి', 'U'), ('క్కి', '|'), ('లి', '|'), ('దుః', 'U'), ('ఖం', 'U'), ('బు', '|'), ('న', '|'), ('ఘో', 'U'), ('ర', '|'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('ము', '|'), ('లం', 'U'), ('గ్రీ', 'U'), ('డిం', 'U'), ('చి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('నా', 'U'), ('జ', '|'), ('ల', '|'), ('జా', 'U'), ('ప్తా', 'U'), ('త్మ', '|'), ('జు', '|'), ('నొ', 'U'), ('జ్జ', '|'), ('ప', 'U'), ('ట్టి', '|'), ('య', '|'), ('ని', '|'), ('య', 'U'), ('శ్రాం', 'U'), ('తం', 'U'), ('బు', '|'), ('జే', 'U'), ('ప', 'U'), ('ట్టి', '|'), ('యా', 'U'), ('బ', '|'), ('ల', '|'), ('భి', 'U'), ('త్సూ', 'U'), ('తి', '|'), ('కి', '|'), ('జి', 'U'), ('క్క', '|'), ('కుం', 'U'), ('డ', '|'), ('న', '|'), ('ను', '|'), ('కం', 'U'), ('పం', 'U'), ('బ్రో', 'U'), ('వ', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B9" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
         <is>
           <t>తనపత్నిం దిలకింపుచున్‌ నిబిడకాంతారోర్వి వర్తించు రా
 మ నరేంద్రోత్తము పాలి కర్కజుఁడు పంపం భిక్షువేషంబునన్‌
@@ -709,32 +685,29 @@
 వినయం బొప్ప ఘటింపఁ జేసినది నీవే కాదొకో మారుతీ!</t>
         </is>
       </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('న', '|'), ('ప', 'U'), ('త్నిం', 'U'), ('ది', '|'), ('ల', '|'), ('కిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('ని', '|'), ('బి', '|'), ('డ', '|'), ('కాం', 'U'), ('తా', 'U'), ('రో', 'U'), ('ర్వి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('రా', 'U'), ('మ', '|'), ('న', '|'), ('రేం', 'U'), ('ద్రో', 'U'), ('త్త', '|'), ('ము', '|'), ('పా', 'U'), ('లి', '|'), ('క', 'U'), ('ర్క', '|'), ('జు', '|'), ('డు', '|'), ('పం', 'U'), ('పం', 'U'), ('భి', 'U'), ('క్షు', '|'), ('వే', 'U'), ('షం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జ', '|'), ('ని', '|'), ('సు', 'U'), ('గ్రీ', 'U'), ('వు', '|'), ('ని', '|'), ('చం', 'U'), ('ద', '|'), ('ముం', 'U'), ('దె', '|'), ('లి', '|'), ('పి', '|'), ('యా', 'U'), ('క్ష్మా', 'U'), ('నా', 'U'), ('థు', '|'), ('దో', 'U'), ('డ్తె', 'U'), ('చ్చి', '|'), ('మె', 'U'), ('ల్ల', '|'), ('న', '|'), ('న', 'U'), ('య్యి', 'U'), ('ద్ద', '|'), ('ఱ', '|'), ('కుం', 'U'), ('ధ', '|'), ('నం', 'U'), ('జ', '|'), ('యు', '|'), ('ని', '|'), ('మ్రో', 'U'), ('లన్', 'U'), ('స', 'U'), ('ఖ్య', '|'), ('సం', 'U'), ('బం', 'U'), ('ధ', '|'), ('మున్', 'U'), ('వి', '|'), ('న', '|'), ('యం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('ఘ', '|'), ('టిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('ది', '|'), ('నీ', 'U'), ('వే', 'U'), ('కా', 'U'), ('దొ', '|'), ('కో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
         <is>
           <t>మనుజగ్రామణి సత్కృపాత్త కపిసామ్రాజ్య స్థితుండయ్యు భూ
 తనయాన్వేషణ కార్యమున్‌ మఱచి కందర్పక్రియామత్తుఁడై
@@ -742,32 +715,29 @@
 క్తిని బోధించిన నీతిశాలివి నినుం గీర్తించెదన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('ను', '|'), ('జ', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('ణి', '|'), ('స', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('త్త', '|'), ('క', '|'), ('పి', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', 'U'), ('స్థి', '|'), ('తుం', 'U'), ('డ', 'U'), ('య్యు', '|'), ('భూ', 'U'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('న్వే', 'U'), ('ష', '|'), ('ణ', '|'), ('కా', 'U'), ('ర్య', '|'), ('మున్', 'U'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('కం', 'U'), ('ద', 'U'), ('ర్ప', 'U'), ('క్రి', '|'), ('యా', 'U'), ('మ', 'U'), ('త్తు', '|'), ('డై', 'U'), ('త', '|'), ('ని', '|'), ('విం', 'U'), ('జెం', 'U'), ('ద', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('భా', 'U'), ('ను', '|'), ('జు', '|'), ('ని', '|'), ('ద', 'U'), ('త్కా', 'U'), ('లా', 'U'), ('ర్హ', '|'), ('నీ', 'U'), ('త్యు', 'U'), ('క్త', '|'), ('యు', 'U'), ('క్తి', '|'), ('ని', '|'), ('బో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('నీ', 'U'), ('తి', '|'), ('శా', 'U'), ('లి', '|'), ('వి', '|'), ('ని', '|'), ('నుం', 'U'), ('గీ', 'U'), ('ర్తిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B11" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
         <is>
           <t>లేరా కీశులనేకులుం? ద్రిజగముల్‌ వీక్షించి రా నేర్పరుల్‌
 గారా? రాముఁడు జానకిన్‌ వెదక వీఁకన్‌ గీశులం బంపుచో
@@ -775,32 +745,29 @@
 దా! రత్నాంగుళి భూషణం బిడియె నీ హస్తంబునన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
           <t>[('లే', 'U'), ('రా', 'U'), ('కీ', 'U'), ('శు', '|'), ('ల', '|'), ('నే', 'U'), ('కు', '|'), ('లుం', 'U'), ('ద్రి', '|'), ('జ', '|'), ('గ', '|'), ('ముల్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('రా', 'U'), ('నే', 'U'), ('ర్ప', '|'), ('రుల్', 'U'), ('గా', 'U'), ('రా', 'U'), ('రా', 'U'), ('ము', '|'), ('డు', '|'), ('జా', 'U'), ('న', '|'), ('కిన్', 'U'), ('వె', '|'), ('ద', '|'), ('క', '|'), ('వీ', 'U'), ('కన్', 'U'), ('గీ', 'U'), ('శు', '|'), ('లం', 'U'), ('బం', 'U'), ('పు', '|'), ('చో', 'U'), ('నా', 'U'), ('రూ', 'U'), ('ఢిన్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('ది', 'U'), ('వ్య', '|'), ('మ', '|'), ('హి', '|'), ('మ', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('సూ', 'U'), ('చి', '|'), ('కా', 'U'), ('దా', 'U'), ('ర', 'U'), ('త్నాం', 'U'), ('గు', '|'), ('ళి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బి', '|'), ('డి', '|'), ('యె', '|'), ('నీ', 'U'), ('హ', 'U'), ('స్తం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B12" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
         <is>
           <t>వనజాప్త ప్రియపుత్రుఁ డెంత ధిషణావంతుఁడొ, సర్వంసహా
 తనయాన్వేషణ మాచరింప గపులం దా బంపుచో, గార్యసా
@@ -808,32 +775,29 @@
 బునకున్‌ నిన్నధికారిఁ జేసి పనిచెన్‌ మోదంబునన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('న', '|'), ('జా', 'U'), ('ప్త', 'U'), ('ప్రి', '|'), ('య', '|'), ('పు', 'U'), ('త్రు', '|'), ('డెం', 'U'), ('త', '|'), ('ధి', '|'), ('ష', '|'), ('ణా', 'U'), ('వం', 'U'), ('తు', '|'), ('డొ', '|'), ('స', 'U'), ('ర్వం', 'U'), ('స', '|'), ('హా', 'U'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('న్వే', 'U'), ('ష', '|'), ('ణ', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('పు', '|'), ('లం', 'U'), ('దా', 'U'), ('బం', 'U'), ('పు', '|'), ('చో', 'U'), ('గా', 'U'), ('ర్య', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('మం', 'U'), ('దీ', 'U'), ('వ', '|'), ('తి', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణుం', 'U'), ('డ', '|'), ('వ', '|'), ('ని', '|'), ('కా', 'U'), ('దా', 'U'), ('నే', 'U'), ('ర్పు', '|'), ('తో', 'U'), ('ద', 'U'), ('క్షి', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('కున్', 'U'), ('ని', 'U'), ('న్న', '|'), ('ధి', '|'), ('కా', 'U'), ('రి', '|'), ('జే', 'U'), ('సి', '|'), ('ప', '|'), ('ని', '|'), ('చెన్', 'U'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B13" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
         <is>
           <t>సీతన్‌ గానక, దప్పిచే బడలి గాసిం జెందు శైలాట సం
 ఘాతంబుం గొని, శైలగహ్వర సుధా కల్పాంబువుల్‌, సత్ఫల
@@ -841,32 +805,29 @@
 ఖాతశ్వభ్రము వెల్వరించితివి యోగప్రౌఢిచే మారుతీ!</t>
         </is>
       </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
           <t>[('సీ', 'U'), ('తన్', 'U'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('ద', 'U'), ('ప్పి', '|'), ('చే', 'U'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('గా', 'U'), ('సిం', 'U'), ('జెం', 'U'), ('దు', '|'), ('శై', 'U'), ('లా', 'U'), ('ట', '|'), ('సం', 'U'), ('ఘా', 'U'), ('తం', 'U'), ('బుం', 'U'), ('గొ', '|'), ('ని', '|'), ('శై', 'U'), ('ల', '|'), ('గ', 'U'), ('హ్వ', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('క', 'U'), ('ల్పాం', 'U'), ('బు', '|'), ('వు', 'U'), ('ల్స', 'U'), ('త్ఫ', '|'), ('ల', 'U'), ('వ్రా', 'U'), ('తం', 'U'), ('బుం', 'U'), ('ద', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('నం', 'U'), ('ద', '|'), ('ఱ', '|'), ('భు', '|'), ('జిం', 'U'), ('పం', 'U'), ('జే', 'U'), ('సి', '|'), ('త', 'U'), ('ద్దే', 'U'), ('వ', '|'), ('తా', 'U'), ('ఖా', 'U'), ('త', 'U'), ('శ్వ', 'U'), ('భ్ర', '|'), ('ము', '|'), ('వె', 'U'), ('ల్వ', '|'), ('రిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('యో', 'U'), ('గ', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('చే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B14" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
         <is>
           <t>జనకక్ష్మాపతిపుత్రి యున్నవిధమున్‌ సర్వంబు సంపాతిచే
 విని, నీలాంగదముఖ్యవానరుల్‌ వేగంబె ప్రాయోపవె
@@ -874,32 +835,29 @@
 ద్ర నగారోహణ మాచరించి రఁట విన్నాణంబుగా మారుతీ!</t>
         </is>
       </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('క', 'U'), ('క్ష్మా', 'U'), ('ప', '|'), ('తి', '|'), ('పు', 'U'), ('త్రి', '|'), ('యు', 'U'), ('న్న', '|'), ('వి', '|'), ('ధ', '|'), ('మున్', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('సం', 'U'), ('పా', 'U'), ('తి', '|'), ('చే', 'U'), ('వి', '|'), ('ని', '|'), ('నీ', 'U'), ('లాం', 'U'), ('గ', '|'), ('ద', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('వా', 'U'), ('న', '|'), ('రుల్', 'U'), ('వే', 'U'), ('గం', 'U'), ('బె', 'U'), ('ప్రా', 'U'), ('యో', 'U'), ('ప', '|'), ('వె', '|'), ('శ', '|'), ('మున్', 'U'), ('మా', 'U'), ('ని', '|'), ('భ', '|'), ('వ', 'U'), ('త్స', '|'), ('మే', 'U'), ('తు', '|'), ('ల', '|'), ('గు', '|'), ('చున్', 'U'), ('సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('తో', 'U'), ('నా', 'U'), ('మ', '|'), ('హేం', 'U'), ('ద్ర', '|'), ('న', '|'), ('గా', 'U'), ('రో', 'U'), ('హ', '|'), ('ణ', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('ర', '|'), ('ట', '|'), ('వి', 'U'), ('న్నా', 'U'), ('ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B15" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
         <is>
           <t>శరధిం గాంచి యలంఘనీయ మని తత్సంతారణాదక్షులై
 వరుసన్‌ గీశులు భీతిచేఁ గళవళింపన్‌ వారి వారించి ని
@@ -907,32 +865,29 @@
 పరమేష్ఠి ప్రియపుత్రుఁ డంచితగతిన్‌ బ్రార్థింపఁడే మారుతీ!</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('ర', '|'), ('ధిం', 'U'), ('గాం', 'U'), ('చి', '|'), ('య', '|'), ('లం', 'U'), ('ఘ', '|'), ('నీ', 'U'), ('య', '|'), ('మ', '|'), ('ని', '|'), ('త', 'U'), ('త్సం', 'U'), ('తా', 'U'), ('ర', '|'), ('ణా', 'U'), ('ద', 'U'), ('క్షు', '|'), ('లై', 'U'), ('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('గీ', 'U'), ('శు', '|'), ('లు', '|'), ('భీ', 'U'), ('తి', '|'), ('చే', 'U'), ('గ', '|'), ('ళ', '|'), ('వ', '|'), ('ళిం', 'U'), ('పన్', 'U'), ('వా', 'U'), ('రి', '|'), ('వా', 'U'), ('రిం', 'U'), ('చి', '|'), ('ని', 'U'), ('న్ను', '|'), ('రు', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('వి', '|'), ('లం', 'U'), ('ఘ', '|'), ('న', 'U'), ('క్ష', '|'), ('ము', '|'), ('ని', '|'), ('గా', 'U'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('ధీ', 'U'), ('మం', 'U'), ('తు', '|'), ('డా', 'U'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('ష్ఠి', 'U'), ('ప్రి', '|'), ('య', '|'), ('పు', 'U'), ('త్రు', '|'), ('డం', 'U'), ('చి', '|'), ('త', '|'), ('గ', '|'), ('తిన్', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('డే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B16" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
         <is>
           <t>"ఏలా మీకు భయంబు నేఁ గలుగ, మీ రిందుండుఁ డేనొక్కఁడన్‌
 వాలాయంబు పయోధి దాటి యనువొందన్‌ లంకలో జానకిం
@@ -940,32 +895,29 @@
 ర్యాలాపంబులు వల్కి తేర్చితివి గాదా కీశులన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
           <t>[('ఏ', 'U'), ('లా', 'U'), ('మీ', 'U'), ('కు', '|'), ('భ', '|'), ('యం', 'U'), ('బు', '|'), ('నే', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('మీ', 'U'), ('రిం', 'U'), ('దుం', 'U'), ('డు', '|'), ('డే', 'U'), ('నొ', 'U'), ('క్క', '|'), ('డన్', 'U'), ('వా', 'U'), ('లా', 'U'), ('యం', 'U'), ('బు', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('దా', 'U'), ('టి', '|'), ('య', '|'), ('ను', '|'), ('వొం', 'U'), ('దన్', 'U'), ('లం', 'U'), ('క', '|'), ('లో', 'U'), ('జా', 'U'), ('న', '|'), ('కిం', 'U'), ('బో', 'U'), ('లం', 'U'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('వ', 'U'), ('త్తు', '|'), ('ని', 'U'), ('త్తు', '|'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('మీ', 'U'), ('కం', 'U'), ('చు', '|'), ('ధై', 'U'), ('ర్యా', 'U'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('లు', '|'), ('వ', 'U'), ('ల్కి', '|'), ('తే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దా', 'U'), ('కీ', 'U'), ('శు', '|'), ('లన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B17" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
         <is>
           <t>బలి బంధించిన నాఁటి వామన తనుప్రాబల్యముం దాల్చి, యు
 జ్జ్వల చంద్రోదయవేళఁ బొంగు తటినీశస్ఫూర్తి నుప్పొంగి, ఘో
@@ -973,32 +925,29 @@
 జ్జలధిం దాటఁగఁ బూనితీవు పరమోత్సాహమ్మునన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
           <t>[('బ', '|'), ('లి', '|'), ('బం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('వా', 'U'), ('మ', '|'), ('న', '|'), ('త', '|'), ('ను', 'U'), ('ప్రా', 'U'), ('బ', 'U'), ('ల్య', '|'), ('ముం', 'U'), ('దా', 'U'), ('ల్చి', '|'), ('యు', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('చం', 'U'), ('ద్రో', 'U'), ('ద', '|'), ('య', '|'), ('వే', 'U'), ('ళ', '|'), ('బొం', 'U'), ('గు', '|'), ('త', '|'), ('టి', '|'), ('నీ', 'U'), ('శ', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('ను', 'U'), ('ప్పొం', 'U'), ('గి', '|'), ('ఘో', 'U'), ('ర', '|'), ('ల', '|'), ('యా', 'U'), ('భ్రం', 'U'), ('బు', '|'), ('తె', '|'), ('ఱం', 'U'), ('గు', '|'), ('నన్', 'U'), ('భ', '|'), ('య', '|'), ('ద', '|'), ('గ', 'U'), ('ర్జా', 'U'), ('రా', 'U'), ('వ', '|'), ('ముం', 'U'), ('జే', 'U'), ('సి', '|'), ('త', 'U'), ('జ్జ', '|'), ('ల', '|'), ('ధిం', 'U'), ('దా', 'U'), ('ట', '|'), ('గ', '|'), ('బూ', 'U'), ('ని', '|'), ('తీ', 'U'), ('వు', '|'), ('ప', '|'), ('ర', '|'), ('మో', 'U'), ('త్సా', 'U'), ('హ', 'U'), ('మ్ము', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B18" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
         <is>
           <t>స్థిరసత్త్వంబున శైలరాజము ధరిత్రిం గ్రుంగఁ బాదంబులూ
 ది, రహిన్‌ భూరిభుజోరు వేగమున ధాత్రీజాతముల్‌ పెల్లగి
@@ -1006,32 +955,29 @@
 స్థిరశక్తిం జనుమాడ్కి దాటితివి గాదే నింగికిన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
           <t>[('స్థి', '|'), ('ర', '|'), ('స', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('న', '|'), ('శై', 'U'), ('ల', '|'), ('రా', 'U'), ('జ', '|'), ('ము', '|'), ('ధ', '|'), ('రి', 'U'), ('త్రిం', 'U'), ('గ్రుం', 'U'), ('గ', '|'), ('బా', 'U'), ('దం', 'U'), ('బు', '|'), ('లూ', 'U'), ('ది', '|'), ('ర', '|'), ('హిన్', 'U'), ('భూ', 'U'), ('రి', '|'), ('భు', '|'), ('జో', 'U'), ('రు', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('ధా', 'U'), ('త్రీ', 'U'), ('జా', 'U'), ('త', '|'), ('ముల్', 'U'), ('పె', 'U'), ('ల్ల', '|'), ('గి', 'U'), ('ల్లి', '|'), ('ర', '|'), ('యం', 'U'), ('బా', 'U'), ('ర', '|'), ('గ', '|'), ('దో', 'U'), ('డ', '|'), ('రా', 'U'), ('గ', '|'), ('గ', '|'), ('న', '|'), ('మున్', 'U'), ('లీ', 'U'), ('లా', 'U'), ('గ', '|'), ('తిన్', 'U'), ('మ్రిం', 'U'), ('గ', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('శ', 'U'), ('క్తిం', 'U'), ('జ', '|'), ('ను', '|'), ('మా', 'U'), ('డ్కి', '|'), ('దా', 'U'), ('టి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దే', 'U'), ('నిం', 'U'), ('గి', '|'), ('కిన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B19" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
         <is>
           <t>అగజాలావృతమూర్తివై భుజరయోద్యద్వారివాహంబు లొ
 ప్పుగ నిర్వంకల నంటి రా గదలి యంభోరాశిమధ్యంబునన్‌
@@ -1039,32 +985,29 @@
 క్ష గిరీంద్రంబును బోలె జూచిరికదా సంభ్రాంతులై మారుతీ!</t>
         </is>
       </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('గ', '|'), ('జా', 'U'), ('లా', 'U'), ('వృ', '|'), ('త', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('భు', '|'), ('జ', '|'), ('ర', '|'), ('యో', 'U'), ('ద్య', 'U'), ('ద్వా', 'U'), ('రి', '|'), ('వా', 'U'), ('హం', 'U'), ('బు', '|'), ('లొ', 'U'), ('ప్పు', '|'), ('గ', '|'), ('ని', 'U'), ('ర్వం', 'U'), ('క', '|'), ('ల', '|'), ('నం', 'U'), ('టి', '|'), ('రా', 'U'), ('గ', '|'), ('ద', '|'), ('లి', '|'), ('యం', 'U'), ('భో', 'U'), ('రా', 'U'), ('శి', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('గ', '|'), ('గ', '|'), ('నా', 'U'), ('ధ్వం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('గు', '|'), ('ని', 'U'), ('న్న', '|'), ('మి', '|'), ('షు', 'U'), ('ల్గం', 'U'), ('ధ', 'U'), ('ర్వు', '|'), ('లున్', 'U'), ('లం', 'U'), ('బ', '|'), ('ప', 'U'), ('క్ష', '|'), ('గి', '|'), ('రీం', 'U'), ('ద్రం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('లె', '|'), ('జూ', 'U'), ('చి', '|'), ('రి', '|'), ('క', '|'), ('దా', 'U'), ('సం', 'U'), ('భ్రాం', 'U'), ('తు', '|'), ('లై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B20" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
         <is>
           <t>లోకాలోకగుహాముఖంబులు బదుల్‌ మ్రోయంగ నుద్వృత్తి న
 స్తోకధ్వానమొనర్చి, వజ్రనిభ వక్షోఘట్టనస్ఫూర్తి మై
@@ -1072,32 +1015,29 @@
 త్యేకం బా బలవైరిచేత నభయంబిప్పింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
           <t>[('లో', 'U'), ('కా', 'U'), ('లో', 'U'), ('క', '|'), ('గు', '|'), ('హా', 'U'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('లు', '|'), ('బ', '|'), ('దుల్', 'U'), ('మ్రో', 'U'), ('యం', 'U'), ('గ', '|'), ('ను', 'U'), ('ద్వృ', 'U'), ('త్తి', '|'), ('న', 'U'), ('స్తో', 'U'), ('క', 'U'), ('ధ్వా', 'U'), ('న', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('వ', 'U'), ('జ్ర', '|'), ('ని', '|'), ('భ', '|'), ('వ', 'U'), ('క్షో', 'U'), ('ఘ', 'U'), ('ట్ట', '|'), ('న', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('మై', 'U'), ('నా', 'U'), ('కం', 'U'), ('బున్', 'U'), ('సు', '|'), ('డి', '|'), ('బె', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('ని', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('కే', 'U'), ('లూ', 'U'), ('ది', 'U'), ('ప్ర', 'U'), ('త్యే', 'U'), ('కం', 'U'), ('బా', 'U'), ('బ', '|'), ('ల', '|'), ('వై', 'U'), ('రి', '|'), ('చే', 'U'), ('త', '|'), ('న', '|'), ('భ', '|'), ('యం', 'U'), ('బి', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B21" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
         <is>
           <t>గరిమన్‌ వేల్పులు నీదు శక్తి దెలియం గాంక్షించి, నాగాంబయౌ
 సురసం బంపిన వ్యాపితాస్య యగుచుం జొప్పాగి పోనీక ముం
@@ -1105,32 +1045,29 @@
 మ్మర నేతెంచిన యోగసిద్ధుని నినుం బ్రార్థించెదన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('రి', '|'), ('మన్', 'U'), ('వే', 'U'), ('ల్పు', '|'), ('లు', '|'), ('నీ', 'U'), ('దు', '|'), ('శ', 'U'), ('క్తి', '|'), ('దె', '|'), ('లి', '|'), ('యం', 'U'), ('గాం', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('నా', 'U'), ('గాం', 'U'), ('బ', '|'), ('యౌ', 'U'), ('సు', '|'), ('ర', '|'), ('సం', 'U'), ('బం', 'U'), ('పి', '|'), ('న', 'U'), ('వ్యా', 'U'), ('పి', '|'), ('తా', 'U'), ('స్య', '|'), ('య', '|'), ('గు', '|'), ('చుం', 'U'), ('జొ', 'U'), ('ప్పా', 'U'), ('గి', '|'), ('పో', 'U'), ('నీ', 'U'), ('క', '|'), ('ముం', 'U'), ('ద', '|'), ('ఱ', '|'), ('దో', 'U'), ('తెం', 'U'), ('చి', '|'), ('న', '|'), ('సూ', 'U'), ('క్ష్మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('గు', '|'), ('చుం', 'U'), ('ద', 'U'), ('ద్వ', 'U'), ('క్త్ర', '|'), ('ముం', 'U'), ('జొ', 'U'), ('చ్చి', 'U'), ('గ్ర', 'U'), ('మ్మ', '|'), ('ర', '|'), ('నే', 'U'), ('తెం', 'U'), ('చి', '|'), ('న', '|'), ('యో', 'U'), ('గ', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('ని', '|'), ('ని', '|'), ('నుం', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B22" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
         <is>
           <t>పటుపాథోధి తరంగ పంక్తులు గణింపం బోవు చందాన ను
 త్కటవేగంబునఁ బోవు నిన్నుఁ గని వేడ్కన్‌ వీతసందేహులై
@@ -1138,32 +1075,29 @@
 క్కుట మౌఁగా కని నీకొసంగరె దివౌకుల్‌ దీవనల్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('టు', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('త', '|'), ('రం', 'U'), ('గ', '|'), ('పం', 'U'), ('క్తు', '|'), ('లు', '|'), ('గ', '|'), ('ణిం', 'U'), ('పం', 'U'), ('బో', 'U'), ('వు', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('ను', 'U'), ('త్క', '|'), ('ట', '|'), ('వే', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('బో', 'U'), ('వు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', '|'), ('ని', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('వీ', 'U'), ('త', '|'), ('సం', 'U'), ('దే', 'U'), ('హు', '|'), ('లై', 'U'), ('చ', '|'), ('టు', '|'), ('ల', 'U'), ('స్థై', 'U'), ('ర్య', '|'), ('బ', '|'), ('ల', 'U'), ('ద్యు', '|'), ('తి', 'U'), ('స్య', '|'), ('ద', '|'), ('మ', '|'), ('తుల్', 'U'), ('శౌ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('ధై', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('మి', 'U'), ('క్కు', '|'), ('ట', '|'), ('మౌ', 'U'), ('గా', 'U'), ('క', '|'), ('ని', '|'), ('నీ', 'U'), ('కొ', '|'), ('సం', 'U'), ('గ', '|'), ('రె', '|'), ('ది', '|'), ('వౌ', 'U'), ('కుల్', 'U'), ('దీ', 'U'), ('వ', '|'), ('నల్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B23" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
         <is>
           <t>పవనాభస్యద మొప్ప నీవు కడిమిం బథోనిధిం దాటుచో
 భవదీయోరు భుజోరువేగ జనితాభంగోర్మికాజాలముల్‌
@@ -1171,32 +1105,29 @@
 త్రవహేంద్రుండని భీతిలెన్‌ ఫణులు పాతాళంబునన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('వ', '|'), ('నా', 'U'), ('భ', 'U'), ('స్య', '|'), ('ద', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('నీ', 'U'), ('వు', '|'), ('క', '|'), ('డి', '|'), ('మిం', 'U'), ('బ', '|'), ('థో', 'U'), ('ని', '|'), ('ధిం', 'U'), ('దా', 'U'), ('టు', '|'), ('చో', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యో', 'U'), ('రు', '|'), ('భు', '|'), ('జో', 'U'), ('రు', '|'), ('వే', 'U'), ('గ', '|'), ('జ', '|'), ('ని', '|'), ('తా', 'U'), ('భం', 'U'), ('గో', 'U'), ('ర్మి', '|'), ('కా', 'U'), ('జా', 'U'), ('ల', '|'), ('ముల్', 'U'), ('ది', '|'), ('వి', '|'), ('తో', 'U'), ('రా', 'U'), ('య', '|'), ('ఘు', '|'), ('మం', 'U'), ('ఘు', '|'), ('మా', 'U'), ('ర్భ', '|'), ('టు', '|'), ('లు', '|'), ('ది', 'U'), ('గ్దే', 'U'), ('శం', 'U'), ('బు', '|'), ('లం', 'U'), ('బ', 'U'), ('ర్వ', '|'), ('బ', 'U'), ('త్ర', '|'), ('వ', '|'), ('హేం', 'U'), ('ద్రుం', 'U'), ('డ', '|'), ('ని', '|'), ('భీ', 'U'), ('తి', '|'), ('లెన్', 'U'), ('ఫ', '|'), ('ణు', '|'), ('లు', '|'), ('పా', 'U'), ('తా', 'U'), ('ళం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B24" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
         <is>
           <t>శరదశ్రేణుల దూరుచున్‌ వెడలుచుం జాబిల్లి చందానఁ బు
 ష్కర మార్గంబున నేగు నిన్నుఁ గని నీ చాతుర్యమున్‌ మెచ్చి ని
@@ -1204,32 +1135,29 @@
 ట్లరుదారన్‌ గననయ్యెఁ జుట్టును సముద్యత్తారకల్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('ర', '|'), ('ద', 'U'), ('శ్రే', 'U'), ('ణు', '|'), ('ల', '|'), ('దూ', 'U'), ('రు', '|'), ('చున్', 'U'), ('వె', '|'), ('డ', '|'), ('లు', '|'), ('చుం', 'U'), ('జా', 'U'), ('బి', 'U'), ('ల్లి', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('బు', 'U'), ('ష్క', '|'), ('ర', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('గు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', '|'), ('ని', '|'), ('నీ', 'U'), ('చా', 'U'), ('తు', 'U'), ('ర్య', '|'), ('మున్', 'U'), ('మె', 'U'), ('చ్చి', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రు', '|'), ('లా', 'U'), ('నం', 'U'), ('ద', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('జ', 'U'), ('ల్లి', '|'), ('న', '|'), ('మ', '|'), ('రు', 'U'), ('త్సం', 'U'), ('తా', 'U'), ('న', '|'), ('పు', 'U'), ('ష్పం', 'U'), ('బు', '|'), ('ల', 'U'), ('ట్ల', '|'), ('రు', '|'), ('దా', 'U'), ('రన్', 'U'), ('గ', '|'), ('న', '|'), ('న', 'U'), ('య్యె', '|'), ('జు', 'U'), ('ట్టు', '|'), ('ను', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('త్తా', 'U'), ('ర', '|'), ('కల్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
         <is>
           <t>ఛాయాగ్రాహిణి నామరాక్షసి సరస్వ న్మధ్యమందుండి నీ
 కాయచ్ఛాయను బట్టి వేఁ దిగువఁ దద్గర్భంబు భేదించి త
@@ -1237,32 +1165,29 @@
 పాయంబుం గలుగంగ వైచిన నినున్‌ వర్ణించెదన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
           <t>[('ఛా', 'U'), ('యా', 'U'), ('గ్రా', 'U'), ('హి', '|'), ('ణి', '|'), ('నా', 'U'), ('మ', '|'), ('రా', 'U'), ('క్ష', '|'), ('సి', '|'), ('స', '|'), ('ర', 'U'), ('స్వ', 'U'), ('న్మ', 'U'), ('ధ్య', '|'), ('మం', 'U'), ('దుం', 'U'), ('డి', '|'), ('నీ', 'U'), ('కా', 'U'), ('య', 'U'), ('చ్ఛా', 'U'), ('య', '|'), ('ను', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('ది', '|'), ('గు', '|'), ('వ', '|'), ('ద', 'U'), ('ద్గ', 'U'), ('ర్భం', 'U'), ('బు', '|'), ('భే', 'U'), ('దిం', 'U'), ('చి', '|'), ('త', 'U'), ('త్కా', 'U'), ('యం', 'U'), ('బుం', 'U'), ('గొ', '|'), ('ని', '|'), ('మిం', 'U'), ('టి', '|'), ('పై', 'U'), ('కె', '|'), ('గ', '|'), ('సి', '|'), ('కి', '|'), ('న్కన్', 'U'), ('వా', 'U'), ('ర్ధి', '|'), ('లో', 'U'), ('జీ', 'U'), ('వి', '|'), ('తా', 'U'), ('పా', 'U'), ('యం', 'U'), ('బుం', 'U'), ('గ', '|'), ('లు', '|'), ('గం', 'U'), ('గ', '|'), ('వై', 'U'), ('చి', '|'), ('న', '|'), ('ని', '|'), ('నున్', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B26" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
         <is>
           <t>మైనాకంబు నతిక్రమించి, సురసన్‌ మన్నించి, యా సింహికా
 ఖ్యానన్‌ రాక్షసిఁ గీడటంచి నడుమన్‌ గాలూద కస్తాద్రికిం
@@ -1270,32 +1195,29 @@
 గ్లానిం జెందక దాటితీవు సురసంఘంబెన్నఁగా మారుతీ!</t>
         </is>
       </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
           <t>[('మై', 'U'), ('నా', 'U'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('తి', 'U'), ('క్ర', '|'), ('మిం', 'U'), ('చి', '|'), ('సు', '|'), ('ర', '|'), ('సన్', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('యా', 'U'), ('సిం', 'U'), ('హి', '|'), ('కా', 'U'), ('ఖ్యా', 'U'), ('నన్', 'U'), ('రా', 'U'), ('క్ష', '|'), ('సి', '|'), ('గీ', 'U'), ('డ', '|'), ('టం', 'U'), ('చి', '|'), ('న', '|'), ('డు', '|'), ('మన్', 'U'), ('గా', 'U'), ('లూ', 'U'), ('ద', '|'), ('క', 'U'), ('స్తా', 'U'), ('ద్రి', '|'), ('కిం', 'U'), ('భా', 'U'), ('నుం', 'U'), ('డే', 'U'), ('గ', '|'), ('క', '|'), ('ము', 'U'), ('న్నె', '|'), ('మా', 'U'), ('రు', '|'), ('త', '|'), ('గ', '|'), ('తిన్', 'U'), ('వా', 'U'), ('రా', 'U'), ('శి', '|'), ('నూ', 'U'), ('ఱా', 'U'), ('మ', '|'), ('డన్', 'U'), ('గ్లా', 'U'), ('నిం', 'U'), ('జెం', 'U'), ('ద', '|'), ('క', '|'), ('దా', 'U'), ('టి', '|'), ('తీ', 'U'), ('వు', '|'), ('సు', '|'), ('ర', '|'), ('సం', 'U'), ('ఘం', 'U'), ('బె', 'U'), ('న్న', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B27" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
         <is>
           <t>అనఘా! భాస్కరుఁడొక్క మాఱుదయశైలాగ్రంబునందుండి య
 స్తనగాగ్రంబున కేగునంతకు సముద్యచ్ఛక్తి వేమాఱు బె
@@ -1303,32 +1225,29 @@
 య్యన నూఱామడ దాటుటేమి విషయం బస్తోకమే మారుతీ!</t>
         </is>
       </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('న', '|'), ('ఘా', 'U'), ('భా', 'U'), ('స్క', '|'), ('రు', '|'), ('డొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('ఱు', '|'), ('ద', '|'), ('య', '|'), ('శై', 'U'), ('లా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('నం', 'U'), ('దుం', 'U'), ('డి', '|'), ('య', 'U'), ('స్త', '|'), ('న', '|'), ('గా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('న', '|'), ('కే', 'U'), ('గు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('చ్ఛ', 'U'), ('క్తి', '|'), ('వే', 'U'), ('మా', 'U'), ('ఱు', '|'), ('బె', 'U'), ('ల్చ', '|'), ('న', '|'), ('న', 'U'), ('క్కొం', 'U'), ('డ', '|'), ('ల', '|'), ('రెం', 'U'), ('డు', '|'), ('నుం', 'U'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('తే', 'U'), ('జ', 'U'), ('శ్శా', 'U'), ('లి', '|'), ('కిన్', 'U'), ('నీ', 'U'), ('కు', '|'), ('చ', 'U'), ('య్య', '|'), ('న', '|'), ('నూ', 'U'), ('ఱా', 'U'), ('మ', '|'), ('డ', '|'), ('దా', 'U'), ('టు', '|'), ('టే', 'U'), ('మి', '|'), ('వి', '|'), ('ష', '|'), ('యం', 'U'), ('బ', 'U'), ('స్తో', 'U'), ('క', '|'), ('మే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B28" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
         <is>
           <t>తతవేగంబున వార్థి దాటి గడిమిం దద్యామ్యతీరస్థ ప
 ర్వతముం జేరి నగోపమాన నిజగాత్రవ్యాప్తి జాలించి, ని
@@ -1336,32 +1255,29 @@
 స్థితసర్వంబును బోల జూచితివి గాదే దవ్వులన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('త', '|'), ('వే', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('వా', 'U'), ('ర్థి', '|'), ('దా', 'U'), ('టి', '|'), ('గ', '|'), ('డి', '|'), ('మిం', 'U'), ('ద', 'U'), ('ద్యా', 'U'), ('మ్య', '|'), ('తీ', 'U'), ('ర', 'U'), ('స్థ', '|'), ('ప', 'U'), ('ర్వ', '|'), ('త', '|'), ('ముం', 'U'), ('జే', 'U'), ('రి', '|'), ('న', '|'), ('గో', 'U'), ('ప', '|'), ('మా', 'U'), ('న', '|'), ('ని', '|'), ('జ', '|'), ('గా', 'U'), ('త్ర', 'U'), ('వ్యా', 'U'), ('ప్తి', '|'), ('జా', 'U'), ('లిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ర్గ', '|'), ('త', '|'), ('మో', 'U'), ('హుం', 'U'), ('డ', '|'), ('గు', '|'), ('యో', 'U'), ('గి', '|'), ('భం', 'U'), ('గి', 'U'), ('బ్ర', '|'), ('కృ', '|'), ('తిం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చి', '|'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రీ', 'U'), ('స్థి', '|'), ('త', '|'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దే', 'U'), ('ద', 'U'), ('వ్వు', '|'), ('లన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B29" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
         <is>
           <t>పంకేజాసను శాసనంబున జయింపన్‌ రాక యశ్రాంతమున్‌
 లంకాద్వారముఁ గాచియున్న కుపితన్‌ లంకన్‌ జయాంకన్‌ నిరా
@@ -1369,32 +1285,29 @@
 రాంకగ్రామణివై వెలింగెడు నినున్‌ బ్రార్థించెదన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
           <t>[('పం', 'U'), ('కే', 'U'), ('జా', 'U'), ('స', '|'), ('ను', '|'), ('శా', 'U'), ('స', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('జ', '|'), ('యిం', 'U'), ('పన్', 'U'), ('రా', 'U'), ('క', '|'), ('య', 'U'), ('శ్రాం', 'U'), ('త', '|'), ('మున్', 'U'), ('లం', 'U'), ('కా', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('చి', '|'), ('యు', 'U'), ('న్న', '|'), ('కు', '|'), ('పి', '|'), ('తన్', 'U'), ('లం', 'U'), ('కన్', 'U'), ('జ', '|'), ('యాం', 'U'), ('కన్', 'U'), ('ని', '|'), ('రా', 'U'), ('తం', 'U'), ('క', 'U'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('న', '|'), ('శం', 'U'), ('క', '|'), ('ము', 'U'), ('ష్టి', '|'), ('హ', '|'), ('తి', '|'), ('చే', 'U'), ('తం', 'U'), ('దూ', 'U'), ('ల', '|'), ('గా', 'U'), ('బు', 'U'), ('చ్చి', '|'), ('వీ', 'U'), ('రాం', 'U'), ('క', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('ణి', '|'), ('వై', 'U'), ('వె', '|'), ('లిం', 'U'), ('గె', '|'), ('డు', '|'), ('ని', '|'), ('నున్', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B30" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
         <is>
           <t>ప్రాచుర్యంబుగ చందురుండు కిరణవ్రాతంబు పైఁ జల్లుచున్‌
 సాచివ్యం బొనరింప యోగమహిమన్‌ మార్జాలమాత్రుండవై
@@ -1402,32 +1315,29 @@
 వైచిత్రిన్‌ వెస లంక డాసిన నినున్‌ వర్ణించెదన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
           <t>[('ప్రా', 'U'), ('చు', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('గ', '|'), ('చం', 'U'), ('దు', '|'), ('రుం', 'U'), ('డు', '|'), ('కి', '|'), ('ర', '|'), ('ణ', 'U'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('పై', 'U'), ('జ', 'U'), ('ల్లు', '|'), ('చున్', 'U'), ('సా', 'U'), ('చి', 'U'), ('వ్యం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('యో', 'U'), ('గ', '|'), ('మ', '|'), ('హి', '|'), ('మన్', 'U'), ('మా', 'U'), ('ర్జా', 'U'), ('ల', '|'), ('మా', 'U'), ('త్రుం', 'U'), ('డ', '|'), ('వై', 'U'), ('నీ', 'U'), ('చుల్', 'U'), ('దై', 'U'), ('త్యు', '|'), ('లు', '|'), ('చూ', 'U'), ('డ', '|'), ('కుం', 'U'), ('డ', '|'), ('స', '|'), ('తి', '|'), ('న', 'U'), ('న్వే', 'U'), ('షిం', 'U'), ('ప', '|'), ('గా', 'U'), ('శే', 'U'), ('ము', '|'), ('షీ', 'U'), ('వై', 'U'), ('చి', '|'), ('త్రిన్', 'U'), ('వె', '|'), ('స', '|'), ('లం', 'U'), ('క', '|'), ('డా', 'U'), ('సి', '|'), ('న', '|'), ('ని', '|'), ('నున్', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B31" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
         <is>
           <t>లంకానామనిశాటి నాకరణిఁ దూలం బుచ్చి యాప్రోలిఁకన్‌
 గంకోలూక వశంబు గాగలదు నిక్కంబంచు వామాంఘ్రి ని
@@ -1435,32 +1345,29 @@
 లంకాకాననవహ్నివై చనవె ధీరత్వంబునన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
           <t>[('లం', 'U'), ('కా', 'U'), ('నా', 'U'), ('మ', '|'), ('ని', '|'), ('శా', 'U'), ('టి', '|'), ('నా', 'U'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('దూ', 'U'), ('లం', 'U'), ('బు', 'U'), ('చ్చి', '|'), ('యా', 'U'), ('ప్రో', 'U'), ('లి', '|'), ('కన్', 'U'), ('గం', 'U'), ('కో', 'U'), ('లూ', 'U'), ('క', '|'), ('వ', '|'), ('శం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('దు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బం', 'U'), ('చు', '|'), ('వా', 'U'), ('మాం', 'U'), ('ఘ్రి', '|'), ('ని', 'U'), ('శ్శం', 'U'), ('కన్', 'U'), ('ముం', 'U'), ('దు', '|'), ('గ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('చున్', 'U'), ('సు', '|'), ('ర', '|'), ('భి', '|'), ('ళాం', 'U'), ('చ', '|'), ('ద్రా', 'U'), ('జ', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('నన్', 'U'), ('లం', 'U'), ('కా', 'U'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('వ', 'U'), ('హ్ని', '|'), ('వై', 'U'), ('చ', '|'), ('న', '|'), ('వె', '|'), ('ధీ', 'U'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B32" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
         <is>
           <t>నానావికారరూపులను నానావేషులన్‌ దైత్యులన్‌
 నానాఘోరశరీరులం గనుచు నానాగుల్మముల్‌ చూచుచున్‌
@@ -1468,32 +1375,29 @@
 ర్వీనాథ ప్రియపత్ని భూమిసుత నన్వేషింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
           <t>[('నా', 'U'), ('నా', 'U'), ('వి', '|'), ('కా', 'U'), ('ర', '|'), ('రూ', 'U'), ('పు', '|'), ('ల', '|'), ('ను', '|'), ('నా', 'U'), ('నా', 'U'), ('వే', 'U'), ('షు', '|'), ('లన్', 'U'), ('దై', 'U'), ('త్యు', '|'), ('లన్', 'U'), ('నా', 'U'), ('నా', 'U'), ('ఘో', 'U'), ('ర', '|'), ('శ', '|'), ('రీ', 'U'), ('రు', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('చు', '|'), ('నా', 'U'), ('నా', 'U'), ('గు', 'U'), ('ల్మ', '|'), ('ముల్', 'U'), ('చూ', 'U'), ('చు', '|'), ('చున్', 'U'), ('నా', 'U'), ('నా', 'U'), ('వా', 'U'), ('ద్య', '|'), ('ర', '|'), ('వం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వి', '|'), ('ను', '|'), ('చు', '|'), ('వి', 'U'), ('న్నా', 'U'), ('ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వో', 'U'), ('ర్వీ', 'U'), ('నా', 'U'), ('థ', 'U'), ('ప్రి', '|'), ('య', '|'), ('ప', 'U'), ('త్ని', '|'), ('భూ', 'U'), ('మి', '|'), ('సు', '|'), ('త', '|'), ('న', 'U'), ('న్వే', 'U'), ('షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B33" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
         <is>
           <t>సాహంకారత దానవుల్‌ సలుపు వీరాలాపముల్‌ గాంత లు
 త్సాహంబొప్పఁగఁ జేయు గానములు మంత్రజ్ఞాసురప్రేరిత
@@ -1501,32 +1405,29 @@
 బాహా! చిత్రమటంచు మెచ్చుకొనవే స్వాంతంబునన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
           <t>[('సా', 'U'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('త', '|'), ('దా', 'U'), ('న', '|'), ('వుల్', 'U'), ('స', '|'), ('లు', '|'), ('పు', '|'), ('వీ', 'U'), ('రా', 'U'), ('లా', 'U'), ('ప', '|'), ('ముల్', 'U'), ('గాం', 'U'), ('త', '|'), ('లు', 'U'), ('త్సా', 'U'), ('హం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('గా', 'U'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('త్ర', 'U'), ('జ్ఞా', 'U'), ('సు', '|'), ('ర', 'U'), ('ప్రే', 'U'), ('రి', '|'), ('త', 'U'), ('స్వా', 'U'), ('హా', 'U'), ('నా', 'U'), ('ద', '|'), ('ము', '|'), ('లా', 'U'), ('ల', '|'), ('కిం', 'U'), ('పు', '|'), ('చు', '|'), ('న', '|'), ('వా', 'U'), ('చ్యం', 'U'), ('బీ', 'U'), ('పు', '|'), ('రీ', 'U'), ('వై', 'U'), ('భ', '|'), ('వం', 'U'), ('బా', 'U'), ('హా', 'U'), ('చి', 'U'), ('త్ర', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('మె', 'U'), ('చ్చు', '|'), ('కొ', '|'), ('న', '|'), ('వే', 'U'), ('స్వాం', 'U'), ('తం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B34" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
         <is>
           <t>వరుసన్‌ గ్రంతులు రచ్చచావడులు భాస్వచ్చైత్యముల్‌ భూరిగో
 పురముల్‌ మేడలు పుణ్యవీధులగముల్‌ భూమీగృహశ్రేణులున్‌
@@ -1534,32 +1435,29 @@
 సురవిద్వేషుల చారుమందిరములన్‌ శోధింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('గ్రం', 'U'), ('తు', '|'), ('లు', '|'), ('ర', 'U'), ('చ్చ', '|'), ('చా', 'U'), ('వ', '|'), ('డు', '|'), ('లు', '|'), ('భా', 'U'), ('స్వ', 'U'), ('చ్చై', 'U'), ('త్య', '|'), ('ముల్', 'U'), ('భూ', 'U'), ('రి', '|'), ('గో', 'U'), ('పు', '|'), ('ర', '|'), ('ముల్', 'U'), ('మే', 'U'), ('డ', '|'), ('లు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('వీ', 'U'), ('ధు', '|'), ('ల', '|'), ('గ', '|'), ('ముల్', 'U'), ('భూ', 'U'), ('మీ', 'U'), ('గృ', '|'), ('హ', 'U'), ('శ్రే', 'U'), ('ణు', '|'), ('లున్', 'U'), ('హ', '|'), ('రి', '|'), ('జి', 'U'), ('త్కుం', 'U'), ('భ', '|'), ('ని', '|'), ('కుం', 'U'), ('భు', '|'), ('లు', 'U'), ('న్శు', '|'), ('కు', '|'), ('డు', '|'), ('యూ', 'U'), ('పా', 'U'), ('క్షా', 'U'), ('సు', '|'), ('రుం', 'U'), ('డా', 'U'), ('ది', '|'), ('యౌ', 'U'), ('సు', '|'), ('ర', '|'), ('వి', 'U'), ('ద్వే', 'U'), ('షు', '|'), ('ల', '|'), ('చా', 'U'), ('రు', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('లన్', 'U'), ('శో', 'U'), ('ధిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B35" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
         <is>
           <t>చలమొప్పన్‌ దశకంఠరాక్షస నివేశంబు బ్రవేశించి యం
 దు లతామందిరముల్‌ దివాగృహకముల్‌ తోరంపుక్రీడాగృహం
@@ -1567,32 +1465,29 @@
 బులు వీక్షింపుచు నంతటన్‌ వెదకవే భూపుత్రికన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('ల', '|'), ('మొ', '|'), ('ప్పన్', 'U'), ('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠ', '|'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('ని', '|'), ('వే', 'U'), ('శం', 'U'), ('బు', 'U'), ('బ్ర', '|'), ('వే', 'U'), ('శిం', 'U'), ('చి', '|'), ('యం', 'U'), ('దు', '|'), ('ల', '|'), ('తా', 'U'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ముల్', 'U'), ('ది', '|'), ('వా', 'U'), ('గృ', '|'), ('హ', '|'), ('క', '|'), ('ముల్', 'U'), ('తో', 'U'), ('రం', 'U'), ('పు', 'U'), ('క్రీ', 'U'), ('డా', 'U'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('లు', '|'), ('చి', 'U'), ('త్రా', 'U'), ('వ', '|'), ('స', '|'), ('దం', 'U'), ('బు', '|'), ('లున్', 'U'), ('మ', '|'), ('ణి', '|'), ('గృ', '|'), ('హం', 'U'), ('బుల్', 'U'), ('చా', 'U'), ('రు', '|'), ('శ', 'U'), ('య్యా', 'U'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('లు', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('టన్', 'U'), ('వె', '|'), ('ద', '|'), ('క', '|'), ('వే', 'U'), ('భూ', 'U'), ('పు', 'U'), ('త్రి', '|'), ('కన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B36" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
         <is>
           <t>నలువొప్పం గమనీయ పుష్పకవిమానంబుం దగం జూచి యు
 జ్జ్వల నానావిధధూపవాసనలు దివ్యస్రక్సుగంధంబు లిం
@@ -1601,32 +1496,29 @@
 ద్విలసద్దివ్యగృహంబు జేరితివి కాదే మెల్లనన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('లు', '|'), ('వొ', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('మ', '|'), ('నీ', 'U'), ('య', '|'), ('పు', 'U'), ('ష్ప', '|'), ('క', '|'), ('వి', '|'), ('మా', 'U'), ('నం', 'U'), ('బుం', 'U'), ('ద', '|'), ('గం', 'U'), ('జూ', 'U'), ('చి', '|'), ('యు', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('నా', 'U'), ('నా', 'U'), ('వి', '|'), ('ధ', '|'), ('ధూ', 'U'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('న', '|'), ('లు', '|'), ('ది', 'U'), ('వ్య', 'U'), ('స్ర', 'U'), ('క్సు', '|'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('లిం', 'U'), ('ప', '|'), ('ల', '|'), ('రా', 'U'), ('రం', 'U'), ('బ్రి', '|'), ('య', '|'), ('బం', 'U'), ('ధు', '|'), ('నిం', 'U'), ('బ', '|'), ('లె', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('త్ప్రీ', 'U'), ('తి', '|'), ('ర', 'U'), ('మ్మం', 'U'), ('చు', '|'), ('నిం', 'U'), ('జె', '|'), ('లి', '|'), ('మిం', 'U'), ('బి', 'U'), ('ల్వ', '|'), ('గ', '|'), ('నే', 'U'), ('గు', '|'), ('దెం', 'U'), ('చి', '|'), ('న', 'U'), ('క్రి', '|'), ('యన్', 'U'), ('జెం', 'U'), ('తం', 'U'), ('గు', '|'), ('బా', 'U'), ('ళిం', 'U'), ('ప', '|'), ('ద', 'U'), ('ద్వి', '|'), ('ల', '|'), ('స', 'U'), ('ద్ది', 'U'), ('వ్య', '|'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('జే', 'U'), ('రి', '|'), ('తి', '|'), ('వి', '|'), ('కా', 'U'), ('దే', 'U'), ('మె', 'U'), ('ల్ల', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B37" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
         <is>
           <t>అమరారాతికిఁ బ్రీతిగా వివిధవాద్యధ్వానముల్‌ చేసి పా
 నమదావేశము చేత మైమఱచి నానాచేలభూషాఢ్యలై
@@ -1635,32 +1527,29 @@
 విమలప్రజ్ఞున కేల శంక? యని యన్వేషింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రా', 'U'), ('రా', 'U'), ('తి', '|'), ('కి', 'U'), ('బ్రీ', 'U'), ('తి', '|'), ('గా', 'U'), ('వి', '|'), ('వి', '|'), ('ధ', '|'), ('వా', 'U'), ('ద్య', 'U'), ('ధ్వా', 'U'), ('న', '|'), ('ముల్', 'U'), ('చే', 'U'), ('సి', '|'), ('పా', 'U'), ('న', '|'), ('మ', '|'), ('దా', 'U'), ('వే', 'U'), ('శ', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('మై', 'U'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('నా', 'U'), ('నా', 'U'), ('చే', 'U'), ('ల', '|'), ('భూ', 'U'), ('షా', 'U'), ('ఢ్య', '|'), ('లై', 'U'), ('క్ర', '|'), ('మ', '|'), ('తన్', 'U'), ('జా', 'U'), ('ల్గొ', '|'), ('ని', '|'), ('సు', 'U'), ('ప్త', '|'), ('వా', 'U'), ('హి', '|'), ('ను', '|'), ('ల', '|'), ('లీ', 'U'), ('లం', 'U'), ('గూ', 'U'), ('ర్కు', '|'), ('కాం', 'U'), ('తా', 'U'), ('ని', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('న్గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('ధ', '|'), ('ర్మ', '|'), ('లో', 'U'), ('ప', '|'), ('భ', '|'), ('య', '|'), ('ముం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('వా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('వి', '|'), ('మ', '|'), ('ల', 'U'), ('ప్ర', 'U'), ('జ్ఞు', '|'), ('న', '|'), ('కే', 'U'), ('ల', '|'), ('శం', 'U'), ('క', '|'), ('య', '|'), ('ని', '|'), ('య', 'U'), ('న్వే', 'U'), ('షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B38" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
         <is>
           <t>కమనీయోన్నత పుష్పతల్పము పయిం గన్మూసి గుర్వెట్టు పం
 క్తిముఖున్‌ నీలఘనాభదేహు గని తత్తేజంబునన్‌ రత్న దీ
@@ -1668,32 +1557,29 @@
 సముదంచద్గతి నచ్చటన్‌ వెదకవే క్ష్మాపుత్రికన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('నీ', 'U'), ('యో', 'U'), ('న్న', '|'), ('త', '|'), ('పు', 'U'), ('ష్ప', '|'), ('త', 'U'), ('ల్ప', '|'), ('ము', '|'), ('ప', '|'), ('యిం', 'U'), ('గ', 'U'), ('న్మూ', 'U'), ('సి', '|'), ('గు', 'U'), ('ర్వె', 'U'), ('ట్టు', '|'), ('పం', 'U'), ('క్తి', '|'), ('ము', '|'), ('ఖున్', 'U'), ('నీ', 'U'), ('ల', '|'), ('ఘ', '|'), ('నా', 'U'), ('భ', '|'), ('దే', 'U'), ('హు', '|'), ('గ', '|'), ('ని', '|'), ('త', 'U'), ('త్తే', 'U'), ('జం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ర', 'U'), ('త్న', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లం', 'U'), ('ద', 'U'), ('ద్గృ', '|'), ('హ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('వె', 'U'), ('ల్గు', '|'), ('చు', '|'), ('ని', '|'), ('కిన్', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మె', 'U'), ('చ్చు', '|'), ('చున్', 'U'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చ', 'U'), ('ద్గ', '|'), ('తి', '|'), ('న', 'U'), ('చ్చ', '|'), ('టన్', 'U'), ('వె', '|'), ('ద', '|'), ('క', '|'), ('వే', 'U'), ('క్ష్మా', 'U'), ('పు', 'U'), ('త్రి', '|'), ('కన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B39" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
         <is>
           <t>సరసాన్నంబులు పక్వమాంసచయముల్‌ సౌరభ్య సంవాసిత
 స్ఫురదుచ్చావచ మద్యపూరితఘటంబుల్‌, మాల్యముల్‌ నిద్రితా
@@ -1701,32 +1587,29 @@
 సురకాంతాసదృశన్‌ విదేహతనయన్‌ శోధింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('సా', 'U'), ('న్నం', 'U'), ('బు', '|'), ('లు', '|'), ('ప', 'U'), ('క్వ', '|'), ('మాం', 'U'), ('స', '|'), ('చ', '|'), ('య', '|'), ('ముల్', 'U'), ('సౌ', 'U'), ('ర', 'U'), ('భ్య', '|'), ('సం', 'U'), ('వా', 'U'), ('సి', '|'), ('త', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('దు', 'U'), ('చ్చా', 'U'), ('వ', '|'), ('చ', '|'), ('మ', 'U'), ('ద్య', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('ఘ', '|'), ('టం', 'U'), ('బు', 'U'), ('ల్మా', 'U'), ('ల్య', '|'), ('ముల్', 'U'), ('ని', '|'), ('ద్రి', '|'), ('తా', 'U'), ('సు', '|'), ('ర', '|'), ('కాం', 'U'), ('తల్', 'U'), ('గ', '|'), ('ల', '|'), ('పా', 'U'), ('న', '|'), ('శా', 'U'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('య', 'U'), ('చ్చో', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వ', 'U'), ('ప్రే', 'U'), ('య', '|'), ('సిన్', 'U'), ('సు', '|'), ('ర', '|'), ('కాం', 'U'), ('తా', 'U'), ('స', '|'), ('దృ', '|'), ('శన్', 'U'), ('వి', '|'), ('దే', 'U'), ('హ', '|'), ('త', '|'), ('న', '|'), ('యన్', 'U'), ('శో', 'U'), ('ధిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B40" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
         <is>
           <t>అరవిందోత్పల కైరవోదరమరందాస్వాదనోన్మత్తబం
 భరమాలా పరిషన్మనోజ్ఞ మధురధ్వానాభిరంజత్‌ సరొ
@@ -1734,32 +1617,29 @@
 త్కరమూలంబుల నేర్పునన్‌ వెదకవే ధాత్రీసుతన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ర', '|'), ('విం', 'U'), ('దో', 'U'), ('త్ప', '|'), ('ల', '|'), ('కై', 'U'), ('ర', '|'), ('వో', 'U'), ('ద', '|'), ('ర', '|'), ('మ', '|'), ('రం', 'U'), ('దా', 'U'), ('స్వా', 'U'), ('ద', '|'), ('నో', 'U'), ('న్మ', 'U'), ('త్త', '|'), ('బం', 'U'), ('భ', '|'), ('ర', '|'), ('మా', 'U'), ('లా', 'U'), ('ప', '|'), ('రి', '|'), ('ష', 'U'), ('న్మ', '|'), ('నో', 'U'), ('జ్ఞ', '|'), ('మ', '|'), ('ధు', '|'), ('ర', 'U'), ('ధ్వా', 'U'), ('నా', 'U'), ('భి', '|'), ('రం', 'U'), ('జత్', 'U'), ('స', '|'), ('రొ', '|'), ('వ', '|'), ('ర', '|'), ('తీ', 'U'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('బు', 'U'), ('ష్ప', '|'), ('ప', 'U'), ('ల్ల', '|'), ('వ', '|'), ('ఫ', '|'), ('ల', 'U'), ('వ్రా', 'U'), ('తా', 'U'), ('గ్ర', '|'), ('ధా', 'U'), ('త్రీ', 'U'), ('రు', '|'), ('హో', 'U'), ('త్క', '|'), ('ర', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('నే', 'U'), ('ర్పు', '|'), ('నన్', 'U'), ('వె', '|'), ('ద', '|'), ('క', '|'), ('వే', 'U'), ('ధా', 'U'), ('త్రీ', 'U'), ('సు', '|'), ('తన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B41" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
         <is>
           <t>ఈలీలన్‌ దశకంఠుపట్టణములో నేపారఁగాఁ బెక్కు చం
 దాలమ్‌ గేలలిడునంత భూమితల మైనం దప్పకుండంగ నీ
@@ -1767,32 +1647,29 @@
 పాలోచింపవే స్వామికార్యఘటనావ్యాపారమునన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
           <t>[('ఈ', 'U'), ('లీ', 'U'), ('లన్', 'U'), ('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠు', '|'), ('ప', 'U'), ('ట్ట', '|'), ('ణ', '|'), ('ము', '|'), ('లో', 'U'), ('నే', 'U'), ('పా', 'U'), ('ర', '|'), ('గా', 'U'), ('బె', 'U'), ('క్కు', '|'), ('చం', 'U'), ('దా', 'U'), ('లమ్', 'U'), ('గే', 'U'), ('ల', '|'), ('లి', '|'), ('డు', '|'), ('నం', 'U'), ('త', '|'), ('భూ', 'U'), ('మి', '|'), ('త', '|'), ('ల', '|'), ('మై', 'U'), ('నం', 'U'), ('ద', 'U'), ('ప్ప', '|'), ('కుం', 'U'), ('డం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వా', 'U'), ('లో', 'U'), ('కిం', 'U'), ('చి', '|'), ('మ', '|'), ('హీ', 'U'), ('జ', '|'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('ని', '|'), ('జ', 'U'), ('స్వాం', 'U'), ('తం', 'U'), ('బు', '|'), ('లో', 'U'), ('గొం', 'U'), ('త', '|'), ('సే', 'U'), ('పా', 'U'), ('లో', 'U'), ('చిం', 'U'), ('ప', '|'), ('వే', 'U'), ('స్వా', 'U'), ('మి', '|'), ('కా', 'U'), ('ర్య', '|'), ('ఘ', '|'), ('ట', '|'), ('నా', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B42" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
         <is>
           <t>కంటిం జారణ సిద్ధ కిన్నర మరుద్గంధర్వ కాంతావళిన్‌
 గంటిన్‌ మానవయోషలన్‌ బవనభుగ్రామా లలామంబులన్‌
@@ -1800,32 +1677,29 @@
 వెంటం జానకిఁ గాననైతి నని నిర్వేదింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
           <t>[('కం', 'U'), ('టిం', 'U'), ('జా', 'U'), ('ర', '|'), ('ణ', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('కి', 'U'), ('న్న', '|'), ('ర', '|'), ('మ', '|'), ('రు', 'U'), ('ద్గం', 'U'), ('ధ', 'U'), ('ర్వ', '|'), ('కాం', 'U'), ('తా', 'U'), ('వ', '|'), ('ళిన్', 'U'), ('గం', 'U'), ('టిన్', 'U'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('యో', 'U'), ('ష', '|'), ('లన్', 'U'), ('బ', '|'), ('వ', '|'), ('న', '|'), ('భు', 'U'), ('గ్రా', 'U'), ('మా', 'U'), ('ల', '|'), ('లా', 'U'), ('మం', 'U'), ('బు', '|'), ('లన్', 'U'), ('గం', 'U'), ('టిన్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('ని', '|'), ('శా', 'U'), ('చ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('లన్', 'U'), ('గం', 'U'), ('టిం', 'U'), ('బు', '|'), ('రం', 'U'), ('బం', 'U'), ('దు', '|'), ('నే', 'U'), ('వెం', 'U'), ('టం', 'U'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('గా', 'U'), ('న', '|'), ('నై', 'U'), ('తి', '|'), ('న', '|'), ('ని', '|'), ('ని', 'U'), ('ర్వే', 'U'), ('దిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B43" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
         <is>
           <t>ఈ లంకాపురరాజ్యమందుగల చోట్లెల్లన్‌ సమగ్రంబుగా
 నాలోకించితి నింక నొక్క వన మీ యంతఃపురాభ్యాసమం
@@ -1834,32 +1708,29 @@
 వాలోచించి రయంబు మీరఁ జనవే యచ్చోటికిన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
           <t>[('ఈ', 'U'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('రా', 'U'), ('జ్య', '|'), ('మం', 'U'), ('దు', '|'), ('గ', '|'), ('ల', '|'), ('చో', 'U'), ('ట్లె', '|'), ('ల్లన్', 'U'), ('స', '|'), ('మ', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('నా', 'U'), ('లో', 'U'), ('కిం', 'U'), ('చి', '|'), ('తి', '|'), ('నిం', 'U'), ('క', '|'), ('నొ', 'U'), ('క్క', '|'), ('వ', '|'), ('న', '|'), ('మీ', 'U'), ('యం', 'U'), ('తః', 'U'), ('పు', '|'), ('రా', 'U'), ('భ్యా', 'U'), ('స', '|'), ('మం', 'U'), ('దా', 'U'), ('లే', 'U'), ('ఖే', 'U'), ('శ', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('మా', 'U'), ('డ్కి', '|'), ('గ', '|'), ('డు', '|'), ('హృ', 'U'), ('ద్యం', 'U'), ('బై', 'U'), ('ర', '|'), ('హిం', 'U'), ('గ్రా', 'U'), ('లె', '|'), ('డిన్', 'U'), ('బా', 'U'), ('లా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('న', 'U'), ('చ్చ', '|'), ('టన్', 'U'), ('వె', '|'), ('ద', '|'), ('కె', '|'), ('దం', 'U'), ('గా', 'U'), ('కం', 'U'), ('చు', '|'), ('డెం', 'U'), ('దా', 'U'), ('న', '|'), ('నీ', 'U'), ('వా', 'U'), ('లో', 'U'), ('చిం', 'U'), ('చి', '|'), ('ర', '|'), ('యం', 'U'), ('బు', '|'), ('మీ', 'U'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('వే', 'U'), ('య', 'U'), ('చ్చో', 'U'), ('టి', '|'), ('కిన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B44" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
         <is>
           <t>వనముఙ్మండలిఁ జొచ్చు చంద్రుని గతిన్‌ బ్రచ్ఛన్నవేషంబుతో
 వనముం జొచ్చి లతాగృహోత్కర తరువ్రాతంబులన్‌ దీర్ఘికల్‌
@@ -1867,32 +1738,29 @@
 ఖ్య నగారోహణ మాచరించితివి గాదా నేర్పునన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('న', '|'), ('ము', 'U'), ('ఙ్మం', 'U'), ('డ', '|'), ('లి', '|'), ('జొ', 'U'), ('చ్చు', '|'), ('చం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('గ', '|'), ('తిన్', 'U'), ('బ్ర', 'U'), ('చ్ఛ', 'U'), ('న్న', '|'), ('వే', 'U'), ('షం', 'U'), ('బు', '|'), ('తో', 'U'), ('వ', '|'), ('న', '|'), ('ముం', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('ల', '|'), ('తా', 'U'), ('గృ', '|'), ('హో', 'U'), ('త్క', '|'), ('ర', '|'), ('త', '|'), ('రు', 'U'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('లన్', 'U'), ('దీ', 'U'), ('ర్ఘి', '|'), ('కల్', 'U'), ('ఘ', '|'), ('న', '|'), ('సౌ', 'U'), ('ధం', 'U'), ('బు', '|'), ('లు', '|'), ('చూ', 'U'), ('చు', '|'), ('చున్', 'U'), ('జ', '|'), ('ని', '|'), ('మ', '|'), ('రు', 'U'), ('త్క', 'U'), ('ల్పుం', 'U'), ('డ', '|'), ('వై', 'U'), ('శిం', 'U'), ('శు', '|'), ('పా', 'U'), ('ఖ్య', '|'), ('న', '|'), ('గా', 'U'), ('రో', 'U'), ('హ', '|'), ('ణ', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దా', 'U'), ('నే', 'U'), ('ర్పు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
         <is>
           <t>తరుణిం గ్రీష్మగభస్తి, తప్తలతచందానన్‌ రహిన్‌ వాడి భీ
 కర దైత్యాంగన లాడు మాటలకు నాకంపించుచున్‌ సారెకున్‌
@@ -1900,32 +1768,29 @@
 తరుమూలంబున నున్న జానకిని సందర్శింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('రు', '|'), ('ణిం', 'U'), ('గ్రీ', 'U'), ('ష్మ', '|'), ('గ', '|'), ('భ', 'U'), ('స్తి', '|'), ('త', 'U'), ('ప్త', '|'), ('ల', '|'), ('త', '|'), ('చం', 'U'), ('దా', 'U'), ('నన్', 'U'), ('ర', '|'), ('హిన్', 'U'), ('వా', 'U'), ('డి', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('దై', 'U'), ('త్యాం', 'U'), ('గ', '|'), ('న', '|'), ('లా', 'U'), ('డు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('నా', 'U'), ('కం', 'U'), ('పిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('సా', 'U'), ('రె', '|'), ('కున్', 'U'), ('జి', '|'), ('ర', '|'), ('భ', '|'), ('క్తిన్', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('ను', '|'), ('చుం', 'U'), ('బే', 'U'), ('ర్కొం', 'U'), ('చు', '|'), ('శో', 'U'), ('కా', 'U'), ('ర్త', '|'), ('యై', 'U'), ('త', '|'), ('రు', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('ను', 'U'), ('న్న', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('ని', '|'), ('సం', 'U'), ('ద', 'U'), ('ర్శిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B46" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
         <is>
           <t>కమనీయాకృతి శింశుపాఖ్యతరుశాఖాపర్ణలీనుండవై
 యమరారాతి దశాస్యుడన్న కటుక్రూరాలాపముల్‌ రాక్షస
@@ -1933,32 +1798,29 @@
 య్యమ గావించు విలాపమంతయును నీ వాలింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('మ', '|'), ('నీ', 'U'), ('యా', 'U'), ('కృ', '|'), ('తి', '|'), ('శిం', 'U'), ('శు', '|'), ('పా', 'U'), ('ఖ్య', '|'), ('త', '|'), ('రు', '|'), ('శా', 'U'), ('ఖా', 'U'), ('ప', 'U'), ('ర్ణ', '|'), ('లీ', 'U'), ('నుం', 'U'), ('డ', '|'), ('వై', 'U'), ('య', '|'), ('మ', '|'), ('రా', 'U'), ('రా', 'U'), ('తి', '|'), ('ద', '|'), ('శా', 'U'), ('స్యు', '|'), ('డ', 'U'), ('న్న', '|'), ('క', '|'), ('టు', 'U'), ('క్రూ', 'U'), ('రా', 'U'), ('లా', 'U'), ('ప', '|'), ('ముల్', 'U'), ('రా', 'U'), ('క్ష', '|'), ('స', 'U'), ('ప్ర', '|'), ('మ', '|'), ('దల్', 'U'), ('వ', 'U'), ('ల్కు', '|'), ('దు', '|'), ('రు', 'U'), ('క్తు', '|'), ('లం', 'U'), ('త', 'U'), ('త్రి', '|'), ('జ', '|'), ('టా', 'U'), ('స్వ', 'U'), ('ప్న', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('న', 'U'), ('య్య', '|'), ('మ', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('వి', '|'), ('లా', 'U'), ('ప', '|'), ('మం', 'U'), ('త', '|'), ('యు', '|'), ('ను', '|'), ('నీ', 'U'), ('వా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B47" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
         <is>
           <t>రామాధీశుడు తండ్రి పంపున మహారణ్యోర్వికిన్‌ వచ్చె ని
 ష్కామం దత్సతి సీత బల్మిఁ గొని వీకం బోయె బంక్త్యాస్యుఁడా
@@ -1967,32 +1829,29 @@
 వేమాఱున్‌ మధురంబుగాఁ బలుకవే విన్నాణివై మారుతీ!</t>
         </is>
       </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
           <t>[('రా', 'U'), ('మా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డు', '|'), ('తం', 'U'), ('డ్రి', '|'), ('పం', 'U'), ('పు', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('ర', 'U'), ('ణ్యో', 'U'), ('ర్వి', '|'), ('కిన్', 'U'), ('వ', 'U'), ('చ్చె', '|'), ('ని', 'U'), ('ష్కా', 'U'), ('మం', 'U'), ('ద', 'U'), ('త్స', '|'), ('తి', '|'), ('సీ', 'U'), ('త', '|'), ('బ', 'U'), ('ల్మి', '|'), ('గొ', '|'), ('ని', '|'), ('వీ', 'U'), ('కం', 'U'), ('బో', 'U'), ('యె', '|'), ('బం', 'U'), ('క్త్యా', 'U'), ('స్యు', '|'), ('డా', 'U'), ('రా', 'U'), ('మన్', 'U'), ('వే', 'U'), ('వె', '|'), ('ద', '|'), ('కం', 'U'), ('గ', '|'), ('నే', 'U'), ('ను', '|'), ('జ', '|'), ('ల', '|'), ('ధిన్', 'U'), ('లం', 'U'), ('ఘిం', 'U'), ('చి', '|'), ('శో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('యి', 'U'), ('చ్చో', 'U'), ('మ', 'U'), ('న్మా', 'U'), ('త', '|'), ('ను', '|'), ('గం', 'U'), ('టి', '|'), ('మం', 'U'), ('టి', '|'), ('న', '|'), ('ను', '|'), ('చున్', 'U'), ('శ్రో', 'U'), ('త్రా', 'U'), ('ను', '|'), ('కూ', 'U'), ('లం', 'U'), ('బు', '|'), ('గా', 'U'), ('వే', 'U'), ('మా', 'U'), ('ఱున్', 'U'), ('మ', '|'), ('ధు', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('వే', 'U'), ('వి', 'U'), ('న్నా', 'U'), ('ణి', '|'), ('వై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B48" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
         <is>
           <t>ఇది సంధింపఁగ వేళ యంచుఁ గడఁకన్‌ వృక్షంబు వేఁడిగ్గి య
 మ్మదిరాక్షీమణి మ్రోల నిల్చి పతిసేమంబంతయుం జెప్పి త
@@ -2000,32 +1859,29 @@
 ప్యదనర్ఘాంగుళి ముద్రికం గుఱుతుగా నర్పింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
           <t>[('ఇ', '|'), ('ది', '|'), ('సం', 'U'), ('ధిం', 'U'), ('ప', '|'), ('గ', '|'), ('వే', 'U'), ('ళ', '|'), ('యం', 'U'), ('చు', '|'), ('గ', '|'), ('డ', '|'), ('కన్', 'U'), ('వృ', 'U'), ('క్షం', 'U'), ('బు', '|'), ('వే', 'U'), ('డి', 'U'), ('గ్గి', '|'), ('య', 'U'), ('మ్మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షీ', 'U'), ('మ', '|'), ('ణి', '|'), ('మ్రో', 'U'), ('ల', '|'), ('ని', 'U'), ('ల్చి', '|'), ('ప', '|'), ('తి', '|'), ('సే', 'U'), ('మం', 'U'), ('బం', 'U'), ('త', '|'), ('యుం', 'U'), ('జె', 'U'), ('ప్పి', '|'), ('త', 'U'), ('ద్వ', '|'), ('ద', '|'), ('నా', 'U'), ('ద్యా', 'U'), ('కృ', '|'), ('తి', '|'), ('చి', 'U'), ('హ్న', '|'), ('ముల్', 'U'), ('దె', '|'), ('లి', '|'), ('పి', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('సం', 'U'), ('బు', '|'), ('పు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('దీ', 'U'), ('ప్య', '|'), ('ద', '|'), ('న', 'U'), ('ర్ఘాం', 'U'), ('గు', '|'), ('ళి', '|'), ('ము', '|'), ('ద్రి', '|'), ('కం', 'U'), ('గు', '|'), ('ఱు', '|'), ('తు', '|'), ('గా', 'U'), ('న', 'U'), ('ర్పిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B49" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
         <is>
           <t>అతిసూక్ష్మాంగుఁడ వీవు ననుఁ గొని యీయంభోనిధిం దాటి యే
 గతి పోవంగలవంచు సీత పలుకం గౌతూహలం బొప్ప న
@@ -2033,32 +1889,29 @@
 క్షితికన్యామణి కద్భుతంబు ముదముం గీల్కొల్పవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('తి', '|'), ('సూ', 'U'), ('క్ష్మాం', 'U'), ('గు', '|'), ('డ', '|'), ('వీ', 'U'), ('వు', '|'), ('న', '|'), ('ను', '|'), ('గొ', '|'), ('ని', '|'), ('యీ', 'U'), ('యం', 'U'), ('భో', 'U'), ('ని', '|'), ('ధిం', 'U'), ('దా', 'U'), ('టి', '|'), ('యే', 'U'), ('గ', '|'), ('తి', '|'), ('పో', 'U'), ('వం', 'U'), ('గ', '|'), ('ల', '|'), ('వం', 'U'), ('చు', '|'), ('సీ', 'U'), ('త', '|'), ('ప', '|'), ('లు', '|'), ('కం', 'U'), ('గౌ', 'U'), ('తూ', 'U'), ('హ', '|'), ('లం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('న', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('నా', 'U'), ('మ', '|'), ('ర', '|'), ('శై', 'U'), ('ల', '|'), ('స', 'U'), ('న్ని', '|'), ('భ', '|'), ('శ', '|'), ('రీ', 'U'), ('రం', 'U'), ('బ', '|'), ('ర్మి', '|'), ('లిం', 'U'), ('జూ', 'U'), ('పి', '|'), ('యా', 'U'), ('క్షి', '|'), ('తి', '|'), ('క', 'U'), ('న్యా', 'U'), ('మ', '|'), ('ణి', '|'), ('క', 'U'), ('ద్భు', '|'), ('తం', 'U'), ('బు', '|'), ('ము', '|'), ('ద', '|'), ('ముం', 'U'), ('గీ', 'U'), ('ల్కొ', 'U'), ('ల్ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B50" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
         <is>
           <t>ప్రమదం బొప్పఁగ సీత యిచ్చిన శిరోరత్నం బొగిన్‌ సంగ్రహిం
 చి మహాత్ముండగు రాము నిచ్చటికి నే శీఘ్రంబునఁ దోడి తె
@@ -2066,32 +1919,29 @@
 చి, మహిన్‌ సాగిలి మ్రొక్కి గైకొనవె యాశీర్వాదముల్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('మ', '|'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('సీ', 'U'), ('త', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('శి', '|'), ('రో', 'U'), ('ర', 'U'), ('త్నం', 'U'), ('బొ', '|'), ('గిన్', 'U'), ('సం', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('మ', '|'), ('హా', 'U'), ('త్ముం', 'U'), ('డ', '|'), ('గు', '|'), ('రా', 'U'), ('ము', '|'), ('ని', 'U'), ('చ్చ', '|'), ('టి', '|'), ('కి', '|'), ('నే', 'U'), ('శీ', 'U'), ('ఘ్రం', 'U'), ('బు', '|'), ('న', '|'), ('దో', 'U'), ('డి', '|'), ('తె', 'U'), ('త్తు', '|'), ('మ', '|'), ('దిన్', 'U'), ('శో', 'U'), ('క', '|'), ('ము', '|'), ('ద', 'U'), ('క్కి', '|'), ('యుం', 'U'), ('డు', '|'), ('మ', '|'), ('ని', '|'), ('యెం', 'U'), ('తో', 'U'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('నూ', 'U'), ('ర', '|'), ('డిం', 'U'), ('చి', '|'), ('మ', '|'), ('హిన్', 'U'), ('సా', 'U'), ('గి', '|'), ('లి', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('గై', 'U'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('యా', 'U'), ('శీ', 'U'), ('ర్వా', 'U'), ('ద', '|'), ('ముల్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B51" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
         <is>
           <t>జనకక్ష్మాపతిపుత్రిచేఁ దగ ననుజ్ఞాతుండవై 'యూరకే
 జననేలా, దశకంఠదైత్యునకు మత్సామర్థ్య మొక్కింత జూ
@@ -2099,32 +1949,29 @@
 ద్దన నద్దైత్యుని ప్రాణతుల్యవన ముత్పాటింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('క', 'U'), ('క్ష్మా', 'U'), ('ప', '|'), ('తి', '|'), ('పు', 'U'), ('త్రి', '|'), ('చే', 'U'), ('ద', '|'), ('గ', '|'), ('న', '|'), ('ను', 'U'), ('జ్ఞా', 'U'), ('తుం', 'U'), ('డ', '|'), ('వై', 'U'), ('యూ', 'U'), ('ర', '|'), ('కే', 'U'), ('జ', '|'), ('న', '|'), ('నే', 'U'), ('లా', 'U'), ('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠ', '|'), ('దై', 'U'), ('త్యు', '|'), ('న', '|'), ('కు', '|'), ('మ', 'U'), ('త్సా', 'U'), ('మ', 'U'), ('ర్థ్య', '|'), ('మొ', 'U'), ('క్కిం', 'U'), ('త', '|'), ('జూ', 'U'), ('ప', '|'), ('న', '|'), ('గుం', 'U'), ('గా', 'U'), ('క', '|'), ('ని', '|'), ('తం', 'U'), ('డ్రి', '|'), ('వో', 'U'), ('లె', '|'), ('న', '|'), ('తి', '|'), ('రం', 'U'), ('హం', 'U'), ('బ', '|'), ('ర్మి', '|'), ('లిం', 'U'), ('దా', 'U'), ('ల్చి', 'U'), ('గ్ర', 'U'), ('ద్ద', '|'), ('న', '|'), ('న', 'U'), ('ద్దై', 'U'), ('త్యు', '|'), ('ని', 'U'), ('ప్రా', 'U'), ('ణ', '|'), ('తు', 'U'), ('ల్య', '|'), ('వ', '|'), ('న', '|'), ('ము', 'U'), ('త్పా', 'U'), ('టిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B52" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
         <is>
           <t>అసురాధీశ్వరుఁడవ్విధంబు విని కట్టల్కన్‌ రణార్థం బశీ
 తిసహస్రంబులఁ గింకరాఖ్యుల మహాతేజః ప్రభావాఢ్యులన్‌
@@ -2132,32 +1979,29 @@
 మస మొప్పం దగ వారినెల్లఁ గడిమిన్‌ మర్దింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('సు', '|'), ('రా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డ', 'U'), ('వ్వి', '|'), ('ధం', 'U'), ('బు', '|'), ('వి', '|'), ('ని', '|'), ('క', 'U'), ('ట్ట', '|'), ('ల్కన్', 'U'), ('ర', '|'), ('ణా', 'U'), ('ర్థం', 'U'), ('బ', '|'), ('శీ', 'U'), ('తి', '|'), ('స', '|'), ('హ', 'U'), ('స్రం', 'U'), ('బు', '|'), ('ల', '|'), ('గిం', 'U'), ('క', '|'), ('రా', 'U'), ('ఖ్యు', '|'), ('ల', '|'), ('మ', '|'), ('హా', 'U'), ('తే', 'U'), ('జః', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వా', 'U'), ('ఢ్యు', '|'), ('లన్', 'U'), ('వె', '|'), ('స', '|'), ('బం', 'U'), ('పన్', 'U'), ('వి', '|'), ('ల', '|'), ('యాం', 'U'), ('బు', '|'), ('దం', 'U'), ('బు', '|'), ('క', '|'), ('ర', '|'), ('ణిన్', 'U'), ('మి', 'U'), ('న్నం', 'U'), ('ది', '|'), ('గ', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('దీ', 'U'), ('మ', '|'), ('స', '|'), ('మొ', 'U'), ('ప్పం', 'U'), ('ద', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('నె', 'U'), ('ల్ల', '|'), ('గ', '|'), ('డి', '|'), ('మిన్', 'U'), ('మ', '|'), ('ర్దిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B53" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
         <is>
           <t>వప్రంబుల్‌ బడఁగూల్చి బల్విడి నభోభాగంబుతో రాయు చై
 త్యప్రాసాదముఁ గూలఁదన్ని విపులస్తంభంబుచే బాహుస
@@ -2165,32 +2009,29 @@
 వప్రద్వేషుల నెల్ల దారుణగతిన్‌ భంజింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
           <t>[('వ', 'U'), ('ప్రం', 'U'), ('బుల్', 'U'), ('బ', '|'), ('డ', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('బ', 'U'), ('ల్వి', '|'), ('డి', '|'), ('న', '|'), ('భో', 'U'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('తో', 'U'), ('రా', 'U'), ('యు', '|'), ('చై', 'U'), ('త్య', 'U'), ('ప్రా', 'U'), ('సా', 'U'), ('ద', '|'), ('ము', '|'), ('గూ', 'U'), ('ల', '|'), ('ద', 'U'), ('న్ని', '|'), ('వి', '|'), ('పు', '|'), ('ల', 'U'), ('స్తం', 'U'), ('భం', 'U'), ('బు', '|'), ('చే', 'U'), ('బా', 'U'), ('హు', '|'), ('స', 'U'), ('త్త్వ', 'U'), ('ప్రా', 'U'), ('వీ', 'U'), ('ణ్య', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('ద', 'U'), ('ద్వ', '|'), ('న', '|'), ('ము', '|'), ('ద', 'U'), ('త్ప్రా', 'U'), ('సా', 'U'), ('ద', '|'), ('ముం', 'U'), ('గా', 'U'), ('చు', '|'), ('దే', 'U'), ('వ', 'U'), ('ప్ర', 'U'), ('ద్వే', 'U'), ('షు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('దా', 'U'), ('రు', '|'), ('ణ', '|'), ('గ', '|'), ('తిన్', 'U'), ('భం', 'U'), ('జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B54" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
         <is>
           <t>శైలోత్పాటన దక్షిణుండగు నభస్వత్పుత్రుఁడన్‌ జన్యవి
 ద్యాలోలుండగు రామభద్రునకు నే దాసుండ సుగ్రీవునిన్‌
@@ -2199,32 +2040,29 @@
 క్కాలుండన్‌ జనుతెండు పోరి కని లంకం జాటవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
           <t>[('శై', 'U'), ('లో', 'U'), ('త్పా', 'U'), ('ట', '|'), ('న', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణుం', 'U'), ('డ', '|'), ('గు', '|'), ('న', '|'), ('భ', 'U'), ('స్వ', 'U'), ('త్పు', 'U'), ('త్రు', '|'), ('డన్', 'U'), ('జ', 'U'), ('న్య', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('లో', 'U'), ('లుం', 'U'), ('డ', '|'), ('గు', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్రు', '|'), ('న', '|'), ('కు', '|'), ('నే', 'U'), ('దా', 'U'), ('సుం', 'U'), ('డ', '|'), ('సు', 'U'), ('గ్రీ', 'U'), ('వు', '|'), ('నిన్', 'U'), ('వా', 'U'), ('లా', 'U'), ('యం', 'U'), ('బు', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డ', '|'), ('హ', '|'), ('ను', '|'), ('మ', 'U'), ('న్నా', 'U'), ('మం', 'U'), ('బు', '|'), ('నం', 'U'), ('బొ', 'U'), ('ల్తు', '|'), ('భూ', 'U'), ('పా', 'U'), ('లుం', 'U'), ('డం', 'U'), ('ప', '|'), ('గ', '|'), ('భూ', 'U'), ('మి', '|'), ('పు', 'U'), ('త్రి', '|'), ('బ', '|'), ('రి', '|'), ('కిం', 'U'), ('పన్', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('తిన్', 'U'), ('గ్ర', 'U'), ('వ్య', '|'), ('భు', 'U'), ('క్కా', 'U'), ('లుం', 'U'), ('డన్', 'U'), ('జ', '|'), ('ను', '|'), ('తెం', 'U'), ('డు', '|'), ('పో', 'U'), ('రి', '|'), ('క', '|'), ('ని', '|'), ('లం', 'U'), ('కం', 'U'), ('జా', 'U'), ('ట', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B55" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
         <is>
           <t>కడఁకన్‌ రావణప్రేరితుం డగుచు వీఁకన్‌ జంబుమాల్యాఖ్య దై
 త్యుఁడు సేనాయుతుఁడై రణంబునకుఁ దోడ్తో డాసినన్‌ వానిఁ బ
@@ -2232,32 +2070,29 @@
 గడిమిం జంపి యుగాంతమేఘముక్రియన్‌ గర్జింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('డ', '|'), ('కన్', 'U'), ('రా', 'U'), ('వ', '|'), ('ణ', 'U'), ('ప్రే', 'U'), ('రి', '|'), ('తుం', 'U'), ('డ', '|'), ('గు', '|'), ('చు', '|'), ('వీ', 'U'), ('కన్', 'U'), ('జం', 'U'), ('బు', '|'), ('మా', 'U'), ('ల్యా', 'U'), ('ఖ్య', '|'), ('దై', 'U'), ('త్యు', '|'), ('డు', '|'), ('సే', 'U'), ('నా', 'U'), ('యు', '|'), ('తు', '|'), ('డై', 'U'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('దో', 'U'), ('డ్తో', 'U'), ('డా', 'U'), ('సి', '|'), ('నన్', 'U'), ('వా', 'U'), ('ని', '|'), ('బ', 'U'), ('ల్వి', '|'), ('డి', '|'), ('భా', 'U'), ('స్వ', 'U'), ('త్ప', '|'), ('రి', '|'), ('ఘా', 'U'), ('యు', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('బ', '|'), ('లో', 'U'), ('పే', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('నా', 'U'), ('జి', '|'), ('లో', 'U'), ('గ', '|'), ('డి', '|'), ('మిం', 'U'), ('జం', 'U'), ('పి', '|'), ('యు', '|'), ('గాం', 'U'), ('త', '|'), ('మే', 'U'), ('ఘ', '|'), ('ము', 'U'), ('క్రి', '|'), ('యన్', 'U'), ('గ', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B56" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>వరుసన్‌ దారుణ సప్తమంత్రితనయుల్‌ బాహాబలంబొప్ప బం
 దుర వైశ్వానర సప్తహేతులన దోడ్తో వెల్గుచున్‌ డాసినన్‌
@@ -2265,32 +2100,29 @@
 స్థిరసత్వంబున ద్రుంపవే కలన నిశ్శేషంబుగా మారుతీ!</t>
         </is>
       </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('దా', 'U'), ('రు', '|'), ('ణ', '|'), ('స', 'U'), ('ప్త', '|'), ('మం', 'U'), ('త్రి', '|'), ('త', '|'), ('న', '|'), ('యుల్', 'U'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('లం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('బం', 'U'), ('దు', '|'), ('ర', '|'), ('వై', 'U'), ('శ్వా', 'U'), ('న', '|'), ('ర', '|'), ('స', 'U'), ('ప్త', '|'), ('హే', 'U'), ('తు', '|'), ('ల', '|'), ('న', '|'), ('దో', 'U'), ('డ్తో', 'U'), ('వె', 'U'), ('ల్గు', '|'), ('చున్', 'U'), ('డా', 'U'), ('సి', '|'), ('నన్', 'U'), ('క', '|'), ('రు', '|'), ('లం', 'U'), ('గ', 'U'), ('న్న', '|'), ('మృ', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('లీ', 'U'), ('ల', '|'), ('పె', '|'), ('ను', '|'), ('కి', 'U'), ('న్కం', 'U'), ('బొం', 'U'), ('గి', '|'), ('య', 'U'), ('ద్దై', 'U'), ('త్యు', '|'), ('ల', 'U'), ('స్థి', '|'), ('ర', '|'), ('స', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('ద్రుం', 'U'), ('ప', '|'), ('వే', 'U'), ('క', '|'), ('ల', '|'), ('న', '|'), ('ని', 'U'), ('శ్శే', 'U'), ('షం', 'U'), ('బు', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B57" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
         <is>
           <t>దురితాత్ముల్‌ దశకంఠుపంపున మదాంధుల్‌ పంచసేనాగ్రగుల్‌
 పరుషోగ్రాస్త్రము వేయుచుం గదియఁ గాలం గేల మర్దించి భీ
@@ -2298,32 +2130,29 @@
 ష్కరదైతేయ సమాగమంబు మదిలోఁ గాంక్షింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
           <t>[('దు', '|'), ('రి', '|'), ('తా', 'U'), ('త్ముల్', 'U'), ('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠు', '|'), ('పం', 'U'), ('పు', '|'), ('న', '|'), ('మ', '|'), ('దాం', 'U'), ('ధుల్', 'U'), ('పం', 'U'), ('చ', '|'), ('సే', 'U'), ('నా', 'U'), ('గ్ర', '|'), ('గుల్', 'U'), ('ప', '|'), ('రు', '|'), ('షో', 'U'), ('గ్రా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('వే', 'U'), ('యు', '|'), ('చుం', 'U'), ('గ', '|'), ('ది', '|'), ('య', '|'), ('గా', 'U'), ('లం', 'U'), ('గే', 'U'), ('ల', '|'), ('మ', '|'), ('ర్దిం', 'U'), ('చి', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('భం', 'U'), ('గిన్', 'U'), ('ప', '|'), ('రి', '|'), ('మా', 'U'), ('ర్చి', '|'), ('తో', 'U'), ('ర', '|'), ('ణ', '|'), ('వి', '|'), ('టం', 'U'), ('క', 'U'), ('స్థుం', 'U'), ('డ', '|'), ('వై', 'U'), ('వెం', 'U'), ('డి', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర', '|'), ('దై', 'U'), ('తే', 'U'), ('య', '|'), ('స', '|'), ('మా', 'U'), ('గ', '|'), ('మం', 'U'), ('బు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('గాం', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B58" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
         <is>
           <t>అక్షీణస్ఫుట బాహుశౌర్యుఁడు మహాహంకారుఁడున్‌ దైత్యహ
 ర్యక్షుం డక్షుఁడు డాయఁ దార్క్ష్యుఁడహినట్ల వాని పదంబులన్‌
@@ -2331,32 +2160,29 @@
 న్యక్షోణిం బడవైచి చంపవె బలౌద్ధత్యంబునన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
           <t>[('అ', 'U'), ('క్షీ', 'U'), ('ణ', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('బా', 'U'), ('హు', '|'), ('శౌ', 'U'), ('ర్యు', '|'), ('డు', '|'), ('మ', '|'), ('హా', 'U'), ('హం', 'U'), ('కా', 'U'), ('రు', '|'), ('డున్', 'U'), ('దై', 'U'), ('త్య', '|'), ('హ', 'U'), ('ర్య', 'U'), ('క్షుం', 'U'), ('డ', 'U'), ('క్షు', '|'), ('డు', '|'), ('డా', 'U'), ('య', '|'), ('దా', 'U'), ('ర్క్ష్యు', '|'), ('డ', '|'), ('హి', '|'), ('న', 'U'), ('ట్ల', '|'), ('వా', 'U'), ('ని', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('లన్', 'U'), ('ద', 'U'), ('క్ష', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('బ', 'U'), ('ట్టి', '|'), ('యె', 'U'), ('త్తి', '|'), ('వ', '|'), ('డి', '|'), ('మిం', 'U'), ('టన్', 'U'), ('బ', 'U'), ('ల్మ', '|'), ('రుం', 'U'), ('ద్రి', 'U'), ('ప్పి', '|'), ('జ', 'U'), ('న్య', 'U'), ('క్షో', 'U'), ('ణిం', 'U'), ('బ', '|'), ('డ', '|'), ('వై', 'U'), ('చి', '|'), ('చం', 'U'), ('ప', '|'), ('వె', '|'), ('బ', '|'), ('లౌ', 'U'), ('ద్ధ', 'U'), ('త్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B59" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
         <is>
           <t>జనితామర్షణుఁ డింద్రజిత్తు సకలాస్త్రజ్ఞుండు బ్రహ్మాస్త్రబ
 ద్ధునిఁ గావింప వరప్రభావమునఁ దోడ్తొ బంధముక్తుండవై
@@ -2364,32 +2190,29 @@
 ల్పనగుం గాకని బద్ధుఁడైన పగిదిన్‌ వర్తింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('ని', '|'), ('తా', 'U'), ('మ', 'U'), ('ర్ష', '|'), ('ణు', '|'), ('డిం', 'U'), ('ద్ర', '|'), ('జి', 'U'), ('త్తు', '|'), ('స', '|'), ('క', '|'), ('లా', 'U'), ('స్త్ర', 'U'), ('జ్ఞుం', 'U'), ('డు', 'U'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('స్త్ర', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('ని', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('వ', '|'), ('ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('న', '|'), ('దో', 'U'), ('డ్తొ', '|'), ('బం', 'U'), ('ధ', '|'), ('ము', 'U'), ('క్తుం', 'U'), ('డ', '|'), ('వై', 'U'), ('ద', '|'), ('ను', '|'), ('జేం', 'U'), ('ద్రుం', 'U'), ('గ', '|'), ('ని', '|'), ('వా', 'U'), ('ని', '|'), ('తో', 'U'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('దో', 'U'), ('ర్ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('దె', 'U'), ('ల్ప', '|'), ('న', '|'), ('గుం', 'U'), ('గా', 'U'), ('క', '|'), ('ని', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('డై', 'U'), ('న', '|'), ('ప', '|'), ('గి', '|'), ('దిన్', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B60" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
         <is>
           <t>దితిజాధీశుని మ్రోల నిల్చి వెస దత్తేజంబు రూపంబు సం
 స్థితి సర్వంబును బోలఁ జూచి యహహా తేజస్వి యౌ వీని యం
@@ -2397,32 +2220,29 @@
 మ్మతి నొందం దగ నర్హుఁడంచు మదిలో భావింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
           <t>[('ది', '|'), ('తి', '|'), ('జా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('ని', '|'), ('మ్రో', 'U'), ('ల', '|'), ('ని', 'U'), ('ల్చి', '|'), ('వె', '|'), ('స', '|'), ('ద', 'U'), ('త్తే', 'U'), ('జం', 'U'), ('బు', '|'), ('రూ', 'U'), ('పం', 'U'), ('బు', '|'), ('సం', 'U'), ('స్థి', '|'), ('తి', '|'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('య', '|'), ('హ', '|'), ('హా', 'U'), ('తే', 'U'), ('జ', 'U'), ('స్వి', '|'), ('యౌ', 'U'), ('వీ', 'U'), ('ని', '|'), ('యం', 'U'), ('ద', '|'), ('తి', '|'), ('దౌ', 'U'), ('ష్ట్యం', 'U'), ('బి', '|'), ('ది', '|'), ('లే', 'U'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('సు', '|'), ('ర', '|'), ('లో', 'U'), ('కా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('నొం', 'U'), ('దం', 'U'), ('ద', '|'), ('గ', '|'), ('న', 'U'), ('ర్హు', '|'), ('డం', 'U'), ('చు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B61" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
         <is>
           <t>భవదీయాకృతియున్‌ బ్రతాపమును శుంభద్వీర్యముం గాంచి దై
 త్యవిభుండీతఁడు కీశమాత్రకుఁడుగాఁ డాదిత్యులుం బంపఁగా
@@ -2430,32 +2250,29 @@
 దివిజారాతులఁ జంపునే యనుచుఁ జింతింపండొకో మారుతీ!</t>
         </is>
       </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యా', 'U'), ('కృ', '|'), ('తి', '|'), ('యున్', 'U'), ('బ్ర', '|'), ('తా', 'U'), ('ప', '|'), ('ము', '|'), ('ను', '|'), ('శుం', 'U'), ('భ', 'U'), ('ద్వీ', 'U'), ('ర్య', '|'), ('ముం', 'U'), ('గాం', 'U'), ('చి', '|'), ('దై', 'U'), ('త్య', '|'), ('వి', '|'), ('భుం', 'U'), ('డీ', 'U'), ('త', '|'), ('డు', '|'), ('కీ', 'U'), ('శ', '|'), ('మా', 'U'), ('త్ర', '|'), ('కు', '|'), ('డు', '|'), ('గా', 'U'), ('డా', 'U'), ('ది', 'U'), ('త్యు', '|'), ('లుం', 'U'), ('బం', 'U'), ('ప', '|'), ('గా', 'U'), ('భు', '|'), ('వి', '|'), ('గీ', 'U'), ('శా', 'U'), ('కృ', '|'), ('తి', '|'), ('దా', 'U'), ('ల్చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('భూ', 'U'), ('తం', 'U'), ('బ', '|'), ('గుం', 'U'), ('గా', 'U'), ('ని', '|'), ('చో', 'U'), ('ది', '|'), ('వి', '|'), ('జా', 'U'), ('రా', 'U'), ('తు', '|'), ('ల', '|'), ('జం', 'U'), ('పు', '|'), ('నే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('జిం', 'U'), ('తిం', 'U'), ('పం', 'U'), ('డొ', '|'), ('కో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B62" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
         <is>
           <t>ఓరి రావణ! నేను రామనృపవంశోత్తంసు దాసుండ నా
 శూరాగ్రేసరుపత్ని నీవు వనిలో జోరుండవై తెచ్చిత
@@ -2463,32 +2280,29 @@
 ద్ఘోరాస్త్రంబులఁ జత్తు వాజి' నని నీతుల్‌ దెల్పవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
           <t>[('ఓ', 'U'), ('రి', '|'), ('రా', 'U'), ('వ', '|'), ('ణ', '|'), ('నే', 'U'), ('ను', '|'), ('రా', 'U'), ('మ', '|'), ('నృ', '|'), ('ప', '|'), ('వం', 'U'), ('శో', 'U'), ('త్తం', 'U'), ('సు', '|'), ('దా', 'U'), ('సుం', 'U'), ('డ', '|'), ('నా', 'U'), ('శూ', 'U'), ('రా', 'U'), ('గ్రే', 'U'), ('స', '|'), ('రు', '|'), ('ప', 'U'), ('త్ని', '|'), ('నీ', 'U'), ('వు', '|'), ('వ', '|'), ('ని', '|'), ('లో', 'U'), ('జో', 'U'), ('రుం', 'U'), ('డ', '|'), ('వై', 'U'), ('తె', 'U'), ('చ్చి', '|'), ('త', 'U'), ('న్నా', 'U'), ('రీ', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('ని', 'U'), ('మ్ము', '|'), ('రా', 'U'), ('ఘ', '|'), ('వు', '|'), ('న', '|'), ('కున్', 'U'), ('గా', 'U'), ('కు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('విం', 'U'), ('క', '|'), ('త', 'U'), ('ద్ఘో', 'U'), ('రా', 'U'), ('స్త్రం', 'U'), ('బు', '|'), ('ల', '|'), ('జ', 'U'), ('త్తు', '|'), ('వా', 'U'), ('జి', '|'), ('న', '|'), ('ని', '|'), ('నీ', 'U'), ('తుల్', 'U'), ('దె', 'U'), ('ల్ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B63" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
         <is>
           <t>"బాలారత్నము సీత మ్రుచ్చిలిటు నీ పాలింటికిన్‌ మృత్యువం
 చాలోకింపక దెచ్చితింత కెపుడో యద్దేవి కోపానల
@@ -2497,32 +2311,29 @@
 ట్లాలస్యం బొనరించె" నంచనవె దేవారాతితో మాఅరుతీ!</t>
         </is>
       </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
           <t>[('బా', 'U'), ('లా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('సీ', 'U'), ('త', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లి', '|'), ('టు', '|'), ('నీ', 'U'), ('పా', 'U'), ('లిం', 'U'), ('టి', '|'), ('కిన్', 'U'), ('మృ', 'U'), ('త్యు', '|'), ('వం', 'U'), ('చా', 'U'), ('లో', 'U'), ('కిం', 'U'), ('ప', '|'), ('క', '|'), ('దె', 'U'), ('చ్చి', '|'), ('తిం', 'U'), ('త', '|'), ('కె', '|'), ('పు', '|'), ('డో', 'U'), ('య', 'U'), ('ద్దే', 'U'), ('వి', '|'), ('కో', 'U'), ('పా', 'U'), ('న', '|'), ('ల', 'U'), ('జ్వా', 'U'), ('లా', 'U'), ('ళిం', 'U'), ('బ', '|'), ('డి', '|'), ('భ', 'U'), ('స్మ', '|'), ('మై', 'U'), ('చ', '|'), ('న', '|'), ('క', '|'), ('స', 'U'), ('ప్రా', 'U'), ('ణుం', 'U'), ('డ', '|'), ('వై', 'U'), ('యుం', 'U'), ('డు', '|'), ('టల్', 'U'), ('చా', 'U'), ('లన్', 'U'), ('చి', 'U'), ('త్ర', '|'), ('ము', '|'), ('భ', 'U'), ('ర్త', '|'), ('చే', 'U'), ('గ', '|'), ('ల', '|'), ('న', '|'), ('నిన్', 'U'), ('జం', 'U'), ('పిం', 'U'), ('ప', '|'), ('నిం', 'U'), ('దా', 'U'), ('క', '|'), ('ని', 'U'), ('ట్లా', 'U'), ('ల', 'U'), ('స్యం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చె', '|'), ('నం', 'U'), ('చ', '|'), ('న', '|'), ('వె', '|'), ('దే', 'U'), ('వా', 'U'), ('రా', 'U'), ('తి', '|'), ('తో', 'U'), ('మా', 'U'), ('అ', '|'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B64" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
         <is>
           <t>"ఖల దైత్యాధమ! జానకీసతిని నీ కంఠస్థశాతాసిగాఁ
 దలపై బడ్డ మహాశనిచ్ఛదముగాఁ దాలుస్థితోద్యద్ధలా
@@ -2530,32 +2341,29 @@
 తలప న్నేరక దెచ్చి తీ" వని రహిన్‌ దర్జింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
           <t>[('ఖ', '|'), ('ల', '|'), ('దై', 'U'), ('త్యా', 'U'), ('ధ', '|'), ('మ', '|'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('స', '|'), ('తి', '|'), ('ని', '|'), ('నీ', 'U'), ('కం', 'U'), ('ఠ', 'U'), ('స్థ', '|'), ('శా', 'U'), ('తా', 'U'), ('సి', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('పై', 'U'), ('బ', 'U'), ('డ్డ', '|'), ('మ', '|'), ('హా', 'U'), ('శ', '|'), ('ని', 'U'), ('చ్ఛ', '|'), ('ద', '|'), ('ము', '|'), ('గా', 'U'), ('దా', 'U'), ('లు', 'U'), ('స్థి', '|'), ('తో', 'U'), ('ద్య', 'U'), ('ద్ధ', '|'), ('లా', 'U'), ('హ', '|'), ('ల', '|'), ('ముం', 'U'), ('గా', 'U'), ('వ', '|'), ('స', '|'), ('నాం', 'U'), ('చ', '|'), ('ల', 'U'), ('గ్ర', '|'), ('థి', '|'), ('త', '|'), ('దీ', 'U'), ('ప్తా', 'U'), ('గ్ని', 'U'), ('స్ఫు', '|'), ('లిం', 'U'), ('గం', 'U'), ('బు', '|'), ('గా', 'U'), ('త', '|'), ('ల', '|'), ('ప', 'U'), ('న్నే', 'U'), ('ర', '|'), ('క', '|'), ('దె', 'U'), ('చ్చి', '|'), ('తీ', 'U'), ('వ', '|'), ('ని', '|'), ('ర', '|'), ('హిన్', 'U'), ('ద', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B65" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
         <is>
           <t>"తరమే నీకిక నెందుఁ బోఁగలవు పాతాళంబులో డాఁగినన్‌
 శరధిం జొచ్చిన మిన్నుఁ బ్రాకిన దశాస్యా! వజ్రి వజ్రాభ భీ
@@ -2563,32 +2371,29 @@
 వరవర్ణిన్‌ గొనిపోవు నిక్క" మనుచున్‌ వాదింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ర', '|'), ('మే', 'U'), ('నీ', 'U'), ('కి', '|'), ('క', '|'), ('నెం', 'U'), ('దు', '|'), ('బో', 'U'), ('గ', '|'), ('ల', '|'), ('వు', '|'), ('పా', 'U'), ('తా', 'U'), ('ళం', 'U'), ('బు', '|'), ('లో', 'U'), ('డా', 'U'), ('గి', '|'), ('నన్', 'U'), ('శ', '|'), ('ర', '|'), ('ధిం', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('మి', 'U'), ('న్ను', 'U'), ('బ్రా', 'U'), ('కి', '|'), ('న', '|'), ('ద', '|'), ('శా', 'U'), ('స్యా', 'U'), ('వ', 'U'), ('జ్రి', '|'), ('వ', 'U'), ('జ్రా', 'U'), ('భ', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('బా', 'U'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('నీ', 'U'), ('శి', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('ని', '|'), ('లో', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('యా', 'U'), ('కా', 'U'), ('కు', 'U'), ('త్స్థు', '|'), ('డా', 'U'), ('వ', '|'), ('ర', '|'), ('వ', '|'), ('ర్ణిన్', 'U'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('వు', '|'), ('ని', 'U'), ('క్క', '|'), ('మ', '|'), ('ను', '|'), ('చున్', 'U'), ('వా', 'U'), ('దిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B66" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
         <is>
           <t>దశకంఠాసుర! పుణ్యసాధ్వియగు సీతం గానలో దొంగవై
 పశుబుద్ధిం గొనితెచ్చి నందుకిపుడే బంధించి ముష్టిన్‌ త్వదు
@@ -2596,32 +2401,29 @@
 ర్దశ నొందింపక యోర్చియుంటి' ననుచుం దర్జింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠా', 'U'), ('సు', '|'), ('ర', '|'), ('పు', 'U'), ('ణ్య', '|'), ('సా', 'U'), ('ధ్వి', '|'), ('య', '|'), ('గు', '|'), ('సీ', 'U'), ('తం', 'U'), ('గా', 'U'), ('న', '|'), ('లో', 'U'), ('దొం', 'U'), ('గ', '|'), ('వై', 'U'), ('ప', '|'), ('శు', '|'), ('బు', 'U'), ('ద్ధిం', 'U'), ('గొ', '|'), ('ని', '|'), ('తె', 'U'), ('చ్చి', '|'), ('నం', 'U'), ('దు', '|'), ('కి', '|'), ('పు', '|'), ('డే', 'U'), ('బం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('ము', '|'), ('ష్టిన్', 'U'), ('త్వ', '|'), ('దు', 'U'), ('గ్ర', '|'), ('శి', '|'), ('రం', 'U'), ('బుల్', 'U'), ('వె', '|'), ('స', 'U'), ('వ్ర', 'U'), ('క్క', '|'), ('లిం', 'U'), ('ప', '|'), ('న', '|'), ('గు', '|'), ('నా', 'U'), ('రా', 'U'), ('మా', 'U'), ('జ్ఞ', '|'), ('లే', 'U'), ('కు', 'U'), ('న్కి', '|'), ('దు', '|'), ('ర్ద', '|'), ('శ', '|'), ('నొం', 'U'), ('దిం', 'U'), ('ప', '|'), ('క', '|'), ('యో', 'U'), ('ర్చి', '|'), ('యుం', 'U'), ('టి', '|'), ('న', '|'), ('ను', '|'), ('చుం', 'U'), ('ద', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B67" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
         <is>
           <t>దనుజాధీశుఁడు నీదువాలమునకున్‌ తైలార్ద్రచేలంబు లొ
 య్యనఁ జుట్టించి కొనన్‌ కృశాను నిడి దేవారాతు లివ్వానరుం
@@ -2630,32 +2432,29 @@
 ల్పన దత్కర్మ మొకింతసేపు మదిలో సైరింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డు', '|'), ('నీ', 'U'), ('దు', '|'), ('వా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('తై', 'U'), ('లా', 'U'), ('ర్ద్ర', '|'), ('చే', 'U'), ('లం', 'U'), ('బు', '|'), ('లొ', 'U'), ('య్య', '|'), ('న', '|'), ('జు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('కొ', '|'), ('నన్', 'U'), ('కృ', '|'), ('శా', 'U'), ('ను', '|'), ('ని', '|'), ('డి', '|'), ('దే', 'U'), ('వా', 'U'), ('రా', 'U'), ('తు', '|'), ('లి', 'U'), ('వ్వా', 'U'), ('న', '|'), ('రుం', 'U'), ('గొ', '|'), ('ని', 'U'), ('ప్రో', 'U'), ('లం', 'U'), ('త', '|'), ('యు', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('డం', 'U'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('కన్', 'U'), ('ఘో', 'U'), ('షిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('దై', 'U'), ('త్యు', '|'), ('ల', 'U'), ('ట్లొ', '|'), ('న', '|'), ('రిం', 'U'), ('పన్', 'U'), ('బు', '|'), ('రి', '|'), ('గు', 'U'), ('ప్తి', '|'), ('క', '|'), ('ర్మ', '|'), ('ము', '|'), ('త', '|'), ('దు', 'U'), ('ద్యో', 'U'), ('గం', 'U'), ('బు', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('బె', 'U'), ('ల్ప', '|'), ('న', '|'), ('ద', 'U'), ('త్క', '|'), ('ర్మ', '|'), ('మొ', '|'), ('కిం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('సై', 'U'), ('రిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B68" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
         <is>
           <t>ప్రకటింపన్‌ జగముల్‌ దహించు శిఖి నీవాలాగ్రగుండయ్యు జా
 నకి యాశీర్వచనంబునన్‌ బవనబాంధవ్యంబునన్‌ జేసి తా
@@ -2663,32 +2462,29 @@
 దికతోఁ జందనపంకశీతుఁ డగుచున్‌ దీపింపఁడే మారుతీ!</t>
         </is>
       </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('క', '|'), ('టిం', 'U'), ('పన్', 'U'), ('జ', '|'), ('గ', '|'), ('ముల్', 'U'), ('ద', '|'), ('హిం', 'U'), ('చు', '|'), ('శి', '|'), ('ఖి', '|'), ('నీ', 'U'), ('వా', 'U'), ('లా', 'U'), ('గ్ర', '|'), ('గుం', 'U'), ('డ', 'U'), ('య్యు', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('యా', 'U'), ('శీ', 'U'), ('ర్వ', '|'), ('చ', '|'), ('నం', 'U'), ('బు', '|'), ('నన్', 'U'), ('బ', '|'), ('వ', '|'), ('న', '|'), ('బాం', 'U'), ('ధ', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జే', 'U'), ('సి', '|'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('వా', 'U'), ('లాం', 'U'), ('చి', '|'), ('త', '|'), ('రో', 'U'), ('మ', '|'), ('మై', 'U'), ('న', '|'), ('గ', '|'), ('మ', '|'), ('లిం', 'U'), ('పన్', 'U'), ('శ', 'U'), ('క్తు', '|'), ('డుం', 'U'), ('గా', 'U'), ('క', '|'), ('పొం', 'U'), ('ది', '|'), ('క', '|'), ('తో', 'U'), ('జం', 'U'), ('ద', '|'), ('న', '|'), ('పం', 'U'), ('క', '|'), ('శీ', 'U'), ('తు', '|'), ('డ', '|'), ('గు', '|'), ('చున్', 'U'), ('దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('డే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B69" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
         <is>
           <t>తనువుం గొంచెముఁ జేసి రజ్జుమయబంధంబుల్‌ వడిం ద్రుంచి వెం
 టనె కాలాభ్రము వైఖరిన్‌ బెరిగి తోడన్‌ వచ్చు దోషాటులన్‌
@@ -2696,32 +2492,29 @@
 ఘనలంకానగరంబు సర్వ మవిశంకం గాల్పవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
           <t>[('త', '|'), ('ను', '|'), ('వుం', 'U'), ('గొం', 'U'), ('చె', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('ర', 'U'), ('జ్జు', '|'), ('మ', '|'), ('య', '|'), ('బం', 'U'), ('ధం', 'U'), ('బుల్', 'U'), ('వ', '|'), ('డిం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('వెం', 'U'), ('ట', '|'), ('నె', '|'), ('కా', 'U'), ('లా', 'U'), ('భ్ర', '|'), ('ము', '|'), ('వై', 'U'), ('ఖ', '|'), ('రిన్', 'U'), ('బె', '|'), ('రి', '|'), ('గి', '|'), ('తో', 'U'), ('డన్', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('దో', 'U'), ('షా', 'U'), ('టు', '|'), ('లన్', 'U'), ('ము', '|'), ('ను', '|'), ('ము', 'U'), ('ట్టం', 'U'), ('దు', '|'), ('ను', '|'), ('మా', 'U'), ('డి', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రు', '|'), ('లు', '|'), ('సం', 'U'), ('తో', 'U'), ('షిం', 'U'), ('ప', '|'), ('వా', 'U'), ('లా', 'U'), ('గ్ని', '|'), ('చే', 'U'), ('ఘ', '|'), ('న', '|'), ('లం', 'U'), ('కా', 'U'), ('న', '|'), ('గ', '|'), ('రం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వ', '|'), ('మ', '|'), ('వి', '|'), ('శం', 'U'), ('కం', 'U'), ('గా', 'U'), ('ల్ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B70" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
         <is>
           <t>జనకక్ష్మాపతిపుత్రి యున్న నగరాజంబున్‌, నయజ్ఞుండు స
 జ్జనమాన్యుండగు నవ్విభీషణుని వేశ్మశ్రేష్ఠముం దక్క త
@@ -2729,32 +2522,29 @@
 త్రనటత్పావక దగ్ధలోకసమతం బ్రాపించెఁగా మారుతీ!</t>
         </is>
       </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
           <t>[('జ', '|'), ('న', '|'), ('క', 'U'), ('క్ష్మా', 'U'), ('ప', '|'), ('తి', '|'), ('పు', 'U'), ('త్రి', '|'), ('యు', 'U'), ('న్న', '|'), ('న', '|'), ('గ', '|'), ('రా', 'U'), ('జం', 'U'), ('బు', 'U'), ('న్న', '|'), ('య', 'U'), ('జ్ఞుం', 'U'), ('డు', '|'), ('స', 'U'), ('జ్జ', '|'), ('న', '|'), ('మా', 'U'), ('న్యుం', 'U'), ('డ', '|'), ('గు', '|'), ('న', 'U'), ('వ్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('ని', '|'), ('వే', 'U'), ('శ్మ', 'U'), ('శ్రే', 'U'), ('ష్ఠ', '|'), ('ముం', 'U'), ('ద', 'U'), ('క్క', '|'), ('త', 'U'), ('క్కి', '|'), ('న', '|'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('మె', 'U'), ('ల్ల', '|'), ('వా', 'U'), ('ల', '|'), ('క', '|'), ('లి', '|'), ('తా', 'U'), ('గ్నిం', 'U'), ('గ్రా', 'U'), ('గి', 'U'), ('క్రు', 'U'), ('ద్దే', 'U'), ('శ', '|'), ('నే', 'U'), ('త్ర', '|'), ('న', '|'), ('ట', 'U'), ('త్పా', 'U'), ('వ', '|'), ('క', '|'), ('ద', 'U'), ('గ్ధ', '|'), ('లో', 'U'), ('క', '|'), ('స', '|'), ('మ', '|'), ('తం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చె', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B71" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
         <is>
           <t>నిను బంధించుట నీదువాలమున వహ్నిం గొల్పుటల్‌ రాక్షసుల్‌
 వినిపింపన్‌ విని సీత యేను పతికిం బ్రేమాస్పదీభూత నౌ
@@ -2762,32 +2552,29 @@
 వనికిన్‌ శీతుఁడవై వెలుంగు మనుచున్‌ బ్రార్థింపదే మారుతీ!</t>
         </is>
       </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
           <t>[('ని', '|'), ('ను', '|'), ('బం', 'U'), ('ధిం', 'U'), ('చు', '|'), ('ట', '|'), ('నీ', 'U'), ('దు', '|'), ('వా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('వ', 'U'), ('హ్నిం', 'U'), ('గొ', 'U'), ('ల్పు', '|'), ('టల్', 'U'), ('రా', 'U'), ('క్ష', '|'), ('సుల్', 'U'), ('వి', '|'), ('ని', '|'), ('పిం', 'U'), ('పన్', 'U'), ('వి', '|'), ('ని', '|'), ('సీ', 'U'), ('త', '|'), ('యే', 'U'), ('ను', '|'), ('ప', '|'), ('తి', '|'), ('కిం', 'U'), ('బ్రే', 'U'), ('మా', 'U'), ('స్ప', '|'), ('దీ', 'U'), ('భూ', 'U'), ('త', '|'), ('నౌ', 'U'), ('ట', '|'), ('ని', '|'), ('జం', 'U'), ('బే', 'U'), ('ని', '|'), ('కృ', '|'), ('పీ', 'U'), ('ట', '|'), ('జ', 'U'), ('న్మ', '|'), ('క', '|'), ('డు', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('మ', 'U'), ('త్ప్రి', '|'), ('యా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('పా', 'U'), ('వ', '|'), ('ని', '|'), ('కిన్', 'U'), ('శీ', 'U'), ('తు', '|'), ('డ', '|'), ('వై', 'U'), ('వె', '|'), ('లుం', 'U'), ('గు', '|'), ('మ', '|'), ('ను', '|'), ('చున్', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('దే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B72" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
         <is>
           <t>ఘనవాలాగ్ని శిఖాళిఁ గాల్చితిని లంకన్‌ సీత యేమయ్యెనో
 యని శంకించి కృశానుచేఁ గమల కాహా! నేఁడు వైదేహనం
@@ -2795,32 +2582,29 @@
 విని మోదంబున భూమిపుత్రి మరలన్‌ వీక్షింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('వా', 'U'), ('లా', 'U'), ('గ్ని', '|'), ('శి', '|'), ('ఖా', 'U'), ('ళి', '|'), ('గా', 'U'), ('ల్చి', '|'), ('తి', '|'), ('ని', '|'), ('లం', 'U'), ('కన్', 'U'), ('సీ', 'U'), ('త', '|'), ('యే', 'U'), ('మ', 'U'), ('య్యె', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('శం', 'U'), ('కిం', 'U'), ('చి', '|'), ('కృ', '|'), ('శా', 'U'), ('ను', '|'), ('చే', 'U'), ('గ', '|'), ('మ', '|'), ('ల', '|'), ('కా', 'U'), ('హా', 'U'), ('నే', 'U'), ('డు', '|'), ('వై', 'U'), ('దే', 'U'), ('హ', '|'), ('నం', 'U'), ('ది', '|'), ('ని', '|'), ('సే', 'U'), ('మం', 'U'), ('బు', '|'), ('న', '|'), ('ను', 'U'), ('న్న', '|'), ('దం', 'U'), ('చు', '|'), ('వి', '|'), ('ను', '|'), ('వీ', 'U'), ('థి', '|'), ('న్మ్రో', 'U'), ('యు', '|'), ('దే', 'U'), ('వో', 'U'), ('క్తు', '|'), ('లన్', 'U'), ('వి', '|'), ('ని', '|'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('భూ', 'U'), ('మి', '|'), ('పు', 'U'), ('త్రి', '|'), ('మ', '|'), ('ర', '|'), ('లన్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B73" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
         <is>
           <t>శరధిం దాటి దశాస్యు ప్రోలమరు లెంచం జొచ్చి సర్వంసహా
 వరజం గాంచి, యశోకానననము విధ్వంసంబు గావించి కొం
@@ -2828,32 +2612,29 @@
 త్తర తీరస్థ నగంబుఁ జేరితివి గాదే బల్విడిన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
           <t>[('శ', '|'), ('ర', '|'), ('ధిం', 'U'), ('దా', 'U'), ('టి', '|'), ('ద', '|'), ('శా', 'U'), ('స్యు', 'U'), ('ప్రో', 'U'), ('ల', '|'), ('మ', '|'), ('రు', '|'), ('లెం', 'U'), ('చం', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('స', 'U'), ('ర్వం', 'U'), ('స', '|'), ('హా', 'U'), ('వ', '|'), ('ర', '|'), ('జం', 'U'), ('గాం', 'U'), ('చి', '|'), ('య', '|'), ('శో', 'U'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('న', '|'), ('ము', '|'), ('వి', 'U'), ('ధ్వం', 'U'), ('సం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('కొం', 'U'), ('ద', '|'), ('ఱ', '|'), ('దై', 'U'), ('తే', 'U'), ('యు', '|'), ('ల', '|'), ('జం', 'U'), ('పి', '|'), ('వెం', 'U'), ('డి', '|'), ('జ', '|'), ('ల', '|'), ('ధిన్', 'U'), ('లం', 'U'), ('ఘిం', 'U'), ('చి', '|'), ('శీ', 'U'), ('ఘ్రం', 'U'), ('బె', '|'), ('యు', 'U'), ('త్త', '|'), ('ర', '|'), ('తీ', 'U'), ('ర', 'U'), ('స్థ', '|'), ('న', '|'), ('గం', 'U'), ('బు', '|'), ('జే', 'U'), ('రి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దే', 'U'), ('బ', 'U'), ('ల్వి', '|'), ('డిన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B74" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
         <is>
           <t>కనుగొంటిన్‌ రఘురామపత్ని నల లంకాపట్టణాభ్యంతరం
 బున నంచుం దగఁ బోయి వచ్చిన విధంబునన్‌, సర్వకార్యంబులున్‌
@@ -2861,32 +2642,29 @@
 శనికాయంబుల కట్లొసంగవె మహాసమ్మోదమున్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('ను', '|'), ('గొం', 'U'), ('టిన్', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('ప', 'U'), ('త్ని', '|'), ('న', '|'), ('ల', '|'), ('లం', 'U'), ('కా', 'U'), ('ప', 'U'), ('ట్ట', '|'), ('ణా', 'U'), ('భ్యం', 'U'), ('త', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('నం', 'U'), ('చుం', 'U'), ('ద', '|'), ('గ', '|'), ('బో', 'U'), ('యి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', 'U'), ('న్స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('లున్', 'U'), ('వి', '|'), ('న', '|'), ('యం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('దె', 'U'), ('ల్పి', '|'), ('యం', 'U'), ('గ', '|'), ('దు', '|'), ('న', '|'), ('కున్', 'U'), ('నీ', 'U'), ('లా', 'U'), ('జ', '|'), ('పు', 'U'), ('త్రా', 'U'), ('ది', '|'), ('కీ', 'U'), ('శ', '|'), ('ని', '|'), ('కా', 'U'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('క', 'U'), ('ట్లొ', '|'), ('సం', 'U'), ('గ', '|'), ('వె', '|'), ('మ', '|'), ('హా', 'U'), ('స', 'U'), ('మ్మో', 'U'), ('ద', '|'), ('మున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B75" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
         <is>
           <t>చిరకాలంబునుండి పెంచిన మధుస్ఫీతోరుకాంతారముం
 గరమర్థిన్‌ వడిఁ జొచ్చి విచ్చలవిడిన్‌ సంతుష్టియౌ నట్లుగా
@@ -2894,32 +2672,29 @@
 నరులం దృప్తులఁ జేయవే సమధికానందముతో మారుతీ!</t>
         </is>
       </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
           <t>[('చి', '|'), ('ర', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('నుం', 'U'), ('డి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('ధు', 'U'), ('స్ఫీ', 'U'), ('తో', 'U'), ('రు', '|'), ('కాం', 'U'), ('తా', 'U'), ('ర', '|'), ('ముం', 'U'), ('గ', '|'), ('ర', '|'), ('మ', '|'), ('ర్థిన్', 'U'), ('వ', '|'), ('డి', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('వి', 'U'), ('చ్చ', '|'), ('ల', '|'), ('వి', '|'), ('డిన్', 'U'), ('సం', 'U'), ('తు', 'U'), ('ష్టి', '|'), ('యౌ', 'U'), ('న', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('దే', 'U'), ('నె', '|'), ('లు', '|'), ('ద్రా', 'U'), ('వ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('ఫ', '|'), ('ల', '|'), ('ముల్', 'U'), ('భ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('గా', 'U'), ('జే', 'U'), ('సి', '|'), ('వా', 'U'), ('న', '|'), ('రు', '|'), ('లం', 'U'), ('దృ', 'U'), ('ప్తు', '|'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('వే', 'U'), ('స', '|'), ('మ', '|'), ('ధి', '|'), ('కా', 'U'), ('నం', 'U'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B76" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
         <is>
           <t>ఆరామాధిపు పాదపద్మముల కుద్యద్భక్తితో మ్రొక్కి గ
 న్నారన్‌ జూచితి భూమిపుత్రిని దశాస్యావాసమౌ లంకలో
@@ -2928,32 +2703,29 @@
 పారం దెల్పి, ముదబ్ధిఁ దేల్పవె నృపాలాగ్రేసరున్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('రా', 'U'), ('మా', 'U'), ('ధి', '|'), ('పు', '|'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ము', '|'), ('ల', '|'), ('కు', 'U'), ('ద్య', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('మ్రొ', 'U'), ('క్కి', '|'), ('గ', 'U'), ('న్నా', 'U'), ('రన్', 'U'), ('జూ', 'U'), ('చి', '|'), ('తి', '|'), ('భూ', 'U'), ('మి', '|'), ('పు', 'U'), ('త్రి', '|'), ('ని', '|'), ('ద', '|'), ('శా', 'U'), ('స్యా', 'U'), ('వా', 'U'), ('స', '|'), ('మౌ', 'U'), ('లం', 'U'), ('క', '|'), ('లో', 'U'), ('సా', 'U'), ('రో', 'U'), ('ద్యా', 'U'), ('న', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('దై', 'U'), ('త్య', '|'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('సం', 'U'), ('దో', 'U'), ('హ', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వీ', 'U'), ('ర', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('ణి', '|'), ('చి', 'U'), ('క్కి', '|'), ('యు', 'U'), ('న్న', '|'), ('ద', '|'), ('ని', '|'), ('త', 'U'), ('ద్వృ', 'U'), ('త్తాం', 'U'), ('త', '|'), ('మా', 'U'), ('ద్యం', 'U'), ('త', '|'), ('మిం', 'U'), ('పా', 'U'), ('రం', 'U'), ('దె', 'U'), ('ల్పి', '|'), ('ము', '|'), ('ద', 'U'), ('బ్ధి', '|'), ('దే', 'U'), ('ల్ప', '|'), ('వె', '|'), ('నృ', '|'), ('పా', 'U'), ('లా', 'U'), ('గ్రే', 'U'), ('స', '|'), ('రున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B77" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
         <is>
           <t>మహిపుత్రీకుశలంబు దెల్పి, మము సమ్యగ్ప్రీతి పాథోధి వా
 ర్లహరిన్‌ దేల్చితి వింక నేను ప్రతికారం బేమి గావింతు? మ
@@ -2961,32 +2733,29 @@
 రహి మీఱ న్గొను మంచొసంగఁడె కృపన్‌ రాజేంద్రుఁడున్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('హి', '|'), ('పు', 'U'), ('త్రీ', 'U'), ('కు', '|'), ('శ', '|'), ('లం', 'U'), ('బు', '|'), ('దె', 'U'), ('ల్పి', '|'), ('మ', '|'), ('ము', '|'), ('స', 'U'), ('మ్య', 'U'), ('గ్ప్రీ', 'U'), ('తి', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('వా', 'U'), ('ర్ల', '|'), ('హ', '|'), ('రిన్', 'U'), ('దే', 'U'), ('ల్చి', '|'), ('తి', '|'), ('విం', 'U'), ('క', '|'), ('నే', 'U'), ('ను', 'U'), ('ప్ర', '|'), ('తి', '|'), ('కా', 'U'), ('రం', 'U'), ('బే', 'U'), ('మి', '|'), ('గా', 'U'), ('విం', 'U'), ('తు', '|'), ('మ', 'U'), ('త్స', '|'), ('హ', '|'), ('నో', 'U'), ('ద', 'U'), ('గ్ర', '|'), ('భు', '|'), ('జా', 'U'), ('యు', '|'), ('గాం', 'U'), ('చి', '|'), ('త', '|'), ('ప', '|'), ('రి', 'U'), ('ష్వం', 'U'), ('గం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కి', 'U'), ('చ్చె', '|'), ('దన్', 'U'), ('ర', '|'), ('హి', '|'), ('మీ', 'U'), ('ఱ', 'U'), ('న్గొ', '|'), ('ను', '|'), ('మం', 'U'), ('చొ', '|'), ('సం', 'U'), ('గ', '|'), ('డె', '|'), ('కృ', '|'), ('పన్', 'U'), ('రా', 'U'), ('జేం', 'U'), ('ద్రు', '|'), ('డున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B78" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
         <is>
           <t>ఆ లంకాపురి గుప్తికర్మము, నిశాటాళిప్రలాపంబులున్‌
 వాలాయంబు దశాస్యుగర్వమును సర్వంబున్‌ నివేదించి కీ
@@ -2994,32 +2763,29 @@
 కాలస్యంబది యేలటంచు విభునిం బ్రార్థింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రి', '|'), ('గు', 'U'), ('ప్తి', '|'), ('క', '|'), ('ర్మ', '|'), ('ము', '|'), ('ని', '|'), ('శా', 'U'), ('టా', 'U'), ('ళి', 'U'), ('ప్ర', '|'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('లున్', 'U'), ('వా', 'U'), ('లా', 'U'), ('యం', 'U'), ('బు', '|'), ('ద', '|'), ('శా', 'U'), ('స్యు', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('ను', '|'), ('స', 'U'), ('ర్వం', 'U'), ('బున్', 'U'), ('ని', '|'), ('వే', 'U'), ('దిం', 'U'), ('చి', '|'), ('కీ', 'U'), ('శా', 'U'), ('ళిం', 'U'), ('దో', 'U'), ('డ్కొ', '|'), ('ని', '|'), ('ఘో', 'U'), ('ర', '|'), ('జ', 'U'), ('న్య', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('యా', 'U'), ('నం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('పు', '|'), ('మిం', 'U'), ('కా', 'U'), ('ల', 'U'), ('స్యం', 'U'), ('బ', '|'), ('ది', '|'), ('యే', 'U'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('వి', '|'), ('భు', '|'), ('నిం', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B79" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
         <is>
           <t>మతిమంతుండు విభీషణుండు, రఘురామా, నన్ను రక్షింపు మం
 చతిదైన్యంబున నేగుదెంచిన దదీయాకార వాగింగితా
@@ -3027,32 +2793,29 @@
 మ్మతి నిప్పింపవె వాని కట్లభయమున్‌ క్ష్మానాథుచే మారుతీ!</t>
         </is>
       </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
           <t>[('మ', '|'), ('తి', '|'), ('మం', 'U'), ('తుం', 'U'), ('డు', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణుం', 'U'), ('డు', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మా', 'U'), ('న', 'U'), ('న్ను', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మం', 'U'), ('చ', '|'), ('తి', '|'), ('దై', 'U'), ('న్యం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('గు', '|'), ('దెం', 'U'), ('చి', '|'), ('న', '|'), ('ద', '|'), ('దీ', 'U'), ('యా', 'U'), ('కా', 'U'), ('ర', '|'), ('వా', 'U'), ('గిం', 'U'), ('గి', '|'), ('తా', 'U'), ('త', '|'), ('త', '|'), ('శీ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('వా', 'U'), ('ని', '|'), ('ప', '|'), ('రి', '|'), ('శు', 'U'), ('ద్ధ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('బో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('ని', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('వె', '|'), ('వా', 'U'), ('ని', '|'), ('క', 'U'), ('ట్ల', '|'), ('భ', '|'), ('య', '|'), ('మున్', 'U'), ('క్ష్మా', 'U'), ('నా', 'U'), ('థు', '|'), ('చే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B80" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
         <is>
           <t>నలుఁడా సేతువు గట్టునప్పుడు కపుల్‌ నానాప్రకారంబులన్‌
 శిలలం జెట్టులు దెచ్చివైచునెడ నిస్సీమప్రభావంబునన్‌
@@ -3060,32 +2823,29 @@
 బలువొప్పం గొని తెచ్చి వైచి జలధిం బంధింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
           <t>[('న', '|'), ('లు', '|'), ('డా', 'U'), ('సే', 'U'), ('తు', '|'), ('వు', '|'), ('గ', 'U'), ('ట్టు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('క', '|'), ('పుల్', 'U'), ('నా', 'U'), ('నా', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('శి', '|'), ('ల', '|'), ('లం', 'U'), ('జె', 'U'), ('ట్టు', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చి', '|'), ('వై', 'U'), ('చు', '|'), ('నె', '|'), ('డ', '|'), ('ని', 'U'), ('స్సీ', 'U'), ('మ', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జ', '|'), ('ల', '|'), ('మా', 'U'), ('రం', 'U'), ('ద', '|'), ('గ', '|'), ('నీ', 'U'), ('వు', '|'), ('రా', 'U'), ('ఘ', '|'), ('వు', '|'), ('డు', '|'), ('మె', 'U'), ('చ్చం', 'U'), ('గొ', 'U'), ('ప్ప', '|'), ('శై', 'U'), ('లం', 'U'), ('బు', '|'), ('లన్', 'U'), ('బ', '|'), ('లు', '|'), ('వొ', 'U'), ('ప్పం', 'U'), ('గొ', '|'), ('ని', '|'), ('తె', 'U'), ('చ్చి', '|'), ('వై', 'U'), ('చి', '|'), ('జ', '|'), ('ల', '|'), ('ధిం', 'U'), ('బం', 'U'), ('ధిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B81" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
         <is>
           <t>కనకోర్వీధరరాజ మద్భుతగతిం గాలాభ్రముం దాల్చిన
 ట్లనుమానింపఁగ నీవు భూరివిపులోద్యత్పృష్ఠభాగంబునన్‌
@@ -3093,32 +2853,29 @@
 న్ననఁ దత్సేతుపథంబునం జలనిధిం దాటింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
           <t>[('క', '|'), ('న', '|'), ('కో', 'U'), ('ర్వీ', 'U'), ('ధ', '|'), ('ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', 'U'), ('ద్భు', '|'), ('త', '|'), ('గ', '|'), ('తిం', 'U'), ('గా', 'U'), ('లా', 'U'), ('భ్ర', '|'), ('ముం', 'U'), ('దా', 'U'), ('ల్చి', '|'), ('న', 'U'), ('ట్ల', '|'), ('ను', '|'), ('మా', 'U'), ('నిం', 'U'), ('ప', '|'), ('గ', '|'), ('నీ', 'U'), ('వు', '|'), ('భూ', 'U'), ('రి', '|'), ('వి', '|'), ('పు', '|'), ('లో', 'U'), ('ద్య', 'U'), ('త్పృ', 'U'), ('ష్ఠ', '|'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ది', '|'), ('న', '|'), ('నా', 'U'), ('థా', 'U'), ('న్వ', '|'), ('య', '|'), ('సో', 'U'), ('ము', '|'), ('రా', 'U'), ('ము', '|'), ('న', '|'), ('మి', '|'), ('త', 'U'), ('స్థే', 'U'), ('మున్', 'U'), ('ర', '|'), ('హిం', 'U'), ('దా', 'U'), ('ల్చి', 'U'), ('గ్ర', 'U'), ('న్న', '|'), ('న', '|'), ('ద', 'U'), ('త్సే', 'U'), ('తు', '|'), ('ప', '|'), ('థం', 'U'), ('బు', '|'), ('నం', 'U'), ('జ', '|'), ('ల', '|'), ('ని', '|'), ('ధిం', 'U'), ('దా', 'U'), ('టిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B82" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
         <is>
           <t>సురనాథుండు శతారధార నలుకన్‌ క్షోణీధ్రముం బోలె సం
 గరభూమీస్థలి ధూమ్రలోచన మహాక్రవ్యాదునిం బట్టి ని
@@ -3126,32 +2883,29 @@
 కరభంగిన్‌ బడఁగూల్పవే నృపతి వేడ్కం జూడఁగా మారుతీ!</t>
         </is>
       </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F82" t="inlineStr">
-        <is>
           <t>[('సు', '|'), ('ర', '|'), ('నా', 'U'), ('థుం', 'U'), ('డు', '|'), ('శ', '|'), ('తా', 'U'), ('ర', '|'), ('ధా', 'U'), ('ర', '|'), ('న', '|'), ('లు', '|'), ('కన్', 'U'), ('క్షో', 'U'), ('ణీ', 'U'), ('ధ్ర', '|'), ('ముం', 'U'), ('బో', 'U'), ('లె', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('భూ', 'U'), ('మీ', 'U'), ('స్థ', '|'), ('లి', '|'), ('ధూ', 'U'), ('మ్ర', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('క్ర', 'U'), ('వ్యా', 'U'), ('దు', '|'), ('నిం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('శై', 'U'), ('ల', 'U'), ('ప్ర', '|'), ('హ', '|'), ('తిన్', 'U'), ('వి', '|'), ('భి', 'U'), ('న్న', '|'), ('పృ', '|'), ('థు', '|'), ('శీ', 'U'), ('ర్షుం', 'U'), ('జే', 'U'), ('సి', '|'), ('దు', '|'), ('ర్దాం', 'U'), ('త', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('భం', 'U'), ('గిన్', 'U'), ('బ', '|'), ('డ', '|'), ('గూ', 'U'), ('ల్ప', '|'), ('వే', 'U'), ('నృ', '|'), ('ప', '|'), ('తి', '|'), ('వే', 'U'), ('డ్కం', 'U'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B83" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
         <is>
           <t>ఘనబాహాబలుఁ డయ్యకంపనుఁడు దైత్యానీక సంయుక్తుఁడై
 యనికిం డాసిన భూరిరౌద్రరసదీప్తాస్యుండవై ఘోరవృ
@@ -3159,32 +2913,29 @@
 య్యన వృక్షంబును బోలె గూల్పవె సురల్‌ హర్షింపఁగా మారుతీ!</t>
         </is>
       </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F83" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('లు', '|'), ('డ', 'U'), ('య్య', '|'), ('కం', 'U'), ('ప', '|'), ('ను', '|'), ('డు', '|'), ('దై', 'U'), ('త్యా', 'U'), ('నీ', 'U'), ('క', '|'), ('సం', 'U'), ('యు', 'U'), ('క్తు', '|'), ('డై', 'U'), ('య', '|'), ('ని', '|'), ('కిం', 'U'), ('డా', 'U'), ('సి', '|'), ('న', '|'), ('భూ', 'U'), ('రి', '|'), ('రౌ', 'U'), ('ద్ర', '|'), ('ర', '|'), ('స', '|'), ('దీ', 'U'), ('ప్తా', 'U'), ('స్యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('ఘో', 'U'), ('ర', '|'), ('వృ', 'U'), ('క్ష', '|'), ('ని', '|'), ('పా', 'U'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('పె', 'U'), ('న్ను', '|'), ('ర', '|'), ('ము', 'U'), ('వ్ర', '|'), ('క్కల్', 'U'), ('చే', 'U'), ('సి', '|'), ('వా', 'U'), ('తూ', 'U'), ('ల', '|'), ('మొ', 'U'), ('య్య', '|'), ('న', '|'), ('వృ', 'U'), ('క్షం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('లె', '|'), ('గూ', 'U'), ('ల్ప', '|'), ('వె', '|'), ('సు', '|'), ('రల్', 'U'), ('హ', 'U'), ('ర్షిం', 'U'), ('ప', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B84" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
         <is>
           <t>వదనంబు బ్రళయార్కబింబము క్రియన్‌ భాసిల్ల, లాంగూల మా
 త్రిదశేంద్రాయుధవైఖరిన్‌ మిగుల నుద్దీపింప బంచాననో
@@ -3193,32 +2944,29 @@
 ద్ద దశాస్యుండు సగంబుఁ జావ నఱచేతన్‌ వ్రేయవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F84" t="inlineStr">
-        <is>
           <t>[('వ', '|'), ('ద', '|'), ('నం', 'U'), ('బు', 'U'), ('బ్ర', '|'), ('ళ', '|'), ('యా', 'U'), ('ర్క', '|'), ('బిం', 'U'), ('బ', '|'), ('ము', 'U'), ('క్రి', '|'), ('యన్', 'U'), ('భా', 'U'), ('సి', 'U'), ('ల్ల', '|'), ('లాం', 'U'), ('గూ', 'U'), ('ల', '|'), ('మా', 'U'), ('త్రి', '|'), ('ద', '|'), ('శేం', 'U'), ('ద్రా', 'U'), ('యు', '|'), ('ధ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రిన్', 'U'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('ను', 'U'), ('ద్దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('బం', 'U'), ('చా', 'U'), ('న', '|'), ('నో', 'U'), ('ద్య', '|'), ('ద', '|'), ('హీం', 'U'), ('ద్రం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('ని', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణ', '|'), ('క', '|'), ('రం', 'U'), ('బా', 'U'), ('స', 'U'), ('క్తి', '|'), ('తో', 'U'), ('నె', 'U'), ('త్తి', '|'), ('వా', 'U'), ('రి', '|'), ('ద', '|'), ('నా', 'U'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('ధా', 'U'), ('త్రి', 'U'), ('గ్ర', 'U'), ('క్క', '|'), ('ద', '|'), ('ల', '|'), ('బే', 'U'), ('రెం', 'U'), ('బె', 'U'), ('త్తు', '|'), ('చున్', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('త', 'U'), ('ద్ద', '|'), ('ద', '|'), ('శా', 'U'), ('స్యుం', 'U'), ('డు', '|'), ('స', '|'), ('గం', 'U'), ('బు', '|'), ('జా', 'U'), ('వ', '|'), ('న', '|'), ('ఱ', '|'), ('చే', 'U'), ('తన్', 'U'), ('వ్రే', 'U'), ('య', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B85" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
         <is>
           <t>రణరంగమ్మున మూర్ఛనొందిన సుమిత్రాపుత్రునుం, ధీరునిన్‌
 ఫణినాధాంశజు, లంకకట్లు గొనిపోవం జూచు దుష్టాత్ము రా
@@ -3226,32 +2974,29 @@
 క్ష్మణునిం దేర్చి యొసంగవే విభునకున్‌ సంతోషివై మారుతీ!</t>
         </is>
       </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
           <t>[('ర', '|'), ('ణ', '|'), ('రం', 'U'), ('గ', 'U'), ('మ్ము', '|'), ('న', '|'), ('మూ', 'U'), ('ర్ఛ', '|'), ('నొం', 'U'), ('ది', '|'), ('న', '|'), ('సు', '|'), ('మి', 'U'), ('త్రా', 'U'), ('పు', 'U'), ('త్రు', '|'), ('నుం', 'U'), ('ధీ', 'U'), ('రు', '|'), ('నిన్', 'U'), ('ఫ', '|'), ('ణి', '|'), ('నా', 'U'), ('ధాం', 'U'), ('శ', '|'), ('జు', '|'), ('లం', 'U'), ('క', '|'), ('క', 'U'), ('ట్లు', '|'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('వం', 'U'), ('జూ', 'U'), ('చు', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('రా', 'U'), ('వ', '|'), ('ణు', '|'), ('నిం', 'U'), ('వ', 'U'), ('జ్ర', '|'), ('ని', '|'), ('కా', 'U'), ('శ', '|'), ('ము', 'U'), ('ష్టి', '|'), ('హ', '|'), ('తి', '|'), ('నొ', 'U'), ('వ్వం', 'U'), ('జే', 'U'), ('సి', '|'), ('తూ', 'U'), ('లిం', 'U'), ('చి', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('నిం', 'U'), ('దే', 'U'), ('ర్చి', '|'), ('యొ', '|'), ('సం', 'U'), ('గ', '|'), ('వే', 'U'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కున్', 'U'), ('సం', 'U'), ('తో', 'U'), ('షి', '|'), ('వై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B86" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
         <is>
           <t>హరిజిచ్చాపవిముక్త ఘోరతరబ్రహ్మాస్త్ర ప్రభావంబునన్‌
 వరుసన్‌ మూర్ఛిలి చాపకట్టుగ రహిన్‌ సంగ్రామరంగమ్మునం
@@ -3259,32 +3004,29 @@
 కర మర్థిం బ్రతికించి మెప్పు గొనవే కాకుత్స్థుచే మారుతీ!</t>
         </is>
       </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('జి', 'U'), ('చ్చా', 'U'), ('ప', '|'), ('వి', '|'), ('ము', 'U'), ('క్త', '|'), ('ఘో', 'U'), ('ర', '|'), ('త', '|'), ('ర', 'U'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('స్త్ర', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('మూ', 'U'), ('ర్ఛి', '|'), ('లి', '|'), ('చా', 'U'), ('ప', '|'), ('క', 'U'), ('ట్టు', '|'), ('గ', '|'), ('ర', '|'), ('హిన్', 'U'), ('సం', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('రం', 'U'), ('గ', 'U'), ('మ్ము', '|'), ('నం', 'U'), ('ద', '|'), ('రు', '|'), ('దా', 'U'), ('రం', 'U'), ('బ', '|'), ('డి', '|'), ('యు', 'U'), ('న్న', '|'), ('వా', 'U'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('ను', 'U'), ('ద్య', 'U'), ('చ్ఛ', 'U'), ('క్తి', '|'), ('సం', 'U'), ('జీ', 'U'), ('వి', '|'), ('చే', 'U'), ('క', '|'), ('ర', '|'), ('మ', 'U'), ('ర్థిం', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కిం', 'U'), ('చి', '|'), ('మె', 'U'), ('ప్పు', '|'), ('గొ', '|'), ('న', '|'), ('వే', 'U'), ('కా', 'U'), ('కు', 'U'), ('త్స్థు', '|'), ('చే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B87" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
         <is>
           <t>దైత్యానీకపయోధి మధ్యమున మందానాద్రిభంగి రయౌ
 ద్ధత్యం బొప్పఁగ సంచరింపుచు బలౌదార్యం బెలర్పన్‌ బృహ
@@ -3292,32 +3034,29 @@
 దిత్యుల్‌ మెచ్చఁగ బట్టి గీటడఁచవే దేవాంతకున్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
           <t>[('దై', 'U'), ('త్యా', 'U'), ('నీ', 'U'), ('క', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('న', '|'), ('మం', 'U'), ('దా', 'U'), ('నా', 'U'), ('ద్రి', '|'), ('భం', 'U'), ('గి', '|'), ('ర', '|'), ('యౌ', 'U'), ('ద్ధ', 'U'), ('త్యం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('సం', 'U'), ('చ', '|'), ('రిం', 'U'), ('పు', '|'), ('చు', '|'), ('బ', '|'), ('లౌ', 'U'), ('దా', 'U'), ('ర్యం', 'U'), ('బె', '|'), ('ల', '|'), ('ర్పన్', 'U'), ('బృ', '|'), ('హ', 'U'), ('ద్వా', 'U'), ('త్యా', 'U'), ('చ', 'U'), ('క్ర', '|'), ('ము', '|'), ('శు', 'U'), ('ష్క', '|'), ('ప', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ల', '|'), ('చం', 'U'), ('దా', 'U'), ('నన్', 'U'), ('వ', '|'), ('డిం', 'U'), ('ద్రి', 'U'), ('ప్పి', '|'), ('యా', 'U'), ('ది', '|'), ('త్యుల్', 'U'), ('మె', 'U'), ('చ్చ', '|'), ('గ', '|'), ('బ', 'U'), ('ట్టి', '|'), ('గీ', 'U'), ('ట', '|'), ('డ', '|'), ('చ', '|'), ('వే', 'U'), ('దే', 'U'), ('వాం', 'U'), ('త', '|'), ('కున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B88" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
         <is>
           <t>జంభారాతి నిజోరుపాణిగత భాస్వద్ఘోరదంభోళిచే
 గాంభీర్యంబున విశ్వరూపుశిరముల్‌ ఖండించి నట్లీవు స
@@ -3325,32 +3064,29 @@
 రంభం బొప్ప వెసన్‌ త్రిశీర్షుశిరముల్‌ ఖండింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
           <t>[('జం', 'U'), ('భా', 'U'), ('రా', 'U'), ('తి', '|'), ('ని', '|'), ('జో', 'U'), ('రు', '|'), ('పా', 'U'), ('ణి', '|'), ('గ', '|'), ('త', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్ఘో', 'U'), ('ర', '|'), ('దం', 'U'), ('భో', 'U'), ('ళి', '|'), ('చే', 'U'), ('గాం', 'U'), ('భీ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('న', '|'), ('వి', 'U'), ('శ్వ', '|'), ('రూ', 'U'), ('పు', '|'), ('శి', '|'), ('ర', '|'), ('ముల్', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్లీ', 'U'), ('వు', '|'), ('స', 'U'), ('ర్వాం', 'U'), ('భో', 'U'), ('ధుల్', 'U'), ('గ', '|'), ('ల', '|'), ('గం', 'U'), ('గ', '|'), ('నా', 'U'), ('ర్చు', '|'), ('చు', '|'), ('ఫ', '|'), ('ణీం', 'U'), ('ద్రా', 'U'), ('భా', 'U'), ('సి', '|'), ('నం', 'U'), ('కిం', 'U'), ('చి', '|'), ('సం', 'U'), ('రం', 'U'), ('భం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('వె', '|'), ('సన్', 'U'), ('త్రి', '|'), ('శీ', 'U'), ('ర్షు', '|'), ('శి', '|'), ('ర', '|'), ('ముల్', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B89" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
         <is>
           <t>మాయాసీతను జంపి నిన్ను భ్రమియింపం జేసి దుర్వారదై
 తేయ ప్రావృతుఁడై నికుంభిలకు నెంతేఁ గోర్కితో నేగి, య
@@ -3358,32 +3094,29 @@
 క్షాయుక్తిన్‌ సమరోర్వి లక్ష్మణునిచేఁ జంపింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
           <t>[('మా', 'U'), ('యా', 'U'), ('సీ', 'U'), ('త', '|'), ('ను', '|'), ('జం', 'U'), ('పి', '|'), ('ని', 'U'), ('న్ను', 'U'), ('భ్ర', '|'), ('మి', '|'), ('యిం', 'U'), ('పం', 'U'), ('జే', 'U'), ('సి', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('ర', '|'), ('దై', 'U'), ('తే', 'U'), ('య', 'U'), ('ప్రా', 'U'), ('వృ', '|'), ('తు', '|'), ('డై', 'U'), ('ని', '|'), ('కుం', 'U'), ('భి', '|'), ('ల', '|'), ('కు', '|'), ('నెం', 'U'), ('తే', 'U'), ('గో', 'U'), ('ర్కి', '|'), ('తో', 'U'), ('నే', 'U'), ('గి', '|'), ('య', 'U'), ('చ్చో', 'U'), ('యా', 'U'), ('గం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('సు', '|'), ('రే', 'U'), ('శున్', 'U'), ('మే', 'U'), ('ఘ', '|'), ('నా', 'U'), ('ధా', 'U'), ('ఖ్యు', '|'), ('దీ', 'U'), ('క్షా', 'U'), ('యు', '|'), ('క్తిన్', 'U'), ('స', '|'), ('మ', '|'), ('రో', 'U'), ('ర్వి', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('ని', '|'), ('చే', 'U'), ('జం', 'U'), ('పిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B90" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
         <is>
           <t>విద్యుద్వల్లిక భంగి వాలము వియద్వీథిం బ్రకాశింప ను
 ష్ణద్యుత్యున్నతమండలంబు కరణిన్‌ వక్త్రంబు శోభిల్లగా
@@ -3391,32 +3124,29 @@
 సద్యోమృత్యువు నొందఁజేయవె మహాజన్యంబునన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
           <t>[('వి', 'U'), ('ద్యు', 'U'), ('ద్వ', 'U'), ('ల్లి', '|'), ('క', '|'), ('భం', 'U'), ('గి', '|'), ('వా', 'U'), ('ల', '|'), ('ము', '|'), ('వి', '|'), ('య', 'U'), ('ద్వీ', 'U'), ('థిం', 'U'), ('బ్ర', '|'), ('కా', 'U'), ('శిం', 'U'), ('ప', '|'), ('ను', 'U'), ('ష్ణ', 'U'), ('ద్యు', 'U'), ('త్యు', 'U'), ('న్న', '|'), ('త', '|'), ('మం', 'U'), ('డ', '|'), ('లం', 'U'), ('బు', '|'), ('క', '|'), ('ర', '|'), ('ణిన్', 'U'), ('వ', 'U'), ('క్త్రం', 'U'), ('బు', '|'), ('శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('ప్రో', 'U'), ('ద్య', 'U'), ('ద్బా', 'U'), ('హు', '|'), ('బ', '|'), ('లం', 'U'), ('బె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గ', '|'), ('ని', '|'), ('కుం', 'U'), ('భుం', 'U'), ('గుం', 'U'), ('భ', '|'), ('క', 'U'), ('ర్ణా', 'U'), ('త్మ', '|'), ('జున్', 'U'), ('స', 'U'), ('ద్యో', 'U'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('నొం', 'U'), ('ద', '|'), ('జే', 'U'), ('య', '|'), ('వె', '|'), ('మ', '|'), ('హా', 'U'), ('జ', 'U'), ('న్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B91" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
         <is>
           <t>ఘనశాండిల్య మునీంద్రుశాపంబున నుగ్రగ్రాహియై ధాన్యమా
 లిని కాసారములోన నుండి జలముల్‌ నీ వర్ధిఁ గ్రోలన్‌ వడిన్‌
@@ -3424,32 +3154,29 @@
 క్కున దచ్ఛాపము దీర్చి పుచ్చవొకొ శక్రుం గొల్వగా మారుతీ!</t>
         </is>
       </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F91" t="inlineStr">
-        <is>
           <t>[('ఘ', '|'), ('న', '|'), ('శాం', 'U'), ('డి', 'U'), ('ల్య', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రు', '|'), ('శా', 'U'), ('పం', 'U'), ('బు', '|'), ('న', '|'), ('ను', 'U'), ('గ్ర', 'U'), ('గ్రా', 'U'), ('హి', '|'), ('యై', 'U'), ('ధా', 'U'), ('న్య', '|'), ('మా', 'U'), ('లి', '|'), ('ని', '|'), ('కా', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('జ', '|'), ('ల', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('వ', 'U'), ('ర్ధి', 'U'), ('గ్రో', 'U'), ('లన్', 'U'), ('వ', '|'), ('డిన్', 'U'), ('ని', '|'), ('ను', '|'), ('మ్రిం', 'U'), ('గం', 'U'), ('జ', '|'), ('ను', '|'), ('దే', 'U'), ('ర', '|'), ('గా', 'U'), ('గ', '|'), ('డి', '|'), ('మి', '|'), ('వా', 'U'), ('నిన్', 'U'), ('వ్రే', 'U'), ('ల్మి', '|'), ('డిం', 'U'), ('జం', 'U'), ('పి', 'U'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('ద', 'U'), ('చ్ఛా', 'U'), ('ప', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('పు', 'U'), ('చ్చ', '|'), ('వొ', '|'), ('కొ', '|'), ('శ', 'U'), ('క్రుం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B92" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
         <is>
           <t>చతురత్వంబున నీవు లక్ష్మణునికై సంజీవిఁ దేఁబోవుచో
 దితిజాధీశ్వరు పంపునం బ్రబల దైతేయుండు మారీచదై
@@ -3457,32 +3184,29 @@
 తితవిఘ్నం బొనరింప డాయుటయు వానిం ద్రుంపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
           <t>[('చ', '|'), ('తు', '|'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('వు', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('ని', '|'), ('కై', 'U'), ('సం', 'U'), ('జీ', 'U'), ('వి', '|'), ('దే', 'U'), ('బో', 'U'), ('వు', '|'), ('చో', 'U'), ('ది', '|'), ('తి', '|'), ('జా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('పం', 'U'), ('పు', '|'), ('నం', 'U'), ('బ్ర', '|'), ('బ', '|'), ('ల', '|'), ('దై', 'U'), ('తే', 'U'), ('యుం', 'U'), ('డు', '|'), ('మా', 'U'), ('రీ', 'U'), ('చ', '|'), ('దై', 'U'), ('త్య', '|'), ('త', '|'), ('నూ', 'U'), ('జా', 'U'), ('తు', '|'), ('డు', '|'), ('కా', 'U'), ('ల', '|'), ('నే', 'U'), ('మి', '|'), ('ఘ', '|'), ('న', '|'), ('మా', 'U'), ('యా', 'U'), ('మౌ', 'U'), ('ని', '|'), ('యై', 'U'), ('త్రో', 'U'), ('వ', '|'), ('జిం', 'U'), ('తి', '|'), ('త', '|'), ('వి', 'U'), ('ఘ్నం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('డా', 'U'), ('యు', '|'), ('ట', '|'), ('యు', '|'), ('వా', 'U'), ('నిం', 'U'), ('ద్రుం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B93" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
         <is>
           <t>తొలుతం బల్మరు మందు లిమ్మనుచు నెంతో వేడి, యీకున్న కే
 వలశక్తిన్‌ హరి మందరాచలము నుత్పాటించినట్లీవు క
@@ -3490,32 +3214,29 @@
 ర్ణిల దివ్యౌషధశైలముం బెఱుకవే క్రీడాగతిన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F93" t="inlineStr">
-        <is>
           <t>[('తొ', '|'), ('లు', '|'), ('తం', 'U'), ('బ', 'U'), ('ల్మ', '|'), ('రు', '|'), ('మం', 'U'), ('దు', '|'), ('లి', 'U'), ('మ్మ', '|'), ('ను', '|'), ('చు', '|'), ('నెం', 'U'), ('తో', 'U'), ('వే', 'U'), ('డి', '|'), ('యీ', 'U'), ('కు', 'U'), ('న్న', '|'), ('కే', 'U'), ('వ', '|'), ('ల', '|'), ('శ', '|'), ('క్తిన్', 'U'), ('హ', '|'), ('రి', '|'), ('మం', 'U'), ('ద', '|'), ('రా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('ను', 'U'), ('త్పా', 'U'), ('టిం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్లీ', 'U'), ('వు', '|'), ('క', 'U'), ('ట్ట', '|'), ('లు', '|'), ('కన్', 'U'), ('వా', 'U'), ('ల', '|'), ('ము', '|'), ('జు', 'U'), ('ట్టి', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('ట్ట', 'U'), ('ట్టూ', 'U'), ('చి', '|'), ('ది', 'U'), ('గ్రా', 'U'), ('జి', '|'), ('ఘూ', 'U'), ('ర్ణి', '|'), ('ల', '|'), ('ది', 'U'), ('వ్యౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('శై', 'U'), ('ల', '|'), ('ముం', 'U'), ('బె', '|'), ('ఱు', '|'), ('క', '|'), ('వే', 'U'), ('క్రీ', 'U'), ('డా', 'U'), ('గ', '|'), ('తిన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B94" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
         <is>
           <t>గీర్వాణాద్రివిభాగమున్‌ శిరముపై గీల్కొల్ప దుర్దాంతదో
 ర్గర్వం బొప్పఁగ వచ్చుచుండ గిరికిం గాపున్న పెక్కండ్రు గం
@@ -3523,32 +3244,29 @@
 దుర్వారోద్ధతి వాలజానిలమునం దూలింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
           <t>[('గీ', 'U'), ('ర్వా', 'U'), ('ణా', 'U'), ('ద్రి', '|'), ('వి', '|'), ('భా', 'U'), ('గ', '|'), ('మున్', 'U'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('పై', 'U'), ('గీ', 'U'), ('ల్కొ', 'U'), ('ల్ప', '|'), ('దు', '|'), ('ర్దాం', 'U'), ('త', '|'), ('దో', 'U'), ('ర్గ', 'U'), ('ర్వం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చుం', 'U'), ('డ', '|'), ('గి', '|'), ('రి', '|'), ('కిం', 'U'), ('గా', 'U'), ('పు', 'U'), ('న్న', '|'), ('పె', 'U'), ('క్కం', 'U'), ('డ్రు', '|'), ('గం', 'U'), ('ధ', '|'), ('ర్వుల్', 'U'), ('బో', 'U'), ('వ', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('న', 'U'), ('డ్డ', '|'), ('ప', '|'), ('డి', '|'), ('నన్', 'U'), ('ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వా', 'U'), ('ర', '|'), ('లన్', 'U'), ('దు', 'U'), ('ర్వా', 'U'), ('రో', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('వా', 'U'), ('ల', '|'), ('జా', 'U'), ('ని', '|'), ('ల', '|'), ('ము', '|'), ('నం', 'U'), ('దూ', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B95" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
         <is>
           <t>గరిమన్‌ మాల్యవదాది రాక్షసు లసంఖ్యాతంబుగా వచ్చి యం
 బరవీథిం జలరాశిమధ్యమున దర్పం బేర్పడం దాకినన్‌
@@ -3556,32 +3274,29 @@
 ర్భరవీర్యంబున వారిఁ జంపి జముఁ గొల్వం బంపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
           <t>[('గ', '|'), ('రి', '|'), ('మన్', 'U'), ('మా', 'U'), ('ల్య', '|'), ('వ', '|'), ('దా', 'U'), ('ది', '|'), ('రా', 'U'), ('క్ష', '|'), ('సు', '|'), ('ల', '|'), ('సం', 'U'), ('ఖ్యా', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('యం', 'U'), ('బ', '|'), ('ర', '|'), ('వీ', 'U'), ('థిం', 'U'), ('జ', '|'), ('ల', '|'), ('రా', 'U'), ('శి', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('న', '|'), ('ద', 'U'), ('ర్పం', 'U'), ('బే', 'U'), ('ర్ప', '|'), ('డం', 'U'), ('దా', 'U'), ('కి', '|'), ('నన్', 'U'), ('గి', '|'), ('రి', '|'), ('రా', 'U'), ('జం', 'U'), ('బు', '|'), ('ను', '|'), ('కం', 'U'), ('దు', '|'), ('కం', 'U'), ('బు', '|'), ('క', '|'), ('ర', '|'), ('ణిన్', 'U'), ('గే', 'U'), ('లన్', 'U'), ('ర', '|'), ('హిం', 'U'), ('దా', 'U'), ('ల్చి', '|'), ('దు', 'U'), ('ర్భ', '|'), ('ర', '|'), ('వీ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('జం', 'U'), ('పి', '|'), ('జ', '|'), ('ము', '|'), ('గొ', 'U'), ('ల్వం', 'U'), ('బం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B96" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
         <is>
           <t>అవలీలన్‌ నిశిజాములోపల రయం బారంగ సంజీవిశై
 లవరంబుం గొని తెచ్చి జన్యమునఁ బౌలస్త్యోల్లసచ్ఛక్తిచే
@@ -3589,32 +3304,29 @@
 రవరేణ్యుం బ్రతికించి మెప్పుఁ గొనవే రాజేంద్రుచే మారుతీ!</t>
         </is>
       </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('వ', '|'), ('లీ', 'U'), ('లన్', 'U'), ('ని', '|'), ('శి', '|'), ('జా', 'U'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ర', '|'), ('యం', 'U'), ('బా', 'U'), ('రం', 'U'), ('గ', '|'), ('సం', 'U'), ('జీ', 'U'), ('వి', '|'), ('శై', 'U'), ('ల', '|'), ('వ', '|'), ('రం', 'U'), ('బుం', 'U'), ('గొ', '|'), ('ని', '|'), ('తె', 'U'), ('చ్చి', '|'), ('జ', 'U'), ('న్య', '|'), ('ము', '|'), ('న', '|'), ('బౌ', 'U'), ('ల', 'U'), ('స్త్యో', 'U'), ('ల్ల', '|'), ('స', 'U'), ('చ్ఛ', 'U'), ('క్తి', '|'), ('చే', 'U'), ('న', '|'), ('వ', '|'), ('నిన్', 'U'), ('మూ', 'U'), ('ర్ఛి', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('న', '|'), ('కీ', 'U'), ('వా', 'U'), ('మం', 'U'), ('దు', '|'), ('ల', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('శూ', 'U'), ('ర', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్యుం', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కిం', 'U'), ('చి', '|'), ('మె', 'U'), ('ప్పు', '|'), ('గొ', '|'), ('న', '|'), ('వే', 'U'), ('రా', 'U'), ('జేం', 'U'), ('ద్రు', '|'), ('చే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B97" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
         <is>
           <t>అనఘా! యెంతని చెప్పవచ్చు భవదీయావార్యదోస్సత్త్వమున్‌
 కనకోర్వీధరసన్నిభౌషధగిరిన్‌ వాలంబునం జుట్టి గ్రం
@@ -3622,32 +3334,29 @@
 వినువీథిన్‌ వడి ద్రిప్పివైవవె జగద్విశ్రాంతిగా మారుతీ!</t>
         </is>
       </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F97" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('న', '|'), ('ఘా', 'U'), ('యెం', 'U'), ('త', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యా', 'U'), ('వా', 'U'), ('ర్య', '|'), ('దో', 'U'), ('స్స', 'U'), ('త్త్వ', '|'), ('మున్', 'U'), ('క', '|'), ('న', '|'), ('కో', 'U'), ('ర్వీ', 'U'), ('ధ', '|'), ('ర', '|'), ('స', 'U'), ('న్ని', '|'), ('భౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('గి', '|'), ('రిన్', 'U'), ('వా', 'U'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('జు', 'U'), ('ట్టి', 'U'), ('గ్రం', 'U'), ('దు', '|'), ('న', '|'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రి', '|'), ('నుం', 'U'), ('డి', '|'), ('స', 'U'), ('త్వ', '|'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దొ', 'U'), ('ల్లిం', 'U'), ('టి', '|'), ('చో', 'U'), ('టం', 'U'), ('బ', '|'), ('డన్', 'U'), ('వి', '|'), ('ను', '|'), ('వీ', 'U'), ('థిన్', 'U'), ('వ', '|'), ('డి', '|'), ('ద్రి', 'U'), ('ప్పి', '|'), ('వై', 'U'), ('వ', '|'), ('వె', '|'), ('జ', '|'), ('గ', 'U'), ('ద్వి', 'U'), ('శ్రాం', 'U'), ('తి', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B98" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
         <is>
           <t>అల మైరావణుఁ డొక్కనాఁటి నిశి నిద్రాసక్తులై యున్న భూ
 పలలామేంద్రుల మ్రుచ్చిలించియు వెసన్‌ పాతాళలంకాపురిన్‌
@@ -3655,32 +3364,29 @@
 భిలుచున్‌ నీవటు రామలక్ష్మణుల దేవే క్రమ్మఱన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F98" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('ల', '|'), ('మై', 'U'), ('రా', 'U'), ('వ', '|'), ('ణు', '|'), ('డొ', 'U'), ('క్క', '|'), ('నా', 'U'), ('టి', '|'), ('ని', '|'), ('శి', '|'), ('ని', '|'), ('ద్రా', 'U'), ('స', 'U'), ('క్తు', '|'), ('లై', 'U'), ('యు', 'U'), ('న్న', '|'), ('భూ', 'U'), ('ప', '|'), ('ల', '|'), ('లా', 'U'), ('మేం', 'U'), ('ద్రు', '|'), ('ల', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లిం', 'U'), ('చి', '|'), ('యు', '|'), ('వె', '|'), ('సన్', 'U'), ('పా', 'U'), ('తా', 'U'), ('ళ', '|'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రిన్', 'U'), ('ఖ', '|'), ('లు', '|'), ('డై', 'U'), ('చొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('వెం', 'U'), ('ట', '|'), ('జ', '|'), ('ని', '|'), ('యా', 'U'), ('క', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('నిం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('శో', 'U'), ('భి', '|'), ('లు', '|'), ('చున్', 'U'), ('నీ', 'U'), ('వ', '|'), ('టు', '|'), ('రా', 'U'), ('మ', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('ల', '|'), ('దే', 'U'), ('వే', 'U'), ('క్ర', 'U'), ('మ్మ', '|'), ('ఱన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B99" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
         <is>
           <t>దశకంఠుం బరిమార్చి, యాత్మజయముం ధాత్రీజకుం జెప్పి, త
 త్కుశలం బారసి రమ్మటంచు వెస గాకుత్స్థుండు పంపం బురం
@@ -3688,32 +3394,29 @@
 విశదానందరసాబ్ధిఁ దేల్చినది నీవే కావొకో మారుతీ!</t>
         </is>
       </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F99" t="inlineStr">
-        <is>
           <t>[('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠుం', 'U'), ('బ', '|'), ('రి', '|'), ('మా', 'U'), ('ర్చి', '|'), ('యా', 'U'), ('త్మ', '|'), ('జ', '|'), ('య', '|'), ('ముం', 'U'), ('ధా', 'U'), ('త్రీ', 'U'), ('జ', '|'), ('కుం', 'U'), ('జె', 'U'), ('ప్పి', '|'), ('త', 'U'), ('త్కు', '|'), ('శ', '|'), ('లం', 'U'), ('బా', 'U'), ('ర', '|'), ('సి', '|'), ('ర', 'U'), ('మ్మ', '|'), ('టం', 'U'), ('చు', '|'), ('వె', '|'), ('స', '|'), ('గా', 'U'), ('కు', 'U'), ('త్స్థుం', 'U'), ('డు', '|'), ('పం', 'U'), ('పం', 'U'), ('బు', '|'), ('రం', 'U'), ('బు', '|'), ('శ', '|'), ('శి', 'U'), ('ప్ర', 'U'), ('క్రి', '|'), ('య', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('రా', 'U'), ('వ', '|'), ('ణు', '|'), ('వ', '|'), ('ధం', 'U'), ('బుం', 'U'), ('దె', 'U'), ('ల్పి', '|'), ('సీ', 'U'), ('తా', 'U'), ('స', '|'), ('తిన్', 'U'), ('వి', '|'), ('శ', '|'), ('దా', 'U'), ('నం', 'U'), ('ద', '|'), ('ర', '|'), ('సా', 'U'), ('బ్ధి', '|'), ('దే', 'U'), ('ల్చి', '|'), ('న', '|'), ('ది', '|'), ('నీ', 'U'), ('వే', 'U'), ('కా', 'U'), ('వొ', '|'), ('కో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B100" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
         <is>
           <t>ధీరోదాత్తుఁడు రాముఁడంప నటు నందిగ్రామముం జేరి, నీ
 వారూఢిన్‌ భరతున్‌ మహాత్ముఁ గని, రామాధీశ్వరుం డర్థి సీ
@@ -3722,32 +3425,29 @@
 ధీరున్‌ హర్షపయోధి వీచికలపై దేలింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F100" t="inlineStr">
-        <is>
           <t>[('ధీ', 'U'), ('రో', 'U'), ('దా', 'U'), ('త్తు', '|'), ('డు', '|'), ('రా', 'U'), ('ము', '|'), ('డం', 'U'), ('ప', '|'), ('న', '|'), ('టు', '|'), ('నం', 'U'), ('ది', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('ముం', 'U'), ('జే', 'U'), ('రి', '|'), ('నీ', 'U'), ('వా', 'U'), ('రూ', 'U'), ('ఢిన్', 'U'), ('భ', '|'), ('ర', '|'), ('తున్', 'U'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('గ', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రుం', 'U'), ('డ', 'U'), ('ర్థి', '|'), ('సీ', 'U'), ('తా', 'U'), ('రా', 'U'), ('మ', '|'), ('వ', '|'), ('ర', '|'), ('జా', 'U'), ('న్వి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('భ', '|'), ('ర', 'U'), ('ద్వా', 'U'), ('జా', 'U'), ('శ్ర', '|'), ('మం', 'U'), ('బ', '|'), ('ర్మి', '|'), ('లిం', 'U'), ('జే', 'U'), ('రెన్', 'U'), ('ఱే', 'U'), ('ప', '|'), ('ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('చు', '|'), ('న', '|'), ('మృ', '|'), ('త', 'U'), ('స్ఫీ', 'U'), ('తో', 'U'), ('క్తు', '|'), ('లం', 'U'), ('తె', 'U'), ('ల్పి', '|'), ('యా', 'U'), ('ధీ', 'U'), ('రున్', 'U'), ('హ', 'U'), ('ర్ష', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('వీ', 'U'), ('చి', '|'), ('క', '|'), ('ల', '|'), ('పై', 'U'), ('దే', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B101" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
         <is>
           <t>సరసాగ్రేసరుఁడైన రామవిభుఁ డంచద్రత్నసౌవర్ణపు
 ష్పరథంబెక్కి సుమిత్రపట్టి వెనుకన్‌ ఛత్రంబుఁ బట్టన్‌ మహా
@@ -3756,32 +3456,29 @@
 బరమప్రీతి ధరించి మ్రోలఁ జనవే వర్ణింపుచున్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F101" t="inlineStr">
-        <is>
           <t>[('స', '|'), ('ర', '|'), ('సా', 'U'), ('గ్రే', 'U'), ('స', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('భు', '|'), ('డం', 'U'), ('చ', '|'), ('ద్ర', 'U'), ('త్న', '|'), ('సౌ', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('పు', 'U'), ('ష్ప', '|'), ('ర', '|'), ('థం', 'U'), ('బె', 'U'), ('క్కి', '|'), ('సు', '|'), ('మి', 'U'), ('త్ర', '|'), ('ప', 'U'), ('ట్టి', '|'), ('వె', '|'), ('ను', '|'), ('కన్', 'U'), ('ఛ', 'U'), ('త్రం', 'U'), ('బు', '|'), ('బ', '|'), ('ట్టన్', 'U'), ('మ', '|'), ('హా', 'U'), ('భి', '|'), ('ర', '|'), ('తిన్', 'U'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('డ', 'U'), ('వ్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('డొ', '|'), ('గిన్', 'U'), ('విం', 'U'), ('జా', 'U'), ('మ', '|'), ('రల్', 'U'), ('వీ', 'U'), ('వ', '|'), ('సుం', 'U'), ('ద', '|'), ('ర', '|'), ('సా', 'U'), ('కే', 'U'), ('త', '|'), ('ప', '|'), ('థం', 'U'), ('బు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('చ', '|'), ('ను', '|'), ('చో', 'U'), ('ద', 'U'), ('త్పా', 'U'), ('దు', '|'), ('కల్', 'U'), ('మౌ', 'U'), ('ళి', '|'), ('పై', 'U'), ('బ', '|'), ('ర', '|'), ('మ', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('మ్రో', 'U'), ('ల', '|'), ('జ', '|'), ('న', '|'), ('వే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B102" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
         <is>
           <t>ప్రమదం బొప్పఁగ రాముఁడున్‌ భవదభిప్రాయంబు నూహించి, నీ
 సముదంచద్పదభక్తికిన్‌ విమలప్రజ్ఞాయుక్తికిన్‌ మెచ్చి, సం
@@ -3789,32 +3486,29 @@
 శముఁ గావింపఁడె నీకు మేదినిసుతాసంయుక్తుఁడై మారుతీ!</t>
         </is>
       </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F102" t="inlineStr">
-        <is>
           <t>[('ప్ర', '|'), ('మ', '|'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('రా', 'U'), ('ము', '|'), ('డున్', 'U'), ('భ', '|'), ('వ', '|'), ('ద', '|'), ('భి', 'U'), ('ప్రా', 'U'), ('యం', 'U'), ('బు', '|'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చ', 'U'), ('ద్ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తి', '|'), ('కిన్', 'U'), ('వి', '|'), ('మ', '|'), ('ల', 'U'), ('ప్ర', 'U'), ('జ్ఞా', 'U'), ('యు', 'U'), ('క్తి', '|'), ('కిన్', 'U'), ('మె', 'U'), ('చ్చి', '|'), ('సం', 'U'), ('య', '|'), ('ము', '|'), ('లై', 'U'), ('నన్', 'U'), ('బ', '|'), ('డ', '|'), ('యం', 'U'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('మ', '|'), ('హ', '|'), ('నీ', 'U'), ('యా', 'U'), ('ధ్యా', 'U'), ('త్మ', '|'), ('వి', 'U'), ('ద్యో', 'U'), ('ప', '|'), ('దే', 'U'), ('శ', '|'), ('ము', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('డె', '|'), ('నీ', 'U'), ('కు', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('సు', '|'), ('తా', 'U'), ('సం', 'U'), ('యు', 'U'), ('క్తు', '|'), ('డై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B103" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
         <is>
           <t>భవదీయోరుతపఃప్రభావమును శశ్వత్సాధుభావంబు, యో
 గ్యవివేకంబును శాస్త్రపాండితియు నిష్కామత్వమున్‌ సంతతా
@@ -3822,32 +3516,29 @@
 కు వరం బర్థి నొసంగడే బృహదనుక్రోశంబునన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F103" t="inlineStr">
-        <is>
           <t>[('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యో', 'U'), ('రు', '|'), ('త', '|'), ('పః', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('ను', '|'), ('శ', 'U'), ('శ్వ', 'U'), ('త్సా', 'U'), ('ధు', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('యో', 'U'), ('గ్య', '|'), ('వి', '|'), ('వే', 'U'), ('కం', 'U'), ('బు', '|'), ('ను', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('పాం', 'U'), ('డి', '|'), ('తి', '|'), ('యు', '|'), ('ని', 'U'), ('ష్కా', 'U'), ('మ', 'U'), ('త్వ', '|'), ('మున్', 'U'), ('సం', 'U'), ('త', '|'), ('తా', 'U'), ('ర్జ', '|'), ('వ', '|'), ('మున్', 'U'), ('జూ', 'U'), ('చి', '|'), ('ర', '|'), ('ఘు', 'U'), ('ప్ర', '|'), ('వీ', 'U'), ('రు', '|'), ('డు', '|'), ('భ', '|'), ('వి', 'U'), ('ష్య', '|'), ('ద్బ్ర', 'U'), ('హ్మ', '|'), ('వౌ', 'U'), ('దం', 'U'), ('చు', '|'), ('నీ', 'U'), ('కు', '|'), ('వ', '|'), ('రం', 'U'), ('బ', 'U'), ('ర్థి', '|'), ('నొ', '|'), ('సం', 'U'), ('గ', '|'), ('డే', 'U'), ('బృ', '|'), ('హ', '|'), ('ద', '|'), ('ను', 'U'), ('క్రో', 'U'), ('శం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B104" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
         <is>
           <t>మునిశాపంబున నీప్రభావమహిమంబున్‌, శక్తియున్‌ నీవెఱుం
 గని బీజంబున శైలసుప్తవిలసత్కంఠీరవేంద్రంబు లా
@@ -3855,32 +3546,29 @@
 కనికాయంబుల నొక్క పెట్ట నుఱుముం గావింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F104" t="inlineStr">
-        <is>
           <t>[('ము', '|'), ('ని', '|'), ('శా', 'U'), ('పం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బు', 'U'), ('న్శ', 'U'), ('క్తి', '|'), ('యున్', 'U'), ('నీ', 'U'), ('వె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ని', '|'), ('బీ', 'U'), ('జం', 'U'), ('బు', '|'), ('న', '|'), ('శై', 'U'), ('ల', '|'), ('సు', 'U'), ('ప్త', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('త్కం', 'U'), ('ఠీ', 'U'), ('ర', '|'), ('వేం', 'U'), ('ద్రం', 'U'), ('బు', '|'), ('లా', 'U'), ('గు', '|'), ('న', '|'), ('న', 'U'), ('ట్లుం', 'U'), ('టి', '|'), ('వి', '|'), ('గా', 'U'), ('క', '|'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('మ', '|'), ('దిన్', 'U'), ('గో', 'U'), ('పిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('ని', '|'), ('కా', 'U'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('నొ', 'U'), ('క్క', '|'), ('పె', 'U'), ('ట్ట', '|'), ('ను', '|'), ('ఱు', '|'), ('ముం', 'U'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B105" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
         <is>
           <t>హరివంశోత్తమ! నీవు చేసిన విచిత్రాచింత్యకార్యంబులా
 హరియైనన్‌, హరుఁడైన, పంకజభవుఁడైనన్‌, దిగీశుల్‌, పురం
@@ -3888,32 +3576,29 @@
 సరివారెవ్వరు లేరు ముజ్జగములం జర్చింపఁగా మారుతీ!</t>
         </is>
       </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F105" t="inlineStr">
-        <is>
           <t>[('హ', '|'), ('రి', '|'), ('వం', 'U'), ('శో', 'U'), ('త్త', '|'), ('మ', '|'), ('నీ', 'U'), ('వు', '|'), ('చే', 'U'), ('సి', '|'), ('న', '|'), ('వి', '|'), ('చి', 'U'), ('త్రా', 'U'), ('చిం', 'U'), ('త్య', '|'), ('కా', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('లా', 'U'), ('హ', '|'), ('రి', '|'), ('యై', 'U'), ('న', 'U'), ('న్హ', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('పం', 'U'), ('క', '|'), ('జ', '|'), ('భ', '|'), ('వు', '|'), ('డై', 'U'), ('న', 'U'), ('న్ది', '|'), ('గీ', 'U'), ('శు', 'U'), ('ల్పు', '|'), ('రం', 'U'), ('ద', '|'), ('రు', '|'), ('డై', 'U'), ('న', 'U'), ('న్ని', '|'), ('ఖి', '|'), ('లా', 'U'), ('హి', '|'), ('లో', 'U'), ('క', '|'), ('ప', '|'), ('తు', '|'), ('లై', 'U'), ('నం', 'U'), ('జే', 'U'), ('య', '|'), ('గా', 'U'), ('లే', 'U'), ('రు', '|'), ('నీ', 'U'), ('స', '|'), ('రి', '|'), ('వా', 'U'), ('రె', 'U'), ('వ్వ', '|'), ('రు', '|'), ('లే', 'U'), ('రు', '|'), ('ము', 'U'), ('జ్జ', '|'), ('గ', '|'), ('ము', '|'), ('లం', 'U'), ('జ', 'U'), ('ర్చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B106" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
         <is>
           <t>ధృతియున్‌, నీతియు, సాహసంబు, స్మృతియున్‌, తేజంబు సర్వశ్రుతి
 స్మృతిపారీణతయున్‌, యశంబు, విజయోన్మేషంబు, శాస్త్రజ్ఞతా
@@ -3921,32 +3606,29 @@
 వితతప్రజ్ఞ, జితేంద్రియత్వము రహిన్‌ నీకే తగున్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F106" t="inlineStr">
-        <is>
           <t>[('ధృ', '|'), ('తి', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('తి', '|'), ('యు', '|'), ('సా', 'U'), ('హ', '|'), ('సం', 'U'), ('బు', 'U'), ('స్మృ', '|'), ('తి', '|'), ('యు', 'U'), ('న్తే', 'U'), ('జం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వ', 'U'), ('శ్రు', '|'), ('తి', 'U'), ('స్మృ', '|'), ('తి', '|'), ('పా', 'U'), ('రీ', 'U'), ('ణ', '|'), ('త', '|'), ('యు', 'U'), ('న్య', '|'), ('శం', 'U'), ('బు', '|'), ('వి', '|'), ('జ', '|'), ('యో', 'U'), ('న్మే', 'U'), ('షం', 'U'), ('బు', '|'), ('శా', 'U'), ('స్త్ర', 'U'), ('జ్ఞ', '|'), ('తా', 'U'), ('చ', '|'), ('తు', '|'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('శ', '|'), ('మ', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ది', '|'), ('గు', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్సా', 'U'), ('ధు', 'U'), ('త్వ', '|'), ('ము', 'U'), ('న్శౌ', 'U'), ('ర్య', '|'), ('మున్', 'U'), ('వి', '|'), ('త', '|'), ('త', 'U'), ('ప్ర', 'U'), ('జ్ఞ', '|'), ('జి', '|'), ('తేం', 'U'), ('ద్రి', '|'), ('య', 'U'), ('త్వ', '|'), ('ము', '|'), ('ర', '|'), ('హిన్', 'U'), ('నీ', 'U'), ('కే', 'U'), ('త', '|'), ('గున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B107" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
         <is>
           <t>నీ మాహాత్మ్యము, నీ రయోపచయమున్‌, నీ సత్త్వసామగ్రియున్‌
 సామాన్యంబె యొకింత వాయువునకున్‌, నాగారికిన్‌ కల్గితే
@@ -3954,32 +3636,29 @@
 హైమాద్రిప్రతిమోన్నతీ! గురుమతీ! అర్కద్యుతీ! మారుతీ!</t>
         </is>
       </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F107" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('మా', 'U'), ('హా', 'U'), ('త్మ్య', '|'), ('ము', '|'), ('నీ', 'U'), ('ర', '|'), ('యో', 'U'), ('ప', '|'), ('చ', '|'), ('య', '|'), ('ము', 'U'), ('న్నీ', 'U'), ('స', 'U'), ('త్త్వ', '|'), ('సా', 'U'), ('మ', 'U'), ('గ్రి', '|'), ('యున్', 'U'), ('సా', 'U'), ('మా', 'U'), ('న్యం', 'U'), ('బె', '|'), ('యొ', '|'), ('కిం', 'U'), ('త', '|'), ('వా', 'U'), ('యు', '|'), ('వు', '|'), ('న', '|'), ('కు', 'U'), ('న్నా', 'U'), ('గా', 'U'), ('రి', '|'), ('కిన్', 'U'), ('క', 'U'), ('ల్గి', '|'), ('తే', 'U'), ('నే', 'U'), ('మో', 'U'), ('కా', 'U'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('ప', '|'), ('ము', 'U'), ('జ్జ', '|'), ('గ', '|'), ('ము', '|'), ('లం', 'U'), ('దె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కిం', 'U'), ('గ', 'U'), ('ల్గ', '|'), ('దో', 'U'), ('హై', 'U'), ('మా', 'U'), ('ద్రి', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మో', 'U'), ('న్న', '|'), ('తీ', 'U'), ('గు', '|'), ('రు', '|'), ('మ', '|'), ('తీ', 'U'), ('అ', 'U'), ('ర్క', 'U'), ('ద్యు', '|'), ('తీ', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B108" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
         <is>
           <t>ఉదయాస్తాద్రులమీఁద పాదయుగళం బొప్పారగా నుంచి, మే
 ను దివంబంతయు నిండఁ బెంచి, యలభానుం డర్మిలిం జెప్పఁగా
@@ -3987,32 +3666,29 @@
 ర్వదివౌకుల్‌ వెఱతోఁ ద్రివిక్రమునిగా భావింపరే మారుతీ!</t>
         </is>
       </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
           <t>[('ఉ', '|'), ('ద', '|'), ('యా', 'U'), ('స్తా', 'U'), ('ద్రు', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('పా', 'U'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళం', 'U'), ('బొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గా', 'U'), ('నుం', 'U'), ('చి', '|'), ('మే', 'U'), ('ను', '|'), ('ది', '|'), ('వం', 'U'), ('బం', 'U'), ('త', '|'), ('యు', '|'), ('నిం', 'U'), ('డ', '|'), ('బెం', 'U'), ('చి', '|'), ('య', '|'), ('ల', '|'), ('భా', 'U'), ('నుం', 'U'), ('డ', '|'), ('ర్మి', '|'), ('లిం', 'U'), ('జె', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వుల్', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('త', '|'), ('ఱిన్', 'U'), ('భ', '|'), ('వ', 'U'), ('త్త', '|'), ('ను', '|'), ('వి', '|'), ('లా', 'U'), ('సం', 'U'), ('బం', 'U'), ('త', '|'), ('యుం', 'U'), ('జూ', 'U'), ('చి', '|'), ('స', 'U'), ('ర్వ', '|'), ('ది', '|'), ('వౌ', 'U'), ('కుల్', 'U'), ('వె', '|'), ('ఱ', '|'), ('తో', 'U'), ('ద్రి', '|'), ('వి', 'U'), ('క్ర', '|'), ('ము', '|'), ('ని', '|'), ('గా', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('రే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B109" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
         <is>
           <t>అమరాద్రిప్రతిమానవిగ్రహము, బాలార్కప్రతీకాశవ
 క్త్రము శోభిల్లఁగ బారిజాతతరుమూలం బందు గూర్చుండి, యు
@@ -4020,32 +3696,29 @@
 త్రమహామంత్ర మొగిన్‌ జపించు నిను నే బ్రార్థించెదన్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
           <t>[('అ', '|'), ('మ', '|'), ('రా', 'U'), ('ద్రి', 'U'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('వి', 'U'), ('గ్ర', '|'), ('హ', '|'), ('ము', '|'), ('బా', 'U'), ('లా', 'U'), ('ర్క', 'U'), ('ప్ర', '|'), ('తీ', 'U'), ('కా', 'U'), ('శ', '|'), ('వ', 'U'), ('క్త్ర', '|'), ('ము', '|'), ('శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('గ', '|'), ('బా', 'U'), ('రి', '|'), ('జా', 'U'), ('త', '|'), ('త', '|'), ('రు', '|'), ('మూ', 'U'), ('లం', 'U'), ('బం', 'U'), ('దు', '|'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డి', '|'), ('యు', 'U'), ('త్త', '|'), ('మ', '|'), ('భ', '|'), ('క్తిన్', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('ని', '|'), ('మ', '|'), ('దిన్', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('ద', 'U'), ('త్ప', '|'), ('వి', 'U'), ('త్ర', '|'), ('మ', '|'), ('హా', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మొ', '|'), ('గిన్', 'U'), ('జ', '|'), ('పిం', 'U'), ('చు', '|'), ('ని', '|'), ('ను', '|'), ('నే', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B110" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
         <is>
           <t>నీ కళ్యానగుణంబులున్‌, మహిమయున్‌, నీరేజగర్భుండు, తా
 రాకాంతుండును, భోగివల్లభుఁడు, గీర్వాణప్రభుండును, భవా
@@ -4053,32 +3726,29 @@
 నాకుం దోఁచినభంగి నెన్నితిఁ గృపన్‌ మన్నింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('క', 'U'), ('ళ్యా', 'U'), ('న', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్మ', '|'), ('హి', '|'), ('మ', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('రే', 'U'), ('జ', '|'), ('గ', 'U'), ('ర్భుం', 'U'), ('డు', '|'), ('తా', 'U'), ('రా', 'U'), ('కాం', 'U'), ('తుం', 'U'), ('డు', '|'), ('ను', '|'), ('భో', 'U'), ('గి', '|'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('డు', '|'), ('గీ', 'U'), ('ర్వా', 'U'), ('ణ', 'U'), ('ప్ర', '|'), ('భుం', 'U'), ('డు', '|'), ('ను', '|'), ('భ', '|'), ('వా', 'U'), ('నీ', 'U'), ('కాం', 'U'), ('తుం', 'U'), ('డు', '|'), ('గ', '|'), ('ణిం', 'U'), ('ప', '|'), ('జా', 'U'), ('ల', '|'), ('ర', '|'), ('ని', '|'), ('నన్', 'U'), ('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('వా', 'U'), ('డన్', 'U'), ('ర', '|'), ('హిన్', 'U'), ('నా', 'U'), ('కుం', 'U'), ('దో', 'U'), ('చి', '|'), ('న', '|'), ('భం', 'U'), ('గి', '|'), ('నె', 'U'), ('న్ని', '|'), ('తి', '|'), ('గృ', '|'), ('పన్', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B111" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
         <is>
           <t>ఆరామాధిపు నొద్ద వానరు లనేకాక్షౌహిణుల్‌ లేరె? యె
 వ్వారైనన్‌ బహులక్షయోజనము లవ్వారాశి లంఘించి, సొం
@@ -4086,32 +3756,29 @@
 ఔరా! నీకది జెల్లెఁగాక! కపివంశాగ్రేసరా! మారుతీ!</t>
         </is>
       </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F111" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('రా', 'U'), ('మా', 'U'), ('ధి', '|'), ('పు', '|'), ('నొ', 'U'), ('ద్ద', '|'), ('వా', 'U'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('నే', 'U'), ('కా', 'U'), ('క్షౌ', 'U'), ('హి', '|'), ('ణుల్', 'U'), ('లే', 'U'), ('రె', '|'), ('యె', 'U'), ('వ్వా', 'U'), ('రై', 'U'), ('నన్', 'U'), ('బ', '|'), ('హు', '|'), ('ల', 'U'), ('క్ష', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('ల', 'U'), ('వ్వా', 'U'), ('రా', 'U'), ('శి', '|'), ('లం', 'U'), ('ఘిం', 'U'), ('చి', '|'), ('సొం', 'U'), ('పా', 'U'), ('రన్', 'U'), ('యా', 'U'), ('మ', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('నౌ', 'U'), ('ష', '|'), ('ధి', '|'), ('న', '|'), ('గం', 'U'), ('బా', 'U'), ('స', 'U'), ('క్తి', '|'), ('తే', 'U'), ('జా', 'U'), ('లి', '|'), ('రే', 'U'), ('ఔ', 'U'), ('రా', 'U'), ('నీ', 'U'), ('క', '|'), ('ది', '|'), ('జె', 'U'), ('ల్లె', '|'), ('గా', 'U'), ('క', '|'), ('క', '|'), ('పి', '|'), ('వం', 'U'), ('శా', 'U'), ('గ్రే', 'U'), ('స', '|'), ('రా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B112" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
         <is>
           <t>నీ నామంబు పఠించినన్‌ నిను మదిం జింతించినన్‌ నీ కథా
 గానం బుద్ధతి సల్పినం గరము వేడ్కన్‌ నిన్నుఁ బూజించినన్‌
@@ -4119,32 +3786,29 @@
 ద్యానైపుణ్యము గల్గు, చేకుఱును దీర్ఘాయుష్యమున్‌ మారుతీ!</t>
         </is>
       </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ప', '|'), ('ఠిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('ని', '|'), ('ను', '|'), ('మ', '|'), ('దిం', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('నీ', 'U'), ('క', '|'), ('థా', 'U'), ('గా', 'U'), ('నం', 'U'), ('బు', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('స', 'U'), ('ల్పి', '|'), ('నం', 'U'), ('గ', '|'), ('ర', '|'), ('ము', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('ని', 'U'), ('న్ను', '|'), ('బూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('నా', 'U'), ('నా', 'U'), ('వ్యా', 'U'), ('ధు', '|'), ('ల', '|'), ('డం', 'U'), ('గు', '|'), ('వే', 'U'), ('లు', '|'), ('పు', '|'), ('ల', '|'), ('స', 'U'), ('న్మా', 'U'), ('నం', 'U'), ('బు', '|'), ('సం', 'U'), ('ధి', 'U'), ('ల్లు', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('నై', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('చే', 'U'), ('కు', '|'), ('ఱు', '|'), ('ను', '|'), ('దీ', 'U'), ('ర్ఘా', 'U'), ('యు', 'U'), ('ష్య', '|'), ('మున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B113" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
         <is>
           <t>నీపేరెంచిన శత్రువర్గము వెసన్‌ నిర్మూలమైపోవు సం
 తాపంబుల్‌ దొలఁగున్‌, సమస్తదురితాంతం బౌను, కూశ్మాండ మా
@@ -4152,32 +3816,29 @@
 నాపీడల్‌ నశియించు, భద్రమొదవున్‌ సత్యంబుగా మారుతీ!</t>
         </is>
       </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
           <t>[('నీ', 'U'), ('పే', 'U'), ('రెం', 'U'), ('చి', '|'), ('న', '|'), ('శ', 'U'), ('త్రు', '|'), ('వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('వె', '|'), ('సన్', 'U'), ('ని', '|'), ('ర్మూ', 'U'), ('ల', '|'), ('మై', 'U'), ('పో', 'U'), ('వు', '|'), ('సం', 'U'), ('తా', 'U'), ('పం', 'U'), ('బుల్', 'U'), ('దొ', '|'), ('ల', '|'), ('గు', 'U'), ('న్స', '|'), ('మ', 'U'), ('స్త', '|'), ('దు', '|'), ('రి', '|'), ('తాం', 'U'), ('తం', 'U'), ('బౌ', 'U'), ('ను', '|'), ('కూ', 'U'), ('శ్మాం', 'U'), ('డ', '|'), ('మా', 'U'), ('రీ', 'U'), ('పై', 'U'), ('శా', 'U'), ('చి', '|'), ('క', '|'), ('య', 'U'), ('క్ష', '|'), ('రా', 'U'), ('క్ష', '|'), ('స', 'U'), ('గ్ర', '|'), ('హ', 'U'), ('ప్రే', 'U'), ('తో', 'U'), ('గ్ర', '|'), ('భూ', 'U'), ('తా', 'U'), ('ది', '|'), ('నా', 'U'), ('నా', 'U'), ('పీ', 'U'), ('డల్', 'U'), ('న', '|'), ('శి', '|'), ('యిం', 'U'), ('చు', '|'), ('భ', '|'), ('ద్ర', '|'), ('మొ', '|'), ('ద', '|'), ('వున్', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B114" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
         <is>
           <t>విమలంబై, వినఁ జిత్రమై, వితతమై, విద్యోతమై, వేద్యమై,
 యమృతంబై, యఘహారమై, యమితమై, యానందమై యాద్యమై
@@ -4185,32 +3846,29 @@
 సముదంచద్గతి నొప్పు నీ మహిమ కీశగ్రామణీ, మారుతీ!</t>
         </is>
       </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F114" t="inlineStr">
-        <is>
           <t>[('వి', '|'), ('మ', '|'), ('లం', 'U'), ('బై', 'U'), ('వి', '|'), ('న', '|'), ('జి', 'U'), ('త్ర', '|'), ('మై', 'U'), ('వి', '|'), ('త', '|'), ('త', '|'), ('మై', 'U'), ('వి', 'U'), ('ద్యో', 'U'), ('త', '|'), ('మై', 'U'), ('వే', 'U'), ('ద్య', '|'), ('మై', 'U'), ('య', '|'), ('మృ', '|'), ('తం', 'U'), ('బై', 'U'), ('య', '|'), ('ఘ', '|'), ('హా', 'U'), ('ర', '|'), ('మై', 'U'), ('య', '|'), ('మి', '|'), ('త', '|'), ('మై', 'U'), ('యా', 'U'), ('నం', 'U'), ('ద', '|'), ('మై', 'U'), ('యా', 'U'), ('ద్య', '|'), ('మై', 'U'), ('సు', '|'), ('మ', '|'), ('న', 'U'), ('స్స', 'U'), ('మ్మ', '|'), ('త', '|'), ('మై', 'U'), ('సు', '|'), ('ధీ', 'U'), ('వి', '|'), ('ను', '|'), ('త', '|'), ('మై', 'U'), ('సు', 'U'), ('జ్ఞా', 'U'), ('న', '|'), ('మై', 'U'), ('సూ', 'U'), ('చ్య', '|'), ('మై', 'U'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చ', 'U'), ('ద్గ', '|'), ('తి', '|'), ('నొ', 'U'), ('ప్పు', '|'), ('నీ', 'U'), ('మ', '|'), ('హి', '|'), ('మ', '|'), ('కీ', 'U'), ('శ', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('ణీ', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>saardulamu</t>
+        </is>
       </c>
       <c r="B115" t="inlineStr">
-        <is>
-          <t>saardulamu</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
         <is>
           <t>ఆ సుగ్రీవుఁడు కీశరాజ్యపదవిం బ్రాపించుటల్‌ రాముఁడు
 ల్లాసంబొప్పఁగ నవ్విభీషణునకున్‌ లంకాపురం బిచ్చుటల్‌
@@ -4219,32 +3877,29 @@
 నీ సాహాయము చేతనే కద? లసన్మేధానిధీ మారుతీ!</t>
         </is>
       </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F115" t="inlineStr">
-        <is>
           <t>[('ఆ', 'U'), ('సు', 'U'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', '|'), ('కీ', 'U'), ('శ', '|'), ('రా', 'U'), ('జ్య', '|'), ('ప', '|'), ('ద', '|'), ('విం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చు', '|'), ('టల్', 'U'), ('రా', 'U'), ('ము', '|'), ('డు', 'U'), ('ల్లా', 'U'), ('సం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('న', 'U'), ('వ్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('న', '|'), ('కున్', 'U'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రం', 'U'), ('బి', 'U'), ('చ్చు', '|'), ('టల్', 'U'), ('వా', 'U'), ('సిం', 'U'), ('గాం', 'U'), ('చి', '|'), ('త', '|'), ('రిం', 'U'), ('చు', '|'), ('టల్', 'U'), ('ద', '|'), ('శ', '|'), ('ము', '|'), ('ఖున్', 'U'), ('భం', 'U'), ('జిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ల్మూ', 'U'), ('ర్ఛి', '|'), ('తుం', 'U'), ('డౌ', 'U'), ('సౌ', 'U'), ('మి', 'U'), ('త్రి', '|'), ('ని', '|'), ('దే', 'U'), ('ర్చు', '|'), ('ట', 'U'), ('ల్మ', '|'), ('ర', '|'), ('ల', '|'), ('సీ', 'U'), ('తా', 'U'), ('వా', 'U'), ('ప్తి', '|'), ('యున్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('మున్', 'U'), ('నీ', 'U'), ('సా', 'U'), ('హా', 'U'), ('య', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('నే', 'U'), ('క', '|'), ('ద', '|'), ('ల', '|'), ('స', 'U'), ('న్మే', 'U'), ('ధా', 'U'), ('ని', '|'), ('ధీ', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B116" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
         <is>
           <t>పదదోషంబులు సంధిదోషము, యతిప్రాసాదిదోషంబులున్‌
 ప్రథితవ్యర్థ సమాసదోషము రసార్థప్రక్రియాదోషముల్‌
@@ -4252,32 +3907,29 @@
 మది సైరించి, గుణంబుగాఁ గొని ననుం బాలింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F116" t="inlineStr">
-        <is>
           <t>[('ప', '|'), ('ద', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('సం', 'U'), ('ధి', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('య', '|'), ('తి', 'U'), ('ప్రా', 'U'), ('సా', 'U'), ('ది', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లున్', 'U'), ('ప్ర', '|'), ('థి', '|'), ('త', 'U'), ('వ్య', 'U'), ('ర్థ', '|'), ('స', '|'), ('మా', 'U'), ('స', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('ర', '|'), ('సా', 'U'), ('ర్థ', 'U'), ('ప్ర', 'U'), ('క్రి', '|'), ('యా', 'U'), ('దో', 'U'), ('ష', '|'), ('ముల్', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('ల', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యు', 'U'), ('న్న', '|'), ('న', '|'), ('ను', '|'), ('కం', 'U'), ('పన్', 'U'), ('వా', 'U'), ('ని', '|'), ('న', 'U'), ('న్నిం', 'U'), ('టి', '|'), ('నీ', 'U'), ('మ', '|'), ('ది', '|'), ('సై', 'U'), ('రిం', 'U'), ('చి', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('గొ', '|'), ('ని', '|'), ('న', '|'), ('నుం', 'U'), ('బా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>mattebhamu</t>
+        </is>
       </c>
       <c r="B117" t="inlineStr">
-        <is>
-          <t>mattebhamu</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
         <is>
           <t>చతురత్వంబున గోపినాథకులవిస్తారుండు శ్రీపద్మనా
 భతనూజుండగు వేంకటాఖ్యకవి విద్వత్సమ్మతంబైన యీ
@@ -4285,17 +3937,17 @@
 మ్మతితో దీనిఁ బరిగ్రహించి, కరుణ బాలింపవే మారుతీ!</t>
         </is>
       </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>vruttamu</t>
+        </is>
+      </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>vruttamu</t>
+          <t>maaruthi</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
-        <is>
-          <t>maaruthi</t>
-        </is>
-      </c>
-      <c r="F117" t="inlineStr">
         <is>
           <t>[('చ', '|'), ('తు', '|'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('గో', 'U'), ('పి', '|'), ('నా', 'U'), ('థ', '|'), ('కు', '|'), ('ల', '|'), ('వి', 'U'), ('స్తా', 'U'), ('రుం', 'U'), ('డు', 'U'), ('శ్రీ', 'U'), ('ప', 'U'), ('ద్మ', '|'), ('నా', 'U'), ('భ', '|'), ('త', '|'), ('నూ', 'U'), ('జుం', 'U'), ('డ', '|'), ('గు', '|'), ('వేం', 'U'), ('క', '|'), ('టా', 'U'), ('ఖ్య', '|'), ('క', '|'), ('వి', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('త్స', 'U'), ('మ్మ', '|'), ('తం', 'U'), ('బై', 'U'), ('న', '|'), ('యీ', 'U'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బున్', 'U'), ('ర', '|'), ('చి', '|'), ('యిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('కు', '|'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చ', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('న', 'U'), ('ర్పిం', 'U'), ('చె', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('తో', 'U'), ('దీ', 'U'), ('ని', '|'), ('బ', '|'), ('రి', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('బా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>

--- a/dataset/lg/maaruthi.xlsx
+++ b/dataset/lg/maaruthi.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('శ్రీ', 'U'), ('మ', '|'), ('ద్రా', 'U'), ('మ', '|'), ('ప', '|'), ('దా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళిన్', 'U'), ('సే', 'U'), ('విం', 'U'), ('చి', '|'), ('య', 'U'), ('స్మ', 'U'), ('ద్గు', '|'), ('రు', 'U'), ('స్వా', 'U'), ('మిన్', 'U'), ('వే', 'U'), ('డ్క', '|'), ('భ', '|'), ('జిం', 'U'), ('చి', '|'), ('స', 'U'), ('త్క', '|'), ('వి', '|'), ('న', '|'), ('మ', 'U'), ('స్కా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('వా', 'U'), ('గ్భూ', 'U'), ('మ', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('నీ', 'U'), ('కు', '|'), ('నొ', 'U'), ('క్క', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బున్', 'U'), ('భ', 'U'), ('క్తి', '|'), ('న', 'U'), ('ర్పిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('నా', 'U'), ('మీ', 'U'), ('దం', 'U'), ('గృ', '|'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('కై', 'U'), ('కొ', '|'), ('ను', '|'), ('మ', '|'), ('మం', 'U'), ('ద', '|'), ('ప్రీ', 'U'), ('తి', '|'), ('తో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('శ్రీ', 'U'), ('మ', '|'), ('ద్రా', 'U'), ('మ', '|'), ('ప', '|'), ('దా', 'U'), ('ర', '|'), ('విం', 'U'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళి', 'U'), ('న్సే', 'U'), ('విం', 'U'), ('చి', '|'), ('య', 'U'), ('స్మ', 'U'), ('ద్గు', '|'), ('రు', 'U'), ('స్వా', 'U'), ('మి', 'U'), ('న్వే', 'U'), ('డ్క', '|'), ('భ', '|'), ('జిం', 'U'), ('చి', '|'), ('స', 'U'), ('త్క', '|'), ('వి', '|'), ('న', '|'), ('మ', 'U'), ('స్కా', 'U'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('వా', 'U'), ('గ్భూ', 'U'), ('మ', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('మ', '|'), ('నీ', 'U'), ('కు', '|'), ('నొ', 'U'), ('క్క', '|'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బు', 'U'), ('న్భ', 'U'), ('క్తి', '|'), ('న', 'U'), ('ర్పిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('నా', 'U'), ('మీ', 'U'), ('దం', 'U'), ('గృ', '|'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('కై', 'U'), ('కొ', '|'), ('ను', '|'), ('మ', '|'), ('మం', 'U'), ('ద', '|'), ('ప్రీ', 'U'), ('తి', '|'), ('తో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('న', '|'), ('ఘా', 'U'), ('నీ', 'U'), ('వు', '|'), ('జ', '|'), ('నిం', 'U'), ('చి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('ద్భూ', 'U'), ('రి', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వి', '|'), ('ను', '|'), ('వీ', 'U'), ('థిం', 'U'), ('గ', '|'), ('ను', '|'), ('ప', 'U'), ('ట్టు', '|'), ('బా', 'U'), ('ల', '|'), ('ర', '|'), ('వి', '|'), ('స', 'U'), ('ద్బిం', 'U'), ('బం', 'U'), ('బు', '|'), ('నీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('యె', 'U'), ('ఱ్ఱ', '|'), ('ని', '|'), ('పం', 'U'), ('డం', 'U'), ('చు', '|'), ('గ్ర', '|'), ('సిం', 'U'), ('ప', '|'), ('బ', '|'), ('త్రి', '|'), ('ప', '|'), ('తి', '|'), ('లీ', 'U'), ('లన్', 'U'), ('వే', 'U'), ('డ్క', '|'), ('ము', 'U'), ('న్నూ', 'U'), ('రు', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('ముల్', 'U'), ('మిం', 'U'), ('టి', '|'), ('కి', '|'), ('దా', 'U'), ('టి', '|'), ('తౌ', 'U'), ('ద్రి', '|'), ('భు', '|'), ('వ', '|'), ('న', 'U'), ('శ్లా', 'U'), ('ఘ్యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', '|'), ('న', '|'), ('ఘా', 'U'), ('నీ', 'U'), ('వు', '|'), ('జ', '|'), ('నిం', 'U'), ('చి', '|'), ('న', 'U'), ('ప్పు', '|'), ('డె', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('ద్భూ', 'U'), ('రి', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వి', '|'), ('ను', '|'), ('వీ', 'U'), ('థిం', 'U'), ('గ', '|'), ('ను', '|'), ('ప', 'U'), ('ట్టు', '|'), ('బా', 'U'), ('ల', '|'), ('ర', '|'), ('వి', '|'), ('స', 'U'), ('ద్బిం', 'U'), ('బం', 'U'), ('బు', '|'), ('నీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('యె', 'U'), ('ఱ్ఱ', '|'), ('ని', '|'), ('పం', 'U'), ('డం', 'U'), ('చు', '|'), ('గ్ర', '|'), ('సిం', 'U'), ('ప', '|'), ('బ', '|'), ('త్రి', '|'), ('ప', '|'), ('తి', '|'), ('లీ', 'U'), ('ల', 'U'), ('న్వే', 'U'), ('డ్క', '|'), ('ము', 'U'), ('న్నూ', 'U'), ('రు', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('ము', 'U'), ('ల్మిం', 'U'), ('టి', '|'), ('కి', '|'), ('దా', 'U'), ('టి', '|'), ('తౌ', 'U'), ('ద్రి', '|'), ('భు', '|'), ('వ', '|'), ('న', 'U'), ('శ్లా', 'U'), ('ఘ్యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('జ', '|'), ('గ', 'U'), ('ర్భ', 'U'), ('స్థి', '|'), ('త', '|'), ('శై', 'U'), ('వ', '|'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('స', '|'), ('ము', 'U'), ('న్ని', '|'), ('ద్రా', 'U'), ('త్మ', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('గూ', 'U'), ('డ', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్రా', 'U'), ('ణు', '|'), ('డ', '|'), ('మో', 'U'), ('ఘ', '|'), ('కే', 'U'), ('స', '|'), ('రి', '|'), ('వ', '|'), ('నా', 'U'), ('ట', 'U'), ('క్షే', 'U'), ('త్ర', '|'), ('మం', 'U'), ('ద', 'U'), ('ర్థి', '|'), ('నిం', 'U'), ('చ', '|'), ('జ', '|'), ('య', '|'), ('శ్రీ', 'U'), ('మ', '|'), ('హి', '|'), ('మా', 'U'), ('ప్తి', '|'), ('న', 'U'), ('య్యు', '|'), ('భ', '|'), ('య', '|'), ('తే', 'U'), ('జం', 'U'), ('బుల్', 'U'), ('ర', '|'), ('హిన్', 'U'), ('మి', '|'), ('శ్ర', '|'), ('మై', 'U'), ('త్రి', '|'), ('జ', '|'), ('గం', 'U'), ('బుల్', 'U'), ('గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డ', '|'), ('బు', 'U'), ('ట్టి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దే', 'U'), ('నీ', 'U'), ('వి', '|'), ('లన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ని', '|'), ('జ', '|'), ('గ', 'U'), ('ర్భ', 'U'), ('స్థి', '|'), ('త', '|'), ('శై', 'U'), ('వ', '|'), ('తే', 'U'), ('జ', '|'), ('ము', '|'), ('స', '|'), ('ము', 'U'), ('న్ని', '|'), ('ద్రా', 'U'), ('త్మ', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('గూ', 'U'), ('డ', '|'), ('జ', '|'), ('గ', 'U'), ('త్ప్రా', 'U'), ('ణు', '|'), ('డ', '|'), ('మో', 'U'), ('ఘ', '|'), ('కే', 'U'), ('స', '|'), ('రి', '|'), ('వ', '|'), ('నా', 'U'), ('ట', 'U'), ('క్షే', 'U'), ('త్ర', '|'), ('మం', 'U'), ('ద', 'U'), ('ర్థి', '|'), ('నిం', 'U'), ('చ', '|'), ('జ', '|'), ('య', '|'), ('శ్రీ', 'U'), ('మ', '|'), ('హి', '|'), ('మా', 'U'), ('ప్తి', '|'), ('న', 'U'), ('య్యు', '|'), ('భ', '|'), ('య', '|'), ('తే', 'U'), ('జం', 'U'), ('బు', '|'), ('ల్ర', '|'), ('హి', 'U'), ('న్మి', '|'), ('శ్ర', '|'), ('మై', 'U'), ('త్రి', '|'), ('జ', '|'), ('గం', 'U'), ('బు', 'U'), ('ల్గొ', '|'), ('ని', '|'), ('యా', 'U'), ('డ', '|'), ('బు', 'U'), ('ట్టి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దే', 'U'), ('నీ', 'U'), ('వి', '|'), ('ల', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ని', '|'), ('మే', 'U'), ('షే', 'U'), ('భ', '|'), ('ము', '|'), ('తె', 'U'), ('ల్ల', '|'), ('పం', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('బా', 'U'), ('ల్య', '|'), ('క్రీ', 'U'), ('డ', '|'), ('లన్', 'U'), ('మ్రిం', 'U'), ('గ', '|'), ('నొ', 'U'), ('య్య', '|'), ('న', '|'), ('డా', 'U'), ('యం', 'U'), ('బ', '|'), ('వి', '|'), ('చే', 'U'), ('బ', '|'), ('లా', 'U'), ('రి', '|'), ('ని', '|'), ('ను', '|'), ('మూ', 'U'), ('ర్ఛా', 'U'), ('క్రాం', 'U'), ('తు', '|'), ('నిం', 'U'), ('జే', 'U'), ('య', '|'), ('బూ', 'U'), ('ర్వ', '|'), ('న', '|'), ('గా', 'U'), ('ధి', 'U'), ('త్య', '|'), ('క', '|'), ('మీ', 'U'), ('ద', '|'), ('వా', 'U'), ('మ', '|'), ('హ', '|'), ('ను', '|'), ('వున్', 'U'), ('భ', 'U'), ('గ్నం', 'U'), ('బు', '|'), ('గా', 'U'), ('వ్రా', 'U'), ('లి', '|'), ('నన్', 'U'), ('హ', '|'), ('ను', '|'), ('మం', 'U'), ('తుం', 'U'), ('డ', '|'), ('ను', '|'), ('పే', 'U'), ('రు', '|'), ('నా', 'U'), ('డ', '|'), ('మ', '|'), ('రె', '|'), ('నీ', 'U'), ('క', 'U'), ('న్వ', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', '|'), ('ని', '|'), ('మే', 'U'), ('షే', 'U'), ('భ', '|'), ('ము', '|'), ('తె', 'U'), ('ల్ల', '|'), ('పం', 'U'), ('డ', '|'), ('ను', '|'), ('చు', '|'), ('బా', 'U'), ('ల్య', '|'), ('క్రీ', 'U'), ('డ', '|'), ('ల', 'U'), ('న్మ్రిం', 'U'), ('గ', '|'), ('నొ', 'U'), ('య్య', '|'), ('న', '|'), ('డా', 'U'), ('యం', 'U'), ('బ', '|'), ('వి', '|'), ('చే', 'U'), ('బ', '|'), ('లా', 'U'), ('రి', '|'), ('ని', '|'), ('ను', '|'), ('మూ', 'U'), ('ర్ఛా', 'U'), ('క్రాం', 'U'), ('తు', '|'), ('నిం', 'U'), ('జే', 'U'), ('య', '|'), ('బూ', 'U'), ('ర్వ', '|'), ('న', '|'), ('గా', 'U'), ('ధి', 'U'), ('త్య', '|'), ('క', '|'), ('మీ', 'U'), ('ద', '|'), ('వా', 'U'), ('మ', '|'), ('హ', '|'), ('ను', '|'), ('వు', 'U'), ('న్భ', 'U'), ('గ్నం', 'U'), ('బు', '|'), ('గా', 'U'), ('వ్రా', 'U'), ('లి', '|'), ('నన్', 'U'), ('హ', '|'), ('ను', '|'), ('మం', 'U'), ('తుం', 'U'), ('డ', '|'), ('ను', '|'), ('పే', 'U'), ('రు', '|'), ('నా', 'U'), ('డ', '|'), ('మ', '|'), ('రె', '|'), ('నీ', 'U'), ('క', 'U'), ('న్వ', 'U'), ('ర్థ', '|'), ('మై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -606,7 +606,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('పు', '|'), ('డా', 'U'), ('గం', 'U'), ('ధ', '|'), ('వ', '|'), ('హుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('ద', '|'), ('యి', '|'), ('న', '|'), ('మూ', 'U'), ('ర్ఛా', 'U'), ('వ', 'U'), ('స్థ', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('తా', 'U'), ('గు', '|'), ('పి', '|'), ('తుం', 'U'), ('డై', 'U'), ('ని', '|'), ('జ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('సం', 'U'), ('కో', 'U'), ('చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('జే', 'U'), ('య', '|'), ('న', 'U'), ('చ్చ', '|'), ('పు', '|'), ('గూ', 'U'), ('ర్మిన్', 'U'), ('ని', '|'), ('ఖి', '|'), ('లా', 'U'), ('స్త్ర', '|'), ('శ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('బం', 'U'), ('చ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('లే', 'U'), ('కుం', 'U'), ('డ', '|'), ('స', 'U'), ('త్కృ', '|'), ('ప', '|'), ('తో', 'U'), ('నీ', 'U'), ('కు', '|'), ('వ', '|'), ('రం', 'U'), ('బు', '|'), ('లి', 'U'), ('చ్చి', '|'), ('రి', '|'), ('గ', '|'), ('దా', 'U'), ('బృం', 'U'), ('దా', 'U'), ('ర', '|'), ('కుల్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', '|'), ('పు', '|'), ('డా', 'U'), ('గం', 'U'), ('ధ', '|'), ('వ', '|'), ('హుం', 'U'), ('డు', '|'), ('నీ', 'U'), ('ద', '|'), ('యి', '|'), ('న', '|'), ('మూ', 'U'), ('ర్ఛా', 'U'), ('వ', 'U'), ('స్థ', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('తా', 'U'), ('గు', '|'), ('పి', '|'), ('తుం', 'U'), ('డై', 'U'), ('ని', '|'), ('జ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('భ', '|'), ('వ', '|'), ('ము', '|'), ('సం', 'U'), ('కో', 'U'), ('చిం', 'U'), ('ప', '|'), ('గా', 'U'), ('జే', 'U'), ('య', '|'), ('న', 'U'), ('చ్చ', '|'), ('పు', '|'), ('గూ', 'U'), ('ర్మి', 'U'), ('న్ని', '|'), ('ఖి', '|'), ('లా', 'U'), ('స్త్ర', '|'), ('శ', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('ల', '|'), ('బం', 'U'), ('చ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('లే', 'U'), ('కుం', 'U'), ('డ', '|'), ('స', 'U'), ('త్కృ', '|'), ('ప', '|'), ('తో', 'U'), ('నీ', 'U'), ('కు', '|'), ('వ', '|'), ('రం', 'U'), ('బు', '|'), ('లి', 'U'), ('చ్చి', '|'), ('రి', '|'), ('గ', '|'), ('దా', 'U'), ('బృం', 'U'), ('దా', 'U'), ('ర', '|'), ('కు', 'U'), ('ల్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('ఒ', '|'), ('క', '|'), ('పా', 'U'), ('దం', 'U'), ('బు', '|'), ('మ', '|'), ('హో', 'U'), ('ద', '|'), ('యా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('పై', 'U'), ('నొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గా', 'U'), ('నుం', 'U'), ('చి', '|'), ('వే', 'U'), ('ఱొ', '|'), ('క', '|'), ('పా', 'U'), ('దం', 'U'), ('బ', '|'), ('ప', '|'), ('రా', 'U'), ('ద్రి', '|'), ('మీ', 'U'), ('ద', '|'), ('ని', '|'), ('డి', '|'), ('య', 'U'), ('య్యు', 'U'), ('ష్ణాం', 'U'), ('శు', '|'), ('చే', 'U'), ('బ', 'U'), ('ల్వి', '|'), ('డిన్', 'U'), ('స', '|'), ('క', '|'), ('లా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('భ్య', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('భ', '|'), ('వ', 'U'), ('చ్చా', 'U'), ('తు', 'U'), ('ర్య', '|'), ('మే', 'U'), ('మం', 'U'), ('దు', '|'), ('దా', 'U'), ('ప', '|'), ('క', '|'), ('ది', 'U'), ('వ్యో', 'U'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('ను', '|'), ('తిం', 'U'), ('పన్', 'U'), ('శ', 'U'), ('క్య', '|'), ('మే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఒ', '|'), ('క', '|'), ('పా', 'U'), ('దం', 'U'), ('బు', '|'), ('మ', '|'), ('హో', 'U'), ('ద', '|'), ('యా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('పై', 'U'), ('నొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గా', 'U'), ('నుం', 'U'), ('చి', '|'), ('వే', 'U'), ('ఱొ', '|'), ('క', '|'), ('పా', 'U'), ('దం', 'U'), ('బ', '|'), ('ప', '|'), ('రా', 'U'), ('ద్రి', '|'), ('మీ', 'U'), ('ద', '|'), ('ని', '|'), ('డి', '|'), ('య', 'U'), ('య్యు', 'U'), ('ష్ణాం', 'U'), ('శు', '|'), ('చే', 'U'), ('బ', 'U'), ('ల్వి', '|'), ('డిన్', 'U'), ('స', '|'), ('క', '|'), ('లా', 'U'), ('మ్నా', 'U'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('భ్య', '|'), ('సిం', 'U'), ('చి', '|'), ('న', '|'), ('భ', '|'), ('వ', 'U'), ('చ్చా', 'U'), ('తు', 'U'), ('ర్య', '|'), ('మే', 'U'), ('మం', 'U'), ('దు', '|'), ('దా', 'U'), ('ప', '|'), ('క', '|'), ('ది', 'U'), ('వ్యో', 'U'), ('రు', '|'), ('త', '|'), ('ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('ను', '|'), ('తిం', 'U'), ('ప', 'U'), ('న్శ', 'U'), ('క్య', '|'), ('మే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('న', '|'), ('ప', 'U'), ('త్నిం', 'U'), ('ది', '|'), ('ల', '|'), ('కిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('ని', '|'), ('బి', '|'), ('డ', '|'), ('కాం', 'U'), ('తా', 'U'), ('రో', 'U'), ('ర్వి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('రా', 'U'), ('మ', '|'), ('న', '|'), ('రేం', 'U'), ('ద్రో', 'U'), ('త్త', '|'), ('ము', '|'), ('పా', 'U'), ('లి', '|'), ('క', 'U'), ('ర్క', '|'), ('జు', '|'), ('డు', '|'), ('పం', 'U'), ('పం', 'U'), ('భి', 'U'), ('క్షు', '|'), ('వే', 'U'), ('షం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జ', '|'), ('ని', '|'), ('సు', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('ని', '|'), ('చం', 'U'), ('ద', '|'), ('ముం', 'U'), ('దె', '|'), ('లి', '|'), ('పి', '|'), ('యా', 'U'), ('క్ష్మా', 'U'), ('నా', 'U'), ('థు', '|'), ('దో', 'U'), ('డ్తె', 'U'), ('చ్చి', '|'), ('మె', 'U'), ('ల్ల', '|'), ('న', '|'), ('న', 'U'), ('య్యి', 'U'), ('ద్ద', '|'), ('ఱ', '|'), ('కుం', 'U'), ('ధ', '|'), ('నం', 'U'), ('జ', '|'), ('యు', '|'), ('ని', '|'), ('మ్రో', 'U'), ('లన్', 'U'), ('స', 'U'), ('ఖ్య', '|'), ('సం', 'U'), ('బం', 'U'), ('ధ', '|'), ('మున్', 'U'), ('వి', '|'), ('న', '|'), ('యం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('ఘ', '|'), ('టిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('ది', '|'), ('నీ', 'U'), ('వే', 'U'), ('కా', 'U'), ('దొ', '|'), ('కో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('త', '|'), ('న', '|'), ('ప', 'U'), ('త్నిం', 'U'), ('ది', '|'), ('ల', '|'), ('కిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్ని', '|'), ('బి', '|'), ('డ', '|'), ('కాం', 'U'), ('తా', 'U'), ('రో', 'U'), ('ర్వి', '|'), ('వ', 'U'), ('ర్తిం', 'U'), ('చు', '|'), ('రా', 'U'), ('మ', '|'), ('న', '|'), ('రేం', 'U'), ('ద్రో', 'U'), ('త్త', '|'), ('ము', '|'), ('పా', 'U'), ('లి', '|'), ('క', 'U'), ('ర్క', '|'), ('జు', '|'), ('డు', '|'), ('పం', 'U'), ('పం', 'U'), ('భి', 'U'), ('క్షు', '|'), ('వే', 'U'), ('షం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జ', '|'), ('ని', '|'), ('సు', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('ని', '|'), ('చం', 'U'), ('ద', '|'), ('ముం', 'U'), ('దె', '|'), ('లి', '|'), ('పి', '|'), ('యా', 'U'), ('క్ష్మా', 'U'), ('నా', 'U'), ('థు', '|'), ('దో', 'U'), ('డ్తె', 'U'), ('చ్చి', '|'), ('మె', 'U'), ('ల్ల', '|'), ('న', '|'), ('న', 'U'), ('య్యి', 'U'), ('ద్ద', '|'), ('ఱ', '|'), ('కుం', 'U'), ('ధ', '|'), ('నం', 'U'), ('జ', '|'), ('యు', '|'), ('ని', '|'), ('మ్రో', 'U'), ('ల', 'U'), ('న్స', 'U'), ('ఖ్య', '|'), ('సం', 'U'), ('బం', 'U'), ('ధ', '|'), ('మున్', 'U'), ('వి', '|'), ('న', '|'), ('యం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('ఘ', '|'), ('టిం', 'U'), ('ప', '|'), ('జే', 'U'), ('సి', '|'), ('న', '|'), ('ది', '|'), ('నీ', 'U'), ('వే', 'U'), ('కా', 'U'), ('దొ', '|'), ('కో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -727,7 +727,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('ను', '|'), ('జ', '|'), ('గ్రా', 'U'), ('మ', '|'), ('ణి', '|'), ('స', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('త్త', '|'), ('క', '|'), ('పి', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', 'U'), ('స్థి', '|'), ('తుం', 'U'), ('డ', 'U'), ('య్యు', '|'), ('భూ', 'U'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('న్వే', 'U'), ('ష', '|'), ('ణ', '|'), ('కా', 'U'), ('ర్య', '|'), ('మున్', 'U'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('కం', 'U'), ('ద', 'U'), ('ర్ప', '|'), ('క్రి', '|'), ('యా', 'U'), ('మ', 'U'), ('త్తు', '|'), ('డై', 'U'), ('త', '|'), ('ని', '|'), ('విం', 'U'), ('జెం', 'U'), ('ద', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('భా', 'U'), ('ను', '|'), ('జు', '|'), ('ని', '|'), ('ద', 'U'), ('త్కా', 'U'), ('లా', 'U'), ('ర్హ', '|'), ('నీ', 'U'), ('త్యు', 'U'), ('క్త', '|'), ('యు', 'U'), ('క్తి', '|'), ('ని', '|'), ('బో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('నీ', 'U'), ('తి', '|'), ('శా', 'U'), ('లి', '|'), ('వి', '|'), ('ని', '|'), ('నుం', 'U'), ('గీ', 'U'), ('ర్తిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('మ', '|'), ('ను', '|'), ('జ', '|'), ('గ్రా', 'U'), ('మ', '|'), ('ణి', '|'), ('స', 'U'), ('త్కృ', '|'), ('పా', 'U'), ('త్త', '|'), ('క', '|'), ('పి', '|'), ('సా', 'U'), ('మ్రా', 'U'), ('జ్య', 'U'), ('స్థి', '|'), ('తుం', 'U'), ('డ', 'U'), ('య్యు', '|'), ('భూ', 'U'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('న్వే', 'U'), ('ష', '|'), ('ణ', '|'), ('కా', 'U'), ('ర్య', '|'), ('ము', 'U'), ('న్మ', '|'), ('ఱ', '|'), ('చి', '|'), ('కం', 'U'), ('ద', 'U'), ('ర్ప', '|'), ('క్రి', '|'), ('యా', 'U'), ('మ', 'U'), ('త్తు', '|'), ('డై', 'U'), ('త', '|'), ('ని', '|'), ('విం', 'U'), ('జెం', 'U'), ('ద', '|'), ('క', '|'), ('యు', 'U'), ('న్న', '|'), ('భా', 'U'), ('ను', '|'), ('జు', '|'), ('ని', '|'), ('ద', 'U'), ('త్కా', 'U'), ('లా', 'U'), ('ర్హ', '|'), ('నీ', 'U'), ('త్యు', 'U'), ('క్త', '|'), ('యు', 'U'), ('క్తి', '|'), ('ని', '|'), ('బో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('నీ', 'U'), ('తి', '|'), ('శా', 'U'), ('లి', '|'), ('వి', '|'), ('ని', '|'), ('నుం', 'U'), ('గీ', 'U'), ('ర్తిం', 'U'), ('చె', '|'), ('ద', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -757,7 +757,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('లే', 'U'), ('రా', 'U'), ('కీ', 'U'), ('శు', '|'), ('ల', '|'), ('నే', 'U'), ('కు', '|'), ('లుం', 'U'), ('ద్రి', '|'), ('జ', '|'), ('గ', '|'), ('ముల్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('రా', 'U'), ('నే', 'U'), ('ర్ప', '|'), ('రుల్', 'U'), ('గా', 'U'), ('రా', 'U'), ('రా', 'U'), ('ము', '|'), ('డు', '|'), ('జా', 'U'), ('న', '|'), ('కిన్', 'U'), ('వె', '|'), ('ద', '|'), ('క', '|'), ('వీ', 'U'), ('కన్', 'U'), ('గీ', 'U'), ('శు', '|'), ('లం', 'U'), ('బం', 'U'), ('పు', '|'), ('చో', 'U'), ('నా', 'U'), ('రూ', 'U'), ('ఢిన్', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('ది', 'U'), ('వ్య', '|'), ('మ', '|'), ('హి', '|'), ('మ', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('ముల్', 'U'), ('సూ', 'U'), ('చి', '|'), ('కా', 'U'), ('దా', 'U'), ('ర', 'U'), ('త్నాం', 'U'), ('గు', '|'), ('ళి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బి', '|'), ('డి', '|'), ('యె', '|'), ('నీ', 'U'), ('హ', 'U'), ('స్తం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('లే', 'U'), ('రా', 'U'), ('కీ', 'U'), ('శు', '|'), ('ల', '|'), ('నే', 'U'), ('కు', '|'), ('లుం', 'U'), ('ద్రి', '|'), ('జ', '|'), ('గ', '|'), ('ము', 'U'), ('ల్వీ', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('రా', 'U'), ('నే', 'U'), ('ర్ప', '|'), ('రుల్', 'U'), ('గా', 'U'), ('రా', 'U'), ('రా', 'U'), ('ము', '|'), ('డు', '|'), ('జా', 'U'), ('న', '|'), ('కి', 'U'), ('న్వె', '|'), ('ద', '|'), ('క', '|'), ('వీ', 'U'), ('క', 'U'), ('న్గీ', 'U'), ('శు', '|'), ('లం', 'U'), ('బం', 'U'), ('పు', '|'), ('చో', 'U'), ('నా', 'U'), ('రూ', 'U'), ('ఢి', 'U'), ('న్భ', '|'), ('వ', '|'), ('దీ', 'U'), ('య', '|'), ('ది', 'U'), ('వ్య', '|'), ('మ', '|'), ('హి', '|'), ('మ', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('ము', 'U'), ('ల్సూ', 'U'), ('చి', '|'), ('కా', 'U'), ('దా', 'U'), ('ర', 'U'), ('త్నాం', 'U'), ('గు', '|'), ('ళి', '|'), ('భూ', 'U'), ('ష', '|'), ('ణం', 'U'), ('బి', '|'), ('డి', '|'), ('యె', '|'), ('నీ', 'U'), ('హ', 'U'), ('స్తం', 'U'), ('బు', '|'), ('న', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('న', '|'), ('జా', 'U'), ('ప్త', '|'), ('ప్రి', '|'), ('య', '|'), ('పు', '|'), ('త్రు', '|'), ('డెం', 'U'), ('త', '|'), ('ధి', '|'), ('ష', '|'), ('ణా', 'U'), ('వం', 'U'), ('తు', '|'), ('డొ', '|'), ('స', 'U'), ('ర్వం', 'U'), ('స', '|'), ('హా', 'U'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('న్వే', 'U'), ('ష', '|'), ('ణ', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('పు', '|'), ('లం', 'U'), ('దా', 'U'), ('బం', 'U'), ('పు', '|'), ('చో', 'U'), ('గా', 'U'), ('ర్య', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('మం', 'U'), ('దీ', 'U'), ('వ', '|'), ('తి', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణుం', 'U'), ('డ', '|'), ('వ', '|'), ('ని', '|'), ('కా', 'U'), ('దా', 'U'), ('నే', 'U'), ('ర్పు', '|'), ('తో', 'U'), ('ద', 'U'), ('క్షి', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('కున్', 'U'), ('ని', 'U'), ('న్న', '|'), ('ధి', '|'), ('కా', 'U'), ('రి', '|'), ('జే', 'U'), ('సి', '|'), ('ప', '|'), ('ని', '|'), ('చెన్', 'U'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('వ', '|'), ('న', '|'), ('జా', 'U'), ('ప్త', '|'), ('ప్రి', '|'), ('య', '|'), ('పు', '|'), ('త్రు', '|'), ('డెం', 'U'), ('త', '|'), ('ధి', '|'), ('ష', '|'), ('ణా', 'U'), ('వం', 'U'), ('తు', '|'), ('డొ', '|'), ('స', 'U'), ('ర్వం', 'U'), ('స', '|'), ('హా', 'U'), ('త', '|'), ('న', '|'), ('యా', 'U'), ('న్వే', 'U'), ('ష', '|'), ('ణ', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('ప', '|'), ('గ', '|'), ('పు', '|'), ('లం', 'U'), ('దా', 'U'), ('బం', 'U'), ('పు', '|'), ('చో', 'U'), ('గా', 'U'), ('ర్య', '|'), ('సా', 'U'), ('ధ', '|'), ('న', '|'), ('మం', 'U'), ('దీ', 'U'), ('వ', '|'), ('తి', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణుం', 'U'), ('డ', '|'), ('వ', '|'), ('ని', '|'), ('కా', 'U'), ('దా', 'U'), ('నే', 'U'), ('ర్పు', '|'), ('తో', 'U'), ('ద', 'U'), ('క్షి', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('కు', 'U'), ('న్ని', 'U'), ('న్న', '|'), ('ధి', '|'), ('కా', 'U'), ('రి', '|'), ('జే', 'U'), ('సి', '|'), ('ప', '|'), ('ని', '|'), ('చె', 'U'), ('న్మో', 'U'), ('దం', 'U'), ('బు', '|'), ('న', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('సీ', 'U'), ('తన్', 'U'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('ద', 'U'), ('ప్పి', '|'), ('చే', 'U'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('గా', 'U'), ('సిం', 'U'), ('జెం', 'U'), ('దు', '|'), ('శై', 'U'), ('లా', 'U'), ('ట', '|'), ('సం', 'U'), ('ఘా', 'U'), ('తం', 'U'), ('బుం', 'U'), ('గొ', '|'), ('ని', '|'), ('శై', 'U'), ('ల', '|'), ('గ', 'U'), ('హ్వ', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('క', 'U'), ('ల్పాం', 'U'), ('బు', '|'), ('వు', 'U'), ('ల్స', 'U'), ('త్ఫ', '|'), ('ల', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బుం', 'U'), ('ద', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('నం', 'U'), ('ద', '|'), ('ఱ', '|'), ('భు', '|'), ('జిం', 'U'), ('పం', 'U'), ('జే', 'U'), ('సి', '|'), ('త', 'U'), ('ద్దే', 'U'), ('వ', '|'), ('తా', 'U'), ('ఖా', 'U'), ('త', 'U'), ('శ్వ', '|'), ('భ్ర', '|'), ('ము', '|'), ('వె', 'U'), ('ల్వ', '|'), ('రిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('యో', 'U'), ('గ', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('చే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('సీ', 'U'), ('త', 'U'), ('న్గా', 'U'), ('న', '|'), ('క', '|'), ('ద', 'U'), ('ప్పి', '|'), ('చే', 'U'), ('బ', '|'), ('డ', '|'), ('లి', '|'), ('గా', 'U'), ('సిం', 'U'), ('జెం', 'U'), ('దు', '|'), ('శై', 'U'), ('లా', 'U'), ('ట', '|'), ('సం', 'U'), ('ఘా', 'U'), ('తం', 'U'), ('బుం', 'U'), ('గొ', '|'), ('ని', '|'), ('శై', 'U'), ('ల', '|'), ('గ', 'U'), ('హ్వ', '|'), ('ర', '|'), ('సు', '|'), ('ధా', 'U'), ('క', 'U'), ('ల్పాం', 'U'), ('బు', '|'), ('వు', 'U'), ('ల్స', 'U'), ('త్ఫ', '|'), ('ల', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బుం', 'U'), ('ద', '|'), ('ని', '|'), ('వా', 'U'), ('ర', '|'), ('నం', 'U'), ('ద', '|'), ('ఱ', '|'), ('భు', '|'), ('జిం', 'U'), ('పం', 'U'), ('జే', 'U'), ('సి', '|'), ('త', 'U'), ('ద్దే', 'U'), ('వ', '|'), ('తా', 'U'), ('ఖా', 'U'), ('త', 'U'), ('శ్వ', '|'), ('భ్ర', '|'), ('ము', '|'), ('వె', 'U'), ('ల్వ', '|'), ('రిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('యో', 'U'), ('గ', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('చే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('న', '|'), ('క', 'U'), ('క్ష్మా', 'U'), ('ప', '|'), ('తి', '|'), ('పు', '|'), ('త్రి', '|'), ('యు', 'U'), ('న్న', '|'), ('వి', '|'), ('ధ', '|'), ('మున్', 'U'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('సం', 'U'), ('పా', 'U'), ('తి', '|'), ('చే', 'U'), ('వి', '|'), ('ని', '|'), ('నీ', 'U'), ('లాం', 'U'), ('గ', '|'), ('ద', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('వా', 'U'), ('న', '|'), ('రుల్', 'U'), ('వే', 'U'), ('గం', 'U'), ('బె', '|'), ('ప్రా', 'U'), ('యో', 'U'), ('ప', '|'), ('వె', '|'), ('శ', '|'), ('మున్', 'U'), ('మా', 'U'), ('ని', '|'), ('భ', '|'), ('వ', 'U'), ('త్స', '|'), ('మే', 'U'), ('తు', '|'), ('ల', '|'), ('గు', '|'), ('చున్', 'U'), ('సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('తో', 'U'), ('నా', 'U'), ('మ', '|'), ('హేం', 'U'), ('ద్ర', '|'), ('న', '|'), ('గా', 'U'), ('రో', 'U'), ('హ', '|'), ('ణ', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('ర', '|'), ('ట', '|'), ('వి', 'U'), ('న్నా', 'U'), ('ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('జ', '|'), ('న', '|'), ('క', 'U'), ('క్ష్మా', 'U'), ('ప', '|'), ('తి', '|'), ('పు', '|'), ('త్రి', '|'), ('యు', 'U'), ('న్న', '|'), ('వి', '|'), ('ధ', '|'), ('ము', 'U'), ('న్స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('సం', 'U'), ('పా', 'U'), ('తి', '|'), ('చే', 'U'), ('వి', '|'), ('ని', '|'), ('నీ', 'U'), ('లాం', 'U'), ('గ', '|'), ('ద', '|'), ('ము', 'U'), ('ఖ్య', '|'), ('వా', 'U'), ('న', '|'), ('రు', 'U'), ('ల్వే', 'U'), ('గం', 'U'), ('బె', '|'), ('ప్రా', 'U'), ('యో', 'U'), ('ప', '|'), ('వె', '|'), ('శ', '|'), ('ము', 'U'), ('న్మా', 'U'), ('ని', '|'), ('భ', '|'), ('వ', 'U'), ('త్స', '|'), ('మే', 'U'), ('తు', '|'), ('ల', '|'), ('గు', '|'), ('చు', 'U'), ('న్సం', 'U'), ('ప్రీ', 'U'), ('తి', '|'), ('తో', 'U'), ('నా', 'U'), ('మ', '|'), ('హేం', 'U'), ('ద్ర', '|'), ('న', '|'), ('గా', 'U'), ('రో', 'U'), ('హ', '|'), ('ణ', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('ర', '|'), ('ట', '|'), ('వి', 'U'), ('న్నా', 'U'), ('ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -877,7 +877,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('శ', '|'), ('ర', '|'), ('ధిం', 'U'), ('గాం', 'U'), ('చి', '|'), ('య', '|'), ('లం', 'U'), ('ఘ', '|'), ('నీ', 'U'), ('య', '|'), ('మ', '|'), ('ని', '|'), ('త', 'U'), ('త్సం', 'U'), ('తా', 'U'), ('ర', '|'), ('ణా', 'U'), ('ద', 'U'), ('క్షు', '|'), ('లై', 'U'), ('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('గీ', 'U'), ('శు', '|'), ('లు', '|'), ('భీ', 'U'), ('తి', '|'), ('చే', 'U'), ('గ', '|'), ('ళ', '|'), ('వ', '|'), ('ళిం', 'U'), ('పన్', 'U'), ('వా', 'U'), ('రి', '|'), ('వా', 'U'), ('రిం', 'U'), ('చి', '|'), ('ని', 'U'), ('న్ను', '|'), ('రు', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('వి', '|'), ('లం', 'U'), ('ఘ', '|'), ('న', 'U'), ('క్ష', '|'), ('ము', '|'), ('ని', '|'), ('గా', 'U'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('ధీ', 'U'), ('మం', 'U'), ('తు', '|'), ('డా', 'U'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('ష్ఠి', '|'), ('ప్రి', '|'), ('య', '|'), ('పు', '|'), ('త్రు', '|'), ('డం', 'U'), ('చి', '|'), ('త', '|'), ('గ', '|'), ('తిన్', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('డే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('శ', '|'), ('ర', '|'), ('ధిం', 'U'), ('గాం', 'U'), ('చి', '|'), ('య', '|'), ('లం', 'U'), ('ఘ', '|'), ('నీ', 'U'), ('య', '|'), ('మ', '|'), ('ని', '|'), ('త', 'U'), ('త్సం', 'U'), ('తా', 'U'), ('ర', '|'), ('ణా', 'U'), ('ద', 'U'), ('క్షు', '|'), ('లై', 'U'), ('వ', '|'), ('రు', '|'), ('స', 'U'), ('న్గీ', 'U'), ('శు', '|'), ('లు', '|'), ('భీ', 'U'), ('తి', '|'), ('చే', 'U'), ('గ', '|'), ('ళ', '|'), ('వ', '|'), ('ళిం', 'U'), ('ప', 'U'), ('న్వా', 'U'), ('రి', '|'), ('వా', 'U'), ('రిం', 'U'), ('చి', '|'), ('ని', 'U'), ('న్ను', '|'), ('రు', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('వి', '|'), ('లం', 'U'), ('ఘ', '|'), ('న', 'U'), ('క్ష', '|'), ('ము', '|'), ('ని', '|'), ('గా', 'U'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('ధీ', 'U'), ('మం', 'U'), ('తు', '|'), ('డా', 'U'), ('ప', '|'), ('ర', '|'), ('మే', 'U'), ('ష్ఠి', '|'), ('ప్రి', '|'), ('య', '|'), ('పు', '|'), ('త్రు', '|'), ('డం', 'U'), ('చి', '|'), ('త', '|'), ('గ', '|'), ('తి', 'U'), ('న్బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('డే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('ఏ', 'U'), ('లా', 'U'), ('మీ', 'U'), ('కు', '|'), ('భ', '|'), ('యం', 'U'), ('బు', '|'), ('నే', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('మీ', 'U'), ('రిం', 'U'), ('దుం', 'U'), ('డు', '|'), ('డే', 'U'), ('నొ', 'U'), ('క్క', '|'), ('డన్', 'U'), ('వా', 'U'), ('లా', 'U'), ('యం', 'U'), ('బు', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('దా', 'U'), ('టి', '|'), ('య', '|'), ('ను', '|'), ('వొం', 'U'), ('దన్', 'U'), ('లం', 'U'), ('క', '|'), ('లో', 'U'), ('జా', 'U'), ('న', '|'), ('కిం', 'U'), ('బో', 'U'), ('లం', 'U'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('వ', 'U'), ('త్తు', '|'), ('ని', 'U'), ('త్తు', '|'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('మీ', 'U'), ('కం', 'U'), ('చు', '|'), ('ధై', 'U'), ('ర్యా', 'U'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('లు', '|'), ('వ', 'U'), ('ల్కి', '|'), ('తే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దా', 'U'), ('కీ', 'U'), ('శు', '|'), ('లన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఏ', 'U'), ('లా', 'U'), ('మీ', 'U'), ('కు', '|'), ('భ', '|'), ('యం', 'U'), ('బు', '|'), ('నే', 'U'), ('గ', '|'), ('లు', '|'), ('గ', '|'), ('మీ', 'U'), ('రిం', 'U'), ('దుం', 'U'), ('డు', '|'), ('డే', 'U'), ('నొ', 'U'), ('క్క', '|'), ('డన్', 'U'), ('వా', 'U'), ('లా', 'U'), ('యం', 'U'), ('బు', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('దా', 'U'), ('టి', '|'), ('య', '|'), ('ను', '|'), ('వొం', 'U'), ('ద', 'U'), ('న్లం', 'U'), ('క', '|'), ('లో', 'U'), ('జా', 'U'), ('న', '|'), ('కిం', 'U'), ('బో', 'U'), ('లం', 'U'), ('గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('వ', 'U'), ('త్తు', '|'), ('ని', 'U'), ('త్తు', '|'), ('బ', '|'), ('ర', '|'), ('మా', 'U'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('మీ', 'U'), ('కం', 'U'), ('చు', '|'), ('ధై', 'U'), ('ర్యా', 'U'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('లు', '|'), ('వ', 'U'), ('ల్కి', '|'), ('తే', 'U'), ('ర్చి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దా', 'U'), ('కీ', 'U'), ('శు', '|'), ('ల', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -937,7 +937,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[('బ', '|'), ('లి', '|'), ('బం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('వా', 'U'), ('మ', '|'), ('న', '|'), ('త', '|'), ('ను', '|'), ('ప్రా', 'U'), ('బ', 'U'), ('ల్య', '|'), ('ముం', 'U'), ('దా', 'U'), ('ల్చి', '|'), ('యు', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('చం', 'U'), ('ద్రో', 'U'), ('ద', '|'), ('య', '|'), ('వే', 'U'), ('ళ', '|'), ('బొం', 'U'), ('గు', '|'), ('త', '|'), ('టి', '|'), ('నీ', 'U'), ('శ', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('ను', 'U'), ('ప్పొం', 'U'), ('గి', '|'), ('ఘో', 'U'), ('ర', '|'), ('ల', '|'), ('యా', 'U'), ('భ్రం', 'U'), ('బు', '|'), ('తె', '|'), ('ఱం', 'U'), ('గు', '|'), ('నన్', 'U'), ('భ', '|'), ('య', '|'), ('ద', '|'), ('గ', 'U'), ('ర్జా', 'U'), ('రా', 'U'), ('వ', '|'), ('ముం', 'U'), ('జే', 'U'), ('సి', '|'), ('త', 'U'), ('జ్జ', '|'), ('ల', '|'), ('ధిం', 'U'), ('దా', 'U'), ('ట', '|'), ('గ', '|'), ('బూ', 'U'), ('ని', '|'), ('తీ', 'U'), ('వు', '|'), ('ప', '|'), ('ర', '|'), ('మో', 'U'), ('త్సా', 'U'), ('హ', 'U'), ('మ్ము', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('బ', '|'), ('లి', '|'), ('బం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('న', '|'), ('నా', 'U'), ('టి', '|'), ('వా', 'U'), ('మ', '|'), ('న', '|'), ('త', '|'), ('ను', '|'), ('ప్రా', 'U'), ('బ', 'U'), ('ల్య', '|'), ('ముం', 'U'), ('దా', 'U'), ('ల్చి', '|'), ('యు', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('చం', 'U'), ('ద్రో', 'U'), ('ద', '|'), ('య', '|'), ('వే', 'U'), ('ళ', '|'), ('బొం', 'U'), ('గు', '|'), ('త', '|'), ('టి', '|'), ('నీ', 'U'), ('శ', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('ను', 'U'), ('ప్పొం', 'U'), ('గి', '|'), ('ఘో', 'U'), ('ర', '|'), ('ల', '|'), ('యా', 'U'), ('భ్రం', 'U'), ('బు', '|'), ('తె', '|'), ('ఱం', 'U'), ('గు', '|'), ('న', 'U'), ('న్భ', '|'), ('య', '|'), ('ద', '|'), ('గ', 'U'), ('ర్జా', 'U'), ('రా', 'U'), ('వ', '|'), ('ముం', 'U'), ('జే', 'U'), ('సి', '|'), ('త', 'U'), ('జ్జ', '|'), ('ల', '|'), ('ధిం', 'U'), ('దా', 'U'), ('ట', '|'), ('గ', '|'), ('బూ', 'U'), ('ని', '|'), ('తీ', 'U'), ('వు', '|'), ('ప', '|'), ('ర', '|'), ('మో', 'U'), ('త్సా', 'U'), ('హ', 'U'), ('మ్ము', '|'), ('న', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -967,7 +967,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[('స్థి', '|'), ('ర', '|'), ('స', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('న', '|'), ('శై', 'U'), ('ల', '|'), ('రా', 'U'), ('జ', '|'), ('ము', '|'), ('ధ', '|'), ('రి', '|'), ('త్రిం', 'U'), ('గ్రుం', 'U'), ('గ', '|'), ('బా', 'U'), ('దం', 'U'), ('బు', '|'), ('లూ', 'U'), ('ది', '|'), ('ర', '|'), ('హిన్', 'U'), ('భూ', 'U'), ('రి', '|'), ('భు', '|'), ('జో', 'U'), ('రు', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('ధా', 'U'), ('త్రీ', 'U'), ('జా', 'U'), ('త', '|'), ('ముల్', 'U'), ('పె', 'U'), ('ల్ల', '|'), ('గి', 'U'), ('ల్లి', '|'), ('ర', '|'), ('యం', 'U'), ('బా', 'U'), ('ర', '|'), ('గ', '|'), ('దో', 'U'), ('డ', '|'), ('రా', 'U'), ('గ', '|'), ('గ', '|'), ('న', '|'), ('మున్', 'U'), ('లీ', 'U'), ('లా', 'U'), ('గ', '|'), ('తిన్', 'U'), ('మ్రిం', 'U'), ('గ', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('శ', 'U'), ('క్తిం', 'U'), ('జ', '|'), ('ను', '|'), ('మా', 'U'), ('డ్కి', '|'), ('దా', 'U'), ('టి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దే', 'U'), ('నిం', 'U'), ('గి', '|'), ('కిన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('స్థి', '|'), ('ర', '|'), ('స', 'U'), ('త్త్వం', 'U'), ('బు', '|'), ('న', '|'), ('శై', 'U'), ('ల', '|'), ('రా', 'U'), ('జ', '|'), ('ము', '|'), ('ధ', '|'), ('రి', '|'), ('త్రిం', 'U'), ('గ్రుం', 'U'), ('గ', '|'), ('బా', 'U'), ('దం', 'U'), ('బు', '|'), ('లూ', 'U'), ('ది', '|'), ('ర', '|'), ('హి', 'U'), ('న్భూ', 'U'), ('రి', '|'), ('భు', '|'), ('జో', 'U'), ('రు', '|'), ('వే', 'U'), ('గ', '|'), ('ము', '|'), ('న', '|'), ('ధా', 'U'), ('త్రీ', 'U'), ('జా', 'U'), ('త', '|'), ('ము', 'U'), ('ల్పె', 'U'), ('ల్ల', '|'), ('గి', 'U'), ('ల్లి', '|'), ('ర', '|'), ('యం', 'U'), ('బా', 'U'), ('ర', '|'), ('గ', '|'), ('దో', 'U'), ('డ', '|'), ('రా', 'U'), ('గ', '|'), ('గ', '|'), ('న', '|'), ('ము', 'U'), ('న్లీ', 'U'), ('లా', 'U'), ('గ', '|'), ('తి', 'U'), ('న్మ్రిం', 'U'), ('గ', '|'), ('సు', 'U'), ('స్థి', '|'), ('ర', '|'), ('శ', 'U'), ('క్తిం', 'U'), ('జ', '|'), ('ను', '|'), ('మా', 'U'), ('డ్కి', '|'), ('దా', 'U'), ('టి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దే', 'U'), ('నిం', 'U'), ('గి', '|'), ('కి', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -997,7 +997,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('గ', '|'), ('జా', 'U'), ('లా', 'U'), ('వృ', '|'), ('త', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('భు', '|'), ('జ', '|'), ('ర', '|'), ('యో', 'U'), ('ద్య', 'U'), ('ద్వా', 'U'), ('రి', '|'), ('వా', 'U'), ('హం', 'U'), ('బు', '|'), ('లొ', 'U'), ('ప్పు', '|'), ('గ', '|'), ('ని', 'U'), ('ర్వం', 'U'), ('క', '|'), ('ల', '|'), ('నం', 'U'), ('టి', '|'), ('రా', 'U'), ('గ', '|'), ('ద', '|'), ('లి', '|'), ('యం', 'U'), ('భో', 'U'), ('రా', 'U'), ('శి', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('గ', '|'), ('గ', '|'), ('నా', 'U'), ('ధ్వం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('గు', '|'), ('ని', 'U'), ('న్న', '|'), ('మి', '|'), ('షు', 'U'), ('ల్గం', 'U'), ('ధ', 'U'), ('ర్వు', '|'), ('లున్', 'U'), ('లం', 'U'), ('బ', '|'), ('ప', 'U'), ('క్ష', '|'), ('గి', '|'), ('రీం', 'U'), ('ద్రం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('లె', '|'), ('జూ', 'U'), ('చి', '|'), ('రి', '|'), ('క', '|'), ('దా', 'U'), ('సం', 'U'), ('భ్రాం', 'U'), ('తు', '|'), ('లై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', '|'), ('గ', '|'), ('జా', 'U'), ('లా', 'U'), ('వృ', '|'), ('త', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వై', 'U'), ('భు', '|'), ('జ', '|'), ('ర', '|'), ('యో', 'U'), ('ద్య', 'U'), ('ద్వా', 'U'), ('రి', '|'), ('వా', 'U'), ('హం', 'U'), ('బు', '|'), ('లొ', 'U'), ('ప్పు', '|'), ('గ', '|'), ('ని', 'U'), ('ర్వం', 'U'), ('క', '|'), ('ల', '|'), ('నం', 'U'), ('టి', '|'), ('రా', 'U'), ('గ', '|'), ('ద', '|'), ('లి', '|'), ('యం', 'U'), ('భో', 'U'), ('రా', 'U'), ('శి', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('గ', '|'), ('గ', '|'), ('నా', 'U'), ('ధ్వం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('గు', '|'), ('ని', 'U'), ('న్న', '|'), ('మి', '|'), ('షు', 'U'), ('ల్గం', 'U'), ('ధ', 'U'), ('ర్వు', '|'), ('లు', 'U'), ('న్లం', 'U'), ('బ', '|'), ('ప', 'U'), ('క్ష', '|'), ('గి', '|'), ('రీం', 'U'), ('ద్రం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('లె', '|'), ('జూ', 'U'), ('చి', '|'), ('రి', '|'), ('క', '|'), ('దా', 'U'), ('సం', 'U'), ('భ్రాం', 'U'), ('తు', '|'), ('లై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[('లో', 'U'), ('కా', 'U'), ('లో', 'U'), ('క', '|'), ('గు', '|'), ('హా', 'U'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('లు', '|'), ('బ', '|'), ('దుల్', 'U'), ('మ్రో', 'U'), ('యం', 'U'), ('గ', '|'), ('ను', 'U'), ('ద్వృ', 'U'), ('త్తి', '|'), ('న', 'U'), ('స్తో', 'U'), ('క', 'U'), ('ధ్వా', 'U'), ('న', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('వ', '|'), ('జ్ర', '|'), ('ని', '|'), ('భ', '|'), ('వ', 'U'), ('క్షో', 'U'), ('ఘ', 'U'), ('ట్ట', '|'), ('న', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('మై', 'U'), ('నా', 'U'), ('కం', 'U'), ('బున్', 'U'), ('సు', '|'), ('డి', '|'), ('బె', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('ని', '|'), ('పి', '|'), ('ద', '|'), ('పన్', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('కే', 'U'), ('లూ', 'U'), ('ది', '|'), ('ప్ర', 'U'), ('త్యే', 'U'), ('కం', 'U'), ('బా', 'U'), ('బ', '|'), ('ల', '|'), ('వై', 'U'), ('రి', '|'), ('చే', 'U'), ('త', '|'), ('న', '|'), ('భ', '|'), ('యం', 'U'), ('బి', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('లో', 'U'), ('కా', 'U'), ('లో', 'U'), ('క', '|'), ('గు', '|'), ('హా', 'U'), ('ము', '|'), ('ఖం', 'U'), ('బు', '|'), ('లు', '|'), ('బ', '|'), ('దు', 'U'), ('ల్మ్రో', 'U'), ('యం', 'U'), ('గ', '|'), ('ను', 'U'), ('ద్వృ', 'U'), ('త్తి', '|'), ('న', 'U'), ('స్తో', 'U'), ('క', 'U'), ('ధ్వా', 'U'), ('న', '|'), ('మొ', '|'), ('న', 'U'), ('ర్చి', '|'), ('వ', '|'), ('జ్ర', '|'), ('ని', '|'), ('భ', '|'), ('వ', 'U'), ('క్షో', 'U'), ('ఘ', 'U'), ('ట్ట', '|'), ('న', 'U'), ('స్ఫూ', 'U'), ('ర్తి', '|'), ('మై', 'U'), ('నా', 'U'), ('కం', 'U'), ('బు', 'U'), ('న్సు', '|'), ('డి', '|'), ('బె', 'U'), ('ట్టి', '|'), ('దా', 'U'), ('ని', '|'), ('పి', '|'), ('ద', '|'), ('ప', 'U'), ('న్మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('కే', 'U'), ('లూ', 'U'), ('ది', '|'), ('ప్ర', 'U'), ('త్యే', 'U'), ('కం', 'U'), ('బా', 'U'), ('బ', '|'), ('ల', '|'), ('వై', 'U'), ('రి', '|'), ('చే', 'U'), ('త', '|'), ('న', '|'), ('భ', '|'), ('యం', 'U'), ('బి', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[('గ', '|'), ('రి', '|'), ('మన్', 'U'), ('వే', 'U'), ('ల్పు', '|'), ('లు', '|'), ('నీ', 'U'), ('దు', '|'), ('శ', 'U'), ('క్తి', '|'), ('దె', '|'), ('లి', '|'), ('యం', 'U'), ('గాం', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('నా', 'U'), ('గాం', 'U'), ('బ', '|'), ('యౌ', 'U'), ('సు', '|'), ('ర', '|'), ('సం', 'U'), ('బం', 'U'), ('పి', '|'), ('న', 'U'), ('వ్యా', 'U'), ('పి', '|'), ('తా', 'U'), ('స్య', '|'), ('య', '|'), ('గు', '|'), ('చుం', 'U'), ('జొ', 'U'), ('ప్పా', 'U'), ('గి', '|'), ('పో', 'U'), ('నీ', 'U'), ('క', '|'), ('ముం', 'U'), ('ద', '|'), ('ఱ', '|'), ('దో', 'U'), ('తెం', 'U'), ('చి', '|'), ('న', '|'), ('సూ', 'U'), ('క్ష్మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('గు', '|'), ('చుం', 'U'), ('ద', 'U'), ('ద్వ', 'U'), ('క్త్ర', '|'), ('ముం', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('గ్ర', 'U'), ('మ్మ', '|'), ('ర', '|'), ('నే', 'U'), ('తెం', 'U'), ('చి', '|'), ('న', '|'), ('యో', 'U'), ('గ', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('ని', '|'), ('ని', '|'), ('నుం', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('గ', '|'), ('రి', '|'), ('మ', 'U'), ('న్వే', 'U'), ('ల్పు', '|'), ('లు', '|'), ('నీ', 'U'), ('దు', '|'), ('శ', 'U'), ('క్తి', '|'), ('దె', '|'), ('లి', '|'), ('యం', 'U'), ('గాం', 'U'), ('క్షిం', 'U'), ('చి', '|'), ('నా', 'U'), ('గాం', 'U'), ('బ', '|'), ('యౌ', 'U'), ('సు', '|'), ('ర', '|'), ('సం', 'U'), ('బం', 'U'), ('పి', '|'), ('న', 'U'), ('వ్యా', 'U'), ('పి', '|'), ('తా', 'U'), ('స్య', '|'), ('య', '|'), ('గు', '|'), ('చుం', 'U'), ('జొ', 'U'), ('ప్పా', 'U'), ('గి', '|'), ('పో', 'U'), ('నీ', 'U'), ('క', '|'), ('ముం', 'U'), ('ద', '|'), ('ఱ', '|'), ('దో', 'U'), ('తెం', 'U'), ('చి', '|'), ('న', '|'), ('సూ', 'U'), ('క్ష్మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('వ', '|'), ('గు', '|'), ('చుం', 'U'), ('ద', 'U'), ('ద్వ', 'U'), ('క్త్ర', '|'), ('ముం', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('గ్ర', 'U'), ('మ్మ', '|'), ('ర', '|'), ('నే', 'U'), ('తెం', 'U'), ('చి', '|'), ('న', '|'), ('యో', 'U'), ('గ', '|'), ('సి', 'U'), ('ద్ధు', '|'), ('ని', '|'), ('ని', '|'), ('నుం', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('చె', '|'), ('ద', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1087,7 +1087,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('టు', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('త', '|'), ('రం', 'U'), ('గ', '|'), ('పం', 'U'), ('క్తు', '|'), ('లు', '|'), ('గ', '|'), ('ణిం', 'U'), ('పం', 'U'), ('బో', 'U'), ('వు', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('ను', 'U'), ('త్క', '|'), ('ట', '|'), ('వే', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('బో', 'U'), ('వు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', '|'), ('ని', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('వీ', 'U'), ('త', '|'), ('సం', 'U'), ('దే', 'U'), ('హు', '|'), ('లై', 'U'), ('చ', '|'), ('టు', '|'), ('ల', 'U'), ('స్థై', 'U'), ('ర్య', '|'), ('బ', '|'), ('ల', 'U'), ('ద్యు', '|'), ('తి', 'U'), ('స్య', '|'), ('ద', '|'), ('మ', '|'), ('తుల్', 'U'), ('శౌ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('ధై', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('మి', 'U'), ('క్కు', '|'), ('ట', '|'), ('మౌ', 'U'), ('గా', 'U'), ('క', '|'), ('ని', '|'), ('నీ', 'U'), ('కొ', '|'), ('సం', 'U'), ('గ', '|'), ('రె', '|'), ('ది', '|'), ('వౌ', 'U'), ('కుల్', 'U'), ('దీ', 'U'), ('వ', '|'), ('నల్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ప', '|'), ('టు', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('త', '|'), ('రం', 'U'), ('గ', '|'), ('పం', 'U'), ('క్తు', '|'), ('లు', '|'), ('గ', '|'), ('ణిం', 'U'), ('పం', 'U'), ('బో', 'U'), ('వు', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('ను', 'U'), ('త్క', '|'), ('ట', '|'), ('వే', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('బో', 'U'), ('వు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', '|'), ('ని', '|'), ('వే', 'U'), ('డ్క', 'U'), ('న్వీ', 'U'), ('త', '|'), ('సం', 'U'), ('దే', 'U'), ('హు', '|'), ('లై', 'U'), ('చ', '|'), ('టు', '|'), ('ల', 'U'), ('స్థై', 'U'), ('ర్య', '|'), ('బ', '|'), ('ల', 'U'), ('ద్యు', '|'), ('తి', 'U'), ('స్య', '|'), ('ద', '|'), ('మ', '|'), ('తు', 'U'), ('ల్శౌ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('ధై', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('మి', 'U'), ('క్కు', '|'), ('ట', '|'), ('మౌ', 'U'), ('గా', 'U'), ('క', '|'), ('ని', '|'), ('నీ', 'U'), ('కొ', '|'), ('సం', 'U'), ('గ', '|'), ('రె', '|'), ('ది', '|'), ('వౌ', 'U'), ('కు', 'U'), ('ల్దీ', 'U'), ('వ', '|'), ('న', 'U'), ('ల్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('వ', '|'), ('నా', 'U'), ('భ', 'U'), ('స్య', '|'), ('ద', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('నీ', 'U'), ('వు', '|'), ('క', '|'), ('డి', '|'), ('మిం', 'U'), ('బ', '|'), ('థో', 'U'), ('ని', '|'), ('ధిం', 'U'), ('దా', 'U'), ('టు', '|'), ('చో', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యో', 'U'), ('రు', '|'), ('భు', '|'), ('జో', 'U'), ('రు', '|'), ('వే', 'U'), ('గ', '|'), ('జ', '|'), ('ని', '|'), ('తా', 'U'), ('భం', 'U'), ('గో', 'U'), ('ర్మి', '|'), ('కా', 'U'), ('జా', 'U'), ('ల', '|'), ('ముల్', 'U'), ('ది', '|'), ('వి', '|'), ('తో', 'U'), ('రా', 'U'), ('య', '|'), ('ఘు', '|'), ('మం', 'U'), ('ఘు', '|'), ('మా', 'U'), ('ర్భ', '|'), ('టు', '|'), ('లు', '|'), ('ది', 'U'), ('గ్దే', 'U'), ('శం', 'U'), ('బు', '|'), ('లం', 'U'), ('బ', 'U'), ('ర్వ', '|'), ('బ', '|'), ('త్ర', '|'), ('వ', '|'), ('హేం', 'U'), ('ద్రుం', 'U'), ('డ', '|'), ('ని', '|'), ('భీ', 'U'), ('తి', '|'), ('లెన్', 'U'), ('ఫ', '|'), ('ణు', '|'), ('లు', '|'), ('పా', 'U'), ('తా', 'U'), ('ళం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ప', '|'), ('వ', '|'), ('నా', 'U'), ('భ', 'U'), ('స్య', '|'), ('ద', '|'), ('మొ', 'U'), ('ప్ప', '|'), ('నీ', 'U'), ('వు', '|'), ('క', '|'), ('డి', '|'), ('మిం', 'U'), ('బ', '|'), ('థో', 'U'), ('ని', '|'), ('ధిం', 'U'), ('దా', 'U'), ('టు', '|'), ('చో', 'U'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యో', 'U'), ('రు', '|'), ('భు', '|'), ('జో', 'U'), ('రు', '|'), ('వే', 'U'), ('గ', '|'), ('జ', '|'), ('ని', '|'), ('తా', 'U'), ('భం', 'U'), ('గో', 'U'), ('ర్మి', '|'), ('కా', 'U'), ('జా', 'U'), ('ల', '|'), ('ముల్', 'U'), ('ది', '|'), ('వి', '|'), ('తో', 'U'), ('రా', 'U'), ('య', '|'), ('ఘు', '|'), ('మం', 'U'), ('ఘు', '|'), ('మా', 'U'), ('ర్భ', '|'), ('టు', '|'), ('లు', '|'), ('ది', 'U'), ('గ్దే', 'U'), ('శం', 'U'), ('బు', '|'), ('లం', 'U'), ('బ', 'U'), ('ర్వ', '|'), ('బ', '|'), ('త్ర', '|'), ('వ', '|'), ('హేం', 'U'), ('ద్రుం', 'U'), ('డ', '|'), ('ని', '|'), ('భీ', 'U'), ('తి', '|'), ('లె', 'U'), ('న్ఫ', '|'), ('ణు', '|'), ('లు', '|'), ('పా', 'U'), ('తా', 'U'), ('ళం', 'U'), ('బు', '|'), ('న', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[('శ', '|'), ('ర', '|'), ('ద', '|'), ('శ్రే', 'U'), ('ణు', '|'), ('ల', '|'), ('దూ', 'U'), ('రు', '|'), ('చున్', 'U'), ('వె', '|'), ('డ', '|'), ('లు', '|'), ('చుం', 'U'), ('జా', 'U'), ('బి', 'U'), ('ల్లి', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('బు', 'U'), ('ష్క', '|'), ('ర', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('గు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', '|'), ('ని', '|'), ('నీ', 'U'), ('చా', 'U'), ('తు', 'U'), ('ర్య', '|'), ('మున్', 'U'), ('మె', 'U'), ('చ్చి', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రు', '|'), ('లా', 'U'), ('నం', 'U'), ('ద', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('జ', 'U'), ('ల్లి', '|'), ('న', '|'), ('మ', '|'), ('రు', 'U'), ('త్సం', 'U'), ('తా', 'U'), ('న', '|'), ('పు', 'U'), ('ష్పం', 'U'), ('బు', '|'), ('ల', 'U'), ('ట్ల', '|'), ('రు', '|'), ('దా', 'U'), ('రన్', 'U'), ('గ', '|'), ('న', '|'), ('న', 'U'), ('య్యె', '|'), ('జు', 'U'), ('ట్టు', '|'), ('ను', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('త్తా', 'U'), ('ర', '|'), ('కల్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('శ', '|'), ('ర', '|'), ('ద', '|'), ('శ్రే', 'U'), ('ణు', '|'), ('ల', '|'), ('దూ', 'U'), ('రు', '|'), ('చు', 'U'), ('న్వె', '|'), ('డ', '|'), ('లు', '|'), ('చుం', 'U'), ('జా', 'U'), ('బి', 'U'), ('ల్లి', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('బు', 'U'), ('ష్క', '|'), ('ర', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('గు', '|'), ('ని', 'U'), ('న్ను', '|'), ('గ', '|'), ('ని', '|'), ('నీ', 'U'), ('చా', 'U'), ('తు', 'U'), ('ర్య', '|'), ('ము', 'U'), ('న్మె', 'U'), ('చ్చి', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రు', '|'), ('లా', 'U'), ('నం', 'U'), ('ద', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('జ', 'U'), ('ల్లి', '|'), ('న', '|'), ('మ', '|'), ('రు', 'U'), ('త్సం', 'U'), ('తా', 'U'), ('న', '|'), ('పు', 'U'), ('ష్పం', 'U'), ('బు', '|'), ('ల', 'U'), ('ట్ల', '|'), ('రు', '|'), ('దా', 'U'), ('ర', 'U'), ('న్గ', '|'), ('న', '|'), ('న', 'U'), ('య్యె', '|'), ('జు', 'U'), ('ట్టు', '|'), ('ను', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('త్తా', 'U'), ('ర', '|'), ('క', 'U'), ('ల్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[('ఛా', 'U'), ('యా', 'U'), ('గ్రా', 'U'), ('హి', '|'), ('ణి', '|'), ('నా', 'U'), ('మ', '|'), ('రా', 'U'), ('క్ష', '|'), ('సి', '|'), ('స', '|'), ('ర', 'U'), ('స్వ', 'U'), ('న్మ', 'U'), ('ధ్య', '|'), ('మం', 'U'), ('దుం', 'U'), ('డి', '|'), ('నీ', 'U'), ('కా', 'U'), ('య', 'U'), ('చ్ఛా', 'U'), ('య', '|'), ('ను', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('ది', '|'), ('గు', '|'), ('వ', '|'), ('ద', 'U'), ('ద్గ', 'U'), ('ర్భం', 'U'), ('బు', '|'), ('భే', 'U'), ('దిం', 'U'), ('చి', '|'), ('త', 'U'), ('త్కా', 'U'), ('యం', 'U'), ('బుం', 'U'), ('గొ', '|'), ('ని', '|'), ('మిం', 'U'), ('టి', '|'), ('పై', 'U'), ('కె', '|'), ('గ', '|'), ('సి', '|'), ('కి', 'U'), ('న్కన్', 'U'), ('వా', 'U'), ('ర్ధి', '|'), ('లో', 'U'), ('జీ', 'U'), ('వి', '|'), ('తా', 'U'), ('పా', 'U'), ('యం', 'U'), ('బుం', 'U'), ('గ', '|'), ('లు', '|'), ('గం', 'U'), ('గ', '|'), ('వై', 'U'), ('చి', '|'), ('న', '|'), ('ని', '|'), ('నున్', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఛా', 'U'), ('యా', 'U'), ('గ్రా', 'U'), ('హి', '|'), ('ణి', '|'), ('నా', 'U'), ('మ', '|'), ('రా', 'U'), ('క్ష', '|'), ('సి', '|'), ('స', '|'), ('ర', 'U'), ('స్వ', 'U'), ('న్మ', 'U'), ('ధ్య', '|'), ('మం', 'U'), ('దుం', 'U'), ('డి', '|'), ('నీ', 'U'), ('కా', 'U'), ('య', 'U'), ('చ్ఛా', 'U'), ('య', '|'), ('ను', '|'), ('బ', 'U'), ('ట్టి', '|'), ('వే', 'U'), ('ది', '|'), ('గు', '|'), ('వ', '|'), ('ద', 'U'), ('ద్గ', 'U'), ('ర్భం', 'U'), ('బు', '|'), ('భే', 'U'), ('దిం', 'U'), ('చి', '|'), ('త', 'U'), ('త్కా', 'U'), ('యం', 'U'), ('బుం', 'U'), ('గొ', '|'), ('ని', '|'), ('మిం', 'U'), ('టి', '|'), ('పై', 'U'), ('కె', '|'), ('గ', '|'), ('సి', '|'), ('కి', 'U'), ('న్క', 'U'), ('న్వా', 'U'), ('ర్ధి', '|'), ('లో', 'U'), ('జీ', 'U'), ('వి', '|'), ('తా', 'U'), ('పా', 'U'), ('యం', 'U'), ('బుం', 'U'), ('గ', '|'), ('లు', '|'), ('గం', 'U'), ('గ', '|'), ('వై', 'U'), ('చి', '|'), ('న', '|'), ('ని', '|'), ('ను', 'U'), ('న్వ', 'U'), ('ర్ణిం', 'U'), ('చె', '|'), ('ద', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[('మై', 'U'), ('నా', 'U'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('తి', '|'), ('క్ర', '|'), ('మిం', 'U'), ('చి', '|'), ('సు', '|'), ('ర', '|'), ('సన్', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('యా', 'U'), ('సిం', 'U'), ('హి', '|'), ('కా', 'U'), ('ఖ్యా', 'U'), ('నన్', 'U'), ('రా', 'U'), ('క్ష', '|'), ('సి', '|'), ('గీ', 'U'), ('డ', '|'), ('టం', 'U'), ('చి', '|'), ('న', '|'), ('డు', '|'), ('మన్', 'U'), ('గా', 'U'), ('లూ', 'U'), ('ద', '|'), ('క', 'U'), ('స్తా', 'U'), ('ద్రి', '|'), ('కిం', 'U'), ('భా', 'U'), ('నుం', 'U'), ('డే', 'U'), ('గ', '|'), ('క', '|'), ('ము', 'U'), ('న్నె', '|'), ('మా', 'U'), ('రు', '|'), ('త', '|'), ('గ', '|'), ('తిన్', 'U'), ('వా', 'U'), ('రా', 'U'), ('శి', '|'), ('నూ', 'U'), ('ఱా', 'U'), ('మ', '|'), ('డన్', 'U'), ('గ్లా', 'U'), ('నిం', 'U'), ('జెం', 'U'), ('ద', '|'), ('క', '|'), ('దా', 'U'), ('టి', '|'), ('తీ', 'U'), ('వు', '|'), ('సు', '|'), ('ర', '|'), ('సం', 'U'), ('ఘం', 'U'), ('బె', 'U'), ('న్న', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('మై', 'U'), ('నా', 'U'), ('కం', 'U'), ('బు', '|'), ('న', '|'), ('తి', '|'), ('క్ర', '|'), ('మిం', 'U'), ('చి', '|'), ('సు', '|'), ('ర', '|'), ('స', 'U'), ('న్మ', 'U'), ('న్నిం', 'U'), ('చి', '|'), ('యా', 'U'), ('సిం', 'U'), ('హి', '|'), ('కా', 'U'), ('ఖ్యా', 'U'), ('న', '|'), ('న్రా', 'U'), ('క్ష', '|'), ('సి', '|'), ('గీ', 'U'), ('డ', '|'), ('టం', 'U'), ('చి', '|'), ('న', '|'), ('డు', '|'), ('మ', 'U'), ('న్గా', 'U'), ('లూ', 'U'), ('ద', '|'), ('క', 'U'), ('స్తా', 'U'), ('ద్రి', '|'), ('కిం', 'U'), ('భా', 'U'), ('నుం', 'U'), ('డే', 'U'), ('గ', '|'), ('క', '|'), ('ము', 'U'), ('న్నె', '|'), ('మా', 'U'), ('రు', '|'), ('త', '|'), ('గ', '|'), ('తి', 'U'), ('న్వా', 'U'), ('రా', 'U'), ('శి', '|'), ('నూ', 'U'), ('ఱా', 'U'), ('మ', '|'), ('డన్', 'U'), ('గ్లా', 'U'), ('నిం', 'U'), ('జెం', 'U'), ('ద', '|'), ('క', '|'), ('దా', 'U'), ('టి', '|'), ('తీ', 'U'), ('వు', '|'), ('సు', '|'), ('ర', '|'), ('సం', 'U'), ('ఘం', 'U'), ('బె', 'U'), ('న్న', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1237,7 +1237,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('న', '|'), ('ఘా', 'U'), ('భా', 'U'), ('స్క', '|'), ('రు', '|'), ('డొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('ఱు', '|'), ('ద', '|'), ('య', '|'), ('శై', 'U'), ('లా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('నం', 'U'), ('దుం', 'U'), ('డి', '|'), ('య', 'U'), ('స్త', '|'), ('న', '|'), ('గా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('న', '|'), ('కే', 'U'), ('గు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('చ్ఛ', 'U'), ('క్తి', '|'), ('వే', 'U'), ('మా', 'U'), ('ఱు', '|'), ('బె', 'U'), ('ల్చ', '|'), ('న', '|'), ('న', 'U'), ('క్కొం', 'U'), ('డ', '|'), ('ల', '|'), ('రెం', 'U'), ('డు', '|'), ('నుం', 'U'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('తే', 'U'), ('జ', 'U'), ('శ్శా', 'U'), ('లి', '|'), ('కిన్', 'U'), ('నీ', 'U'), ('కు', '|'), ('చ', 'U'), ('య్య', '|'), ('న', '|'), ('నూ', 'U'), ('ఱా', 'U'), ('మ', '|'), ('డ', '|'), ('దా', 'U'), ('టు', '|'), ('టే', 'U'), ('మి', '|'), ('వి', '|'), ('ష', '|'), ('యం', 'U'), ('బ', 'U'), ('స్తో', 'U'), ('క', '|'), ('మే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', '|'), ('న', '|'), ('ఘా', 'U'), ('భా', 'U'), ('స్క', '|'), ('రు', '|'), ('డొ', 'U'), ('క్క', '|'), ('మా', 'U'), ('ఱు', '|'), ('ద', '|'), ('య', '|'), ('శై', 'U'), ('లా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('నం', 'U'), ('దుం', 'U'), ('డి', '|'), ('య', 'U'), ('స్త', '|'), ('న', '|'), ('గా', 'U'), ('గ్రం', 'U'), ('బు', '|'), ('న', '|'), ('కే', 'U'), ('గు', '|'), ('నం', 'U'), ('త', '|'), ('కు', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('చ్ఛ', 'U'), ('క్తి', '|'), ('వే', 'U'), ('మా', 'U'), ('ఱు', '|'), ('బె', 'U'), ('ల్చ', '|'), ('న', '|'), ('న', 'U'), ('క్కొం', 'U'), ('డ', '|'), ('ల', '|'), ('రెం', 'U'), ('డు', '|'), ('నుం', 'U'), ('ది', '|'), ('రు', '|'), ('గు', '|'), ('తే', 'U'), ('జ', 'U'), ('శ్శా', 'U'), ('లి', '|'), ('కి', 'U'), ('న్నీ', 'U'), ('కు', '|'), ('చ', 'U'), ('య్య', '|'), ('న', '|'), ('నూ', 'U'), ('ఱా', 'U'), ('మ', '|'), ('డ', '|'), ('దా', 'U'), ('టు', '|'), ('టే', 'U'), ('మి', '|'), ('వి', '|'), ('ష', '|'), ('యం', 'U'), ('బ', 'U'), ('స్తో', 'U'), ('క', '|'), ('మే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('త', '|'), ('వే', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('వా', 'U'), ('ర్థి', '|'), ('దా', 'U'), ('టి', '|'), ('గ', '|'), ('డి', '|'), ('మిం', 'U'), ('ద', 'U'), ('ద్యా', 'U'), ('మ్య', '|'), ('తీ', 'U'), ('ర', 'U'), ('స్థ', '|'), ('ప', 'U'), ('ర్వ', '|'), ('త', '|'), ('ముం', 'U'), ('జే', 'U'), ('రి', '|'), ('న', '|'), ('గో', 'U'), ('ప', '|'), ('మా', 'U'), ('న', '|'), ('ని', '|'), ('జ', '|'), ('గా', 'U'), ('త్ర', 'U'), ('వ్యా', 'U'), ('ప్తి', '|'), ('జా', 'U'), ('లిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ర్గ', '|'), ('త', '|'), ('మో', 'U'), ('హుం', 'U'), ('డ', '|'), ('గు', '|'), ('యో', 'U'), ('గి', '|'), ('భం', 'U'), ('గి', '|'), ('బ్ర', '|'), ('కృ', '|'), ('తిం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చి', '|'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రీ', 'U'), ('స్థి', '|'), ('త', '|'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దే', 'U'), ('ద', 'U'), ('వ్వు', '|'), ('లన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('త', '|'), ('త', '|'), ('వే', 'U'), ('గం', 'U'), ('బు', '|'), ('న', '|'), ('వా', 'U'), ('ర్థి', '|'), ('దా', 'U'), ('టి', '|'), ('గ', '|'), ('డి', '|'), ('మిం', 'U'), ('ద', 'U'), ('ద్యా', 'U'), ('మ్య', '|'), ('తీ', 'U'), ('ర', 'U'), ('స్థ', '|'), ('ప', 'U'), ('ర్వ', '|'), ('త', '|'), ('ముం', 'U'), ('జే', 'U'), ('రి', '|'), ('న', '|'), ('గో', 'U'), ('ప', '|'), ('మా', 'U'), ('న', '|'), ('ని', '|'), ('జ', '|'), ('గా', 'U'), ('త్ర', 'U'), ('వ్యా', 'U'), ('ప్తి', '|'), ('జా', 'U'), ('లిం', 'U'), ('చి', '|'), ('ని', 'U'), ('ర్గ', '|'), ('త', '|'), ('మో', 'U'), ('హుం', 'U'), ('డ', '|'), ('గు', '|'), ('యో', 'U'), ('గి', '|'), ('భం', 'U'), ('గి', '|'), ('బ్ర', '|'), ('కృ', '|'), ('తిం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చి', '|'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రీ', 'U'), ('స్థి', '|'), ('త', '|'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('ల', '|'), ('జూ', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దే', 'U'), ('ద', 'U'), ('వ్వు', '|'), ('ల', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[('పం', 'U'), ('కే', 'U'), ('జా', 'U'), ('స', '|'), ('ను', '|'), ('శా', 'U'), ('స', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('జ', '|'), ('యిం', 'U'), ('పన్', 'U'), ('రా', 'U'), ('క', '|'), ('య', '|'), ('శ్రాం', 'U'), ('త', '|'), ('మున్', 'U'), ('లం', 'U'), ('కా', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('చి', '|'), ('యు', 'U'), ('న్న', '|'), ('కు', '|'), ('పి', '|'), ('తన్', 'U'), ('లం', 'U'), ('కన్', 'U'), ('జ', '|'), ('యాం', 'U'), ('కన్', 'U'), ('ని', '|'), ('రా', 'U'), ('తం', 'U'), ('క', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('న', '|'), ('శం', 'U'), ('క', '|'), ('ము', 'U'), ('ష్టి', '|'), ('హ', '|'), ('తి', '|'), ('చే', 'U'), ('తం', 'U'), ('దూ', 'U'), ('ల', '|'), ('గా', 'U'), ('బు', 'U'), ('చ్చి', '|'), ('వీ', 'U'), ('రాం', 'U'), ('క', '|'), ('గ్రా', 'U'), ('మ', '|'), ('ణి', '|'), ('వై', 'U'), ('వె', '|'), ('లిం', 'U'), ('గె', '|'), ('డు', '|'), ('ని', '|'), ('నున్', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('పం', 'U'), ('కే', 'U'), ('జా', 'U'), ('స', '|'), ('ను', '|'), ('శా', 'U'), ('స', '|'), ('నం', 'U'), ('బు', '|'), ('న', '|'), ('జ', '|'), ('యిం', 'U'), ('ప', '|'), ('న్రా', 'U'), ('క', '|'), ('య', '|'), ('శ్రాం', 'U'), ('త', '|'), ('మున్', 'U'), ('లం', 'U'), ('కా', 'U'), ('ద్వా', 'U'), ('ర', '|'), ('ము', '|'), ('గా', 'U'), ('చి', '|'), ('యు', 'U'), ('న్న', '|'), ('కు', '|'), ('పి', '|'), ('త', 'U'), ('న్లం', 'U'), ('క', 'U'), ('న్జ', '|'), ('యాం', 'U'), ('క', 'U'), ('న్ని', '|'), ('రా', 'U'), ('తం', 'U'), ('క', '|'), ('ప్రౌ', 'U'), ('ఢి', '|'), ('న', '|'), ('శం', 'U'), ('క', '|'), ('ము', 'U'), ('ష్టి', '|'), ('హ', '|'), ('తి', '|'), ('చే', 'U'), ('తం', 'U'), ('దూ', 'U'), ('ల', '|'), ('గా', 'U'), ('బు', 'U'), ('చ్చి', '|'), ('వీ', 'U'), ('రాం', 'U'), ('క', '|'), ('గ్రా', 'U'), ('మ', '|'), ('ణి', '|'), ('వై', 'U'), ('వె', '|'), ('లిం', 'U'), ('గె', '|'), ('డు', '|'), ('ని', '|'), ('ను', 'U'), ('న్బ్రా', 'U'), ('ర్థిం', 'U'), ('చె', '|'), ('ద', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[('ప్రా', 'U'), ('చు', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('గ', '|'), ('చం', 'U'), ('దు', '|'), ('రుం', 'U'), ('డు', '|'), ('కి', '|'), ('ర', '|'), ('ణ', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('పై', 'U'), ('జ', 'U'), ('ల్లు', '|'), ('చున్', 'U'), ('సా', 'U'), ('చి', 'U'), ('వ్యం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('యో', 'U'), ('గ', '|'), ('మ', '|'), ('హి', '|'), ('మన్', 'U'), ('మా', 'U'), ('ర్జా', 'U'), ('ల', '|'), ('మా', 'U'), ('త్రుం', 'U'), ('డ', '|'), ('వై', 'U'), ('నీ', 'U'), ('చుల్', 'U'), ('దై', 'U'), ('త్యు', '|'), ('లు', '|'), ('చూ', 'U'), ('డ', '|'), ('కుం', 'U'), ('డ', '|'), ('స', '|'), ('తి', '|'), ('న', 'U'), ('న్వే', 'U'), ('షిం', 'U'), ('ప', '|'), ('గా', 'U'), ('శే', 'U'), ('ము', '|'), ('షీ', 'U'), ('వై', 'U'), ('చి', '|'), ('త్రిన్', 'U'), ('వె', '|'), ('స', '|'), ('లం', 'U'), ('క', '|'), ('డా', 'U'), ('సి', '|'), ('న', '|'), ('ని', '|'), ('నున్', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ప్రా', 'U'), ('చు', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('గ', '|'), ('చం', 'U'), ('దు', '|'), ('రుం', 'U'), ('డు', '|'), ('కి', '|'), ('ర', '|'), ('ణ', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('పై', 'U'), ('జ', 'U'), ('ల్లు', '|'), ('చున్', 'U'), ('సా', 'U'), ('చి', 'U'), ('వ్యం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', '|'), ('యో', 'U'), ('గ', '|'), ('మ', '|'), ('హి', '|'), ('మ', 'U'), ('న్మా', 'U'), ('ర్జా', 'U'), ('ల', '|'), ('మా', 'U'), ('త్రుం', 'U'), ('డ', '|'), ('వై', 'U'), ('నీ', 'U'), ('చు', 'U'), ('ల్దై', 'U'), ('త్యు', '|'), ('లు', '|'), ('చూ', 'U'), ('డ', '|'), ('కుం', 'U'), ('డ', '|'), ('స', '|'), ('తి', '|'), ('న', 'U'), ('న్వే', 'U'), ('షిం', 'U'), ('ప', '|'), ('గా', 'U'), ('శే', 'U'), ('ము', '|'), ('షీ', 'U'), ('వై', 'U'), ('చి', '|'), ('త్రి', 'U'), ('న్వె', '|'), ('స', '|'), ('లం', 'U'), ('క', '|'), ('డా', 'U'), ('సి', '|'), ('న', '|'), ('ని', '|'), ('ను', 'U'), ('న్వ', 'U'), ('ర్ణిం', 'U'), ('చె', '|'), ('ద', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1357,7 +1357,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[('లం', 'U'), ('కా', 'U'), ('నా', 'U'), ('మ', '|'), ('ని', '|'), ('శా', 'U'), ('టి', '|'), ('నా', 'U'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('దూ', 'U'), ('లం', 'U'), ('బు', 'U'), ('చ్చి', '|'), ('యా', 'U'), ('ప్రో', 'U'), ('లి', '|'), ('కన్', 'U'), ('గం', 'U'), ('కో', 'U'), ('లూ', 'U'), ('క', '|'), ('వ', '|'), ('శం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('దు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బం', 'U'), ('చు', '|'), ('వా', 'U'), ('మాం', 'U'), ('ఘ్రి', '|'), ('ని', 'U'), ('శ్శం', 'U'), ('కన్', 'U'), ('ముం', 'U'), ('దు', '|'), ('గ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('చున్', 'U'), ('సు', '|'), ('ర', '|'), ('భి', '|'), ('ళాం', 'U'), ('చ', '|'), ('ద్రా', 'U'), ('జ', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('నన్', 'U'), ('లం', 'U'), ('కా', 'U'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('వ', 'U'), ('హ్ని', '|'), ('వై', 'U'), ('చ', '|'), ('న', '|'), ('వె', '|'), ('ధీ', 'U'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('లం', 'U'), ('కా', 'U'), ('నా', 'U'), ('మ', '|'), ('ని', '|'), ('శా', 'U'), ('టి', '|'), ('నా', 'U'), ('క', '|'), ('ర', '|'), ('ణి', '|'), ('దూ', 'U'), ('లం', 'U'), ('బు', 'U'), ('చ్చి', '|'), ('యా', 'U'), ('ప్రో', 'U'), ('లి', '|'), ('కన్', 'U'), ('గం', 'U'), ('కో', 'U'), ('లూ', 'U'), ('క', '|'), ('వ', '|'), ('శం', 'U'), ('బు', '|'), ('గా', 'U'), ('గ', '|'), ('ల', '|'), ('దు', '|'), ('ని', 'U'), ('క్కం', 'U'), ('బం', 'U'), ('చు', '|'), ('వా', 'U'), ('మాం', 'U'), ('ఘ్రి', '|'), ('ని', 'U'), ('శ్శం', 'U'), ('క', 'U'), ('న్ముం', 'U'), ('దు', '|'), ('గ', '|'), ('బె', 'U'), ('ట్టు', '|'), ('చు', 'U'), ('న్సు', '|'), ('ర', '|'), ('భి', '|'), ('ళాం', 'U'), ('చ', '|'), ('ద్రా', 'U'), ('జ', '|'), ('మా', 'U'), ('ర్గం', 'U'), ('బు', '|'), ('నన్', 'U'), ('లం', 'U'), ('కా', 'U'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('వ', 'U'), ('హ్ని', '|'), ('వై', 'U'), ('చ', '|'), ('న', '|'), ('వె', '|'), ('ధీ', 'U'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1387,7 +1387,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[('నా', 'U'), ('నా', 'U'), ('వి', '|'), ('కా', 'U'), ('ర', '|'), ('రూ', 'U'), ('పు', '|'), ('ల', '|'), ('ను', '|'), ('నా', 'U'), ('నా', 'U'), ('వే', 'U'), ('షు', '|'), ('లన్', 'U'), ('దై', 'U'), ('త్యు', '|'), ('లన్', 'U'), ('నా', 'U'), ('నా', 'U'), ('ఘో', 'U'), ('ర', '|'), ('శ', '|'), ('రీ', 'U'), ('రు', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('చు', '|'), ('నా', 'U'), ('నా', 'U'), ('గు', 'U'), ('ల్మ', '|'), ('ముల్', 'U'), ('చూ', 'U'), ('చు', '|'), ('చున్', 'U'), ('నా', 'U'), ('నా', 'U'), ('వా', 'U'), ('ద్య', '|'), ('ర', '|'), ('వం', 'U'), ('బు', '|'), ('లన్', 'U'), ('వి', '|'), ('ను', '|'), ('చు', '|'), ('వి', 'U'), ('న్నా', 'U'), ('ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వో', 'U'), ('ర్వీ', 'U'), ('నా', 'U'), ('థ', '|'), ('ప్రి', '|'), ('య', '|'), ('ప', 'U'), ('త్ని', '|'), ('భూ', 'U'), ('మి', '|'), ('సు', '|'), ('త', '|'), ('న', 'U'), ('న్వే', 'U'), ('షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('నా', 'U'), ('నా', 'U'), ('వి', '|'), ('కా', 'U'), ('ర', '|'), ('రూ', 'U'), ('పు', '|'), ('ల', '|'), ('ను', '|'), ('నా', 'U'), ('నా', 'U'), ('వే', 'U'), ('షు', '|'), ('ల', 'U'), ('న్దై', 'U'), ('త్యు', '|'), ('లన్', 'U'), ('నా', 'U'), ('నా', 'U'), ('ఘో', 'U'), ('ర', '|'), ('శ', '|'), ('రీ', 'U'), ('రు', '|'), ('లం', 'U'), ('గ', '|'), ('ను', '|'), ('చు', '|'), ('నా', 'U'), ('నా', 'U'), ('గు', 'U'), ('ల్మ', '|'), ('ము', 'U'), ('ల్చూ', 'U'), ('చు', '|'), ('చున్', 'U'), ('నా', 'U'), ('నా', 'U'), ('వా', 'U'), ('ద్య', '|'), ('ర', '|'), ('వం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్వి', '|'), ('ను', '|'), ('చు', '|'), ('వి', 'U'), ('న్నా', 'U'), ('ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వో', 'U'), ('ర్వీ', 'U'), ('నా', 'U'), ('థ', '|'), ('ప్రి', '|'), ('య', '|'), ('ప', 'U'), ('త్ని', '|'), ('భూ', 'U'), ('మి', '|'), ('సు', '|'), ('త', '|'), ('న', 'U'), ('న్వే', 'U'), ('షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1417,7 +1417,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[('సా', 'U'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('త', '|'), ('దా', 'U'), ('న', '|'), ('వుల్', 'U'), ('స', '|'), ('లు', '|'), ('పు', '|'), ('వీ', 'U'), ('రా', 'U'), ('లా', 'U'), ('ప', '|'), ('ముల్', 'U'), ('గాం', 'U'), ('త', '|'), ('లు', 'U'), ('త్సా', 'U'), ('హం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('గా', 'U'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('త్ర', 'U'), ('జ్ఞా', 'U'), ('సు', '|'), ('ర', '|'), ('ప్రే', 'U'), ('రి', '|'), ('త', 'U'), ('స్వా', 'U'), ('హా', 'U'), ('నా', 'U'), ('ద', '|'), ('ము', '|'), ('లా', 'U'), ('ల', '|'), ('కిం', 'U'), ('పు', '|'), ('చు', '|'), ('న', '|'), ('వా', 'U'), ('చ్యం', 'U'), ('బీ', 'U'), ('పు', '|'), ('రీ', 'U'), ('వై', 'U'), ('భ', '|'), ('వం', 'U'), ('బా', 'U'), ('హా', 'U'), ('చి', '|'), ('త్ర', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('మె', 'U'), ('చ్చు', '|'), ('కొ', '|'), ('న', '|'), ('వే', 'U'), ('స్వాం', 'U'), ('తం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('సా', 'U'), ('హం', 'U'), ('కా', 'U'), ('ర', '|'), ('త', '|'), ('దా', 'U'), ('న', '|'), ('వు', 'U'), ('ల్స', '|'), ('లు', '|'), ('పు', '|'), ('వీ', 'U'), ('రా', 'U'), ('లా', 'U'), ('ప', '|'), ('ము', 'U'), ('ల్గాం', 'U'), ('త', '|'), ('లు', 'U'), ('త్సా', 'U'), ('హం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('జే', 'U'), ('యు', '|'), ('గా', 'U'), ('న', '|'), ('ము', '|'), ('లు', '|'), ('మం', 'U'), ('త్ర', 'U'), ('జ్ఞా', 'U'), ('సు', '|'), ('ర', '|'), ('ప్రే', 'U'), ('రి', '|'), ('త', 'U'), ('స్వా', 'U'), ('హా', 'U'), ('నా', 'U'), ('ద', '|'), ('ము', '|'), ('లా', 'U'), ('ల', '|'), ('కిం', 'U'), ('పు', '|'), ('చు', '|'), ('న', '|'), ('వా', 'U'), ('చ్యం', 'U'), ('బీ', 'U'), ('పు', '|'), ('రీ', 'U'), ('వై', 'U'), ('భ', '|'), ('వం', 'U'), ('బా', 'U'), ('హా', 'U'), ('చి', '|'), ('త్ర', '|'), ('మ', '|'), ('టం', 'U'), ('చు', '|'), ('మె', 'U'), ('చ్చు', '|'), ('కొ', '|'), ('న', '|'), ('వే', 'U'), ('స్వాం', 'U'), ('తం', 'U'), ('బు', '|'), ('న', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('గ్రం', 'U'), ('తు', '|'), ('లు', '|'), ('ర', 'U'), ('చ్చ', '|'), ('చా', 'U'), ('వ', '|'), ('డు', '|'), ('లు', '|'), ('భా', 'U'), ('స్వ', 'U'), ('చ్చై', 'U'), ('త్య', '|'), ('ముల్', 'U'), ('భూ', 'U'), ('రి', '|'), ('గో', 'U'), ('పు', '|'), ('ర', '|'), ('ముల్', 'U'), ('మే', 'U'), ('డ', '|'), ('లు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('వీ', 'U'), ('ధు', '|'), ('ల', '|'), ('గ', '|'), ('ముల్', 'U'), ('భూ', 'U'), ('మీ', 'U'), ('గృ', '|'), ('హ', '|'), ('శ్రే', 'U'), ('ణు', '|'), ('లున్', 'U'), ('హ', '|'), ('రి', '|'), ('జి', 'U'), ('త్కుం', 'U'), ('భ', '|'), ('ని', '|'), ('కుం', 'U'), ('భు', '|'), ('లు', 'U'), ('న్శు', '|'), ('కు', '|'), ('డు', '|'), ('యూ', 'U'), ('పా', 'U'), ('క్షా', 'U'), ('సు', '|'), ('రుం', 'U'), ('డా', 'U'), ('ది', '|'), ('యౌ', 'U'), ('సు', '|'), ('ర', '|'), ('వి', 'U'), ('ద్వే', 'U'), ('షు', '|'), ('ల', '|'), ('చా', 'U'), ('రు', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('లన్', 'U'), ('శో', 'U'), ('ధిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('వ', '|'), ('రు', '|'), ('స', 'U'), ('న్గ్రం', 'U'), ('తు', '|'), ('లు', '|'), ('ర', 'U'), ('చ్చ', '|'), ('చా', 'U'), ('వ', '|'), ('డు', '|'), ('లు', '|'), ('భా', 'U'), ('స్వ', 'U'), ('చ్చై', 'U'), ('త్య', '|'), ('ము', 'U'), ('ల్భూ', 'U'), ('రి', '|'), ('గో', 'U'), ('పు', '|'), ('ర', '|'), ('ము', 'U'), ('ల్మే', 'U'), ('డ', '|'), ('లు', '|'), ('పు', 'U'), ('ణ్య', '|'), ('వీ', 'U'), ('ధు', '|'), ('ల', '|'), ('గ', '|'), ('ము', 'U'), ('ల్భూ', 'U'), ('మీ', 'U'), ('గృ', '|'), ('హ', '|'), ('శ్రే', 'U'), ('ణు', '|'), ('లున్', 'U'), ('హ', '|'), ('రి', '|'), ('జి', 'U'), ('త్కుం', 'U'), ('భ', '|'), ('ని', '|'), ('కుం', 'U'), ('భు', '|'), ('లు', 'U'), ('న్శు', '|'), ('కు', '|'), ('డు', '|'), ('యూ', 'U'), ('పా', 'U'), ('క్షా', 'U'), ('సు', '|'), ('రుం', 'U'), ('డా', 'U'), ('ది', '|'), ('యౌ', 'U'), ('సు', '|'), ('ర', '|'), ('వి', 'U'), ('ద్వే', 'U'), ('షు', '|'), ('ల', '|'), ('చా', 'U'), ('రు', '|'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', '|'), ('ల', 'U'), ('న్శో', 'U'), ('ధిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[('చ', '|'), ('ల', '|'), ('మొ', 'U'), ('ప్పన్', 'U'), ('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠ', '|'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('ని', '|'), ('వే', 'U'), ('శం', 'U'), ('బు', '|'), ('బ్ర', '|'), ('వే', 'U'), ('శిం', 'U'), ('చి', '|'), ('యం', 'U'), ('దు', '|'), ('ల', '|'), ('తా', 'U'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ముల్', 'U'), ('ది', '|'), ('వా', 'U'), ('గృ', '|'), ('హ', '|'), ('క', '|'), ('ముల్', 'U'), ('తో', 'U'), ('రం', 'U'), ('పు', '|'), ('క్రీ', 'U'), ('డా', 'U'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('లు', '|'), ('చి', '|'), ('త్రా', 'U'), ('వ', '|'), ('స', '|'), ('దం', 'U'), ('బు', '|'), ('లున్', 'U'), ('మ', '|'), ('ణి', '|'), ('గృ', '|'), ('హం', 'U'), ('బుల్', 'U'), ('చా', 'U'), ('రు', '|'), ('శ', 'U'), ('య్యా', 'U'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('లు', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('టన్', 'U'), ('వె', '|'), ('ద', '|'), ('క', '|'), ('వే', 'U'), ('భూ', 'U'), ('పు', '|'), ('త్రి', '|'), ('కన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('చ', '|'), ('ల', '|'), ('మొ', 'U'), ('ప్ప', 'U'), ('న్ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠ', '|'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('ని', '|'), ('వే', 'U'), ('శం', 'U'), ('బు', '|'), ('బ్ర', '|'), ('వే', 'U'), ('శిం', 'U'), ('చి', '|'), ('యం', 'U'), ('దు', '|'), ('ల', '|'), ('తా', 'U'), ('మం', 'U'), ('ది', '|'), ('ర', '|'), ('ము', 'U'), ('ల్ది', '|'), ('వా', 'U'), ('గృ', '|'), ('హ', '|'), ('క', '|'), ('ము', 'U'), ('ల్తో', 'U'), ('రం', 'U'), ('పు', '|'), ('క్రీ', 'U'), ('డా', 'U'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('లు', '|'), ('చి', '|'), ('త్రా', 'U'), ('వ', '|'), ('స', '|'), ('దం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్మ', '|'), ('ణి', '|'), ('గృ', '|'), ('హం', 'U'), ('బు', 'U'), ('ల్చా', 'U'), ('రు', '|'), ('శ', 'U'), ('య్యా', 'U'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('లు', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('చు', '|'), ('నం', 'U'), ('త', '|'), ('ట', 'U'), ('న్వె', '|'), ('ద', '|'), ('క', '|'), ('వే', 'U'), ('భూ', 'U'), ('పు', '|'), ('త్రి', '|'), ('క', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('లు', '|'), ('వొ', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('మ', '|'), ('నీ', 'U'), ('య', '|'), ('పు', 'U'), ('ష్ప', '|'), ('క', '|'), ('వి', '|'), ('మా', 'U'), ('నం', 'U'), ('బుం', 'U'), ('ద', '|'), ('గం', 'U'), ('జూ', 'U'), ('చి', '|'), ('యు', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('నా', 'U'), ('నా', 'U'), ('వి', '|'), ('ధ', '|'), ('ధూ', 'U'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('న', '|'), ('లు', '|'), ('ది', 'U'), ('వ్య', '|'), ('స్ర', 'U'), ('క్సు', '|'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('లిం', 'U'), ('ప', '|'), ('ల', '|'), ('రా', 'U'), ('రం', 'U'), ('బ్రి', '|'), ('య', '|'), ('బం', 'U'), ('ధు', '|'), ('నిం', 'U'), ('బ', '|'), ('లె', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('త్ప్రీ', 'U'), ('తి', '|'), ('ర', 'U'), ('మ్మం', 'U'), ('చు', '|'), ('నిం', 'U'), ('జె', '|'), ('లి', '|'), ('మిం', 'U'), ('బి', 'U'), ('ల్వ', '|'), ('గ', '|'), ('నే', 'U'), ('గు', '|'), ('దెం', 'U'), ('చి', '|'), ('న', '|'), ('క్రి', '|'), ('యన్', 'U'), ('జెం', 'U'), ('తం', 'U'), ('గు', '|'), ('బా', 'U'), ('ళిం', 'U'), ('ప', '|'), ('ద', 'U'), ('ద్వి', '|'), ('ల', '|'), ('స', 'U'), ('ద్ది', 'U'), ('వ్య', '|'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('జే', 'U'), ('రి', '|'), ('తి', '|'), ('వి', '|'), ('కా', 'U'), ('దే', 'U'), ('మె', 'U'), ('ల్ల', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('న', '|'), ('లు', '|'), ('వొ', 'U'), ('ప్పం', 'U'), ('గ', '|'), ('మ', '|'), ('నీ', 'U'), ('య', '|'), ('పు', 'U'), ('ష్ప', '|'), ('క', '|'), ('వి', '|'), ('మా', 'U'), ('నం', 'U'), ('బుం', 'U'), ('ద', '|'), ('గం', 'U'), ('జూ', 'U'), ('చి', '|'), ('యు', 'U'), ('జ్జ్వ', '|'), ('ల', '|'), ('నా', 'U'), ('నా', 'U'), ('వి', '|'), ('ధ', '|'), ('ధూ', 'U'), ('ప', '|'), ('వా', 'U'), ('స', '|'), ('న', '|'), ('లు', '|'), ('ది', 'U'), ('వ్య', '|'), ('స్ర', 'U'), ('క్సు', '|'), ('గం', 'U'), ('ధం', 'U'), ('బు', '|'), ('లిం', 'U'), ('ప', '|'), ('ల', '|'), ('రా', 'U'), ('రం', 'U'), ('బ్రి', '|'), ('య', '|'), ('బం', 'U'), ('ధు', '|'), ('నిం', 'U'), ('బ', '|'), ('లె', '|'), ('స', '|'), ('ము', 'U'), ('ద్య', 'U'), ('త్ప్రీ', 'U'), ('తి', '|'), ('ర', 'U'), ('మ్మం', 'U'), ('చు', '|'), ('నిం', 'U'), ('జె', '|'), ('లి', '|'), ('మిం', 'U'), ('బి', 'U'), ('ల్వ', '|'), ('గ', '|'), ('నే', 'U'), ('గు', '|'), ('దెం', 'U'), ('చి', '|'), ('న', '|'), ('క్రి', '|'), ('య', 'U'), ('న్జెం', 'U'), ('తం', 'U'), ('గు', '|'), ('బా', 'U'), ('ళిం', 'U'), ('ప', '|'), ('ద', 'U'), ('ద్వి', '|'), ('ల', '|'), ('స', 'U'), ('ద్ది', 'U'), ('వ్య', '|'), ('గృ', '|'), ('హం', 'U'), ('బు', '|'), ('జే', 'U'), ('రి', '|'), ('తి', '|'), ('వి', '|'), ('కా', 'U'), ('దే', 'U'), ('మె', 'U'), ('ల్ల', '|'), ('న', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రా', 'U'), ('రా', 'U'), ('తి', '|'), ('కి', '|'), ('బ్రీ', 'U'), ('తి', '|'), ('గా', 'U'), ('వి', '|'), ('వి', '|'), ('ధ', '|'), ('వా', 'U'), ('ద్య', 'U'), ('ధ్వా', 'U'), ('న', '|'), ('ముల్', 'U'), ('చే', 'U'), ('సి', '|'), ('పా', 'U'), ('న', '|'), ('మ', '|'), ('దా', 'U'), ('వే', 'U'), ('శ', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('మై', 'U'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('నా', 'U'), ('నా', 'U'), ('చే', 'U'), ('ల', '|'), ('భూ', 'U'), ('షా', 'U'), ('ఢ్య', '|'), ('లై', 'U'), ('క్ర', '|'), ('మ', '|'), ('తన్', 'U'), ('జా', 'U'), ('ల్గొ', '|'), ('ని', '|'), ('సు', 'U'), ('ప్త', '|'), ('వా', 'U'), ('హి', '|'), ('ను', '|'), ('ల', '|'), ('లీ', 'U'), ('లం', 'U'), ('గూ', 'U'), ('ర్కు', '|'), ('కాం', 'U'), ('తా', 'U'), ('ని', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('న్గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('లో', 'U'), ('ప', '|'), ('భ', '|'), ('య', '|'), ('ముం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('వా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('ప్ర', 'U'), ('జ్ఞు', '|'), ('న', '|'), ('కే', 'U'), ('ల', '|'), ('శం', 'U'), ('క', '|'), ('య', '|'), ('ని', '|'), ('య', 'U'), ('న్వే', 'U'), ('షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('రా', 'U'), ('రా', 'U'), ('తి', '|'), ('కి', '|'), ('బ్రీ', 'U'), ('తి', '|'), ('గా', 'U'), ('వి', '|'), ('వి', '|'), ('ధ', '|'), ('వా', 'U'), ('ద్య', 'U'), ('ధ్వా', 'U'), ('న', '|'), ('ము', 'U'), ('ల్చే', 'U'), ('సి', '|'), ('పా', 'U'), ('న', '|'), ('మ', '|'), ('దా', 'U'), ('వే', 'U'), ('శ', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('మై', 'U'), ('మ', '|'), ('ఱ', '|'), ('చి', '|'), ('నా', 'U'), ('నా', 'U'), ('చే', 'U'), ('ల', '|'), ('భూ', 'U'), ('షా', 'U'), ('ఢ్య', '|'), ('లై', 'U'), ('క్ర', '|'), ('మ', '|'), ('త', 'U'), ('న్జా', 'U'), ('ల్గొ', '|'), ('ని', '|'), ('సు', 'U'), ('ప్త', '|'), ('వా', 'U'), ('హి', '|'), ('ను', '|'), ('ల', '|'), ('లీ', 'U'), ('లం', 'U'), ('గూ', 'U'), ('ర్కు', '|'), ('కాం', 'U'), ('తా', 'U'), ('ని', '|'), ('కా', 'U'), ('య', '|'), ('ము', '|'), ('ల', 'U'), ('న్గ', 'U'), ('న్గొ', '|'), ('ని', '|'), ('ధ', 'U'), ('ర్మ', '|'), ('లో', 'U'), ('ప', '|'), ('భ', '|'), ('య', '|'), ('ముం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('వా', 'U'), ('త్మ', '|'), ('లో', 'U'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('ప్ర', 'U'), ('జ్ఞు', '|'), ('న', '|'), ('కే', 'U'), ('ల', '|'), ('శం', 'U'), ('క', '|'), ('య', '|'), ('ని', '|'), ('య', 'U'), ('న్వే', 'U'), ('షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('మ', '|'), ('నీ', 'U'), ('యో', 'U'), ('న్న', '|'), ('త', '|'), ('పు', 'U'), ('ష్ప', '|'), ('త', 'U'), ('ల్ప', '|'), ('ము', '|'), ('ప', '|'), ('యిం', 'U'), ('గ', 'U'), ('న్మూ', 'U'), ('సి', '|'), ('గు', 'U'), ('ర్వె', 'U'), ('ట్టు', '|'), ('పం', 'U'), ('క్తి', '|'), ('ము', '|'), ('ఖున్', 'U'), ('నీ', 'U'), ('ల', '|'), ('ఘ', '|'), ('నా', 'U'), ('భ', '|'), ('దే', 'U'), ('హు', '|'), ('గ', '|'), ('ని', '|'), ('త', 'U'), ('త్తే', 'U'), ('జం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ర', 'U'), ('త్న', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లం', 'U'), ('ద', 'U'), ('ద్గృ', '|'), ('హ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('వె', 'U'), ('ల్గు', '|'), ('చు', '|'), ('ని', '|'), ('కిన్', 'U'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మె', 'U'), ('చ్చు', '|'), ('చున్', 'U'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చ', 'U'), ('ద్గ', '|'), ('తి', '|'), ('న', 'U'), ('చ్చ', '|'), ('టన్', 'U'), ('వె', '|'), ('ద', '|'), ('క', '|'), ('వే', 'U'), ('క్ష్మా', 'U'), ('పు', '|'), ('త్రి', '|'), ('కన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('క', '|'), ('మ', '|'), ('నీ', 'U'), ('యో', 'U'), ('న్న', '|'), ('త', '|'), ('పు', 'U'), ('ష్ప', '|'), ('త', 'U'), ('ల్ప', '|'), ('ము', '|'), ('ప', '|'), ('యిం', 'U'), ('గ', 'U'), ('న్మూ', 'U'), ('సి', '|'), ('గు', 'U'), ('ర్వె', 'U'), ('ట్టు', '|'), ('పం', 'U'), ('క్తి', '|'), ('ము', '|'), ('ఖు', 'U'), ('న్నీ', 'U'), ('ల', '|'), ('ఘ', '|'), ('నా', 'U'), ('భ', '|'), ('దే', 'U'), ('హు', '|'), ('గ', '|'), ('ని', '|'), ('త', 'U'), ('త్తే', 'U'), ('జం', 'U'), ('బు', '|'), ('న', '|'), ('న్ర', 'U'), ('త్న', '|'), ('దీ', 'U'), ('ప', '|'), ('ము', '|'), ('లం', 'U'), ('ద', 'U'), ('ద్గృ', '|'), ('హ', '|'), ('మె', 'U'), ('ల్ల', '|'), ('వె', 'U'), ('ల్గు', '|'), ('చు', '|'), ('ని', '|'), ('కి', 'U'), ('న్భా', 'U'), ('వం', 'U'), ('బు', '|'), ('న', 'U'), ('న్మె', 'U'), ('చ్చు', '|'), ('చున్', 'U'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చ', 'U'), ('ద్గ', '|'), ('తి', '|'), ('న', 'U'), ('చ్చ', '|'), ('ట', 'U'), ('న్వె', '|'), ('ద', '|'), ('క', '|'), ('వే', 'U'), ('క్ష్మా', 'U'), ('పు', '|'), ('త్రి', '|'), ('క', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1599,7 +1599,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('ర', '|'), ('సా', 'U'), ('న్నం', 'U'), ('బు', '|'), ('లు', '|'), ('ప', 'U'), ('క్వ', '|'), ('మాం', 'U'), ('స', '|'), ('చ', '|'), ('య', '|'), ('ముల్', 'U'), ('సౌ', 'U'), ('ర', 'U'), ('భ్య', '|'), ('సం', 'U'), ('వా', 'U'), ('సి', '|'), ('త', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('దు', 'U'), ('చ్చా', 'U'), ('వ', '|'), ('చ', '|'), ('మ', 'U'), ('ద్య', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('ఘ', '|'), ('టం', 'U'), ('బు', 'U'), ('ల్మా', 'U'), ('ల్య', '|'), ('ముల్', 'U'), ('ని', '|'), ('ద్రి', '|'), ('తా', 'U'), ('సు', '|'), ('ర', '|'), ('కాం', 'U'), ('తల్', 'U'), ('గ', '|'), ('ల', '|'), ('పా', 'U'), ('న', '|'), ('శా', 'U'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('య', 'U'), ('చ్చో', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వ', '|'), ('ప్రే', 'U'), ('య', '|'), ('సిన్', 'U'), ('సు', '|'), ('ర', '|'), ('కాం', 'U'), ('తా', 'U'), ('స', '|'), ('దృ', '|'), ('శన్', 'U'), ('వి', '|'), ('దే', 'U'), ('హ', '|'), ('త', '|'), ('న', '|'), ('యన్', 'U'), ('శో', 'U'), ('ధిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('స', '|'), ('ర', '|'), ('సా', 'U'), ('న్నం', 'U'), ('బు', '|'), ('లు', '|'), ('ప', 'U'), ('క్వ', '|'), ('మాం', 'U'), ('స', '|'), ('చ', '|'), ('య', '|'), ('ము', 'U'), ('ల్సౌ', 'U'), ('ర', 'U'), ('భ్య', '|'), ('సం', 'U'), ('వా', 'U'), ('సి', '|'), ('త', 'U'), ('స్ఫు', '|'), ('ర', '|'), ('దు', 'U'), ('చ్చా', 'U'), ('వ', '|'), ('చ', '|'), ('మ', 'U'), ('ద్య', '|'), ('పూ', 'U'), ('రి', '|'), ('త', '|'), ('ఘ', '|'), ('టం', 'U'), ('బు', 'U'), ('ల్మా', 'U'), ('ల్య', '|'), ('ము', 'U'), ('ల్ని', '|'), ('ద్రి', '|'), ('తా', 'U'), ('సు', '|'), ('ర', '|'), ('కాం', 'U'), ('త', 'U'), ('ల్గ', '|'), ('ల', '|'), ('పా', 'U'), ('న', '|'), ('శా', 'U'), ('ల', '|'), ('గ', '|'), ('ని', '|'), ('య', 'U'), ('చ్చో', 'U'), ('రా', 'U'), ('ఘ', '|'), ('వ', '|'), ('ప్రే', 'U'), ('య', '|'), ('సిన్', 'U'), ('సు', '|'), ('ర', '|'), ('కాం', 'U'), ('తా', 'U'), ('స', '|'), ('దృ', '|'), ('శ', 'U'), ('న్వి', '|'), ('దే', 'U'), ('హ', '|'), ('త', '|'), ('న', '|'), ('య', 'U'), ('న్శో', 'U'), ('ధిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ర', '|'), ('విం', 'U'), ('దో', 'U'), ('త్ప', '|'), ('ల', '|'), ('కై', 'U'), ('ర', '|'), ('వో', 'U'), ('ద', '|'), ('ర', '|'), ('మ', '|'), ('రం', 'U'), ('దా', 'U'), ('స్వా', 'U'), ('ద', '|'), ('నో', 'U'), ('న్మ', 'U'), ('త్త', '|'), ('బం', 'U'), ('భ', '|'), ('ర', '|'), ('మా', 'U'), ('లా', 'U'), ('ప', '|'), ('రి', '|'), ('ష', 'U'), ('న్మ', '|'), ('నో', 'U'), ('జ్ఞ', '|'), ('మ', '|'), ('ధు', '|'), ('ర', 'U'), ('ధ్వా', 'U'), ('నా', 'U'), ('భి', '|'), ('రం', 'U'), ('జత్', 'U'), ('స', '|'), ('రొ', '|'), ('వ', '|'), ('ర', '|'), ('తీ', 'U'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('బు', 'U'), ('ష్ప', '|'), ('ప', 'U'), ('ల్ల', '|'), ('వ', '|'), ('ఫ', '|'), ('ల', '|'), ('వ్రా', 'U'), ('తా', 'U'), ('గ్ర', '|'), ('ధా', 'U'), ('త్రీ', 'U'), ('రు', '|'), ('హో', 'U'), ('త్క', '|'), ('ర', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('నే', 'U'), ('ర్పు', '|'), ('నన్', 'U'), ('వె', '|'), ('ద', '|'), ('క', '|'), ('వే', 'U'), ('ధా', 'U'), ('త్రీ', 'U'), ('సు', '|'), ('తన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', '|'), ('ర', '|'), ('విం', 'U'), ('దో', 'U'), ('త్ప', '|'), ('ల', '|'), ('కై', 'U'), ('ర', '|'), ('వో', 'U'), ('ద', '|'), ('ర', '|'), ('మ', '|'), ('రం', 'U'), ('దా', 'U'), ('స్వా', 'U'), ('ద', '|'), ('నో', 'U'), ('న్మ', 'U'), ('త్త', '|'), ('బం', 'U'), ('భ', '|'), ('ర', '|'), ('మా', 'U'), ('లా', 'U'), ('ప', '|'), ('రి', '|'), ('ష', 'U'), ('న్మ', '|'), ('నో', 'U'), ('జ్ఞ', '|'), ('మ', '|'), ('ధు', '|'), ('ర', 'U'), ('ధ్వా', 'U'), ('నా', 'U'), ('భి', '|'), ('రం', 'U'), ('జ', 'U'), ('త్స', '|'), ('రొ', '|'), ('వ', '|'), ('ర', '|'), ('తీ', 'U'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('బు', 'U'), ('ష్ప', '|'), ('ప', 'U'), ('ల్ల', '|'), ('వ', '|'), ('ఫ', '|'), ('ల', '|'), ('వ్రా', 'U'), ('తా', 'U'), ('గ్ర', '|'), ('ధా', 'U'), ('త్రీ', 'U'), ('రు', '|'), ('హో', 'U'), ('త్క', '|'), ('ర', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('నే', 'U'), ('ర్పు', '|'), ('న', 'U'), ('న్వె', '|'), ('ద', '|'), ('క', '|'), ('వే', 'U'), ('ధా', 'U'), ('త్రీ', 'U'), ('సు', '|'), ('త', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[('ఈ', 'U'), ('లీ', 'U'), ('లన్', 'U'), ('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠు', '|'), ('ప', 'U'), ('ట్ట', '|'), ('ణ', '|'), ('ము', '|'), ('లో', 'U'), ('నే', 'U'), ('పా', 'U'), ('ర', '|'), ('గా', 'U'), ('బె', 'U'), ('క్కు', '|'), ('చం', 'U'), ('దా', 'U'), ('లమ్', 'U'), ('గే', 'U'), ('ల', '|'), ('లి', '|'), ('డు', '|'), ('నం', 'U'), ('త', '|'), ('భూ', 'U'), ('మి', '|'), ('త', '|'), ('ల', '|'), ('మై', 'U'), ('నం', 'U'), ('ద', 'U'), ('ప్ప', '|'), ('కుం', 'U'), ('డం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వా', 'U'), ('లో', 'U'), ('కిం', 'U'), ('చి', '|'), ('మ', '|'), ('హీ', 'U'), ('జ', '|'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('ని', '|'), ('జ', 'U'), ('స్వాం', 'U'), ('తం', 'U'), ('బు', '|'), ('లో', 'U'), ('గొం', 'U'), ('త', '|'), ('సే', 'U'), ('పా', 'U'), ('లో', 'U'), ('చిం', 'U'), ('ప', '|'), ('వే', 'U'), ('స్వా', 'U'), ('మి', '|'), ('కా', 'U'), ('ర్య', '|'), ('ఘ', '|'), ('ట', '|'), ('నా', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('ము', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఈ', 'U'), ('లీ', 'U'), ('ల', 'U'), ('న్ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠు', '|'), ('ప', 'U'), ('ట్ట', '|'), ('ణ', '|'), ('ము', '|'), ('లో', 'U'), ('నే', 'U'), ('పా', 'U'), ('ర', '|'), ('గా', 'U'), ('బె', 'U'), ('క్కు', '|'), ('చం', 'U'), ('దా', 'U'), ('ల', 'U'), ('మ్గే', 'U'), ('ల', '|'), ('లి', '|'), ('డు', '|'), ('నం', 'U'), ('త', '|'), ('భూ', 'U'), ('మి', '|'), ('త', '|'), ('ల', '|'), ('మై', 'U'), ('నం', 'U'), ('ద', 'U'), ('ప్ప', '|'), ('కుం', 'U'), ('డం', 'U'), ('గ', '|'), ('నీ', 'U'), ('వా', 'U'), ('లో', 'U'), ('కిం', 'U'), ('చి', '|'), ('మ', '|'), ('హీ', 'U'), ('జ', '|'), ('గా', 'U'), ('న', '|'), ('క', '|'), ('ని', '|'), ('జ', 'U'), ('స్వాం', 'U'), ('తం', 'U'), ('బు', '|'), ('లో', 'U'), ('గొం', 'U'), ('త', '|'), ('సే', 'U'), ('పా', 'U'), ('లో', 'U'), ('చిం', 'U'), ('ప', '|'), ('వే', 'U'), ('స్వా', 'U'), ('మి', '|'), ('కా', 'U'), ('ర్య', '|'), ('ఘ', '|'), ('ట', '|'), ('నా', 'U'), ('వ్యా', 'U'), ('పా', 'U'), ('ర', '|'), ('ము', '|'), ('న', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[('కం', 'U'), ('టిం', 'U'), ('జా', 'U'), ('ర', '|'), ('ణ', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('కి', 'U'), ('న్న', '|'), ('ర', '|'), ('మ', '|'), ('రు', 'U'), ('ద్గం', 'U'), ('ధ', 'U'), ('ర్వ', '|'), ('కాం', 'U'), ('తా', 'U'), ('వ', '|'), ('ళిన్', 'U'), ('గం', 'U'), ('టిన్', 'U'), ('మా', 'U'), ('న', '|'), ('వ', '|'), ('యో', 'U'), ('ష', '|'), ('లన్', 'U'), ('బ', '|'), ('వ', '|'), ('న', '|'), ('భు', '|'), ('గ్రా', 'U'), ('మా', 'U'), ('ల', '|'), ('లా', 'U'), ('మం', 'U'), ('బు', '|'), ('లన్', 'U'), ('గం', 'U'), ('టిన్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('ని', '|'), ('శా', 'U'), ('చ', '|'), ('ర', '|'), ('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('లన్', 'U'), ('గం', 'U'), ('టిం', 'U'), ('బు', '|'), ('రం', 'U'), ('బం', 'U'), ('దు', '|'), ('నే', 'U'), ('వెం', 'U'), ('టం', 'U'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('గా', 'U'), ('న', '|'), ('నై', 'U'), ('తి', '|'), ('న', '|'), ('ని', '|'), ('ని', 'U'), ('ర్వే', 'U'), ('దిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('కం', 'U'), ('టిం', 'U'), ('జా', 'U'), ('ర', '|'), ('ణ', '|'), ('సి', 'U'), ('ద్ధ', '|'), ('కి', 'U'), ('న్న', '|'), ('ర', '|'), ('మ', '|'), ('రు', 'U'), ('ద్గం', 'U'), ('ధ', 'U'), ('ర్వ', '|'), ('కాం', 'U'), ('తా', 'U'), ('వ', '|'), ('ళిన్', 'U'), ('గం', 'U'), ('టి', 'U'), ('న్మా', 'U'), ('న', '|'), ('వ', '|'), ('యో', 'U'), ('ష', '|'), ('ల', 'U'), ('న్బ', '|'), ('వ', '|'), ('న', '|'), ('భు', '|'), ('గ్రా', 'U'), ('మా', 'U'), ('ల', '|'), ('లా', 'U'), ('మం', 'U'), ('బు', '|'), ('లన్', 'U'), ('గం', 'U'), ('టి', 'U'), ('న్స', 'U'), ('ర్వ', '|'), ('ని', '|'), ('శా', 'U'), ('చ', '|'), ('ర', '|'), ('ప్ర', '|'), ('మ', '|'), ('ద', '|'), ('ల', 'U'), ('న్గం', 'U'), ('టిం', 'U'), ('బు', '|'), ('రం', 'U'), ('బం', 'U'), ('దు', '|'), ('నే', 'U'), ('వెం', 'U'), ('టం', 'U'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('గా', 'U'), ('న', '|'), ('నై', 'U'), ('తి', '|'), ('న', '|'), ('ని', '|'), ('ని', 'U'), ('ర్వే', 'U'), ('దిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[('ఈ', 'U'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('రా', 'U'), ('జ్య', '|'), ('మం', 'U'), ('దు', '|'), ('గ', '|'), ('ల', '|'), ('చో', 'U'), ('ట్లె', 'U'), ('ల్లన్', 'U'), ('స', '|'), ('మ', '|'), ('గ్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('నా', 'U'), ('లో', 'U'), ('కిం', 'U'), ('చి', '|'), ('తి', '|'), ('నిం', 'U'), ('క', '|'), ('నొ', 'U'), ('క్క', '|'), ('వ', '|'), ('న', '|'), ('మీ', 'U'), ('యం', 'U'), ('తః', 'U'), ('పు', '|'), ('రా', 'U'), ('భ్యా', 'U'), ('స', '|'), ('మం', 'U'), ('దా', 'U'), ('లే', 'U'), ('ఖే', 'U'), ('శ', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('మా', 'U'), ('డ్కి', '|'), ('గ', '|'), ('డు', '|'), ('హృ', 'U'), ('ద్యం', 'U'), ('బై', 'U'), ('ర', '|'), ('హిం', 'U'), ('గ్రా', 'U'), ('లె', '|'), ('డిన్', 'U'), ('బా', 'U'), ('లా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('న', 'U'), ('చ్చ', '|'), ('టన్', 'U'), ('వె', '|'), ('ద', '|'), ('కె', '|'), ('దం', 'U'), ('గా', 'U'), ('కం', 'U'), ('చు', '|'), ('డెం', 'U'), ('దా', 'U'), ('న', '|'), ('నీ', 'U'), ('వా', 'U'), ('లో', 'U'), ('చిం', 'U'), ('చి', '|'), ('ర', '|'), ('యం', 'U'), ('బు', '|'), ('మీ', 'U'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('వే', 'U'), ('య', 'U'), ('చ్చో', 'U'), ('టి', '|'), ('కిన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఈ', 'U'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('ర', '|'), ('రా', 'U'), ('జ్య', '|'), ('మం', 'U'), ('దు', '|'), ('గ', '|'), ('ల', '|'), ('చో', 'U'), ('ట్లె', 'U'), ('ల్ల', 'U'), ('న్స', '|'), ('మ', '|'), ('గ్రం', 'U'), ('బు', '|'), ('గా', 'U'), ('నా', 'U'), ('లో', 'U'), ('కిం', 'U'), ('చి', '|'), ('తి', '|'), ('నిం', 'U'), ('క', '|'), ('నొ', 'U'), ('క్క', '|'), ('వ', '|'), ('న', '|'), ('మీ', 'U'), ('యం', 'U'), ('తః', 'U'), ('పు', '|'), ('రా', 'U'), ('భ్యా', 'U'), ('స', '|'), ('మం', 'U'), ('దా', 'U'), ('లే', 'U'), ('ఖే', 'U'), ('శ', '|'), ('వ', '|'), ('నం', 'U'), ('బు', '|'), ('మా', 'U'), ('డ్కి', '|'), ('గ', '|'), ('డు', '|'), ('హృ', 'U'), ('ద్యం', 'U'), ('బై', 'U'), ('ర', '|'), ('హిం', 'U'), ('గ్రా', 'U'), ('లె', '|'), ('డిన్', 'U'), ('బా', 'U'), ('లా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('న', 'U'), ('చ్చ', '|'), ('ట', 'U'), ('న్వె', '|'), ('ద', '|'), ('కె', '|'), ('దం', 'U'), ('గా', 'U'), ('కం', 'U'), ('చు', '|'), ('డెం', 'U'), ('దా', 'U'), ('న', '|'), ('నీ', 'U'), ('వా', 'U'), ('లో', 'U'), ('చిం', 'U'), ('చి', '|'), ('ర', '|'), ('యం', 'U'), ('బు', '|'), ('మీ', 'U'), ('ర', '|'), ('జ', '|'), ('న', '|'), ('వే', 'U'), ('య', 'U'), ('చ్చో', 'U'), ('టి', '|'), ('కి', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1750,7 +1750,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('న', '|'), ('ము', 'U'), ('ఙ్మం', 'U'), ('డ', '|'), ('లి', '|'), ('జొ', 'U'), ('చ్చు', '|'), ('చం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('గ', '|'), ('తిన్', 'U'), ('బ్ర', 'U'), ('చ్ఛ', 'U'), ('న్న', '|'), ('వే', 'U'), ('షం', 'U'), ('బు', '|'), ('తో', 'U'), ('వ', '|'), ('న', '|'), ('ముం', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('ల', '|'), ('తా', 'U'), ('గృ', '|'), ('హో', 'U'), ('త్క', '|'), ('ర', '|'), ('త', '|'), ('రు', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('లన్', 'U'), ('దీ', 'U'), ('ర్ఘి', '|'), ('కల్', 'U'), ('ఘ', '|'), ('న', '|'), ('సౌ', 'U'), ('ధం', 'U'), ('బు', '|'), ('లు', '|'), ('చూ', 'U'), ('చు', '|'), ('చున్', 'U'), ('జ', '|'), ('ని', '|'), ('మ', '|'), ('రు', 'U'), ('త్క', 'U'), ('ల్పుం', 'U'), ('డ', '|'), ('వై', 'U'), ('శిం', 'U'), ('శు', '|'), ('పా', 'U'), ('ఖ్య', '|'), ('న', '|'), ('గా', 'U'), ('రో', 'U'), ('హ', '|'), ('ణ', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దా', 'U'), ('నే', 'U'), ('ర్పు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('వ', '|'), ('న', '|'), ('ము', 'U'), ('ఙ్మం', 'U'), ('డ', '|'), ('లి', '|'), ('జొ', 'U'), ('చ్చు', '|'), ('చం', 'U'), ('ద్రు', '|'), ('ని', '|'), ('గ', '|'), ('తి', 'U'), ('న్బ్ర', 'U'), ('చ్ఛ', 'U'), ('న్న', '|'), ('వే', 'U'), ('షం', 'U'), ('బు', '|'), ('తో', 'U'), ('వ', '|'), ('న', '|'), ('ముం', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('ల', '|'), ('తా', 'U'), ('గృ', '|'), ('హో', 'U'), ('త్క', '|'), ('ర', '|'), ('త', '|'), ('రు', '|'), ('వ్రా', 'U'), ('తం', 'U'), ('బు', '|'), ('ల', 'U'), ('న్దీ', 'U'), ('ర్ఘి', '|'), ('కల్', 'U'), ('ఘ', '|'), ('న', '|'), ('సౌ', 'U'), ('ధం', 'U'), ('బు', '|'), ('లు', '|'), ('చూ', 'U'), ('చు', '|'), ('చు', 'U'), ('న్జ', '|'), ('ని', '|'), ('మ', '|'), ('రు', 'U'), ('త్క', 'U'), ('ల్పుం', 'U'), ('డ', '|'), ('వై', 'U'), ('శిం', 'U'), ('శు', '|'), ('పా', 'U'), ('ఖ్య', '|'), ('న', '|'), ('గా', 'U'), ('రో', 'U'), ('హ', '|'), ('ణ', '|'), ('మా', 'U'), ('చ', '|'), ('రిం', 'U'), ('చి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దా', 'U'), ('నే', 'U'), ('ర్పు', '|'), ('న', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('రు', '|'), ('ణిం', 'U'), ('గ్రీ', 'U'), ('ష్మ', '|'), ('గ', '|'), ('భ', 'U'), ('స్తి', '|'), ('త', 'U'), ('ప్త', '|'), ('ల', '|'), ('త', '|'), ('చం', 'U'), ('దా', 'U'), ('నన్', 'U'), ('ర', '|'), ('హిన్', 'U'), ('వా', 'U'), ('డి', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('దై', 'U'), ('త్యాం', 'U'), ('గ', '|'), ('న', '|'), ('లా', 'U'), ('డు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('నా', 'U'), ('కం', 'U'), ('పిం', 'U'), ('చు', '|'), ('చున్', 'U'), ('సా', 'U'), ('రె', '|'), ('కున్', 'U'), ('జి', '|'), ('ర', '|'), ('భ', 'U'), ('క్తిన్', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('ను', '|'), ('చుం', 'U'), ('బే', 'U'), ('ర్కొం', 'U'), ('చు', '|'), ('శో', 'U'), ('కా', 'U'), ('ర్త', '|'), ('యై', 'U'), ('త', '|'), ('రు', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('ను', 'U'), ('న్న', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('ని', '|'), ('సం', 'U'), ('ద', 'U'), ('ర్శిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('త', '|'), ('రు', '|'), ('ణిం', 'U'), ('గ్రీ', 'U'), ('ష్మ', '|'), ('గ', '|'), ('భ', 'U'), ('స్తి', '|'), ('త', 'U'), ('ప్త', '|'), ('ల', '|'), ('త', '|'), ('చం', 'U'), ('దా', 'U'), ('న', '|'), ('న్ర', '|'), ('హి', 'U'), ('న్వా', 'U'), ('డి', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('దై', 'U'), ('త్యాం', 'U'), ('గ', '|'), ('న', '|'), ('లా', 'U'), ('డు', '|'), ('మా', 'U'), ('ట', '|'), ('ల', '|'), ('కు', '|'), ('నా', 'U'), ('కం', 'U'), ('పిం', 'U'), ('చు', '|'), ('చు', 'U'), ('న్సా', 'U'), ('రె', '|'), ('కున్', 'U'), ('జి', '|'), ('ర', '|'), ('భ', 'U'), ('క్తి', '|'), ('న్ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('రా', 'U'), ('మ', '|'), ('య', '|'), ('ను', '|'), ('చుం', 'U'), ('బే', 'U'), ('ర్కొం', 'U'), ('చు', '|'), ('శో', 'U'), ('కా', 'U'), ('ర్త', '|'), ('యై', 'U'), ('త', '|'), ('రు', '|'), ('మూ', 'U'), ('లం', 'U'), ('బు', '|'), ('న', '|'), ('ను', 'U'), ('న్న', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('ని', '|'), ('సం', 'U'), ('ద', 'U'), ('ర్శిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1810,7 +1810,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('మ', '|'), ('నీ', 'U'), ('యా', 'U'), ('కృ', '|'), ('తి', '|'), ('శిం', 'U'), ('శు', '|'), ('పా', 'U'), ('ఖ్య', '|'), ('త', '|'), ('రు', '|'), ('శా', 'U'), ('ఖా', 'U'), ('ప', 'U'), ('ర్ణ', '|'), ('లీ', 'U'), ('నుం', 'U'), ('డ', '|'), ('వై', 'U'), ('య', '|'), ('మ', '|'), ('రా', 'U'), ('రా', 'U'), ('తి', '|'), ('ద', '|'), ('శా', 'U'), ('స్యు', '|'), ('డ', 'U'), ('న్న', '|'), ('క', '|'), ('టు', '|'), ('క్రూ', 'U'), ('రా', 'U'), ('లా', 'U'), ('ప', '|'), ('ముల్', 'U'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('ప్ర', '|'), ('మ', '|'), ('దల్', 'U'), ('వ', 'U'), ('ల్కు', '|'), ('దు', '|'), ('రు', 'U'), ('క్తు', '|'), ('లం', 'U'), ('త', '|'), ('త్రి', '|'), ('జ', '|'), ('టా', 'U'), ('స్వ', 'U'), ('ప్న', '|'), ('ప్ర', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('న', 'U'), ('య్య', '|'), ('మ', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('వి', '|'), ('లా', 'U'), ('ప', '|'), ('మం', 'U'), ('త', '|'), ('యు', '|'), ('ను', '|'), ('నీ', 'U'), ('వా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('క', '|'), ('మ', '|'), ('నీ', 'U'), ('యా', 'U'), ('కృ', '|'), ('తి', '|'), ('శిం', 'U'), ('శు', '|'), ('పా', 'U'), ('ఖ్య', '|'), ('త', '|'), ('రు', '|'), ('శా', 'U'), ('ఖా', 'U'), ('ప', 'U'), ('ర్ణ', '|'), ('లీ', 'U'), ('నుం', 'U'), ('డ', '|'), ('వై', 'U'), ('య', '|'), ('మ', '|'), ('రా', 'U'), ('రా', 'U'), ('తి', '|'), ('ద', '|'), ('శా', 'U'), ('స్యు', '|'), ('డ', 'U'), ('న్న', '|'), ('క', '|'), ('టు', '|'), ('క్రూ', 'U'), ('రా', 'U'), ('లా', 'U'), ('ప', '|'), ('ము', '|'), ('ల్రా', 'U'), ('క్ష', '|'), ('స', '|'), ('ప్ర', '|'), ('మ', '|'), ('ద', 'U'), ('ల్వ', 'U'), ('ల్కు', '|'), ('దు', '|'), ('రు', 'U'), ('క్తు', '|'), ('లం', 'U'), ('త', '|'), ('త్రి', '|'), ('జ', '|'), ('టా', 'U'), ('స్వ', 'U'), ('ప్న', '|'), ('ప్ర', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('న', 'U'), ('య్య', '|'), ('మ', '|'), ('గా', 'U'), ('విం', 'U'), ('చు', '|'), ('వి', '|'), ('లా', 'U'), ('ప', '|'), ('మం', 'U'), ('త', '|'), ('యు', '|'), ('ను', '|'), ('నీ', 'U'), ('వా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1841,7 +1841,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[('రా', 'U'), ('మా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డు', '|'), ('తం', 'U'), ('డ్రి', '|'), ('పం', 'U'), ('పు', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('ర', 'U'), ('ణ్యో', 'U'), ('ర్వి', '|'), ('కిన్', 'U'), ('వ', 'U'), ('చ్చె', '|'), ('ని', 'U'), ('ష్కా', 'U'), ('మం', 'U'), ('ద', 'U'), ('త్స', '|'), ('తి', '|'), ('సీ', 'U'), ('త', '|'), ('బ', 'U'), ('ల్మి', '|'), ('గొ', '|'), ('ని', '|'), ('వీ', 'U'), ('కం', 'U'), ('బో', 'U'), ('యె', '|'), ('బం', 'U'), ('క్త్యా', 'U'), ('స్యు', '|'), ('డా', 'U'), ('రా', 'U'), ('మన్', 'U'), ('వే', 'U'), ('వె', '|'), ('ద', '|'), ('కం', 'U'), ('గ', '|'), ('నే', 'U'), ('ను', '|'), ('జ', '|'), ('ల', '|'), ('ధిన్', 'U'), ('లం', 'U'), ('ఘిం', 'U'), ('చి', '|'), ('శో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('యి', 'U'), ('చ్చో', 'U'), ('మ', 'U'), ('న్మా', 'U'), ('త', '|'), ('ను', '|'), ('గం', 'U'), ('టి', '|'), ('మం', 'U'), ('టి', '|'), ('న', '|'), ('ను', '|'), ('చున్', 'U'), ('శ్రో', 'U'), ('త్రా', 'U'), ('ను', '|'), ('కూ', 'U'), ('లం', 'U'), ('బు', '|'), ('గా', 'U'), ('వే', 'U'), ('మా', 'U'), ('ఱున్', 'U'), ('మ', '|'), ('ధు', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('వే', 'U'), ('వి', 'U'), ('న్నా', 'U'), ('ణి', '|'), ('వై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('రా', 'U'), ('మా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డు', '|'), ('తం', 'U'), ('డ్రి', '|'), ('పం', 'U'), ('పు', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('ర', 'U'), ('ణ్యో', 'U'), ('ర్వి', '|'), ('కి', 'U'), ('న్వ', 'U'), ('చ్చె', '|'), ('ని', 'U'), ('ష్కా', 'U'), ('మం', 'U'), ('ద', 'U'), ('త్స', '|'), ('తి', '|'), ('సీ', 'U'), ('త', '|'), ('బ', 'U'), ('ల్మి', '|'), ('గొ', '|'), ('ని', '|'), ('వీ', 'U'), ('కం', 'U'), ('బో', 'U'), ('యె', '|'), ('బం', 'U'), ('క్త్యా', 'U'), ('స్యు', '|'), ('డా', 'U'), ('రా', 'U'), ('మ', 'U'), ('న్వే', 'U'), ('వె', '|'), ('ద', '|'), ('కం', 'U'), ('గ', '|'), ('నే', 'U'), ('ను', '|'), ('జ', '|'), ('ల', '|'), ('ధి', 'U'), ('న్లం', 'U'), ('ఘిం', 'U'), ('చి', '|'), ('శో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('యి', 'U'), ('చ్చో', 'U'), ('మ', 'U'), ('న్మా', 'U'), ('త', '|'), ('ను', '|'), ('గం', 'U'), ('టి', '|'), ('మం', 'U'), ('టి', '|'), ('న', '|'), ('ను', '|'), ('చు', 'U'), ('న్శ్రో', 'U'), ('త్రా', 'U'), ('ను', '|'), ('కూ', 'U'), ('లం', 'U'), ('బు', '|'), ('గా', 'U'), ('వే', 'U'), ('మా', 'U'), ('ఱు', 'U'), ('న్మ', '|'), ('ధు', '|'), ('రం', 'U'), ('బు', '|'), ('గా', 'U'), ('బ', '|'), ('లు', '|'), ('క', '|'), ('వే', 'U'), ('వి', 'U'), ('న్నా', 'U'), ('ణి', '|'), ('వై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[('ఇ', '|'), ('ది', '|'), ('సం', 'U'), ('ధిం', 'U'), ('ప', '|'), ('గ', '|'), ('వే', 'U'), ('ళ', '|'), ('యం', 'U'), ('చు', '|'), ('గ', '|'), ('డ', '|'), ('కన్', 'U'), ('వృ', 'U'), ('క్షం', 'U'), ('బు', '|'), ('వే', 'U'), ('డి', 'U'), ('గ్గి', '|'), ('య', 'U'), ('మ్మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షీ', 'U'), ('మ', '|'), ('ణి', '|'), ('మ్రో', 'U'), ('ల', '|'), ('ని', 'U'), ('ల్చి', '|'), ('ప', '|'), ('తి', '|'), ('సే', 'U'), ('మం', 'U'), ('బం', 'U'), ('త', '|'), ('యుం', 'U'), ('జె', 'U'), ('ప్పి', '|'), ('త', 'U'), ('ద్వ', '|'), ('ద', '|'), ('నా', 'U'), ('ద్యా', 'U'), ('కృ', '|'), ('తి', '|'), ('చి', 'U'), ('హ్న', '|'), ('ముల్', 'U'), ('దె', '|'), ('లి', '|'), ('పి', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('సం', 'U'), ('బు', '|'), ('పు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('దీ', 'U'), ('ప్య', '|'), ('ద', '|'), ('న', 'U'), ('ర్ఘాం', 'U'), ('గు', '|'), ('ళి', '|'), ('ము', '|'), ('ద్రి', '|'), ('కం', 'U'), ('గు', '|'), ('ఱు', '|'), ('తు', '|'), ('గా', 'U'), ('న', 'U'), ('ర్పిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఇ', '|'), ('ది', '|'), ('సం', 'U'), ('ధిం', 'U'), ('ప', '|'), ('గ', '|'), ('వే', 'U'), ('ళ', '|'), ('యం', 'U'), ('చు', '|'), ('గ', '|'), ('డ', '|'), ('క', 'U'), ('న్వృ', 'U'), ('క్షం', 'U'), ('బు', '|'), ('వే', 'U'), ('డి', 'U'), ('గ్గి', '|'), ('య', 'U'), ('మ్మ', '|'), ('ది', '|'), ('రా', 'U'), ('క్షీ', 'U'), ('మ', '|'), ('ణి', '|'), ('మ్రో', 'U'), ('ల', '|'), ('ని', 'U'), ('ల్చి', '|'), ('ప', '|'), ('తి', '|'), ('సే', 'U'), ('మం', 'U'), ('బం', 'U'), ('త', '|'), ('యుం', 'U'), ('జె', 'U'), ('ప్పి', '|'), ('త', 'U'), ('ద్వ', '|'), ('ద', '|'), ('నా', 'U'), ('ద్యా', 'U'), ('కృ', '|'), ('తి', '|'), ('చి', 'U'), ('హ్న', '|'), ('ము', 'U'), ('ల్దె', '|'), ('లి', '|'), ('పి', '|'), ('వి', 'U'), ('శ్వా', 'U'), ('సం', 'U'), ('బు', '|'), ('పు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('దీ', 'U'), ('ప్య', '|'), ('ద', '|'), ('న', 'U'), ('ర్ఘాం', 'U'), ('గు', '|'), ('ళి', '|'), ('ము', '|'), ('ద్రి', '|'), ('కం', 'U'), ('గు', '|'), ('ఱు', '|'), ('తు', '|'), ('గా', 'U'), ('న', 'U'), ('ర్పిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1931,7 +1931,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[('ప్ర', '|'), ('మ', '|'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('సీ', 'U'), ('త', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('శి', '|'), ('రో', 'U'), ('ర', 'U'), ('త్నం', 'U'), ('బొ', '|'), ('గిన్', 'U'), ('సం', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('మ', '|'), ('హా', 'U'), ('త్ముం', 'U'), ('డ', '|'), ('గు', '|'), ('రా', 'U'), ('ము', '|'), ('ని', 'U'), ('చ్చ', '|'), ('టి', '|'), ('కి', '|'), ('నే', 'U'), ('శీ', 'U'), ('ఘ్రం', 'U'), ('బు', '|'), ('న', '|'), ('దో', 'U'), ('డి', '|'), ('తె', 'U'), ('త్తు', '|'), ('మ', '|'), ('దిన్', 'U'), ('శో', 'U'), ('క', '|'), ('ము', '|'), ('ద', 'U'), ('క్కి', '|'), ('యుం', 'U'), ('డు', '|'), ('మ', '|'), ('ని', '|'), ('యెం', 'U'), ('తో', 'U'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('నూ', 'U'), ('ర', '|'), ('డిం', 'U'), ('చి', '|'), ('మ', '|'), ('హిన్', 'U'), ('సా', 'U'), ('గి', '|'), ('లి', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('గై', 'U'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('యా', 'U'), ('శీ', 'U'), ('ర్వా', 'U'), ('ద', '|'), ('ముల్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ప్ర', '|'), ('మ', '|'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('సీ', 'U'), ('త', '|'), ('యి', 'U'), ('చ్చి', '|'), ('న', '|'), ('శి', '|'), ('రో', 'U'), ('ర', 'U'), ('త్నం', 'U'), ('బొ', '|'), ('గి', 'U'), ('న్సం', 'U'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('మ', '|'), ('హా', 'U'), ('త్ముం', 'U'), ('డ', '|'), ('గు', '|'), ('రా', 'U'), ('ము', '|'), ('ని', 'U'), ('చ్చ', '|'), ('టి', '|'), ('కి', '|'), ('నే', 'U'), ('శీ', 'U'), ('ఘ్రం', 'U'), ('బు', '|'), ('న', '|'), ('దో', 'U'), ('డి', '|'), ('తె', 'U'), ('త్తు', '|'), ('మ', '|'), ('ది', 'U'), ('న్శో', 'U'), ('క', '|'), ('ము', '|'), ('ద', 'U'), ('క్కి', '|'), ('యుం', 'U'), ('డు', '|'), ('మ', '|'), ('ని', '|'), ('యెం', 'U'), ('తో', 'U'), ('భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('నూ', 'U'), ('ర', '|'), ('డిం', 'U'), ('చి', '|'), ('మ', '|'), ('హి', 'U'), ('న్సా', 'U'), ('గి', '|'), ('లి', '|'), ('మ్రొ', 'U'), ('క్కి', '|'), ('గై', 'U'), ('కొ', '|'), ('న', '|'), ('వె', '|'), ('యా', 'U'), ('శీ', 'U'), ('ర్వా', 'U'), ('ద', '|'), ('ము', 'U'), ('ల్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('సు', '|'), ('రా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డ', 'U'), ('వ్వి', '|'), ('ధం', 'U'), ('బు', '|'), ('వి', '|'), ('ని', '|'), ('క', 'U'), ('ట్ట', 'U'), ('ల్కన్', 'U'), ('ర', '|'), ('ణా', 'U'), ('ర్థం', 'U'), ('బ', '|'), ('శీ', 'U'), ('తి', '|'), ('స', '|'), ('హ', '|'), ('స్రం', 'U'), ('బు', '|'), ('ల', '|'), ('గిం', 'U'), ('క', '|'), ('రా', 'U'), ('ఖ్యు', '|'), ('ల', '|'), ('మ', '|'), ('హా', 'U'), ('తే', 'U'), ('జః', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వా', 'U'), ('ఢ్యు', '|'), ('లన్', 'U'), ('వె', '|'), ('స', '|'), ('బం', 'U'), ('పన్', 'U'), ('వి', '|'), ('ల', '|'), ('యాం', 'U'), ('బు', '|'), ('దం', 'U'), ('బు', '|'), ('క', '|'), ('ర', '|'), ('ణిన్', 'U'), ('మి', 'U'), ('న్నం', 'U'), ('ది', '|'), ('గ', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('దీ', 'U'), ('మ', '|'), ('స', '|'), ('మొ', 'U'), ('ప్పం', 'U'), ('ద', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('నె', 'U'), ('ల్ల', '|'), ('గ', '|'), ('డి', '|'), ('మిన్', 'U'), ('మ', 'U'), ('ర్దిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', '|'), ('సు', '|'), ('రా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రు', '|'), ('డ', 'U'), ('వ్వి', '|'), ('ధం', 'U'), ('బు', '|'), ('వి', '|'), ('ని', '|'), ('క', 'U'), ('ట్ట', 'U'), ('ల్క', '|'), ('న్ర', '|'), ('ణా', 'U'), ('ర్థం', 'U'), ('బ', '|'), ('శీ', 'U'), ('తి', '|'), ('స', '|'), ('హ', '|'), ('స్రం', 'U'), ('బు', '|'), ('ల', '|'), ('గిం', 'U'), ('క', '|'), ('రా', 'U'), ('ఖ్యు', '|'), ('ల', '|'), ('మ', '|'), ('హా', 'U'), ('తే', 'U'), ('జః', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వా', 'U'), ('ఢ్యు', '|'), ('లన్', 'U'), ('వె', '|'), ('స', '|'), ('బం', 'U'), ('ప', 'U'), ('న్వి', '|'), ('ల', '|'), ('యాం', 'U'), ('బు', '|'), ('దం', 'U'), ('బు', '|'), ('క', '|'), ('ర', '|'), ('ణి', 'U'), ('న్మి', 'U'), ('న్నం', 'U'), ('ది', '|'), ('గ', 'U'), ('ర్జిం', 'U'), ('చి', '|'), ('దీ', 'U'), ('మ', '|'), ('స', '|'), ('మొ', 'U'), ('ప్పం', 'U'), ('ద', '|'), ('గ', '|'), ('వా', 'U'), ('రి', '|'), ('నె', 'U'), ('ల్ల', '|'), ('గ', '|'), ('డి', '|'), ('మి', 'U'), ('న్మ', 'U'), ('ర్దిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('ప్రం', 'U'), ('బుల్', 'U'), ('బ', '|'), ('డ', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('బ', 'U'), ('ల్వి', '|'), ('డి', '|'), ('న', '|'), ('భో', 'U'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('తో', 'U'), ('రా', 'U'), ('యు', '|'), ('చై', 'U'), ('త్య', '|'), ('ప్రా', 'U'), ('సా', 'U'), ('ద', '|'), ('ము', '|'), ('గూ', 'U'), ('ల', '|'), ('ద', 'U'), ('న్ని', '|'), ('వి', '|'), ('పు', '|'), ('ల', 'U'), ('స్తం', 'U'), ('భం', 'U'), ('బు', '|'), ('చే', 'U'), ('బా', 'U'), ('హు', '|'), ('స', 'U'), ('త్త్వ', '|'), ('ప్రా', 'U'), ('వీ', 'U'), ('ణ్య', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('ద', 'U'), ('ద్వ', '|'), ('న', '|'), ('ము', '|'), ('ద', 'U'), ('త్ప్రా', 'U'), ('సా', 'U'), ('ద', '|'), ('ముం', 'U'), ('గా', 'U'), ('చు', '|'), ('దే', 'U'), ('వ', '|'), ('ప్ర', 'U'), ('ద్వే', 'U'), ('షు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('దా', 'U'), ('రు', '|'), ('ణ', '|'), ('గ', '|'), ('తిన్', 'U'), ('భం', 'U'), ('జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('వ', '|'), ('ప్రం', 'U'), ('బు', 'U'), ('ల్బ', '|'), ('డ', '|'), ('గూ', 'U'), ('ల్చి', '|'), ('బ', 'U'), ('ల్వి', '|'), ('డి', '|'), ('న', '|'), ('భో', 'U'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('తో', 'U'), ('రా', 'U'), ('యు', '|'), ('చై', 'U'), ('త్య', '|'), ('ప్రా', 'U'), ('సా', 'U'), ('ద', '|'), ('ము', '|'), ('గూ', 'U'), ('ల', '|'), ('ద', 'U'), ('న్ని', '|'), ('వి', '|'), ('పు', '|'), ('ల', 'U'), ('స్తం', 'U'), ('భం', 'U'), ('బు', '|'), ('చే', 'U'), ('బా', 'U'), ('హు', '|'), ('స', 'U'), ('త్త్వ', '|'), ('ప్రా', 'U'), ('వీ', 'U'), ('ణ్య', '|'), ('మె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('ద', 'U'), ('ద్వ', '|'), ('న', '|'), ('ము', '|'), ('ద', 'U'), ('త్ప్రా', 'U'), ('సా', 'U'), ('ద', '|'), ('ముం', 'U'), ('గా', 'U'), ('చు', '|'), ('దే', 'U'), ('వ', '|'), ('ప్ర', 'U'), ('ద్వే', 'U'), ('షు', '|'), ('ల', '|'), ('నె', 'U'), ('ల్ల', '|'), ('దా', 'U'), ('రు', '|'), ('ణ', '|'), ('గ', '|'), ('తి', 'U'), ('న్భం', 'U'), ('జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[('శై', 'U'), ('లో', 'U'), ('త్పా', 'U'), ('ట', '|'), ('న', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణుం', 'U'), ('డ', '|'), ('గు', '|'), ('న', '|'), ('భ', 'U'), ('స్వ', 'U'), ('త్పు', '|'), ('త్రు', '|'), ('డన్', 'U'), ('జ', 'U'), ('న్య', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('లో', 'U'), ('లుం', 'U'), ('డ', '|'), ('గు', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్రు', '|'), ('న', '|'), ('కు', '|'), ('నే', 'U'), ('దా', 'U'), ('సుం', 'U'), ('డ', '|'), ('సు', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('నిన్', 'U'), ('వా', 'U'), ('లా', 'U'), ('యం', 'U'), ('బు', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డ', '|'), ('హ', '|'), ('ను', '|'), ('మ', 'U'), ('న్నా', 'U'), ('మం', 'U'), ('బు', '|'), ('నం', 'U'), ('బొ', 'U'), ('ల్తు', '|'), ('భూ', 'U'), ('పా', 'U'), ('లుం', 'U'), ('డం', 'U'), ('ప', '|'), ('గ', '|'), ('భూ', 'U'), ('మి', '|'), ('పు', '|'), ('త్రి', '|'), ('బ', '|'), ('రి', '|'), ('కిం', 'U'), ('పన్', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('తిన్', 'U'), ('గ్ర', 'U'), ('వ్య', '|'), ('భు', 'U'), ('క్కా', 'U'), ('లుం', 'U'), ('డన్', 'U'), ('జ', '|'), ('ను', '|'), ('తెం', 'U'), ('డు', '|'), ('పో', 'U'), ('రి', '|'), ('క', '|'), ('ని', '|'), ('లం', 'U'), ('కం', 'U'), ('జా', 'U'), ('ట', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('శై', 'U'), ('లో', 'U'), ('త్పా', 'U'), ('ట', '|'), ('న', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణుం', 'U'), ('డ', '|'), ('గు', '|'), ('న', '|'), ('భ', 'U'), ('స్వ', 'U'), ('త్పు', '|'), ('త్రు', '|'), ('డ', 'U'), ('న్జ', 'U'), ('న్య', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('లో', 'U'), ('లుం', 'U'), ('డ', '|'), ('గు', '|'), ('రా', 'U'), ('మ', '|'), ('భ', '|'), ('ద్రు', '|'), ('న', '|'), ('కు', '|'), ('నే', 'U'), ('దా', 'U'), ('సుం', 'U'), ('డ', '|'), ('సు', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('నిన్', 'U'), ('వా', 'U'), ('లా', 'U'), ('యం', 'U'), ('బు', '|'), ('భ', '|'), ('జిం', 'U'), ('చు', '|'), ('వా', 'U'), ('డ', '|'), ('హ', '|'), ('ను', '|'), ('మ', 'U'), ('న్నా', 'U'), ('మం', 'U'), ('బు', '|'), ('నం', 'U'), ('బొ', 'U'), ('ల్తు', '|'), ('భూ', 'U'), ('పా', 'U'), ('లుం', 'U'), ('డం', 'U'), ('ప', '|'), ('గ', '|'), ('భూ', 'U'), ('మి', '|'), ('పు', '|'), ('త్రి', '|'), ('బ', '|'), ('రి', '|'), ('కిం', 'U'), ('ప', 'U'), ('న్వ', 'U'), ('చ్చి', '|'), ('తి', 'U'), ('న్గ్ర', 'U'), ('వ్య', '|'), ('భు', 'U'), ('క్కా', 'U'), ('లుం', 'U'), ('డ', 'U'), ('న్జ', '|'), ('ను', '|'), ('తెం', 'U'), ('డు', '|'), ('పో', 'U'), ('రి', '|'), ('క', '|'), ('ని', '|'), ('లం', 'U'), ('కం', 'U'), ('జా', 'U'), ('ట', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2082,7 +2082,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('డ', '|'), ('కన్', 'U'), ('రా', 'U'), ('వ', '|'), ('ణ', '|'), ('ప్రే', 'U'), ('రి', '|'), ('తుం', 'U'), ('డ', '|'), ('గు', '|'), ('చు', '|'), ('వీ', 'U'), ('కన్', 'U'), ('జం', 'U'), ('బు', '|'), ('మా', 'U'), ('ల్యా', 'U'), ('ఖ్య', '|'), ('దై', 'U'), ('త్యు', '|'), ('డు', '|'), ('సే', 'U'), ('నా', 'U'), ('యు', '|'), ('తు', '|'), ('డై', 'U'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('దో', 'U'), ('డ్తో', 'U'), ('డా', 'U'), ('సి', '|'), ('నన్', 'U'), ('వా', 'U'), ('ని', '|'), ('బ', 'U'), ('ల్వి', '|'), ('డి', '|'), ('భా', 'U'), ('స్వ', 'U'), ('త్ప', '|'), ('రి', '|'), ('ఘా', 'U'), ('యు', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('బ', '|'), ('లో', 'U'), ('పే', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('నా', 'U'), ('జి', '|'), ('లో', 'U'), ('గ', '|'), ('డి', '|'), ('మిం', 'U'), ('జం', 'U'), ('పి', '|'), ('యు', '|'), ('గాం', 'U'), ('త', '|'), ('మే', 'U'), ('ఘ', '|'), ('ము', '|'), ('క్రి', '|'), ('యన్', 'U'), ('గ', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('క', '|'), ('డ', '|'), ('క', '|'), ('న్రా', 'U'), ('వ', '|'), ('ణ', '|'), ('ప్రే', 'U'), ('రి', '|'), ('తుం', 'U'), ('డ', '|'), ('గు', '|'), ('చు', '|'), ('వీ', 'U'), ('క', 'U'), ('న్జం', 'U'), ('బు', '|'), ('మా', 'U'), ('ల్యా', 'U'), ('ఖ్య', '|'), ('దై', 'U'), ('త్యు', '|'), ('డు', '|'), ('సే', 'U'), ('నా', 'U'), ('యు', '|'), ('తు', '|'), ('డై', 'U'), ('ర', '|'), ('ణం', 'U'), ('బు', '|'), ('న', '|'), ('కు', '|'), ('దో', 'U'), ('డ్తో', 'U'), ('డా', 'U'), ('సి', '|'), ('న', 'U'), ('న్వా', 'U'), ('ని', '|'), ('బ', 'U'), ('ల్వి', '|'), ('డి', '|'), ('భా', 'U'), ('స్వ', 'U'), ('త్ప', '|'), ('రి', '|'), ('ఘా', 'U'), ('యు', '|'), ('ధం', 'U'), ('బు', '|'), ('న', '|'), ('బ', '|'), ('లో', 'U'), ('పే', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('నా', 'U'), ('జి', '|'), ('లో', 'U'), ('గ', '|'), ('డి', '|'), ('మిం', 'U'), ('జం', 'U'), ('పి', '|'), ('యు', '|'), ('గాం', 'U'), ('త', '|'), ('మే', 'U'), ('ఘ', '|'), ('ము', '|'), ('క్రి', '|'), ('య', 'U'), ('న్గ', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('దా', 'U'), ('రు', '|'), ('ణ', '|'), ('స', 'U'), ('ప్త', '|'), ('మం', 'U'), ('త్రి', '|'), ('త', '|'), ('న', '|'), ('యుల్', 'U'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('లం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('బం', 'U'), ('దు', '|'), ('ర', '|'), ('వై', 'U'), ('శ్వా', 'U'), ('న', '|'), ('ర', '|'), ('స', 'U'), ('ప్త', '|'), ('హే', 'U'), ('తు', '|'), ('ల', '|'), ('న', '|'), ('దో', 'U'), ('డ్తో', 'U'), ('వె', 'U'), ('ల్గు', '|'), ('చున్', 'U'), ('డా', 'U'), ('సి', '|'), ('నన్', 'U'), ('క', '|'), ('రు', '|'), ('లం', 'U'), ('గ', 'U'), ('న్న', '|'), ('మృ', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('లీ', 'U'), ('ల', '|'), ('పె', '|'), ('ను', '|'), ('కి', 'U'), ('న్కం', 'U'), ('బొం', 'U'), ('గి', '|'), ('య', 'U'), ('ద్దై', 'U'), ('త్యు', '|'), ('ల', 'U'), ('స్థి', '|'), ('ర', '|'), ('స', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('ద్రుం', 'U'), ('ప', '|'), ('వే', 'U'), ('క', '|'), ('ల', '|'), ('న', '|'), ('ని', 'U'), ('శ్శే', 'U'), ('షం', 'U'), ('బు', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('వ', '|'), ('రు', '|'), ('స', 'U'), ('న్దా', 'U'), ('రు', '|'), ('ణ', '|'), ('స', 'U'), ('ప్త', '|'), ('మం', 'U'), ('త్రి', '|'), ('త', '|'), ('న', '|'), ('యు', 'U'), ('ల్బా', 'U'), ('హా', 'U'), ('బ', '|'), ('లం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('బం', 'U'), ('దు', '|'), ('ర', '|'), ('వై', 'U'), ('శ్వా', 'U'), ('న', '|'), ('ర', '|'), ('స', 'U'), ('ప్త', '|'), ('హే', 'U'), ('తు', '|'), ('ల', '|'), ('న', '|'), ('దో', 'U'), ('డ్తో', 'U'), ('వె', 'U'), ('ల్గు', '|'), ('చు', 'U'), ('న్డా', 'U'), ('సి', '|'), ('నన్', 'U'), ('క', '|'), ('రు', '|'), ('లం', 'U'), ('గ', 'U'), ('న్న', '|'), ('మృ', '|'), ('గేం', 'U'), ('ద్రు', '|'), ('లీ', 'U'), ('ల', '|'), ('పె', '|'), ('ను', '|'), ('కి', 'U'), ('న్కం', 'U'), ('బొం', 'U'), ('గి', '|'), ('య', 'U'), ('ద్దై', 'U'), ('త్యు', '|'), ('ల', 'U'), ('స్థి', '|'), ('ర', '|'), ('స', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('ద్రుం', 'U'), ('ప', '|'), ('వే', 'U'), ('క', '|'), ('ల', '|'), ('న', '|'), ('ని', 'U'), ('శ్శే', 'U'), ('షం', 'U'), ('బు', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[('దు', '|'), ('రి', '|'), ('తా', 'U'), ('త్ముల్', 'U'), ('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠు', '|'), ('పం', 'U'), ('పు', '|'), ('న', '|'), ('మ', '|'), ('దాం', 'U'), ('ధుల్', 'U'), ('పం', 'U'), ('చ', '|'), ('సే', 'U'), ('నా', 'U'), ('గ్ర', '|'), ('గుల్', 'U'), ('ప', '|'), ('రు', '|'), ('షో', 'U'), ('గ్రా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('వే', 'U'), ('యు', '|'), ('చుం', 'U'), ('గ', '|'), ('ది', '|'), ('య', '|'), ('గా', 'U'), ('లం', 'U'), ('గే', 'U'), ('ల', '|'), ('మ', 'U'), ('ర్దిం', 'U'), ('చి', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('భం', 'U'), ('గిన్', 'U'), ('ప', '|'), ('రి', '|'), ('మా', 'U'), ('ర్చి', '|'), ('తో', 'U'), ('ర', '|'), ('ణ', '|'), ('వి', '|'), ('టం', 'U'), ('క', 'U'), ('స్థుం', 'U'), ('డ', '|'), ('వై', 'U'), ('వెం', 'U'), ('డి', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర', '|'), ('దై', 'U'), ('తే', 'U'), ('య', '|'), ('స', '|'), ('మా', 'U'), ('గ', '|'), ('మం', 'U'), ('బు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('గాం', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('దు', '|'), ('రి', '|'), ('తా', 'U'), ('త్ము', 'U'), ('ల్ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠు', '|'), ('పం', 'U'), ('పు', '|'), ('న', '|'), ('మ', '|'), ('దాం', 'U'), ('ధు', 'U'), ('ల్పం', 'U'), ('చ', '|'), ('సే', 'U'), ('నా', 'U'), ('గ్ర', '|'), ('గుల్', 'U'), ('ప', '|'), ('రు', '|'), ('షో', 'U'), ('గ్రా', 'U'), ('స్త్ర', '|'), ('ము', '|'), ('వే', 'U'), ('యు', '|'), ('చుం', 'U'), ('గ', '|'), ('ది', '|'), ('య', '|'), ('గా', 'U'), ('లం', 'U'), ('గే', 'U'), ('ల', '|'), ('మ', 'U'), ('ర్దిం', 'U'), ('చి', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('భం', 'U'), ('గి', 'U'), ('న్ప', '|'), ('రి', '|'), ('మా', 'U'), ('ర్చి', '|'), ('తో', 'U'), ('ర', '|'), ('ణ', '|'), ('వి', '|'), ('టం', 'U'), ('క', 'U'), ('స్థుం', 'U'), ('డ', '|'), ('వై', 'U'), ('వెం', 'U'), ('డి', '|'), ('దు', 'U'), ('ష్క', '|'), ('ర', '|'), ('దై', 'U'), ('తే', 'U'), ('య', '|'), ('స', '|'), ('మా', 'U'), ('గ', '|'), ('మం', 'U'), ('బు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('గాం', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2172,7 +2172,7 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[('అ', 'U'), ('క్షీ', 'U'), ('ణ', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('బా', 'U'), ('హు', '|'), ('శౌ', 'U'), ('ర్యు', '|'), ('డు', '|'), ('మ', '|'), ('హా', 'U'), ('హం', 'U'), ('కా', 'U'), ('రు', '|'), ('డున్', 'U'), ('దై', 'U'), ('త్య', '|'), ('హ', 'U'), ('ర్య', 'U'), ('క్షుం', 'U'), ('డ', 'U'), ('క్షు', '|'), ('డు', '|'), ('డా', 'U'), ('య', '|'), ('దా', 'U'), ('ర్క్ష్యు', '|'), ('డ', '|'), ('హి', '|'), ('న', 'U'), ('ట్ల', '|'), ('వా', 'U'), ('ని', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('లన్', 'U'), ('ద', 'U'), ('క్ష', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('బ', 'U'), ('ట్టి', '|'), ('యె', 'U'), ('త్తి', '|'), ('వ', '|'), ('డి', '|'), ('మిం', 'U'), ('టన్', 'U'), ('బ', 'U'), ('ల్మ', '|'), ('రుం', 'U'), ('ద్రి', 'U'), ('ప్పి', '|'), ('జ', 'U'), ('న్య', 'U'), ('క్షో', 'U'), ('ణిం', 'U'), ('బ', '|'), ('డ', '|'), ('వై', 'U'), ('చి', '|'), ('చం', 'U'), ('ప', '|'), ('వె', '|'), ('బ', '|'), ('లౌ', 'U'), ('ద్ధ', 'U'), ('త్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', 'U'), ('క్షీ', 'U'), ('ణ', 'U'), ('స్ఫు', '|'), ('ట', '|'), ('బా', 'U'), ('హు', '|'), ('శౌ', 'U'), ('ర్యు', '|'), ('డు', '|'), ('మ', '|'), ('హా', 'U'), ('హం', 'U'), ('కా', 'U'), ('రు', '|'), ('డు', 'U'), ('న్దై', 'U'), ('త్య', '|'), ('హ', 'U'), ('ర్య', 'U'), ('క్షుం', 'U'), ('డ', 'U'), ('క్షు', '|'), ('డు', '|'), ('డా', 'U'), ('య', '|'), ('దా', 'U'), ('ర్క్ష్యు', '|'), ('డ', '|'), ('హి', '|'), ('న', 'U'), ('ట్ల', '|'), ('వా', 'U'), ('ని', '|'), ('ప', '|'), ('దం', 'U'), ('బు', '|'), ('లన్', 'U'), ('ద', 'U'), ('క్ష', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('బ', 'U'), ('ట్టి', '|'), ('యె', 'U'), ('త్తి', '|'), ('వ', '|'), ('డి', '|'), ('మిం', 'U'), ('ట', 'U'), ('న్బ', 'U'), ('ల్మ', '|'), ('రుం', 'U'), ('ద్రి', 'U'), ('ప్పి', '|'), ('జ', 'U'), ('న్య', 'U'), ('క్షో', 'U'), ('ణిం', 'U'), ('బ', '|'), ('డ', '|'), ('వై', 'U'), ('చి', '|'), ('చం', 'U'), ('ప', '|'), ('వె', '|'), ('బ', '|'), ('లౌ', 'U'), ('ద్ధ', 'U'), ('త్యం', 'U'), ('బు', '|'), ('న', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[('జ', '|'), ('ని', '|'), ('తా', 'U'), ('మ', 'U'), ('ర్ష', '|'), ('ణు', '|'), ('డిం', 'U'), ('ద్ర', '|'), ('జి', 'U'), ('త్తు', '|'), ('స', '|'), ('క', '|'), ('లా', 'U'), ('స్త్ర', 'U'), ('జ్ఞుం', 'U'), ('డు', '|'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('స్త్ర', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('ని', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('వ', '|'), ('ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('న', '|'), ('దో', 'U'), ('డ్తొ', '|'), ('బం', 'U'), ('ధ', '|'), ('ము', 'U'), ('క్తుం', 'U'), ('డ', '|'), ('వై', 'U'), ('ద', '|'), ('ను', '|'), ('జేం', 'U'), ('ద్రుం', 'U'), ('గ', '|'), ('ని', '|'), ('వా', 'U'), ('ని', '|'), ('తో', 'U'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('దో', 'U'), ('ర్ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('దె', 'U'), ('ల్ప', '|'), ('న', '|'), ('గుం', 'U'), ('గా', 'U'), ('క', '|'), ('ని', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('డై', 'U'), ('న', '|'), ('ప', '|'), ('గి', '|'), ('దిన్', 'U'), ('వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('జ', '|'), ('ని', '|'), ('తా', 'U'), ('మ', 'U'), ('ర్ష', '|'), ('ణు', '|'), ('డిం', 'U'), ('ద్ర', '|'), ('జి', 'U'), ('త్తు', '|'), ('స', '|'), ('క', '|'), ('లా', 'U'), ('స్త్ర', 'U'), ('జ్ఞుం', 'U'), ('డు', '|'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('స్త్ర', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('ని', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('వ', '|'), ('ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('న', '|'), ('దో', 'U'), ('డ్తొ', '|'), ('బం', 'U'), ('ధ', '|'), ('ము', 'U'), ('క్తుం', 'U'), ('డ', '|'), ('వై', 'U'), ('ద', '|'), ('ను', '|'), ('జేం', 'U'), ('ద్రుం', 'U'), ('గ', '|'), ('ని', '|'), ('వా', 'U'), ('ని', '|'), ('తో', 'U'), ('వి', '|'), ('భు', '|'), ('ని', '|'), ('దో', 'U'), ('ర్ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వం', 'U'), ('బు', '|'), ('దె', 'U'), ('ల్ప', '|'), ('న', '|'), ('గుం', 'U'), ('గా', 'U'), ('క', '|'), ('ని', '|'), ('బ', 'U'), ('ద్ధు', '|'), ('డై', 'U'), ('న', '|'), ('ప', '|'), ('గి', '|'), ('ది', 'U'), ('న్వ', 'U'), ('ర్తిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యా', 'U'), ('కృ', '|'), ('తి', '|'), ('యున్', 'U'), ('బ్ర', '|'), ('తా', 'U'), ('ప', '|'), ('ము', '|'), ('ను', '|'), ('శుం', 'U'), ('భ', 'U'), ('ద్వీ', 'U'), ('ర్య', '|'), ('ముం', 'U'), ('గాం', 'U'), ('చి', '|'), ('దై', 'U'), ('త్య', '|'), ('వి', '|'), ('భుం', 'U'), ('డీ', 'U'), ('త', '|'), ('డు', '|'), ('కీ', 'U'), ('శ', '|'), ('మా', 'U'), ('త్ర', '|'), ('కు', '|'), ('డు', '|'), ('గా', 'U'), ('డా', 'U'), ('ది', 'U'), ('త్యు', '|'), ('లుం', 'U'), ('బం', 'U'), ('ప', '|'), ('గా', 'U'), ('భు', '|'), ('వి', '|'), ('గీ', 'U'), ('శా', 'U'), ('కృ', '|'), ('తి', '|'), ('దా', 'U'), ('ల్చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('భూ', 'U'), ('తం', 'U'), ('బ', '|'), ('గుం', 'U'), ('గా', 'U'), ('ని', '|'), ('చో', 'U'), ('ది', '|'), ('వి', '|'), ('జా', 'U'), ('రా', 'U'), ('తు', '|'), ('ల', '|'), ('జం', 'U'), ('పు', '|'), ('నే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('జిం', 'U'), ('తిం', 'U'), ('పం', 'U'), ('డొ', '|'), ('కో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యా', 'U'), ('కృ', '|'), ('తి', '|'), ('యు', 'U'), ('న్బ్ర', '|'), ('తా', 'U'), ('ప', '|'), ('ము', '|'), ('ను', '|'), ('శుం', 'U'), ('భ', 'U'), ('ద్వీ', 'U'), ('ర్య', '|'), ('ముం', 'U'), ('గాం', 'U'), ('చి', '|'), ('దై', 'U'), ('త్య', '|'), ('వి', '|'), ('భుం', 'U'), ('డీ', 'U'), ('త', '|'), ('డు', '|'), ('కీ', 'U'), ('శ', '|'), ('మా', 'U'), ('త్ర', '|'), ('కు', '|'), ('డు', '|'), ('గా', 'U'), ('డా', 'U'), ('ది', 'U'), ('త్యు', '|'), ('లుం', 'U'), ('బం', 'U'), ('ప', '|'), ('గా', 'U'), ('భు', '|'), ('వి', '|'), ('గీ', 'U'), ('శా', 'U'), ('కృ', '|'), ('తి', '|'), ('దా', 'U'), ('ల్చి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('భూ', 'U'), ('తం', 'U'), ('బ', '|'), ('గుం', 'U'), ('గా', 'U'), ('ని', '|'), ('చో', 'U'), ('ది', '|'), ('వి', '|'), ('జా', 'U'), ('రా', 'U'), ('తు', '|'), ('ల', '|'), ('జం', 'U'), ('పు', '|'), ('నే', 'U'), ('య', '|'), ('ను', '|'), ('చు', '|'), ('జిం', 'U'), ('తిం', 'U'), ('పం', 'U'), ('డొ', '|'), ('కో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2292,7 +2292,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[('ఓ', 'U'), ('రి', '|'), ('రా', 'U'), ('వ', '|'), ('ణ', '|'), ('నే', 'U'), ('ను', '|'), ('రా', 'U'), ('మ', '|'), ('నృ', '|'), ('ప', '|'), ('వం', 'U'), ('శో', 'U'), ('త్తం', 'U'), ('సు', '|'), ('దా', 'U'), ('సుం', 'U'), ('డ', '|'), ('నా', 'U'), ('శూ', 'U'), ('రా', 'U'), ('గ్రే', 'U'), ('స', '|'), ('రు', '|'), ('ప', 'U'), ('త్ని', '|'), ('నీ', 'U'), ('వు', '|'), ('వ', '|'), ('ని', '|'), ('లో', 'U'), ('జో', 'U'), ('రుం', 'U'), ('డ', '|'), ('వై', 'U'), ('తె', 'U'), ('చ్చి', '|'), ('త', 'U'), ('న్నా', 'U'), ('రీ', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('ని', 'U'), ('మ్ము', '|'), ('రా', 'U'), ('ఘ', '|'), ('వు', '|'), ('న', '|'), ('కున్', 'U'), ('గా', 'U'), ('కు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('విం', 'U'), ('క', '|'), ('త', 'U'), ('ద్ఘో', 'U'), ('రా', 'U'), ('స్త్రం', 'U'), ('బు', '|'), ('ల', '|'), ('జ', 'U'), ('త్తు', '|'), ('వా', 'U'), ('జి', '|'), ('న', '|'), ('ని', '|'), ('నీ', 'U'), ('తుల్', 'U'), ('దె', 'U'), ('ల్ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఓ', 'U'), ('రి', '|'), ('రా', 'U'), ('వ', '|'), ('ణ', '|'), ('నే', 'U'), ('ను', '|'), ('రా', 'U'), ('మ', '|'), ('నృ', '|'), ('ప', '|'), ('వం', 'U'), ('శో', 'U'), ('త్తం', 'U'), ('సు', '|'), ('దా', 'U'), ('సుం', 'U'), ('డ', '|'), ('నా', 'U'), ('శూ', 'U'), ('రా', 'U'), ('గ్రే', 'U'), ('స', '|'), ('రు', '|'), ('ప', 'U'), ('త్ని', '|'), ('నీ', 'U'), ('వు', '|'), ('వ', '|'), ('ని', '|'), ('లో', 'U'), ('జో', 'U'), ('రుం', 'U'), ('డ', '|'), ('వై', 'U'), ('తె', 'U'), ('చ్చి', '|'), ('త', 'U'), ('న్నా', 'U'), ('రీ', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('ని', 'U'), ('మ్ము', '|'), ('రా', 'U'), ('ఘ', '|'), ('వు', '|'), ('న', '|'), ('కు', 'U'), ('న్గా', 'U'), ('కు', 'U'), ('న్న', '|'), ('నీ', 'U'), ('విం', 'U'), ('క', '|'), ('త', 'U'), ('ద్ఘో', 'U'), ('రా', 'U'), ('స్త్రం', 'U'), ('బు', '|'), ('ల', '|'), ('జ', 'U'), ('త్తు', '|'), ('వా', 'U'), ('జి', '|'), ('న', '|'), ('ని', '|'), ('నీ', 'U'), ('తు', 'U'), ('ల్దె', 'U'), ('ల్ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2323,7 +2323,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[('బా', 'U'), ('లా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('సీ', 'U'), ('త', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లి', '|'), ('టు', '|'), ('నీ', 'U'), ('పా', 'U'), ('లిం', 'U'), ('టి', '|'), ('కిన్', 'U'), ('మృ', 'U'), ('త్యు', '|'), ('వం', 'U'), ('చా', 'U'), ('లో', 'U'), ('కిం', 'U'), ('ప', '|'), ('క', '|'), ('దె', 'U'), ('చ్చి', '|'), ('తిం', 'U'), ('త', '|'), ('కె', '|'), ('పు', '|'), ('డో', 'U'), ('య', 'U'), ('ద్దే', 'U'), ('వి', '|'), ('కో', 'U'), ('పా', 'U'), ('న', '|'), ('ల', 'U'), ('జ్వా', 'U'), ('లా', 'U'), ('ళిం', 'U'), ('బ', '|'), ('డి', '|'), ('భ', 'U'), ('స్మ', '|'), ('మై', 'U'), ('చ', '|'), ('న', '|'), ('క', '|'), ('స', '|'), ('ప్రా', 'U'), ('ణుం', 'U'), ('డ', '|'), ('వై', 'U'), ('యుం', 'U'), ('డు', '|'), ('టల్', 'U'), ('చా', 'U'), ('లన్', 'U'), ('చి', '|'), ('త్ర', '|'), ('ము', '|'), ('భ', 'U'), ('ర్త', '|'), ('చే', 'U'), ('గ', '|'), ('ల', '|'), ('న', '|'), ('నిన్', 'U'), ('జం', 'U'), ('పిం', 'U'), ('ప', '|'), ('నిం', 'U'), ('దా', 'U'), ('క', '|'), ('ని', 'U'), ('ట్లా', 'U'), ('ల', 'U'), ('స్యం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చె', '|'), ('నం', 'U'), ('చ', '|'), ('న', '|'), ('వె', '|'), ('దే', 'U'), ('వా', 'U'), ('రా', 'U'), ('తి', '|'), ('తో', 'U'), ('మా', 'U'), ('అ', '|'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('బా', 'U'), ('లా', 'U'), ('ర', 'U'), ('త్న', '|'), ('ము', '|'), ('సీ', 'U'), ('త', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లి', '|'), ('టు', '|'), ('నీ', 'U'), ('పా', 'U'), ('లిం', 'U'), ('టి', '|'), ('కి', 'U'), ('న్మృ', 'U'), ('త్యు', '|'), ('వం', 'U'), ('చా', 'U'), ('లో', 'U'), ('కిం', 'U'), ('ప', '|'), ('క', '|'), ('దె', 'U'), ('చ్చి', '|'), ('తిం', 'U'), ('త', '|'), ('కె', '|'), ('పు', '|'), ('డో', 'U'), ('య', 'U'), ('ద్దే', 'U'), ('వి', '|'), ('కో', 'U'), ('పా', 'U'), ('న', '|'), ('ల', 'U'), ('జ్వా', 'U'), ('లా', 'U'), ('ళిం', 'U'), ('బ', '|'), ('డి', '|'), ('భ', 'U'), ('స్మ', '|'), ('మై', 'U'), ('చ', '|'), ('న', '|'), ('క', '|'), ('స', '|'), ('ప్రా', 'U'), ('ణుం', 'U'), ('డ', '|'), ('వై', 'U'), ('యుం', 'U'), ('డు', '|'), ('టల్', 'U'), ('చా', 'U'), ('ల', 'U'), ('న్చి', '|'), ('త్ర', '|'), ('ము', '|'), ('భ', 'U'), ('ర్త', '|'), ('చే', 'U'), ('గ', '|'), ('ల', '|'), ('న', '|'), ('ని', 'U'), ('న్జం', 'U'), ('పిం', 'U'), ('ప', '|'), ('నిం', 'U'), ('దా', 'U'), ('క', '|'), ('ని', 'U'), ('ట్లా', 'U'), ('ల', 'U'), ('స్యం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('చె', '|'), ('నం', 'U'), ('చ', '|'), ('న', '|'), ('వె', '|'), ('దే', 'U'), ('వా', 'U'), ('రా', 'U'), ('తి', '|'), ('తో', 'U'), ('మా', 'U'), ('అ', '|'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2353,7 +2353,7 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[('ఖ', '|'), ('ల', '|'), ('దై', 'U'), ('త్యా', 'U'), ('ధ', '|'), ('మ', '|'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('స', '|'), ('తి', '|'), ('ని', '|'), ('నీ', 'U'), ('కం', 'U'), ('ఠ', 'U'), ('స్థ', '|'), ('శా', 'U'), ('తా', 'U'), ('సి', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('పై', 'U'), ('బ', 'U'), ('డ్డ', '|'), ('మ', '|'), ('హా', 'U'), ('శ', '|'), ('ని', 'U'), ('చ్ఛ', '|'), ('ద', '|'), ('ము', '|'), ('గా', 'U'), ('దా', 'U'), ('లు', 'U'), ('స్థి', '|'), ('తో', 'U'), ('ద్య', 'U'), ('ద్ధ', '|'), ('లా', 'U'), ('హ', '|'), ('ల', '|'), ('ముం', 'U'), ('గా', 'U'), ('వ', '|'), ('స', '|'), ('నాం', 'U'), ('చ', '|'), ('ల', '|'), ('గ్ర', '|'), ('థి', '|'), ('త', '|'), ('దీ', 'U'), ('ప్తా', 'U'), ('గ్ని', 'U'), ('స్ఫు', '|'), ('లిం', 'U'), ('గం', 'U'), ('బు', '|'), ('గా', 'U'), ('త', '|'), ('ల', '|'), ('ప', 'U'), ('న్నే', 'U'), ('ర', '|'), ('క', '|'), ('దె', 'U'), ('చ్చి', '|'), ('తీ', 'U'), ('వ', '|'), ('ని', '|'), ('ర', '|'), ('హిన్', 'U'), ('ద', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఖ', '|'), ('ల', '|'), ('దై', 'U'), ('త్యా', 'U'), ('ధ', '|'), ('మ', '|'), ('జా', 'U'), ('న', '|'), ('కీ', 'U'), ('స', '|'), ('తి', '|'), ('ని', '|'), ('నీ', 'U'), ('కం', 'U'), ('ఠ', 'U'), ('స్థ', '|'), ('శా', 'U'), ('తా', 'U'), ('సి', '|'), ('గా', 'U'), ('ద', '|'), ('ల', '|'), ('పై', 'U'), ('బ', 'U'), ('డ్డ', '|'), ('మ', '|'), ('హా', 'U'), ('శ', '|'), ('ని', 'U'), ('చ్ఛ', '|'), ('ద', '|'), ('ము', '|'), ('గా', 'U'), ('దా', 'U'), ('లు', 'U'), ('స్థి', '|'), ('తో', 'U'), ('ద్య', 'U'), ('ద్ధ', '|'), ('లా', 'U'), ('హ', '|'), ('ల', '|'), ('ముం', 'U'), ('గా', 'U'), ('వ', '|'), ('స', '|'), ('నాం', 'U'), ('చ', '|'), ('ల', '|'), ('గ్ర', '|'), ('థి', '|'), ('త', '|'), ('దీ', 'U'), ('ప్తా', 'U'), ('గ్ని', 'U'), ('స్ఫు', '|'), ('లిం', 'U'), ('గం', 'U'), ('బు', '|'), ('గా', 'U'), ('త', '|'), ('ల', '|'), ('ప', 'U'), ('న్నే', 'U'), ('ర', '|'), ('క', '|'), ('దె', 'U'), ('చ్చి', '|'), ('తీ', 'U'), ('వ', '|'), ('ని', '|'), ('ర', '|'), ('హి', 'U'), ('న్ద', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ర', '|'), ('మే', 'U'), ('నీ', 'U'), ('కి', '|'), ('క', '|'), ('నెం', 'U'), ('దు', '|'), ('బో', 'U'), ('గ', '|'), ('ల', '|'), ('వు', '|'), ('పా', 'U'), ('తా', 'U'), ('ళం', 'U'), ('బు', '|'), ('లో', 'U'), ('డా', 'U'), ('గి', '|'), ('నన్', 'U'), ('శ', '|'), ('ర', '|'), ('ధిం', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('మి', 'U'), ('న్ను', '|'), ('బ్రా', 'U'), ('కి', '|'), ('న', '|'), ('ద', '|'), ('శా', 'U'), ('స్యా', 'U'), ('వ', '|'), ('జ్రి', '|'), ('వ', '|'), ('జ్రా', 'U'), ('భ', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('బా', 'U'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('నీ', 'U'), ('శి', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('ని', '|'), ('లో', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('యా', 'U'), ('కా', 'U'), ('కు', 'U'), ('త్స్థు', '|'), ('డా', 'U'), ('వ', '|'), ('ర', '|'), ('వ', 'U'), ('ర్ణిన్', 'U'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('వు', '|'), ('ని', 'U'), ('క్క', '|'), ('మ', '|'), ('ను', '|'), ('చున్', 'U'), ('వా', 'U'), ('దిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('త', '|'), ('ర', '|'), ('మే', 'U'), ('నీ', 'U'), ('కి', '|'), ('క', '|'), ('నెం', 'U'), ('దు', '|'), ('బో', 'U'), ('గ', '|'), ('ల', '|'), ('వు', '|'), ('పా', 'U'), ('తా', 'U'), ('ళం', 'U'), ('బు', '|'), ('లో', 'U'), ('డా', 'U'), ('గి', '|'), ('నన్', 'U'), ('శ', '|'), ('ర', '|'), ('ధిం', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('మి', 'U'), ('న్ను', '|'), ('బ్రా', 'U'), ('కి', '|'), ('న', '|'), ('ద', '|'), ('శా', 'U'), ('స్యా', 'U'), ('వ', '|'), ('జ్రి', '|'), ('వ', '|'), ('జ్రా', 'U'), ('భ', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('బా', 'U'), ('ణం', 'U'), ('బు', '|'), ('ల', '|'), ('నీ', 'U'), ('శి', '|'), ('రం', 'U'), ('బు', '|'), ('ల', '|'), ('ని', '|'), ('లో', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('యా', 'U'), ('కా', 'U'), ('కు', 'U'), ('త్స్థు', '|'), ('డా', 'U'), ('వ', '|'), ('ర', '|'), ('వ', 'U'), ('ర్ణి', 'U'), ('న్గొ', '|'), ('ని', '|'), ('పో', 'U'), ('వు', '|'), ('ని', 'U'), ('క్క', '|'), ('మ', '|'), ('ను', '|'), ('చు', 'U'), ('న్వా', 'U'), ('దిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2413,7 +2413,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠా', 'U'), ('సు', '|'), ('ర', '|'), ('పు', 'U'), ('ణ్య', '|'), ('సా', 'U'), ('ధ్వి', '|'), ('య', '|'), ('గు', '|'), ('సీ', 'U'), ('తం', 'U'), ('గా', 'U'), ('న', '|'), ('లో', 'U'), ('దొం', 'U'), ('గ', '|'), ('వై', 'U'), ('ప', '|'), ('శు', '|'), ('బు', 'U'), ('ద్ధిం', 'U'), ('గొ', '|'), ('ని', '|'), ('తె', 'U'), ('చ్చి', '|'), ('నం', 'U'), ('దు', '|'), ('కి', '|'), ('పు', '|'), ('డే', 'U'), ('బం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('ము', 'U'), ('ష్టిన్', 'U'), ('త్వ', '|'), ('దు', '|'), ('గ్ర', '|'), ('శి', '|'), ('రం', 'U'), ('బుల్', 'U'), ('వె', '|'), ('స', '|'), ('వ్ర', 'U'), ('క్క', '|'), ('లిం', 'U'), ('ప', '|'), ('న', '|'), ('గు', '|'), ('నా', 'U'), ('రా', 'U'), ('మా', 'U'), ('జ్ఞ', '|'), ('లే', 'U'), ('కు', 'U'), ('న్కి', '|'), ('దు', 'U'), ('ర్ద', '|'), ('శ', '|'), ('నొం', 'U'), ('దిం', 'U'), ('ప', '|'), ('క', '|'), ('యో', 'U'), ('ర్చి', '|'), ('యుం', 'U'), ('టి', '|'), ('న', '|'), ('ను', '|'), ('చుం', 'U'), ('ద', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ద', '|'), ('శ', '|'), ('కం', 'U'), ('ఠా', 'U'), ('సు', '|'), ('ర', '|'), ('పు', 'U'), ('ణ్య', '|'), ('సా', 'U'), ('ధ్వి', '|'), ('య', '|'), ('గు', '|'), ('సీ', 'U'), ('తం', 'U'), ('గా', 'U'), ('న', '|'), ('లో', 'U'), ('దొం', 'U'), ('గ', '|'), ('వై', 'U'), ('ప', '|'), ('శు', '|'), ('బు', 'U'), ('ద్ధిం', 'U'), ('గొ', '|'), ('ని', '|'), ('తె', 'U'), ('చ్చి', '|'), ('నం', 'U'), ('దు', '|'), ('కి', '|'), ('పు', '|'), ('డే', 'U'), ('బం', 'U'), ('ధిం', 'U'), ('చి', '|'), ('ము', 'U'), ('ష్టి', 'U'), ('న్త్వ', '|'), ('దు', '|'), ('గ్ర', '|'), ('శి', '|'), ('రం', 'U'), ('బు', 'U'), ('ల్వె', '|'), ('స', '|'), ('వ్ర', 'U'), ('క్క', '|'), ('లిం', 'U'), ('ప', '|'), ('న', '|'), ('గు', '|'), ('నా', 'U'), ('రా', 'U'), ('మా', 'U'), ('జ్ఞ', '|'), ('లే', 'U'), ('కు', 'U'), ('న్కి', '|'), ('దు', 'U'), ('ర్ద', '|'), ('శ', '|'), ('నొం', 'U'), ('దిం', 'U'), ('ప', '|'), ('క', '|'), ('యో', 'U'), ('ర్చి', '|'), ('యుం', 'U'), ('టి', '|'), ('న', '|'), ('ను', '|'), ('చుం', 'U'), ('ద', 'U'), ('ర్జిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2444,7 +2444,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డు', '|'), ('నీ', 'U'), ('దు', '|'), ('వా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('తై', 'U'), ('లా', 'U'), ('ర్ద్ర', '|'), ('చే', 'U'), ('లం', 'U'), ('బు', '|'), ('లొ', 'U'), ('య్య', '|'), ('న', '|'), ('జు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('కొ', '|'), ('నన్', 'U'), ('కృ', '|'), ('శా', 'U'), ('ను', '|'), ('ని', '|'), ('డి', '|'), ('దే', 'U'), ('వా', 'U'), ('రా', 'U'), ('తు', '|'), ('లి', 'U'), ('వ్వా', 'U'), ('న', '|'), ('రుం', 'U'), ('గొ', '|'), ('ని', '|'), ('ప్రో', 'U'), ('లం', 'U'), ('త', '|'), ('యు', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('డం', 'U'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('కన్', 'U'), ('ఘో', 'U'), ('షిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('దై', 'U'), ('త్యు', '|'), ('ల', 'U'), ('ట్లొ', '|'), ('న', '|'), ('రిం', 'U'), ('పన్', 'U'), ('బు', '|'), ('రి', '|'), ('గు', 'U'), ('ప్తి', '|'), ('క', 'U'), ('ర్మ', '|'), ('ము', '|'), ('త', '|'), ('దు', 'U'), ('ద్యో', 'U'), ('గం', 'U'), ('బు', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('బె', 'U'), ('ల్ప', '|'), ('న', '|'), ('ద', 'U'), ('త్క', 'U'), ('ర్మ', '|'), ('మొ', '|'), ('కిం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('సై', 'U'), ('రిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ద', '|'), ('ను', '|'), ('జా', 'U'), ('ధీ', 'U'), ('శు', '|'), ('డు', '|'), ('నీ', 'U'), ('దు', '|'), ('వా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('కు', 'U'), ('న్తై', 'U'), ('లా', 'U'), ('ర్ద్ర', '|'), ('చే', 'U'), ('లం', 'U'), ('బు', '|'), ('లొ', 'U'), ('య్య', '|'), ('న', '|'), ('జు', 'U'), ('ట్టిం', 'U'), ('చి', '|'), ('కొ', '|'), ('న', 'U'), ('న్కృ', '|'), ('శా', 'U'), ('ను', '|'), ('ని', '|'), ('డి', '|'), ('దే', 'U'), ('వా', 'U'), ('రా', 'U'), ('తు', '|'), ('లి', 'U'), ('వ్వా', 'U'), ('న', '|'), ('రుం', 'U'), ('గొ', '|'), ('ని', '|'), ('ప్రో', 'U'), ('లం', 'U'), ('త', '|'), ('యు', '|'), ('ద్రి', 'U'), ('ప్పు', '|'), ('డం', 'U'), ('చు', '|'), ('బ', '|'), ('లు', '|'), ('క', 'U'), ('న్ఘో', 'U'), ('షిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్దై', 'U'), ('త్యు', '|'), ('ల', 'U'), ('ట్లొ', '|'), ('న', '|'), ('రిం', 'U'), ('ప', 'U'), ('న్బు', '|'), ('రి', '|'), ('గు', 'U'), ('ప్తి', '|'), ('క', 'U'), ('ర్మ', '|'), ('ము', '|'), ('త', '|'), ('దు', 'U'), ('ద్యో', 'U'), ('గం', 'U'), ('బు', '|'), ('వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('బె', 'U'), ('ల్ప', '|'), ('న', '|'), ('ద', 'U'), ('త్క', 'U'), ('ర్మ', '|'), ('మొ', '|'), ('కిం', 'U'), ('త', '|'), ('సే', 'U'), ('పు', '|'), ('మ', '|'), ('ది', '|'), ('లో', 'U'), ('సై', 'U'), ('రిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2474,7 +2474,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[('ప్ర', '|'), ('క', '|'), ('టిం', 'U'), ('పన్', 'U'), ('జ', '|'), ('గ', '|'), ('ముల్', 'U'), ('ద', '|'), ('హిం', 'U'), ('చు', '|'), ('శి', '|'), ('ఖి', '|'), ('నీ', 'U'), ('వా', 'U'), ('లా', 'U'), ('గ్ర', '|'), ('గుం', 'U'), ('డ', 'U'), ('య్యు', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('యా', 'U'), ('శీ', 'U'), ('ర్వ', '|'), ('చ', '|'), ('నం', 'U'), ('బు', '|'), ('నన్', 'U'), ('బ', '|'), ('వ', '|'), ('న', '|'), ('బాం', 'U'), ('ధ', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జే', 'U'), ('సి', '|'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('వా', 'U'), ('లాం', 'U'), ('చి', '|'), ('త', '|'), ('రో', 'U'), ('మ', '|'), ('మై', 'U'), ('న', '|'), ('గ', '|'), ('మ', '|'), ('లిం', 'U'), ('పన్', 'U'), ('శ', 'U'), ('క్తు', '|'), ('డుం', 'U'), ('గా', 'U'), ('క', '|'), ('పొం', 'U'), ('ది', '|'), ('క', '|'), ('తో', 'U'), ('జం', 'U'), ('ద', '|'), ('న', '|'), ('పం', 'U'), ('క', '|'), ('శీ', 'U'), ('తు', '|'), ('డ', '|'), ('గు', '|'), ('చున్', 'U'), ('దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('డే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ప్ర', '|'), ('క', '|'), ('టిం', 'U'), ('ప', 'U'), ('న్జ', '|'), ('గ', '|'), ('ము', 'U'), ('ల్ద', '|'), ('హిం', 'U'), ('చు', '|'), ('శి', '|'), ('ఖి', '|'), ('నీ', 'U'), ('వా', 'U'), ('లా', 'U'), ('గ్ర', '|'), ('గుం', 'U'), ('డ', 'U'), ('య్యు', '|'), ('జా', 'U'), ('న', '|'), ('కి', '|'), ('యా', 'U'), ('శీ', 'U'), ('ర్వ', '|'), ('చ', '|'), ('నం', 'U'), ('బు', '|'), ('న', 'U'), ('న్బ', '|'), ('వ', '|'), ('న', '|'), ('బాం', 'U'), ('ధ', 'U'), ('వ్యం', 'U'), ('బు', '|'), ('న', 'U'), ('న్జే', 'U'), ('సి', '|'), ('తా', 'U'), ('వ', '|'), ('క', '|'), ('వా', 'U'), ('లాం', 'U'), ('చి', '|'), ('త', '|'), ('రో', 'U'), ('మ', '|'), ('మై', 'U'), ('న', '|'), ('గ', '|'), ('మ', '|'), ('లిం', 'U'), ('ప', 'U'), ('న్శ', 'U'), ('క్తు', '|'), ('డుం', 'U'), ('గా', 'U'), ('క', '|'), ('పొం', 'U'), ('ది', '|'), ('క', '|'), ('తో', 'U'), ('జం', 'U'), ('ద', '|'), ('న', '|'), ('పం', 'U'), ('క', '|'), ('శీ', 'U'), ('తు', '|'), ('డ', '|'), ('గు', '|'), ('చు', 'U'), ('న్దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('డే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[('త', '|'), ('ను', '|'), ('వుం', 'U'), ('గొం', 'U'), ('చె', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('ర', 'U'), ('జ్జు', '|'), ('మ', '|'), ('య', '|'), ('బం', 'U'), ('ధం', 'U'), ('బుల్', 'U'), ('వ', '|'), ('డిం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('వెం', 'U'), ('ట', '|'), ('నె', '|'), ('కా', 'U'), ('లా', 'U'), ('భ్ర', '|'), ('ము', '|'), ('వై', 'U'), ('ఖ', '|'), ('రిన్', 'U'), ('బె', '|'), ('రి', '|'), ('గి', '|'), ('తో', 'U'), ('డన్', 'U'), ('వ', 'U'), ('చ్చు', '|'), ('దో', 'U'), ('షా', 'U'), ('టు', '|'), ('లన్', 'U'), ('ము', '|'), ('ను', '|'), ('ము', 'U'), ('ట్టం', 'U'), ('దు', '|'), ('ను', '|'), ('మా', 'U'), ('డి', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రు', '|'), ('లు', '|'), ('సం', 'U'), ('తో', 'U'), ('షిం', 'U'), ('ప', '|'), ('వా', 'U'), ('లా', 'U'), ('గ్ని', '|'), ('చే', 'U'), ('ఘ', '|'), ('న', '|'), ('లం', 'U'), ('కా', 'U'), ('న', '|'), ('గ', '|'), ('రం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వ', '|'), ('మ', '|'), ('వి', '|'), ('శం', 'U'), ('కం', 'U'), ('గా', 'U'), ('ల్ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('త', '|'), ('ను', '|'), ('వుం', 'U'), ('గొం', 'U'), ('చె', '|'), ('ము', '|'), ('జే', 'U'), ('సి', '|'), ('ర', 'U'), ('జ్జు', '|'), ('మ', '|'), ('య', '|'), ('బం', 'U'), ('ధం', 'U'), ('బు', 'U'), ('ల్వ', '|'), ('డిం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('వెం', 'U'), ('ట', '|'), ('నె', '|'), ('కా', 'U'), ('లా', 'U'), ('భ్ర', '|'), ('ము', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', 'U'), ('న్బె', '|'), ('రి', '|'), ('గి', '|'), ('తో', 'U'), ('డ', 'U'), ('న్వ', 'U'), ('చ్చు', '|'), ('దో', 'U'), ('షా', 'U'), ('టు', '|'), ('లన్', 'U'), ('ము', '|'), ('ను', '|'), ('ము', 'U'), ('ట్టం', 'U'), ('దు', '|'), ('ను', '|'), ('మా', 'U'), ('డి', '|'), ('ని', 'U'), ('ర్జ', '|'), ('రు', '|'), ('లు', '|'), ('సం', 'U'), ('తో', 'U'), ('షిం', 'U'), ('ప', '|'), ('వా', 'U'), ('లా', 'U'), ('గ్ని', '|'), ('చే', 'U'), ('ఘ', '|'), ('న', '|'), ('లం', 'U'), ('కా', 'U'), ('న', '|'), ('గ', '|'), ('రం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వ', '|'), ('మ', '|'), ('వి', '|'), ('శం', 'U'), ('కం', 'U'), ('గా', 'U'), ('ల్ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2564,7 +2564,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[('ని', '|'), ('ను', '|'), ('బం', 'U'), ('ధిం', 'U'), ('చు', '|'), ('ట', '|'), ('నీ', 'U'), ('దు', '|'), ('వా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('వ', 'U'), ('హ్నిం', 'U'), ('గొ', 'U'), ('ల్పు', '|'), ('టల్', 'U'), ('రా', 'U'), ('క్ష', '|'), ('సుల్', 'U'), ('వి', '|'), ('ని', '|'), ('పిం', 'U'), ('పన్', 'U'), ('వి', '|'), ('ని', '|'), ('సీ', 'U'), ('త', '|'), ('యే', 'U'), ('ను', '|'), ('ప', '|'), ('తి', '|'), ('కిం', 'U'), ('బ్రే', 'U'), ('మా', 'U'), ('స్ప', '|'), ('దీ', 'U'), ('భూ', 'U'), ('త', '|'), ('నౌ', 'U'), ('ట', '|'), ('ని', '|'), ('జం', 'U'), ('బే', 'U'), ('ని', '|'), ('కృ', '|'), ('పీ', 'U'), ('ట', '|'), ('జ', 'U'), ('న్మ', '|'), ('క', '|'), ('డు', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('మ', 'U'), ('త్ప్రి', '|'), ('యా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('పా', 'U'), ('వ', '|'), ('ని', '|'), ('కిన్', 'U'), ('శీ', 'U'), ('తు', '|'), ('డ', '|'), ('వై', 'U'), ('వె', '|'), ('లుం', 'U'), ('గు', '|'), ('మ', '|'), ('ను', '|'), ('చున్', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('దే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ని', '|'), ('ను', '|'), ('బం', 'U'), ('ధిం', 'U'), ('చు', '|'), ('ట', '|'), ('నీ', 'U'), ('దు', '|'), ('వా', 'U'), ('ల', '|'), ('ము', '|'), ('న', '|'), ('వ', 'U'), ('హ్నిం', 'U'), ('గొ', 'U'), ('ల్పు', '|'), ('ట', '|'), ('ల్రా', 'U'), ('క్ష', '|'), ('సుల్', 'U'), ('వి', '|'), ('ని', '|'), ('పిం', 'U'), ('ప', 'U'), ('న్వి', '|'), ('ని', '|'), ('సీ', 'U'), ('త', '|'), ('యే', 'U'), ('ను', '|'), ('ప', '|'), ('తి', '|'), ('కిం', 'U'), ('బ్రే', 'U'), ('మా', 'U'), ('స్ప', '|'), ('దీ', 'U'), ('భూ', 'U'), ('త', '|'), ('నౌ', 'U'), ('ట', '|'), ('ని', '|'), ('జం', 'U'), ('బే', 'U'), ('ని', '|'), ('కృ', '|'), ('పీ', 'U'), ('ట', '|'), ('జ', 'U'), ('న్మ', '|'), ('క', '|'), ('డు', '|'), ('వే', 'U'), ('డ్క', 'U'), ('న్మ', 'U'), ('త్ప్రి', '|'), ('యా', 'U'), ('ర్థం', 'U'), ('బు', '|'), ('పా', 'U'), ('వ', '|'), ('ని', '|'), ('కి', 'U'), ('న్శీ', 'U'), ('తు', '|'), ('డ', '|'), ('వై', 'U'), ('వె', '|'), ('లుం', 'U'), ('గు', '|'), ('మ', '|'), ('ను', '|'), ('చు', 'U'), ('న్బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('దే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[('ఘ', '|'), ('న', '|'), ('వా', 'U'), ('లా', 'U'), ('గ్ని', '|'), ('శి', '|'), ('ఖా', 'U'), ('ళి', '|'), ('గా', 'U'), ('ల్చి', '|'), ('తి', '|'), ('ని', '|'), ('లం', 'U'), ('కన్', 'U'), ('సీ', 'U'), ('త', '|'), ('యే', 'U'), ('మ', 'U'), ('య్యె', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('శం', 'U'), ('కిం', 'U'), ('చి', '|'), ('కృ', '|'), ('శా', 'U'), ('ను', '|'), ('చే', 'U'), ('గ', '|'), ('మ', '|'), ('ల', '|'), ('కా', 'U'), ('హా', 'U'), ('నే', 'U'), ('డు', '|'), ('వై', 'U'), ('దే', 'U'), ('హ', '|'), ('నం', 'U'), ('ది', '|'), ('ని', '|'), ('సే', 'U'), ('మం', 'U'), ('బు', '|'), ('న', '|'), ('ను', 'U'), ('న్న', '|'), ('దం', 'U'), ('చు', '|'), ('వి', '|'), ('ను', '|'), ('వీ', 'U'), ('థి', 'U'), ('న్మ్రో', 'U'), ('యు', '|'), ('దే', 'U'), ('వో', 'U'), ('క్తు', '|'), ('లన్', 'U'), ('వి', '|'), ('ని', '|'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('భూ', 'U'), ('మి', '|'), ('పు', '|'), ('త్రి', '|'), ('మ', '|'), ('ర', '|'), ('లన్', 'U'), ('వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఘ', '|'), ('న', '|'), ('వా', 'U'), ('లా', 'U'), ('గ్ని', '|'), ('శి', '|'), ('ఖా', 'U'), ('ళి', '|'), ('గా', 'U'), ('ల్చి', '|'), ('తి', '|'), ('ని', '|'), ('లం', 'U'), ('క', 'U'), ('న్సీ', 'U'), ('త', '|'), ('యే', 'U'), ('మ', 'U'), ('య్యె', '|'), ('నో', 'U'), ('య', '|'), ('ని', '|'), ('శం', 'U'), ('కిం', 'U'), ('చి', '|'), ('కృ', '|'), ('శా', 'U'), ('ను', '|'), ('చే', 'U'), ('గ', '|'), ('మ', '|'), ('ల', '|'), ('కా', 'U'), ('హా', 'U'), ('నే', 'U'), ('డు', '|'), ('వై', 'U'), ('దే', 'U'), ('హ', '|'), ('నం', 'U'), ('ది', '|'), ('ని', '|'), ('సే', 'U'), ('మం', 'U'), ('బు', '|'), ('న', '|'), ('ను', 'U'), ('న్న', '|'), ('దం', 'U'), ('చు', '|'), ('వి', '|'), ('ను', '|'), ('వీ', 'U'), ('థి', 'U'), ('న్మ్రో', 'U'), ('యు', '|'), ('దే', 'U'), ('వో', 'U'), ('క్తు', '|'), ('లన్', 'U'), ('వి', '|'), ('ని', '|'), ('మో', 'U'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('భూ', 'U'), ('మి', '|'), ('పు', '|'), ('త్రి', '|'), ('మ', '|'), ('ర', '|'), ('ల', 'U'), ('న్వీ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2624,7 +2624,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[('శ', '|'), ('ర', '|'), ('ధిం', 'U'), ('దా', 'U'), ('టి', '|'), ('ద', '|'), ('శా', 'U'), ('స్యు', '|'), ('ప్రో', 'U'), ('ల', '|'), ('మ', '|'), ('రు', '|'), ('లెం', 'U'), ('చం', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('స', 'U'), ('ర్వం', 'U'), ('స', '|'), ('హా', 'U'), ('వ', '|'), ('ర', '|'), ('జం', 'U'), ('గాం', 'U'), ('చి', '|'), ('య', '|'), ('శో', 'U'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('న', '|'), ('ము', '|'), ('వి', 'U'), ('ధ్వం', 'U'), ('సం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('కొం', 'U'), ('ద', '|'), ('ఱ', '|'), ('దై', 'U'), ('తే', 'U'), ('యు', '|'), ('ల', '|'), ('జం', 'U'), ('పి', '|'), ('వెం', 'U'), ('డి', '|'), ('జ', '|'), ('ల', '|'), ('ధిన్', 'U'), ('లం', 'U'), ('ఘిం', 'U'), ('చి', '|'), ('శీ', 'U'), ('ఘ్రం', 'U'), ('బె', '|'), ('యు', 'U'), ('త్త', '|'), ('ర', '|'), ('తీ', 'U'), ('ర', 'U'), ('స్థ', '|'), ('న', '|'), ('గం', 'U'), ('బు', '|'), ('జే', 'U'), ('రి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దే', 'U'), ('బ', 'U'), ('ల్వి', '|'), ('డిన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('శ', '|'), ('ర', '|'), ('ధిం', 'U'), ('దా', 'U'), ('టి', '|'), ('ద', '|'), ('శా', 'U'), ('స్యు', '|'), ('ప్రో', 'U'), ('ల', '|'), ('మ', '|'), ('రు', '|'), ('లెం', 'U'), ('చం', 'U'), ('జొ', 'U'), ('చ్చి', '|'), ('స', 'U'), ('ర్వం', 'U'), ('స', '|'), ('హా', 'U'), ('వ', '|'), ('ర', '|'), ('జం', 'U'), ('గాం', 'U'), ('చి', '|'), ('య', '|'), ('శో', 'U'), ('కా', 'U'), ('న', '|'), ('న', '|'), ('న', '|'), ('ము', '|'), ('వి', 'U'), ('ధ్వం', 'U'), ('సం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('చి', '|'), ('కొం', 'U'), ('ద', '|'), ('ఱ', '|'), ('దై', 'U'), ('తే', 'U'), ('యు', '|'), ('ల', '|'), ('జం', 'U'), ('పి', '|'), ('వెం', 'U'), ('డి', '|'), ('జ', '|'), ('ల', '|'), ('ధి', 'U'), ('న్లం', 'U'), ('ఘిం', 'U'), ('చి', '|'), ('శీ', 'U'), ('ఘ్రం', 'U'), ('బె', '|'), ('యు', 'U'), ('త్త', '|'), ('ర', '|'), ('తీ', 'U'), ('ర', 'U'), ('స్థ', '|'), ('న', '|'), ('గం', 'U'), ('బు', '|'), ('జే', 'U'), ('రి', '|'), ('తి', '|'), ('వి', '|'), ('గా', 'U'), ('దే', 'U'), ('బ', 'U'), ('ల్వి', '|'), ('డి', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('ను', '|'), ('గొం', 'U'), ('టిన్', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('ప', 'U'), ('త్ని', '|'), ('న', '|'), ('ల', '|'), ('లం', 'U'), ('కా', 'U'), ('ప', 'U'), ('ట్ట', '|'), ('ణా', 'U'), ('భ్యం', 'U'), ('త', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('నం', 'U'), ('చుం', 'U'), ('ద', '|'), ('గ', '|'), ('బో', 'U'), ('యి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', 'U'), ('న్స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('లున్', 'U'), ('వి', '|'), ('న', '|'), ('యం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('దె', 'U'), ('ల్పి', '|'), ('యం', 'U'), ('గ', '|'), ('దు', '|'), ('న', '|'), ('కున్', 'U'), ('నీ', 'U'), ('లా', 'U'), ('జ', '|'), ('పు', '|'), ('త్రా', 'U'), ('ది', '|'), ('కీ', 'U'), ('శ', '|'), ('ని', '|'), ('కా', 'U'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('క', 'U'), ('ట్లొ', '|'), ('సం', 'U'), ('గ', '|'), ('వె', '|'), ('మ', '|'), ('హా', 'U'), ('స', 'U'), ('మ్మో', 'U'), ('ద', '|'), ('మున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('క', '|'), ('ను', '|'), ('గొం', 'U'), ('టి', '|'), ('న్ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('ప', 'U'), ('త్ని', '|'), ('న', '|'), ('ల', '|'), ('లం', 'U'), ('కా', 'U'), ('ప', 'U'), ('ట్ట', '|'), ('ణా', 'U'), ('భ్యం', 'U'), ('త', '|'), ('రం', 'U'), ('బు', '|'), ('న', '|'), ('నం', 'U'), ('చుం', 'U'), ('ద', '|'), ('గ', '|'), ('బో', 'U'), ('యి', '|'), ('వ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వి', '|'), ('ధం', 'U'), ('బు', '|'), ('న', 'U'), ('న్స', 'U'), ('ర్వ', '|'), ('కా', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('లున్', 'U'), ('వి', '|'), ('న', '|'), ('యం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('దె', 'U'), ('ల్పి', '|'), ('యం', 'U'), ('గ', '|'), ('దు', '|'), ('న', '|'), ('కు', 'U'), ('న్నీ', 'U'), ('లా', 'U'), ('జ', '|'), ('పు', '|'), ('త్రా', 'U'), ('ది', '|'), ('కీ', 'U'), ('శ', '|'), ('ని', '|'), ('కా', 'U'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('క', 'U'), ('ట్లొ', '|'), ('సం', 'U'), ('గ', '|'), ('వె', '|'), ('మ', '|'), ('హా', 'U'), ('స', 'U'), ('మ్మో', 'U'), ('ద', '|'), ('ము', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[('చి', '|'), ('ర', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('నుం', 'U'), ('డి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('ధు', 'U'), ('స్ఫీ', 'U'), ('తో', 'U'), ('రు', '|'), ('కాం', 'U'), ('తా', 'U'), ('ర', '|'), ('ముం', 'U'), ('గ', '|'), ('ర', '|'), ('మ', 'U'), ('ర్థిన్', 'U'), ('వ', '|'), ('డి', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('వి', 'U'), ('చ్చ', '|'), ('ల', '|'), ('వి', '|'), ('డిన్', 'U'), ('సం', 'U'), ('తు', 'U'), ('ష్టి', '|'), ('యౌ', 'U'), ('న', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('దే', 'U'), ('నె', '|'), ('లు', '|'), ('ద్రా', 'U'), ('వ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('ఫ', '|'), ('ల', '|'), ('ముల్', 'U'), ('భ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('గా', 'U'), ('జే', 'U'), ('సి', '|'), ('వా', 'U'), ('న', '|'), ('రు', '|'), ('లం', 'U'), ('దృ', 'U'), ('ప్తు', '|'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('వే', 'U'), ('స', '|'), ('మ', '|'), ('ధి', '|'), ('కా', 'U'), ('నం', 'U'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('చి', '|'), ('ర', '|'), ('కా', 'U'), ('లం', 'U'), ('బు', '|'), ('నుం', 'U'), ('డి', '|'), ('పెం', 'U'), ('చి', '|'), ('న', '|'), ('మ', '|'), ('ధు', 'U'), ('స్ఫీ', 'U'), ('తో', 'U'), ('రు', '|'), ('కాం', 'U'), ('తా', 'U'), ('ర', '|'), ('ముం', 'U'), ('గ', '|'), ('ర', '|'), ('మ', 'U'), ('ర్థి', 'U'), ('న్వ', '|'), ('డి', '|'), ('జొ', 'U'), ('చ్చి', '|'), ('వి', 'U'), ('చ్చ', '|'), ('ల', '|'), ('వి', '|'), ('డి', 'U'), ('న్సం', 'U'), ('తు', 'U'), ('ష్టి', '|'), ('యౌ', 'U'), ('న', 'U'), ('ట్లు', '|'), ('గా', 'U'), ('వ', '|'), ('రు', '|'), ('స', 'U'), ('న్దే', 'U'), ('నె', '|'), ('లు', '|'), ('ద్రా', 'U'), ('వ', '|'), ('ని', 'U'), ('చ్చి', '|'), ('ఫ', '|'), ('ల', '|'), ('ము', 'U'), ('ల్భ', 'U'), ('క్షిం', 'U'), ('ప', '|'), ('గా', 'U'), ('జే', 'U'), ('సి', '|'), ('వా', 'U'), ('న', '|'), ('రు', '|'), ('లం', 'U'), ('దృ', 'U'), ('ప్తు', '|'), ('ల', '|'), ('జే', 'U'), ('య', '|'), ('వే', 'U'), ('స', '|'), ('మ', '|'), ('ధి', '|'), ('కా', 'U'), ('నం', 'U'), ('ద', '|'), ('ము', '|'), ('తో', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2715,7 +2715,7 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('రా', 'U'), ('మా', 'U'), ('ధి', '|'), ('పు', '|'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ము', '|'), ('ల', '|'), ('కు', 'U'), ('ద్య', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('మ్రొ', 'U'), ('క్కి', '|'), ('గ', 'U'), ('న్నా', 'U'), ('రన్', 'U'), ('జూ', 'U'), ('చి', '|'), ('తి', '|'), ('భూ', 'U'), ('మి', '|'), ('పు', '|'), ('త్రి', '|'), ('ని', '|'), ('ద', '|'), ('శా', 'U'), ('స్యా', 'U'), ('వా', 'U'), ('స', '|'), ('మౌ', 'U'), ('లం', 'U'), ('క', '|'), ('లో', 'U'), ('సా', 'U'), ('రో', 'U'), ('ద్యా', 'U'), ('న', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('దై', 'U'), ('త్య', '|'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('సం', 'U'), ('దో', 'U'), ('హ', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వీ', 'U'), ('ర', '|'), ('గ్రా', 'U'), ('మ', '|'), ('ణి', '|'), ('చి', 'U'), ('క్కి', '|'), ('యు', 'U'), ('న్న', '|'), ('ద', '|'), ('ని', '|'), ('త', 'U'), ('ద్వృ', 'U'), ('త్తాం', 'U'), ('త', '|'), ('మా', 'U'), ('ద్యం', 'U'), ('త', '|'), ('మిం', 'U'), ('పా', 'U'), ('రం', 'U'), ('దె', 'U'), ('ల్పి', '|'), ('ము', '|'), ('ద', 'U'), ('బ్ధి', '|'), ('దే', 'U'), ('ల్ప', '|'), ('వె', '|'), ('నృ', '|'), ('పా', 'U'), ('లా', 'U'), ('గ్రే', 'U'), ('స', '|'), ('రున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఆ', 'U'), ('రా', 'U'), ('మా', 'U'), ('ధి', '|'), ('పు', '|'), ('పా', 'U'), ('ద', '|'), ('ప', 'U'), ('ద్మ', '|'), ('ము', '|'), ('ల', '|'), ('కు', 'U'), ('ద్య', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('తో', 'U'), ('మ్రొ', 'U'), ('క్కి', '|'), ('గ', 'U'), ('న్నా', 'U'), ('ర', 'U'), ('న్జూ', 'U'), ('చి', '|'), ('తి', '|'), ('భూ', 'U'), ('మి', '|'), ('పు', '|'), ('త్రి', '|'), ('ని', '|'), ('ద', '|'), ('శా', 'U'), ('స్యా', 'U'), ('వా', 'U'), ('స', '|'), ('మౌ', 'U'), ('లం', 'U'), ('క', '|'), ('లో', 'U'), ('సా', 'U'), ('రో', 'U'), ('ద్యా', 'U'), ('న', '|'), ('ము', '|'), ('నం', 'U'), ('దు', '|'), ('దై', 'U'), ('త్య', '|'), ('యు', '|'), ('వ', '|'), ('తీ', 'U'), ('సం', 'U'), ('దో', 'U'), ('హ', '|'), ('మ', 'U'), ('ధ్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వీ', 'U'), ('ర', '|'), ('గ్రా', 'U'), ('మ', '|'), ('ణి', '|'), ('చి', 'U'), ('క్కి', '|'), ('యు', 'U'), ('న్న', '|'), ('ద', '|'), ('ని', '|'), ('త', 'U'), ('ద్వృ', 'U'), ('త్తాం', 'U'), ('త', '|'), ('మా', 'U'), ('ద్యం', 'U'), ('త', '|'), ('మిం', 'U'), ('పా', 'U'), ('రం', 'U'), ('దె', 'U'), ('ల్పి', '|'), ('ము', '|'), ('ద', 'U'), ('బ్ధి', '|'), ('దే', 'U'), ('ల్ప', '|'), ('వె', '|'), ('నృ', '|'), ('పా', 'U'), ('లా', 'U'), ('గ్రే', 'U'), ('స', '|'), ('రు', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('హి', '|'), ('పు', '|'), ('త్రీ', 'U'), ('కు', '|'), ('శ', '|'), ('లం', 'U'), ('బు', '|'), ('దె', 'U'), ('ల్పి', '|'), ('మ', '|'), ('ము', '|'), ('స', 'U'), ('మ్య', 'U'), ('గ్ప్రీ', 'U'), ('తి', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('వా', 'U'), ('ర్ల', '|'), ('హ', '|'), ('రిన్', 'U'), ('దే', 'U'), ('ల్చి', '|'), ('తి', '|'), ('విం', 'U'), ('క', '|'), ('నే', 'U'), ('ను', '|'), ('ప్ర', '|'), ('తి', '|'), ('కా', 'U'), ('రం', 'U'), ('బే', 'U'), ('మి', '|'), ('గా', 'U'), ('విం', 'U'), ('తు', '|'), ('మ', 'U'), ('త్స', '|'), ('హ', '|'), ('నో', 'U'), ('ద', '|'), ('గ్ర', '|'), ('భు', '|'), ('జా', 'U'), ('యు', '|'), ('గాం', 'U'), ('చి', '|'), ('త', '|'), ('ప', '|'), ('రి', 'U'), ('ష్వం', 'U'), ('గం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కి', 'U'), ('చ్చె', '|'), ('దన్', 'U'), ('ర', '|'), ('హి', '|'), ('మీ', 'U'), ('ఱ', 'U'), ('న్గొ', '|'), ('ను', '|'), ('మం', 'U'), ('చొ', '|'), ('సం', 'U'), ('గ', '|'), ('డె', '|'), ('కృ', '|'), ('పన్', 'U'), ('రా', 'U'), ('జేం', 'U'), ('ద్రు', '|'), ('డున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('మ', '|'), ('హి', '|'), ('పు', '|'), ('త్రీ', 'U'), ('కు', '|'), ('శ', '|'), ('లం', 'U'), ('బు', '|'), ('దె', 'U'), ('ల్పి', '|'), ('మ', '|'), ('ము', '|'), ('స', 'U'), ('మ్య', 'U'), ('గ్ప్రీ', 'U'), ('తి', '|'), ('పా', 'U'), ('థో', 'U'), ('ధి', '|'), ('వా', 'U'), ('ర్ల', '|'), ('హ', '|'), ('రి', 'U'), ('న్దే', 'U'), ('ల్చి', '|'), ('తి', '|'), ('విం', 'U'), ('క', '|'), ('నే', 'U'), ('ను', '|'), ('ప్ర', '|'), ('తి', '|'), ('కా', 'U'), ('రం', 'U'), ('బే', 'U'), ('మి', '|'), ('గా', 'U'), ('విం', 'U'), ('తు', '|'), ('మ', 'U'), ('త్స', '|'), ('హ', '|'), ('నో', 'U'), ('ద', '|'), ('గ్ర', '|'), ('భు', '|'), ('జా', 'U'), ('యు', '|'), ('గాం', 'U'), ('చి', '|'), ('త', '|'), ('ప', '|'), ('రి', 'U'), ('ష్వం', 'U'), ('గం', 'U'), ('బు', '|'), ('నీ', 'U'), ('కి', 'U'), ('చ్చె', '|'), ('దన్', 'U'), ('ర', '|'), ('హి', '|'), ('మీ', 'U'), ('ఱ', 'U'), ('న్గొ', '|'), ('ను', '|'), ('మం', 'U'), ('చొ', '|'), ('సం', 'U'), ('గ', '|'), ('డె', '|'), ('కృ', '|'), ('ప', '|'), ('న్రా', 'U'), ('జేం', 'U'), ('ద్రు', '|'), ('డు', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రి', '|'), ('గు', 'U'), ('ప్తి', '|'), ('క', 'U'), ('ర్మ', '|'), ('ము', '|'), ('ని', '|'), ('శా', 'U'), ('టా', 'U'), ('ళి', '|'), ('ప్ర', '|'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('లున్', 'U'), ('వా', 'U'), ('లా', 'U'), ('యం', 'U'), ('బు', '|'), ('ద', '|'), ('శా', 'U'), ('స్యు', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('ను', '|'), ('స', 'U'), ('ర్వం', 'U'), ('బున్', 'U'), ('ని', '|'), ('వే', 'U'), ('దిం', 'U'), ('చి', '|'), ('కీ', 'U'), ('శా', 'U'), ('ళిం', 'U'), ('దో', 'U'), ('డ్కొ', '|'), ('ని', '|'), ('ఘో', 'U'), ('ర', '|'), ('జ', 'U'), ('న్య', '|'), ('ము', '|'), ('న', '|'), ('కున్', 'U'), ('యా', 'U'), ('నం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('పు', '|'), ('మిం', 'U'), ('కా', 'U'), ('ల', 'U'), ('స్యం', 'U'), ('బ', '|'), ('ది', '|'), ('యే', 'U'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('వి', '|'), ('భు', '|'), ('నిం', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఆ', 'U'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రి', '|'), ('గు', 'U'), ('ప్తి', '|'), ('క', 'U'), ('ర్మ', '|'), ('ము', '|'), ('ని', '|'), ('శా', 'U'), ('టా', 'U'), ('ళి', '|'), ('ప్ర', '|'), ('లా', 'U'), ('పం', 'U'), ('బు', '|'), ('లున్', 'U'), ('వా', 'U'), ('లా', 'U'), ('యం', 'U'), ('బు', '|'), ('ద', '|'), ('శా', 'U'), ('స్యు', '|'), ('గ', 'U'), ('ర్వ', '|'), ('ము', '|'), ('ను', '|'), ('స', 'U'), ('ర్వం', 'U'), ('బు', 'U'), ('న్ని', '|'), ('వే', 'U'), ('దిం', 'U'), ('చి', '|'), ('కీ', 'U'), ('శా', 'U'), ('ళిం', 'U'), ('దో', 'U'), ('డ్కొ', '|'), ('ని', '|'), ('ఘో', 'U'), ('ర', '|'), ('జ', 'U'), ('న్య', '|'), ('ము', '|'), ('న', '|'), ('కు', 'U'), ('న్యా', 'U'), ('నం', 'U'), ('బు', '|'), ('గా', 'U'), ('విం', 'U'), ('పు', '|'), ('మిం', 'U'), ('కా', 'U'), ('ల', 'U'), ('స్యం', 'U'), ('బ', '|'), ('ది', '|'), ('యే', 'U'), ('ల', '|'), ('టం', 'U'), ('చు', '|'), ('వి', '|'), ('భు', '|'), ('నిం', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2805,7 +2805,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[('మ', '|'), ('తి', '|'), ('మం', 'U'), ('తుం', 'U'), ('డు', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణుం', 'U'), ('డు', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మా', 'U'), ('న', 'U'), ('న్ను', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మం', 'U'), ('చ', '|'), ('తి', '|'), ('దై', 'U'), ('న్యం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('గు', '|'), ('దెం', 'U'), ('చి', '|'), ('న', '|'), ('ద', '|'), ('దీ', 'U'), ('యా', 'U'), ('కా', 'U'), ('ర', '|'), ('వా', 'U'), ('గిం', 'U'), ('గి', '|'), ('తా', 'U'), ('త', '|'), ('త', '|'), ('శీ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('వా', 'U'), ('ని', '|'), ('ప', '|'), ('రి', '|'), ('శు', 'U'), ('ద్ధ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('బో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('ని', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('వె', '|'), ('వా', 'U'), ('ని', '|'), ('క', 'U'), ('ట్ల', '|'), ('భ', '|'), ('య', '|'), ('మున్', 'U'), ('క్ష్మా', 'U'), ('నా', 'U'), ('థు', '|'), ('చే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('మ', '|'), ('తి', '|'), ('మం', 'U'), ('తుం', 'U'), ('డు', '|'), ('వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణుం', 'U'), ('డు', '|'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మా', 'U'), ('న', 'U'), ('న్ను', '|'), ('ర', 'U'), ('క్షిం', 'U'), ('పు', '|'), ('మం', 'U'), ('చ', '|'), ('తి', '|'), ('దై', 'U'), ('న్యం', 'U'), ('బు', '|'), ('న', '|'), ('నే', 'U'), ('గు', '|'), ('దెం', 'U'), ('చి', '|'), ('న', '|'), ('ద', '|'), ('దీ', 'U'), ('యా', 'U'), ('కా', 'U'), ('ర', '|'), ('వా', 'U'), ('గిం', 'U'), ('గి', '|'), ('తా', 'U'), ('త', '|'), ('త', '|'), ('శీ', 'U'), ('లం', 'U'), ('బు', '|'), ('ల', '|'), ('చే', 'U'), ('త', '|'), ('వా', 'U'), ('ని', '|'), ('ప', '|'), ('రి', '|'), ('శు', 'U'), ('ద్ధ', 'U'), ('త్వం', 'U'), ('బు', '|'), ('బో', 'U'), ('ధిం', 'U'), ('చి', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('ని', 'U'), ('ప్పిం', 'U'), ('ప', '|'), ('వె', '|'), ('వా', 'U'), ('ని', '|'), ('క', 'U'), ('ట్ల', '|'), ('భ', '|'), ('య', '|'), ('ము', 'U'), ('న్క్ష్మా', 'U'), ('నా', 'U'), ('థు', '|'), ('చే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2835,7 +2835,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[('న', '|'), ('లు', '|'), ('డా', 'U'), ('సే', 'U'), ('తు', '|'), ('వు', '|'), ('గ', 'U'), ('ట్టు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('క', '|'), ('పుల్', 'U'), ('నా', 'U'), ('నా', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('శి', '|'), ('ల', '|'), ('లం', 'U'), ('జె', 'U'), ('ట్టు', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చి', '|'), ('వై', 'U'), ('చు', '|'), ('నె', '|'), ('డ', '|'), ('ని', 'U'), ('స్సీ', 'U'), ('మ', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జ', '|'), ('ల', '|'), ('మా', 'U'), ('రం', 'U'), ('ద', '|'), ('గ', '|'), ('నీ', 'U'), ('వు', '|'), ('రా', 'U'), ('ఘ', '|'), ('వు', '|'), ('డు', '|'), ('మె', 'U'), ('చ్చం', 'U'), ('గొ', 'U'), ('ప్ప', '|'), ('శై', 'U'), ('లం', 'U'), ('బు', '|'), ('లన్', 'U'), ('బ', '|'), ('లు', '|'), ('వొ', 'U'), ('ప్పం', 'U'), ('గొ', '|'), ('ని', '|'), ('తె', 'U'), ('చ్చి', '|'), ('వై', 'U'), ('చి', '|'), ('జ', '|'), ('ల', '|'), ('ధిం', 'U'), ('బం', 'U'), ('ధిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('న', '|'), ('లు', '|'), ('డా', 'U'), ('సే', 'U'), ('తు', '|'), ('వు', '|'), ('గ', 'U'), ('ట్టు', '|'), ('న', 'U'), ('ప్పు', '|'), ('డు', '|'), ('క', '|'), ('పు', 'U'), ('ల్నా', 'U'), ('నా', 'U'), ('ప్ర', '|'), ('కా', 'U'), ('రం', 'U'), ('బు', '|'), ('లన్', 'U'), ('శి', '|'), ('ల', '|'), ('లం', 'U'), ('జె', 'U'), ('ట్టు', '|'), ('లు', '|'), ('దె', 'U'), ('చ్చి', '|'), ('వై', 'U'), ('చు', '|'), ('నె', '|'), ('డ', '|'), ('ని', 'U'), ('స్సీ', 'U'), ('మ', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('జ', '|'), ('ల', '|'), ('మా', 'U'), ('రం', 'U'), ('ద', '|'), ('గ', '|'), ('నీ', 'U'), ('వు', '|'), ('రా', 'U'), ('ఘ', '|'), ('వు', '|'), ('డు', '|'), ('మె', 'U'), ('చ్చం', 'U'), ('గొ', 'U'), ('ప్ప', '|'), ('శై', 'U'), ('లం', 'U'), ('బు', '|'), ('లన్', 'U'), ('బ', '|'), ('లు', '|'), ('వొ', 'U'), ('ప్పం', 'U'), ('గొ', '|'), ('ని', '|'), ('తె', 'U'), ('చ్చి', '|'), ('వై', 'U'), ('చి', '|'), ('జ', '|'), ('ల', '|'), ('ధిం', 'U'), ('బం', 'U'), ('ధిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[('క', '|'), ('న', '|'), ('కో', 'U'), ('ర్వీ', 'U'), ('ధ', '|'), ('ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', 'U'), ('ద్భు', '|'), ('త', '|'), ('గ', '|'), ('తిం', 'U'), ('గా', 'U'), ('లా', 'U'), ('భ్ర', '|'), ('ముం', 'U'), ('దా', 'U'), ('ల్చి', '|'), ('న', 'U'), ('ట్ల', '|'), ('ను', '|'), ('మా', 'U'), ('నిం', 'U'), ('ప', '|'), ('గ', '|'), ('నీ', 'U'), ('వు', '|'), ('భూ', 'U'), ('రి', '|'), ('వి', '|'), ('పు', '|'), ('లో', 'U'), ('ద్య', 'U'), ('త్పృ', 'U'), ('ష్ఠ', '|'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ది', '|'), ('న', '|'), ('నా', 'U'), ('థా', 'U'), ('న్వ', '|'), ('య', '|'), ('సో', 'U'), ('ము', '|'), ('రా', 'U'), ('ము', '|'), ('న', '|'), ('మి', '|'), ('త', 'U'), ('స్థే', 'U'), ('మున్', 'U'), ('ర', '|'), ('హిం', 'U'), ('దా', 'U'), ('ల్చి', '|'), ('గ్ర', 'U'), ('న్న', '|'), ('న', '|'), ('ద', 'U'), ('త్సే', 'U'), ('తు', '|'), ('ప', '|'), ('థం', 'U'), ('బు', '|'), ('నం', 'U'), ('జ', '|'), ('ల', '|'), ('ని', '|'), ('ధిం', 'U'), ('దా', 'U'), ('టిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('క', '|'), ('న', '|'), ('కో', 'U'), ('ర్వీ', 'U'), ('ధ', '|'), ('ర', '|'), ('రా', 'U'), ('జ', '|'), ('మ', 'U'), ('ద్భు', '|'), ('త', '|'), ('గ', '|'), ('తిం', 'U'), ('గా', 'U'), ('లా', 'U'), ('భ్ర', '|'), ('ముం', 'U'), ('దా', 'U'), ('ల్చి', '|'), ('న', 'U'), ('ట్ల', '|'), ('ను', '|'), ('మా', 'U'), ('నిం', 'U'), ('ప', '|'), ('గ', '|'), ('నీ', 'U'), ('వు', '|'), ('భూ', 'U'), ('రి', '|'), ('వి', '|'), ('పు', '|'), ('లో', 'U'), ('ద్య', 'U'), ('త్పృ', 'U'), ('ష్ఠ', '|'), ('భా', 'U'), ('గం', 'U'), ('బు', '|'), ('నన్', 'U'), ('ది', '|'), ('న', '|'), ('నా', 'U'), ('థా', 'U'), ('న్వ', '|'), ('య', '|'), ('సో', 'U'), ('ము', '|'), ('రా', 'U'), ('ము', '|'), ('న', '|'), ('మి', '|'), ('త', 'U'), ('స్థే', 'U'), ('ము', '|'), ('న్ర', '|'), ('హిం', 'U'), ('దా', 'U'), ('ల్చి', '|'), ('గ్ర', 'U'), ('న్న', '|'), ('న', '|'), ('ద', 'U'), ('త్సే', 'U'), ('తు', '|'), ('ప', '|'), ('థం', 'U'), ('బు', '|'), ('నం', 'U'), ('జ', '|'), ('ల', '|'), ('ని', '|'), ('ధిం', 'U'), ('దా', 'U'), ('టిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2895,7 +2895,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[('సు', '|'), ('ర', '|'), ('నా', 'U'), ('థుం', 'U'), ('డు', '|'), ('శ', '|'), ('తా', 'U'), ('ర', '|'), ('ధా', 'U'), ('ర', '|'), ('న', '|'), ('లు', '|'), ('కన్', 'U'), ('క్షో', 'U'), ('ణీ', 'U'), ('ధ్ర', '|'), ('ముం', 'U'), ('బో', 'U'), ('లె', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('భూ', 'U'), ('మీ', 'U'), ('స్థ', '|'), ('లి', '|'), ('ధూ', 'U'), ('మ్ర', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('క్ర', 'U'), ('వ్యా', 'U'), ('దు', '|'), ('నిం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('శై', 'U'), ('ల', '|'), ('ప్ర', '|'), ('హ', '|'), ('తిన్', 'U'), ('వి', '|'), ('భి', 'U'), ('న్న', '|'), ('పృ', '|'), ('థు', '|'), ('శీ', 'U'), ('ర్షుం', 'U'), ('జే', 'U'), ('సి', '|'), ('దు', 'U'), ('ర్దాం', 'U'), ('త', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('భం', 'U'), ('గిన్', 'U'), ('బ', '|'), ('డ', '|'), ('గూ', 'U'), ('ల్ప', '|'), ('వే', 'U'), ('నృ', '|'), ('ప', '|'), ('తి', '|'), ('వే', 'U'), ('డ్కం', 'U'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('సు', '|'), ('ర', '|'), ('నా', 'U'), ('థుం', 'U'), ('డు', '|'), ('శ', '|'), ('తా', 'U'), ('ర', '|'), ('ధా', 'U'), ('ర', '|'), ('న', '|'), ('లు', '|'), ('క', 'U'), ('న్క్షో', 'U'), ('ణీ', 'U'), ('ధ్ర', '|'), ('ముం', 'U'), ('బో', 'U'), ('లె', '|'), ('సం', 'U'), ('గ', '|'), ('ర', '|'), ('భూ', 'U'), ('మీ', 'U'), ('స్థ', '|'), ('లి', '|'), ('ధూ', 'U'), ('మ్ర', '|'), ('లో', 'U'), ('చ', '|'), ('న', '|'), ('మ', '|'), ('హా', 'U'), ('క్ర', 'U'), ('వ్యా', 'U'), ('దు', '|'), ('నిం', 'U'), ('బ', 'U'), ('ట్టి', '|'), ('ని', 'U'), ('ష్ఠు', '|'), ('ర', '|'), ('శై', 'U'), ('ల', '|'), ('ప్ర', '|'), ('హ', '|'), ('తి', 'U'), ('న్వి', '|'), ('భి', 'U'), ('న్న', '|'), ('పృ', '|'), ('థు', '|'), ('శీ', 'U'), ('ర్షుం', 'U'), ('జే', 'U'), ('సి', '|'), ('దు', 'U'), ('ర్దాం', 'U'), ('త', '|'), ('భీ', 'U'), ('క', '|'), ('ర', '|'), ('భం', 'U'), ('గి', 'U'), ('న్బ', '|'), ('డ', '|'), ('గూ', 'U'), ('ల్ప', '|'), ('వే', 'U'), ('నృ', '|'), ('ప', '|'), ('తి', '|'), ('వే', 'U'), ('డ్కం', 'U'), ('జూ', 'U'), ('డ', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[('ఘ', '|'), ('న', '|'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('లు', '|'), ('డ', 'U'), ('య్య', '|'), ('కం', 'U'), ('ప', '|'), ('ను', '|'), ('డు', '|'), ('దై', 'U'), ('త్యా', 'U'), ('నీ', 'U'), ('క', '|'), ('సం', 'U'), ('యు', 'U'), ('క్తు', '|'), ('డై', 'U'), ('య', '|'), ('ని', '|'), ('కిం', 'U'), ('డా', 'U'), ('సి', '|'), ('న', '|'), ('భూ', 'U'), ('రి', '|'), ('రౌ', 'U'), ('ద్ర', '|'), ('ర', '|'), ('స', '|'), ('దీ', 'U'), ('ప్తా', 'U'), ('స్యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('ఘో', 'U'), ('ర', '|'), ('వృ', 'U'), ('క్ష', '|'), ('ని', '|'), ('పా', 'U'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('పె', 'U'), ('న్ను', '|'), ('ర', '|'), ('ము', '|'), ('వ్ర', 'U'), ('క్కల్', 'U'), ('చే', 'U'), ('సి', '|'), ('వా', 'U'), ('తూ', 'U'), ('ల', '|'), ('మొ', 'U'), ('య్య', '|'), ('న', '|'), ('వృ', 'U'), ('క్షం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('లె', '|'), ('గూ', 'U'), ('ల్ప', '|'), ('వె', '|'), ('సు', '|'), ('రల్', 'U'), ('హ', 'U'), ('ర్షిం', 'U'), ('ప', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఘ', '|'), ('న', '|'), ('బా', 'U'), ('హా', 'U'), ('బ', '|'), ('లు', '|'), ('డ', 'U'), ('య్య', '|'), ('కం', 'U'), ('ప', '|'), ('ను', '|'), ('డు', '|'), ('దై', 'U'), ('త్యా', 'U'), ('నీ', 'U'), ('క', '|'), ('సం', 'U'), ('యు', 'U'), ('క్తు', '|'), ('డై', 'U'), ('య', '|'), ('ని', '|'), ('కిం', 'U'), ('డా', 'U'), ('సి', '|'), ('న', '|'), ('భూ', 'U'), ('రి', '|'), ('రౌ', 'U'), ('ద్ర', '|'), ('ర', '|'), ('స', '|'), ('దీ', 'U'), ('ప్తా', 'U'), ('స్యుం', 'U'), ('డ', '|'), ('వై', 'U'), ('ఘో', 'U'), ('ర', '|'), ('వృ', 'U'), ('క్ష', '|'), ('ని', '|'), ('పా', 'U'), ('తం', 'U'), ('బు', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('పె', 'U'), ('న్ను', '|'), ('ర', '|'), ('ము', '|'), ('వ్ర', 'U'), ('క్క', 'U'), ('ల్చే', 'U'), ('సి', '|'), ('వా', 'U'), ('తూ', 'U'), ('ల', '|'), ('మొ', 'U'), ('య్య', '|'), ('న', '|'), ('వృ', 'U'), ('క్షం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('లె', '|'), ('గూ', 'U'), ('ల్ప', '|'), ('వె', '|'), ('సు', '|'), ('ర', 'U'), ('ల్హ', 'U'), ('ర్షిం', 'U'), ('ప', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2956,7 +2956,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[('వ', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('బ్ర', '|'), ('ళ', '|'), ('యా', 'U'), ('ర్క', '|'), ('బిం', 'U'), ('బ', '|'), ('ము', '|'), ('క్రి', '|'), ('యన్', 'U'), ('భా', 'U'), ('సి', 'U'), ('ల్ల', '|'), ('లాం', 'U'), ('గూ', 'U'), ('ల', '|'), ('మా', 'U'), ('త్రి', '|'), ('ద', '|'), ('శేం', 'U'), ('ద్రా', 'U'), ('యు', '|'), ('ధ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రిన్', 'U'), ('మి', '|'), ('గు', '|'), ('ల', '|'), ('ను', 'U'), ('ద్దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('బం', 'U'), ('చా', 'U'), ('న', '|'), ('నో', 'U'), ('ద్య', '|'), ('ద', '|'), ('హీం', 'U'), ('ద్రం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('ని', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణ', '|'), ('క', '|'), ('రం', 'U'), ('బా', 'U'), ('స', 'U'), ('క్తి', '|'), ('తో', 'U'), ('నె', 'U'), ('త్తి', '|'), ('వా', 'U'), ('రి', '|'), ('ద', '|'), ('నా', 'U'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('ధా', 'U'), ('త్రి', '|'), ('గ్ర', 'U'), ('క్క', '|'), ('ద', '|'), ('ల', '|'), ('బే', 'U'), ('రెం', 'U'), ('బె', 'U'), ('త్తు', '|'), ('చున్', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('త', 'U'), ('ద్ద', '|'), ('ద', '|'), ('శా', 'U'), ('స్యుం', 'U'), ('డు', '|'), ('స', '|'), ('గం', 'U'), ('బు', '|'), ('జా', 'U'), ('వ', '|'), ('న', '|'), ('ఱ', '|'), ('చే', 'U'), ('తన్', 'U'), ('వ్రే', 'U'), ('య', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('వ', '|'), ('ద', '|'), ('నం', 'U'), ('బు', '|'), ('బ్ర', '|'), ('ళ', '|'), ('యా', 'U'), ('ర్క', '|'), ('బిం', 'U'), ('బ', '|'), ('ము', '|'), ('క్రి', '|'), ('య', 'U'), ('న్భా', 'U'), ('సి', 'U'), ('ల్ల', '|'), ('లాం', 'U'), ('గూ', 'U'), ('ల', '|'), ('మా', 'U'), ('త్రి', '|'), ('ద', '|'), ('శేం', 'U'), ('ద్రా', 'U'), ('యు', '|'), ('ధ', '|'), ('వై', 'U'), ('ఖ', '|'), ('రి', 'U'), ('న్మి', '|'), ('గు', '|'), ('ల', '|'), ('ను', 'U'), ('ద్దీ', 'U'), ('పిం', 'U'), ('ప', '|'), ('బం', 'U'), ('చా', 'U'), ('న', '|'), ('నో', 'U'), ('ద్య', '|'), ('ద', '|'), ('హీం', 'U'), ('ద్రం', 'U'), ('బు', '|'), ('ను', '|'), ('బో', 'U'), ('ని', '|'), ('ద', 'U'), ('క్షి', '|'), ('ణ', '|'), ('క', '|'), ('రం', 'U'), ('బా', 'U'), ('స', 'U'), ('క్తి', '|'), ('తో', 'U'), ('నె', 'U'), ('త్తి', '|'), ('వా', 'U'), ('రి', '|'), ('ద', '|'), ('నా', 'U'), ('దం', 'U'), ('బు', '|'), ('న', '|'), ('ధా', 'U'), ('త్రి', '|'), ('గ్ర', 'U'), ('క్క', '|'), ('ద', '|'), ('ల', '|'), ('బే', 'U'), ('రెం', 'U'), ('బె', 'U'), ('త్తు', '|'), ('చు', 'U'), ('న్వ', 'U'), ('చ్చి', '|'), ('త', 'U'), ('ద్ద', '|'), ('ద', '|'), ('శా', 'U'), ('స్యుం', 'U'), ('డు', '|'), ('స', '|'), ('గం', 'U'), ('బు', '|'), ('జా', 'U'), ('వ', '|'), ('న', '|'), ('ఱ', '|'), ('చే', 'U'), ('త', 'U'), ('న్వ్రే', 'U'), ('య', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[('ర', '|'), ('ణ', '|'), ('రం', 'U'), ('గ', 'U'), ('మ్ము', '|'), ('న', '|'), ('మూ', 'U'), ('ర్ఛ', '|'), ('నొం', 'U'), ('ది', '|'), ('న', '|'), ('సు', '|'), ('మి', '|'), ('త్రా', 'U'), ('పు', '|'), ('త్రు', '|'), ('నుం', 'U'), ('ధీ', 'U'), ('రు', '|'), ('నిన్', 'U'), ('ఫ', '|'), ('ణి', '|'), ('నా', 'U'), ('ధాం', 'U'), ('శ', '|'), ('జు', '|'), ('లం', 'U'), ('క', '|'), ('క', 'U'), ('ట్లు', '|'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('వం', 'U'), ('జూ', 'U'), ('చు', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('రా', 'U'), ('వ', '|'), ('ణు', '|'), ('నిం', 'U'), ('వ', '|'), ('జ్ర', '|'), ('ని', '|'), ('కా', 'U'), ('శ', '|'), ('ము', 'U'), ('ష్టి', '|'), ('హ', '|'), ('తి', '|'), ('నొ', 'U'), ('వ్వం', 'U'), ('జే', 'U'), ('సి', '|'), ('తూ', 'U'), ('లిం', 'U'), ('చి', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('నిం', 'U'), ('దే', 'U'), ('ర్చి', '|'), ('యొ', '|'), ('సం', 'U'), ('గ', '|'), ('వే', 'U'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కున్', 'U'), ('సం', 'U'), ('తో', 'U'), ('షి', '|'), ('వై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ర', '|'), ('ణ', '|'), ('రం', 'U'), ('గ', 'U'), ('మ్ము', '|'), ('న', '|'), ('మూ', 'U'), ('ర్ఛ', '|'), ('నొం', 'U'), ('ది', '|'), ('న', '|'), ('సు', '|'), ('మి', '|'), ('త్రా', 'U'), ('పు', '|'), ('త్రు', '|'), ('నుం', 'U'), ('ధీ', 'U'), ('రు', '|'), ('నిన్', 'U'), ('ఫ', '|'), ('ణి', '|'), ('నా', 'U'), ('ధాం', 'U'), ('శ', '|'), ('జు', '|'), ('లం', 'U'), ('క', '|'), ('క', 'U'), ('ట్లు', '|'), ('గొ', '|'), ('ని', '|'), ('పో', 'U'), ('వం', 'U'), ('జూ', 'U'), ('చు', '|'), ('దు', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('రా', 'U'), ('వ', '|'), ('ణు', '|'), ('నిం', 'U'), ('వ', '|'), ('జ్ర', '|'), ('ని', '|'), ('కా', 'U'), ('శ', '|'), ('ము', 'U'), ('ష్టి', '|'), ('హ', '|'), ('తి', '|'), ('నొ', 'U'), ('వ్వం', 'U'), ('జే', 'U'), ('సి', '|'), ('తూ', 'U'), ('లిం', 'U'), ('చి', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('నిం', 'U'), ('దే', 'U'), ('ర్చి', '|'), ('యొ', '|'), ('సం', 'U'), ('గ', '|'), ('వే', 'U'), ('వి', '|'), ('భు', '|'), ('న', '|'), ('కు', 'U'), ('న్సం', 'U'), ('తో', 'U'), ('షి', '|'), ('వై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[('హ', '|'), ('రి', '|'), ('జి', 'U'), ('చ్చా', 'U'), ('ప', '|'), ('వి', '|'), ('ము', 'U'), ('క్త', '|'), ('ఘో', 'U'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('స్త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వ', '|'), ('రు', '|'), ('సన్', 'U'), ('మూ', 'U'), ('ర్ఛి', '|'), ('లి', '|'), ('చా', 'U'), ('ప', '|'), ('క', 'U'), ('ట్టు', '|'), ('గ', '|'), ('ర', '|'), ('హిన్', 'U'), ('సం', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('రం', 'U'), ('గ', 'U'), ('మ్ము', '|'), ('నం', 'U'), ('ద', '|'), ('రు', '|'), ('దా', 'U'), ('రం', 'U'), ('బ', '|'), ('డి', '|'), ('యు', 'U'), ('న్న', '|'), ('వా', 'U'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('ను', 'U'), ('ద్య', 'U'), ('చ్ఛ', 'U'), ('క్తి', '|'), ('సం', 'U'), ('జీ', 'U'), ('వి', '|'), ('చే', 'U'), ('క', '|'), ('ర', '|'), ('మ', 'U'), ('ర్థిం', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కిం', 'U'), ('చి', '|'), ('మె', 'U'), ('ప్పు', '|'), ('గొ', '|'), ('న', '|'), ('వే', 'U'), ('కా', 'U'), ('కు', 'U'), ('త్స్థు', '|'), ('చే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('హ', '|'), ('రి', '|'), ('జి', 'U'), ('చ్చా', 'U'), ('ప', '|'), ('వి', '|'), ('ము', 'U'), ('క్త', '|'), ('ఘో', 'U'), ('ర', '|'), ('త', '|'), ('ర', '|'), ('బ్ర', 'U'), ('హ్మా', 'U'), ('స్త్ర', '|'), ('ప్ర', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వ', '|'), ('రు', '|'), ('స', 'U'), ('న్మూ', 'U'), ('ర్ఛి', '|'), ('లి', '|'), ('చా', 'U'), ('ప', '|'), ('క', 'U'), ('ట్టు', '|'), ('గ', '|'), ('ర', '|'), ('హి', 'U'), ('న్సం', 'U'), ('గ్రా', 'U'), ('మ', '|'), ('రం', 'U'), ('గ', 'U'), ('మ్ము', '|'), ('నం', 'U'), ('ద', '|'), ('రు', '|'), ('దా', 'U'), ('రం', 'U'), ('బ', '|'), ('డి', '|'), ('యు', 'U'), ('న్న', '|'), ('వా', 'U'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('ను', 'U'), ('ద్య', 'U'), ('చ్ఛ', 'U'), ('క్తి', '|'), ('సం', 'U'), ('జీ', 'U'), ('వి', '|'), ('చే', 'U'), ('క', '|'), ('ర', '|'), ('మ', 'U'), ('ర్థిం', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కిం', 'U'), ('చి', '|'), ('మె', 'U'), ('ప్పు', '|'), ('గొ', '|'), ('న', '|'), ('వే', 'U'), ('కా', 'U'), ('కు', 'U'), ('త్స్థు', '|'), ('చే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3046,7 +3046,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[('దై', 'U'), ('త్యా', 'U'), ('నీ', 'U'), ('క', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('న', '|'), ('మం', 'U'), ('దా', 'U'), ('నా', 'U'), ('ద్రి', '|'), ('భం', 'U'), ('గి', '|'), ('ర', '|'), ('యౌ', 'U'), ('ద్ధ', 'U'), ('త్యం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('సం', 'U'), ('చ', '|'), ('రిం', 'U'), ('పు', '|'), ('చు', '|'), ('బ', '|'), ('లౌ', 'U'), ('దా', 'U'), ('ర్యం', 'U'), ('బె', '|'), ('ల', 'U'), ('ర్పన్', 'U'), ('బృ', '|'), ('హ', 'U'), ('ద్వా', 'U'), ('త్యా', 'U'), ('చ', '|'), ('క్ర', '|'), ('ము', '|'), ('శు', 'U'), ('ష్క', '|'), ('ప', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ల', '|'), ('చం', 'U'), ('దా', 'U'), ('నన్', 'U'), ('వ', '|'), ('డిం', 'U'), ('ద్రి', 'U'), ('ప్పి', '|'), ('యా', 'U'), ('ది', 'U'), ('త్యుల్', 'U'), ('మె', 'U'), ('చ్చ', '|'), ('గ', '|'), ('బ', 'U'), ('ట్టి', '|'), ('గీ', 'U'), ('ట', '|'), ('డ', '|'), ('చ', '|'), ('వే', 'U'), ('దే', 'U'), ('వాం', 'U'), ('త', '|'), ('కున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('దై', 'U'), ('త్యా', 'U'), ('నీ', 'U'), ('క', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('న', '|'), ('మం', 'U'), ('దా', 'U'), ('నా', 'U'), ('ద్రి', '|'), ('భం', 'U'), ('గి', '|'), ('ర', '|'), ('యౌ', 'U'), ('ద్ధ', 'U'), ('త్యం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('సం', 'U'), ('చ', '|'), ('రిం', 'U'), ('పు', '|'), ('చు', '|'), ('బ', '|'), ('లౌ', 'U'), ('దా', 'U'), ('ర్యం', 'U'), ('బె', '|'), ('ల', 'U'), ('ర్ప', 'U'), ('న్బృ', '|'), ('హ', 'U'), ('ద్వా', 'U'), ('త్యా', 'U'), ('చ', '|'), ('క్ర', '|'), ('ము', '|'), ('శు', 'U'), ('ష్క', '|'), ('ప', 'U'), ('ర్ణ', '|'), ('ము', '|'), ('ల', '|'), ('చం', 'U'), ('దా', 'U'), ('న', 'U'), ('న్వ', '|'), ('డిం', 'U'), ('ద్రి', 'U'), ('ప్పి', '|'), ('యా', 'U'), ('ది', 'U'), ('త్యు', 'U'), ('ల్మె', 'U'), ('చ్చ', '|'), ('గ', '|'), ('బ', 'U'), ('ట్టి', '|'), ('గీ', 'U'), ('ట', '|'), ('డ', '|'), ('చ', '|'), ('వే', 'U'), ('దే', 'U'), ('వాం', 'U'), ('త', '|'), ('కు', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[('జం', 'U'), ('భా', 'U'), ('రా', 'U'), ('తి', '|'), ('ని', '|'), ('జో', 'U'), ('రు', '|'), ('పా', 'U'), ('ణి', '|'), ('గ', '|'), ('త', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్ఘో', 'U'), ('ర', '|'), ('దం', 'U'), ('భో', 'U'), ('ళి', '|'), ('చే', 'U'), ('గాం', 'U'), ('భీ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('న', '|'), ('వి', 'U'), ('శ్వ', '|'), ('రూ', 'U'), ('పు', '|'), ('శి', '|'), ('ర', '|'), ('ముల్', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్లీ', 'U'), ('వు', '|'), ('స', 'U'), ('ర్వాం', 'U'), ('భో', 'U'), ('ధుల్', 'U'), ('గ', '|'), ('ల', '|'), ('గం', 'U'), ('గ', '|'), ('నా', 'U'), ('ర్చు', '|'), ('చు', '|'), ('ఫ', '|'), ('ణీం', 'U'), ('ద్రా', 'U'), ('భా', 'U'), ('సి', '|'), ('నం', 'U'), ('కిం', 'U'), ('చి', '|'), ('సం', 'U'), ('రం', 'U'), ('భం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('వె', '|'), ('సన్', 'U'), ('త్రి', '|'), ('శీ', 'U'), ('ర్షు', '|'), ('శి', '|'), ('ర', '|'), ('ముల్', 'U'), ('ఖం', 'U'), ('డిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('జం', 'U'), ('భా', 'U'), ('రా', 'U'), ('తి', '|'), ('ని', '|'), ('జో', 'U'), ('రు', '|'), ('పా', 'U'), ('ణి', '|'), ('గ', '|'), ('త', '|'), ('భా', 'U'), ('స్వ', 'U'), ('ద్ఘో', 'U'), ('ర', '|'), ('దం', 'U'), ('భో', 'U'), ('ళి', '|'), ('చే', 'U'), ('గాం', 'U'), ('భీ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('న', '|'), ('వి', 'U'), ('శ్వ', '|'), ('రూ', 'U'), ('పు', '|'), ('శి', '|'), ('ర', '|'), ('ము', 'U'), ('ల్ఖం', 'U'), ('డిం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్లీ', 'U'), ('వు', '|'), ('స', 'U'), ('ర్వాం', 'U'), ('భో', 'U'), ('ధు', 'U'), ('ల్గ', '|'), ('ల', '|'), ('గం', 'U'), ('గ', '|'), ('నా', 'U'), ('ర్చు', '|'), ('చు', '|'), ('ఫ', '|'), ('ణీం', 'U'), ('ద్రా', 'U'), ('భా', 'U'), ('సి', '|'), ('నం', 'U'), ('కిం', 'U'), ('చి', '|'), ('సం', 'U'), ('రం', 'U'), ('భం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('వె', '|'), ('స', 'U'), ('న్త్రి', '|'), ('శీ', 'U'), ('ర్షు', '|'), ('శి', '|'), ('ర', '|'), ('ము', 'U'), ('ల్ఖం', 'U'), ('డిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3106,7 +3106,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[('మా', 'U'), ('యా', 'U'), ('సీ', 'U'), ('త', '|'), ('ను', '|'), ('జం', 'U'), ('పి', '|'), ('ని', 'U'), ('న్ను', '|'), ('భ్ర', '|'), ('మి', '|'), ('యిం', 'U'), ('పం', 'U'), ('జే', 'U'), ('సి', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('ర', '|'), ('దై', 'U'), ('తే', 'U'), ('య', '|'), ('ప్రా', 'U'), ('వృ', '|'), ('తు', '|'), ('డై', 'U'), ('ని', '|'), ('కుం', 'U'), ('భి', '|'), ('ల', '|'), ('కు', '|'), ('నెం', 'U'), ('తే', 'U'), ('గో', 'U'), ('ర్కి', '|'), ('తో', 'U'), ('నే', 'U'), ('గి', '|'), ('య', 'U'), ('చ్చో', 'U'), ('యా', 'U'), ('గం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('సు', '|'), ('రే', 'U'), ('శున్', 'U'), ('మే', 'U'), ('ఘ', '|'), ('నా', 'U'), ('ధా', 'U'), ('ఖ్యు', '|'), ('దీ', 'U'), ('క్షా', 'U'), ('యు', 'U'), ('క్తిన్', 'U'), ('స', '|'), ('మ', '|'), ('రో', 'U'), ('ర్వి', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('ని', '|'), ('చే', 'U'), ('జం', 'U'), ('పిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('మా', 'U'), ('యా', 'U'), ('సీ', 'U'), ('త', '|'), ('ను', '|'), ('జం', 'U'), ('పి', '|'), ('ని', 'U'), ('న్ను', '|'), ('భ్ర', '|'), ('మి', '|'), ('యిం', 'U'), ('పం', 'U'), ('జే', 'U'), ('సి', '|'), ('దు', 'U'), ('ర్వా', 'U'), ('ర', '|'), ('దై', 'U'), ('తే', 'U'), ('య', '|'), ('ప్రా', 'U'), ('వృ', '|'), ('తు', '|'), ('డై', 'U'), ('ని', '|'), ('కుం', 'U'), ('భి', '|'), ('ల', '|'), ('కు', '|'), ('నెం', 'U'), ('తే', 'U'), ('గో', 'U'), ('ర్కి', '|'), ('తో', 'U'), ('నే', 'U'), ('గి', '|'), ('య', 'U'), ('చ్చో', 'U'), ('యా', 'U'), ('గం', 'U'), ('బొ', '|'), ('న', '|'), ('రిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్న', '|'), ('య', '|'), ('సు', '|'), ('రే', 'U'), ('శు', 'U'), ('న్మే', 'U'), ('ఘ', '|'), ('నా', 'U'), ('ధా', 'U'), ('ఖ్యు', '|'), ('దీ', 'U'), ('క్షా', 'U'), ('యు', 'U'), ('క్తి', 'U'), ('న్స', '|'), ('మ', '|'), ('రో', 'U'), ('ర్వి', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('ని', '|'), ('చే', 'U'), ('జం', 'U'), ('పిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3136,7 +3136,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[('వి', 'U'), ('ద్యు', 'U'), ('ద్వ', 'U'), ('ల్లి', '|'), ('క', '|'), ('భం', 'U'), ('గి', '|'), ('వా', 'U'), ('ల', '|'), ('ము', '|'), ('వి', '|'), ('య', 'U'), ('ద్వీ', 'U'), ('థిం', 'U'), ('బ్ర', '|'), ('కా', 'U'), ('శిం', 'U'), ('ప', '|'), ('ను', 'U'), ('ష్ణ', 'U'), ('ద్యు', 'U'), ('త్యు', 'U'), ('న్న', '|'), ('త', '|'), ('మం', 'U'), ('డ', '|'), ('లం', 'U'), ('బు', '|'), ('క', '|'), ('ర', '|'), ('ణిన్', 'U'), ('వ', 'U'), ('క్త్రం', 'U'), ('బు', '|'), ('శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('ప్రో', 'U'), ('ద్య', 'U'), ('ద్బా', 'U'), ('హు', '|'), ('బ', '|'), ('లం', 'U'), ('బె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గ', '|'), ('ని', '|'), ('కుం', 'U'), ('భుం', 'U'), ('గుం', 'U'), ('భ', '|'), ('క', 'U'), ('ర్ణా', 'U'), ('త్మ', '|'), ('జున్', 'U'), ('స', 'U'), ('ద్యో', 'U'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('నొం', 'U'), ('ద', '|'), ('జే', 'U'), ('య', '|'), ('వె', '|'), ('మ', '|'), ('హా', 'U'), ('జ', 'U'), ('న్యం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('వి', 'U'), ('ద్యు', 'U'), ('ద్వ', 'U'), ('ల్లి', '|'), ('క', '|'), ('భం', 'U'), ('గి', '|'), ('వా', 'U'), ('ల', '|'), ('ము', '|'), ('వి', '|'), ('య', 'U'), ('ద్వీ', 'U'), ('థిం', 'U'), ('బ్ర', '|'), ('కా', 'U'), ('శిం', 'U'), ('ప', '|'), ('ను', 'U'), ('ష్ణ', 'U'), ('ద్యు', 'U'), ('త్యు', 'U'), ('న్న', '|'), ('త', '|'), ('మం', 'U'), ('డ', '|'), ('లం', 'U'), ('బు', '|'), ('క', '|'), ('ర', '|'), ('ణి', 'U'), ('న్వ', 'U'), ('క్త్రం', 'U'), ('బు', '|'), ('శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('గా', 'U'), ('ప్రో', 'U'), ('ద్య', 'U'), ('ద్బా', 'U'), ('హు', '|'), ('బ', '|'), ('లం', 'U'), ('బె', '|'), ('ల', 'U'), ('ర్ప', '|'), ('గ', '|'), ('ని', '|'), ('కుం', 'U'), ('భుం', 'U'), ('గుం', 'U'), ('భ', '|'), ('క', 'U'), ('ర్ణా', 'U'), ('త్మ', '|'), ('జున్', 'U'), ('స', 'U'), ('ద్యో', 'U'), ('మృ', 'U'), ('త్యు', '|'), ('వు', '|'), ('నొం', 'U'), ('ద', '|'), ('జే', 'U'), ('య', '|'), ('వె', '|'), ('మ', '|'), ('హా', 'U'), ('జ', 'U'), ('న్యం', 'U'), ('బు', '|'), ('న', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3166,7 +3166,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[('ఘ', '|'), ('న', '|'), ('శాం', 'U'), ('డి', 'U'), ('ల్య', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రు', '|'), ('శా', 'U'), ('పం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('గ్ర', '|'), ('గ్రా', 'U'), ('హి', '|'), ('యై', 'U'), ('ధా', 'U'), ('న్య', '|'), ('మా', 'U'), ('లి', '|'), ('ని', '|'), ('కా', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('జ', '|'), ('ల', '|'), ('ముల్', 'U'), ('నీ', 'U'), ('వ', 'U'), ('ర్ధి', '|'), ('గ్రో', 'U'), ('లన్', 'U'), ('వ', '|'), ('డిన్', 'U'), ('ని', '|'), ('ను', '|'), ('మ్రిం', 'U'), ('గం', 'U'), ('జ', '|'), ('ను', '|'), ('దే', 'U'), ('ర', '|'), ('గా', 'U'), ('గ', '|'), ('డి', '|'), ('మి', '|'), ('వా', 'U'), ('నిన్', 'U'), ('వ్రే', 'U'), ('ల్మి', '|'), ('డిం', 'U'), ('జం', 'U'), ('పి', '|'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('ద', 'U'), ('చ్ఛా', 'U'), ('ప', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('పు', 'U'), ('చ్చ', '|'), ('వొ', '|'), ('కొ', '|'), ('శ', '|'), ('క్రుం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఘ', '|'), ('న', '|'), ('శాం', 'U'), ('డి', 'U'), ('ల్య', '|'), ('ము', '|'), ('నీం', 'U'), ('ద్రు', '|'), ('శా', 'U'), ('పం', 'U'), ('బు', '|'), ('న', '|'), ('ను', '|'), ('గ్ర', '|'), ('గ్రా', 'U'), ('హి', '|'), ('యై', 'U'), ('ధా', 'U'), ('న్య', '|'), ('మా', 'U'), ('లి', '|'), ('ని', '|'), ('కా', 'U'), ('సా', 'U'), ('ర', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('నుం', 'U'), ('డి', '|'), ('జ', '|'), ('ల', '|'), ('ము', 'U'), ('ల్నీ', 'U'), ('వ', 'U'), ('ర్ధి', '|'), ('గ్రో', 'U'), ('ల', 'U'), ('న్వ', '|'), ('డిన్', 'U'), ('ని', '|'), ('ను', '|'), ('మ్రిం', 'U'), ('గం', 'U'), ('జ', '|'), ('ను', '|'), ('దే', 'U'), ('ర', '|'), ('గా', 'U'), ('గ', '|'), ('డి', '|'), ('మి', '|'), ('వా', 'U'), ('ని', 'U'), ('న్వ్రే', 'U'), ('ల్మి', '|'), ('డిం', 'U'), ('జం', 'U'), ('పి', '|'), ('గ్ర', 'U'), ('క్కు', '|'), ('న', '|'), ('ద', 'U'), ('చ్ఛా', 'U'), ('ప', '|'), ('ము', '|'), ('దీ', 'U'), ('ర్చి', '|'), ('పు', 'U'), ('చ్చ', '|'), ('వొ', '|'), ('కొ', '|'), ('శ', '|'), ('క్రుం', 'U'), ('గొ', 'U'), ('ల్వ', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3226,7 +3226,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[('తొ', '|'), ('లు', '|'), ('తం', 'U'), ('బ', 'U'), ('ల్మ', '|'), ('రు', '|'), ('మం', 'U'), ('దు', '|'), ('లి', 'U'), ('మ్మ', '|'), ('ను', '|'), ('చు', '|'), ('నెం', 'U'), ('తో', 'U'), ('వే', 'U'), ('డి', '|'), ('యీ', 'U'), ('కు', 'U'), ('న్న', '|'), ('కే', 'U'), ('వ', '|'), ('ల', '|'), ('శ', 'U'), ('క్తిన్', 'U'), ('హ', '|'), ('రి', '|'), ('మం', 'U'), ('ద', '|'), ('రా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('ను', 'U'), ('త్పా', 'U'), ('టిం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్లీ', 'U'), ('వు', '|'), ('క', 'U'), ('ట్ట', '|'), ('లు', '|'), ('కన్', 'U'), ('వా', 'U'), ('ల', '|'), ('ము', '|'), ('జు', 'U'), ('ట్టి', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('ట్ట', 'U'), ('ట్టూ', 'U'), ('చి', '|'), ('ది', '|'), ('గ్రా', 'U'), ('జి', '|'), ('ఘూ', 'U'), ('ర్ణి', '|'), ('ల', '|'), ('ది', 'U'), ('వ్యౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('శై', 'U'), ('ల', '|'), ('ముం', 'U'), ('బె', '|'), ('ఱు', '|'), ('క', '|'), ('వే', 'U'), ('క్రీ', 'U'), ('డా', 'U'), ('గ', '|'), ('తిన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('తొ', '|'), ('లు', '|'), ('తం', 'U'), ('బ', 'U'), ('ల్మ', '|'), ('రు', '|'), ('మం', 'U'), ('దు', '|'), ('లి', 'U'), ('మ్మ', '|'), ('ను', '|'), ('చు', '|'), ('నెం', 'U'), ('తో', 'U'), ('వే', 'U'), ('డి', '|'), ('యీ', 'U'), ('కు', 'U'), ('న్న', '|'), ('కే', 'U'), ('వ', '|'), ('ల', '|'), ('శ', 'U'), ('క్తి', 'U'), ('న్హ', '|'), ('రి', '|'), ('మం', 'U'), ('ద', '|'), ('రా', 'U'), ('చ', '|'), ('ల', '|'), ('ము', '|'), ('ను', 'U'), ('త్పా', 'U'), ('టిం', 'U'), ('చి', '|'), ('న', 'U'), ('ట్లీ', 'U'), ('వు', '|'), ('క', 'U'), ('ట్ట', '|'), ('లు', '|'), ('క', 'U'), ('న్వా', 'U'), ('ల', '|'), ('ము', '|'), ('జు', 'U'), ('ట్టి', '|'), ('పా', 'U'), ('ద', '|'), ('ము', '|'), ('ల', '|'), ('ని', 'U'), ('ట్ట', 'U'), ('ట్టూ', 'U'), ('చి', '|'), ('ది', '|'), ('గ్రా', 'U'), ('జి', '|'), ('ఘూ', 'U'), ('ర్ణి', '|'), ('ల', '|'), ('ది', 'U'), ('వ్యౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('శై', 'U'), ('ల', '|'), ('ముం', 'U'), ('బె', '|'), ('ఱు', '|'), ('క', '|'), ('వే', 'U'), ('క్రీ', 'U'), ('డా', 'U'), ('గ', '|'), ('తి', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3256,7 +3256,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[('గీ', 'U'), ('ర్వా', 'U'), ('ణా', 'U'), ('ద్రి', '|'), ('వి', '|'), ('భా', 'U'), ('గ', '|'), ('మున్', 'U'), ('శి', '|'), ('ర', '|'), ('ము', '|'), ('పై', 'U'), ('గీ', 'U'), ('ల్కొ', 'U'), ('ల్ప', '|'), ('దు', 'U'), ('ర్దాం', 'U'), ('త', '|'), ('దో', 'U'), ('ర్గ', 'U'), ('ర్వం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చుం', 'U'), ('డ', '|'), ('గి', '|'), ('రి', '|'), ('కిం', 'U'), ('గా', 'U'), ('పు', 'U'), ('న్న', '|'), ('పె', 'U'), ('క్కం', 'U'), ('డ్రు', '|'), ('గం', 'U'), ('ధ', 'U'), ('ర్వుల్', 'U'), ('బో', 'U'), ('వ', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('న', 'U'), ('డ్డ', '|'), ('ప', '|'), ('డి', '|'), ('నన్', 'U'), ('ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('నన్', 'U'), ('వా', 'U'), ('ర', '|'), ('లన్', 'U'), ('దు', 'U'), ('ర్వా', 'U'), ('రో', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('వా', 'U'), ('ల', '|'), ('జా', 'U'), ('ని', '|'), ('ల', '|'), ('ము', '|'), ('నం', 'U'), ('దూ', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('గీ', 'U'), ('ర్వా', 'U'), ('ణా', 'U'), ('ద్రి', '|'), ('వి', '|'), ('భా', 'U'), ('గ', '|'), ('ము', 'U'), ('న్శి', '|'), ('ర', '|'), ('ము', '|'), ('పై', 'U'), ('గీ', 'U'), ('ల్కొ', 'U'), ('ల్ప', '|'), ('దు', 'U'), ('ర్దాం', 'U'), ('త', '|'), ('దో', 'U'), ('ర్గ', 'U'), ('ర్వం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('వ', 'U'), ('చ్చు', '|'), ('చుం', 'U'), ('డ', '|'), ('గి', '|'), ('రి', '|'), ('కిం', 'U'), ('గా', 'U'), ('పు', 'U'), ('న్న', '|'), ('పె', 'U'), ('క్కం', 'U'), ('డ్రు', '|'), ('గం', 'U'), ('ధ', 'U'), ('ర్వు', 'U'), ('ల్బో', 'U'), ('వ', '|'), ('గ', '|'), ('నీ', 'U'), ('క', '|'), ('న', 'U'), ('డ్డ', '|'), ('ప', '|'), ('డి', '|'), ('న', 'U'), ('న్ద', 'U'), ('ర్పం', 'U'), ('బు', '|'), ('న', 'U'), ('న్వా', 'U'), ('ర', '|'), ('లన్', 'U'), ('దు', 'U'), ('ర్వా', 'U'), ('రో', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('వా', 'U'), ('ల', '|'), ('జా', 'U'), ('ని', '|'), ('ల', '|'), ('ము', '|'), ('నం', 'U'), ('దూ', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[('గ', '|'), ('రి', '|'), ('మన్', 'U'), ('మా', 'U'), ('ల్య', '|'), ('వ', '|'), ('దా', 'U'), ('ది', '|'), ('రా', 'U'), ('క్ష', '|'), ('సు', '|'), ('ల', '|'), ('సం', 'U'), ('ఖ్యా', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('యం', 'U'), ('బ', '|'), ('ర', '|'), ('వీ', 'U'), ('థిం', 'U'), ('జ', '|'), ('ల', '|'), ('రా', 'U'), ('శి', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('న', '|'), ('ద', 'U'), ('ర్పం', 'U'), ('బే', 'U'), ('ర్ప', '|'), ('డం', 'U'), ('దా', 'U'), ('కి', '|'), ('నన్', 'U'), ('గి', '|'), ('రి', '|'), ('రా', 'U'), ('జం', 'U'), ('బు', '|'), ('ను', '|'), ('కం', 'U'), ('దు', '|'), ('కం', 'U'), ('బు', '|'), ('క', '|'), ('ర', '|'), ('ణిన్', 'U'), ('గే', 'U'), ('లన్', 'U'), ('ర', '|'), ('హిం', 'U'), ('దా', 'U'), ('ల్చి', '|'), ('దు', 'U'), ('ర్భ', '|'), ('ర', '|'), ('వీ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('జం', 'U'), ('పి', '|'), ('జ', '|'), ('ము', '|'), ('గొ', 'U'), ('ల్వం', 'U'), ('బం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('గ', '|'), ('రి', '|'), ('మ', 'U'), ('న్మా', 'U'), ('ల్య', '|'), ('వ', '|'), ('దా', 'U'), ('ది', '|'), ('రా', 'U'), ('క్ష', '|'), ('సు', '|'), ('ల', '|'), ('సం', 'U'), ('ఖ్యా', 'U'), ('తం', 'U'), ('బు', '|'), ('గా', 'U'), ('వ', 'U'), ('చ్చి', '|'), ('యం', 'U'), ('బ', '|'), ('ర', '|'), ('వీ', 'U'), ('థిం', 'U'), ('జ', '|'), ('ల', '|'), ('రా', 'U'), ('శి', '|'), ('మ', 'U'), ('ధ్య', '|'), ('ము', '|'), ('న', '|'), ('ద', 'U'), ('ర్పం', 'U'), ('బే', 'U'), ('ర్ప', '|'), ('డం', 'U'), ('దా', 'U'), ('కి', '|'), ('నన్', 'U'), ('గి', '|'), ('రి', '|'), ('రా', 'U'), ('జం', 'U'), ('బు', '|'), ('ను', '|'), ('కం', 'U'), ('దు', '|'), ('కం', 'U'), ('బు', '|'), ('క', '|'), ('ర', '|'), ('ణి', 'U'), ('న్గే', 'U'), ('ల', '|'), ('న్ర', '|'), ('హిం', 'U'), ('దా', 'U'), ('ల్చి', '|'), ('దు', 'U'), ('ర్భ', '|'), ('ర', '|'), ('వీ', 'U'), ('ర్యం', 'U'), ('బు', '|'), ('న', '|'), ('వా', 'U'), ('రి', '|'), ('జం', 'U'), ('పి', '|'), ('జ', '|'), ('ము', '|'), ('గొ', 'U'), ('ల్వం', 'U'), ('బం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3316,7 +3316,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('వ', '|'), ('లీ', 'U'), ('లన్', 'U'), ('ని', '|'), ('శి', '|'), ('జా', 'U'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ర', '|'), ('యం', 'U'), ('బా', 'U'), ('రం', 'U'), ('గ', '|'), ('సం', 'U'), ('జీ', 'U'), ('వి', '|'), ('శై', 'U'), ('ల', '|'), ('వ', '|'), ('రం', 'U'), ('బుం', 'U'), ('గొ', '|'), ('ని', '|'), ('తె', 'U'), ('చ్చి', '|'), ('జ', 'U'), ('న్య', '|'), ('ము', '|'), ('న', '|'), ('బౌ', 'U'), ('ల', 'U'), ('స్త్యో', 'U'), ('ల్ల', '|'), ('స', 'U'), ('చ్ఛ', 'U'), ('క్తి', '|'), ('చే', 'U'), ('న', '|'), ('వ', '|'), ('నిన్', 'U'), ('మూ', 'U'), ('ర్ఛి', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('న', '|'), ('కీ', 'U'), ('వా', 'U'), ('మం', 'U'), ('దు', '|'), ('ల', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('శూ', 'U'), ('ర', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్యుం', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కిం', 'U'), ('చి', '|'), ('మె', 'U'), ('ప్పు', '|'), ('గొ', '|'), ('న', '|'), ('వే', 'U'), ('రా', 'U'), ('జేం', 'U'), ('ద్రు', '|'), ('చే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', '|'), ('వ', '|'), ('లీ', 'U'), ('ల', 'U'), ('న్ని', '|'), ('శి', '|'), ('జా', 'U'), ('ము', '|'), ('లో', 'U'), ('ప', '|'), ('ల', '|'), ('ర', '|'), ('యం', 'U'), ('బా', 'U'), ('రం', 'U'), ('గ', '|'), ('సం', 'U'), ('జీ', 'U'), ('వి', '|'), ('శై', 'U'), ('ల', '|'), ('వ', '|'), ('రం', 'U'), ('బుం', 'U'), ('గొ', '|'), ('ని', '|'), ('తె', 'U'), ('చ్చి', '|'), ('జ', 'U'), ('న్య', '|'), ('ము', '|'), ('న', '|'), ('బౌ', 'U'), ('ల', 'U'), ('స్త్యో', 'U'), ('ల్ల', '|'), ('స', 'U'), ('చ్ఛ', 'U'), ('క్తి', '|'), ('చే', 'U'), ('న', '|'), ('వ', '|'), ('ని', 'U'), ('న్మూ', 'U'), ('ర్ఛి', '|'), ('తు', '|'), ('డై', 'U'), ('న', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('న', '|'), ('కీ', 'U'), ('వా', 'U'), ('మం', 'U'), ('దు', '|'), ('ల', 'U'), ('ర్పిం', 'U'), ('చి', '|'), ('శూ', 'U'), ('ర', '|'), ('వ', '|'), ('రే', 'U'), ('ణ్యుం', 'U'), ('బ్ర', '|'), ('తి', '|'), ('కిం', 'U'), ('చి', '|'), ('మె', 'U'), ('ప్పు', '|'), ('గొ', '|'), ('న', '|'), ('వే', 'U'), ('రా', 'U'), ('జేం', 'U'), ('ద్రు', '|'), ('చే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3346,7 +3346,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('న', '|'), ('ఘా', 'U'), ('యెం', 'U'), ('త', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యా', 'U'), ('వా', 'U'), ('ర్య', '|'), ('దో', 'U'), ('స్స', 'U'), ('త్త్వ', '|'), ('మున్', 'U'), ('క', '|'), ('న', '|'), ('కో', 'U'), ('ర్వీ', 'U'), ('ధ', '|'), ('ర', '|'), ('స', 'U'), ('న్ని', '|'), ('భౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('గి', '|'), ('రిన్', 'U'), ('వా', 'U'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('జు', 'U'), ('ట్టి', '|'), ('గ్రం', 'U'), ('దు', '|'), ('న', '|'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రి', '|'), ('నుం', 'U'), ('డి', '|'), ('స', 'U'), ('త్వ', '|'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దొ', 'U'), ('ల్లిం', 'U'), ('టి', '|'), ('చో', 'U'), ('టం', 'U'), ('బ', '|'), ('డన్', 'U'), ('వి', '|'), ('ను', '|'), ('వీ', 'U'), ('థిన్', 'U'), ('వ', '|'), ('డి', '|'), ('ద్రి', 'U'), ('ప్పి', '|'), ('వై', 'U'), ('వ', '|'), ('వె', '|'), ('జ', '|'), ('గ', 'U'), ('ద్వి', '|'), ('శ్రాం', 'U'), ('తి', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', '|'), ('న', '|'), ('ఘా', 'U'), ('యెం', 'U'), ('త', '|'), ('ని', '|'), ('చె', 'U'), ('ప్ప', '|'), ('వ', 'U'), ('చ్చు', '|'), ('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యా', 'U'), ('వా', 'U'), ('ర్య', '|'), ('దో', 'U'), ('స్స', 'U'), ('త్త్వ', '|'), ('మున్', 'U'), ('క', '|'), ('న', '|'), ('కో', 'U'), ('ర్వీ', 'U'), ('ధ', '|'), ('ర', '|'), ('స', 'U'), ('న్ని', '|'), ('భౌ', 'U'), ('ష', '|'), ('ధ', '|'), ('గి', '|'), ('రి', 'U'), ('న్వా', 'U'), ('లం', 'U'), ('బు', '|'), ('నం', 'U'), ('జు', 'U'), ('ట్టి', '|'), ('గ్రం', 'U'), ('దు', '|'), ('న', '|'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రి', '|'), ('నుం', 'U'), ('డి', '|'), ('స', 'U'), ('త్వ', '|'), ('ర', '|'), ('ము', '|'), ('నం', 'U'), ('దొ', 'U'), ('ల్లిం', 'U'), ('టి', '|'), ('చో', 'U'), ('టం', 'U'), ('బ', '|'), ('డన్', 'U'), ('వి', '|'), ('ను', '|'), ('వీ', 'U'), ('థి', 'U'), ('న్వ', '|'), ('డి', '|'), ('ద్రి', 'U'), ('ప్పి', '|'), ('వై', 'U'), ('వ', '|'), ('వె', '|'), ('జ', '|'), ('గ', 'U'), ('ద్వి', '|'), ('శ్రాం', 'U'), ('తి', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3376,7 +3376,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('ల', '|'), ('మై', 'U'), ('రా', 'U'), ('వ', '|'), ('ణు', '|'), ('డొ', 'U'), ('క్క', '|'), ('నా', 'U'), ('టి', '|'), ('ని', '|'), ('శి', '|'), ('ని', '|'), ('ద్రా', 'U'), ('స', 'U'), ('క్తు', '|'), ('లై', 'U'), ('యు', 'U'), ('న్న', '|'), ('భూ', 'U'), ('ప', '|'), ('ల', '|'), ('లా', 'U'), ('మేం', 'U'), ('ద్రు', '|'), ('ల', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లిం', 'U'), ('చి', '|'), ('యు', '|'), ('వె', '|'), ('సన్', 'U'), ('పా', 'U'), ('తా', 'U'), ('ళ', '|'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రిన్', 'U'), ('ఖ', '|'), ('లు', '|'), ('డై', 'U'), ('చొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('వెం', 'U'), ('ట', '|'), ('జ', '|'), ('ని', '|'), ('యా', 'U'), ('క', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('నిం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('శో', 'U'), ('భి', '|'), ('లు', '|'), ('చున్', 'U'), ('నీ', 'U'), ('వ', '|'), ('టు', '|'), ('రా', 'U'), ('మ', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('ల', '|'), ('దే', 'U'), ('వే', 'U'), ('క్ర', 'U'), ('మ్మ', '|'), ('ఱన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', '|'), ('ల', '|'), ('మై', 'U'), ('రా', 'U'), ('వ', '|'), ('ణు', '|'), ('డొ', 'U'), ('క్క', '|'), ('నా', 'U'), ('టి', '|'), ('ని', '|'), ('శి', '|'), ('ని', '|'), ('ద్రా', 'U'), ('స', 'U'), ('క్తు', '|'), ('లై', 'U'), ('యు', 'U'), ('న్న', '|'), ('భూ', 'U'), ('ప', '|'), ('ల', '|'), ('లా', 'U'), ('మేం', 'U'), ('ద్రు', '|'), ('ల', '|'), ('మ్రు', 'U'), ('చ్చి', '|'), ('లిం', 'U'), ('చి', '|'), ('యు', '|'), ('వె', '|'), ('స', 'U'), ('న్పా', 'U'), ('తా', 'U'), ('ళ', '|'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రిన్', 'U'), ('ఖ', '|'), ('లు', '|'), ('డై', 'U'), ('చొ', 'U'), ('చ్చి', '|'), ('న', '|'), ('వా', 'U'), ('ని', '|'), ('వెం', 'U'), ('ట', '|'), ('జ', '|'), ('ని', '|'), ('యా', 'U'), ('క', 'U'), ('ష్టా', 'U'), ('త్ము', '|'), ('నిం', 'U'), ('ద్రుం', 'U'), ('చి', '|'), ('శో', 'U'), ('భి', '|'), ('లు', '|'), ('చు', 'U'), ('న్నీ', 'U'), ('వ', '|'), ('టు', '|'), ('రా', 'U'), ('మ', '|'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('ల', '|'), ('దే', 'U'), ('వే', 'U'), ('క్ర', 'U'), ('మ్మ', '|'), ('ఱ', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[('ధీ', 'U'), ('రో', 'U'), ('దా', 'U'), ('త్తు', '|'), ('డు', '|'), ('రా', 'U'), ('ము', '|'), ('డం', 'U'), ('ప', '|'), ('న', '|'), ('టు', '|'), ('నం', 'U'), ('ది', '|'), ('గ్రా', 'U'), ('మ', '|'), ('ముం', 'U'), ('జే', 'U'), ('రి', '|'), ('నీ', 'U'), ('వా', 'U'), ('రూ', 'U'), ('ఢిన్', 'U'), ('భ', '|'), ('ర', '|'), ('తున్', 'U'), ('మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('గ', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రుం', 'U'), ('డ', 'U'), ('ర్థి', '|'), ('సీ', 'U'), ('తా', 'U'), ('రా', 'U'), ('మ', '|'), ('వ', '|'), ('ర', '|'), ('జా', 'U'), ('న్వి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('భ', '|'), ('ర', 'U'), ('ద్వా', 'U'), ('జా', 'U'), ('శ్ర', '|'), ('మం', 'U'), ('బ', 'U'), ('ర్మి', '|'), ('లిం', 'U'), ('జే', 'U'), ('రెన్', 'U'), ('ఱే', 'U'), ('ప', '|'), ('ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('చు', '|'), ('న', '|'), ('మృ', '|'), ('త', 'U'), ('స్ఫీ', 'U'), ('తో', 'U'), ('క్తు', '|'), ('లం', 'U'), ('తె', 'U'), ('ల్పి', '|'), ('యా', 'U'), ('ధీ', 'U'), ('రున్', 'U'), ('హ', 'U'), ('ర్ష', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('వీ', 'U'), ('చి', '|'), ('క', '|'), ('ల', '|'), ('పై', 'U'), ('దే', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ధీ', 'U'), ('రో', 'U'), ('దా', 'U'), ('త్తు', '|'), ('డు', '|'), ('రా', 'U'), ('ము', '|'), ('డం', 'U'), ('ప', '|'), ('న', '|'), ('టు', '|'), ('నం', 'U'), ('ది', '|'), ('గ్రా', 'U'), ('మ', '|'), ('ముం', 'U'), ('జే', 'U'), ('రి', '|'), ('నీ', 'U'), ('వా', 'U'), ('రూ', 'U'), ('ఢి', 'U'), ('న్భ', '|'), ('ర', '|'), ('తు', 'U'), ('న్మ', '|'), ('హా', 'U'), ('త్ము', '|'), ('గ', '|'), ('ని', '|'), ('రా', 'U'), ('మా', 'U'), ('ధీ', 'U'), ('శ్వ', '|'), ('రుం', 'U'), ('డ', 'U'), ('ర్థి', '|'), ('సీ', 'U'), ('తా', 'U'), ('రా', 'U'), ('మ', '|'), ('వ', '|'), ('ర', '|'), ('జా', 'U'), ('న్వి', '|'), ('తం', 'U'), ('బు', '|'), ('గ', '|'), ('భ', '|'), ('ర', 'U'), ('ద్వా', 'U'), ('జా', 'U'), ('శ్ర', '|'), ('మం', 'U'), ('బ', 'U'), ('ర్మి', '|'), ('లిం', 'U'), ('జే', 'U'), ('రె', 'U'), ('న్ఱే', 'U'), ('ప', '|'), ('ట', '|'), ('వ', 'U'), ('చ్చు', '|'), ('నం', 'U'), ('చు', '|'), ('న', '|'), ('మృ', '|'), ('త', 'U'), ('స్ఫీ', 'U'), ('తో', 'U'), ('క్తు', '|'), ('లం', 'U'), ('తె', 'U'), ('ల్పి', '|'), ('యా', 'U'), ('ధీ', 'U'), ('రు', 'U'), ('న్హ', 'U'), ('ర్ష', '|'), ('ప', '|'), ('యో', 'U'), ('ధి', '|'), ('వీ', 'U'), ('చి', '|'), ('క', '|'), ('ల', '|'), ('పై', 'U'), ('దే', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[('స', '|'), ('ర', '|'), ('సా', 'U'), ('గ్రే', 'U'), ('స', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('భు', '|'), ('డం', 'U'), ('చ', '|'), ('ద్ర', 'U'), ('త్న', '|'), ('సౌ', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('పు', 'U'), ('ష్ప', '|'), ('ర', '|'), ('థం', 'U'), ('బె', 'U'), ('క్కి', '|'), ('సు', '|'), ('మి', '|'), ('త్ర', '|'), ('ప', 'U'), ('ట్టి', '|'), ('వె', '|'), ('ను', '|'), ('కన్', 'U'), ('ఛ', '|'), ('త్రం', 'U'), ('బు', '|'), ('బ', 'U'), ('ట్టన్', 'U'), ('మ', '|'), ('హా', 'U'), ('భి', '|'), ('ర', '|'), ('తిన్', 'U'), ('ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('డ', 'U'), ('వ్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('డొ', '|'), ('గిన్', 'U'), ('విం', 'U'), ('జా', 'U'), ('మ', '|'), ('రల్', 'U'), ('వీ', 'U'), ('వ', '|'), ('సుం', 'U'), ('ద', '|'), ('ర', '|'), ('సా', 'U'), ('కే', 'U'), ('త', '|'), ('ప', '|'), ('థం', 'U'), ('బు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('చ', '|'), ('ను', '|'), ('చో', 'U'), ('ద', 'U'), ('త్పా', 'U'), ('దు', '|'), ('కల్', 'U'), ('మౌ', 'U'), ('ళి', '|'), ('పై', 'U'), ('బ', '|'), ('ర', '|'), ('మ', '|'), ('ప్రీ', 'U'), ('తి', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('మ్రో', 'U'), ('ల', '|'), ('జ', '|'), ('న', '|'), ('వే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('స', '|'), ('ర', '|'), ('సా', 'U'), ('గ్రే', 'U'), ('స', '|'), ('రు', '|'), ('డై', 'U'), ('న', '|'), ('రా', 'U'), ('మ', '|'), ('వి', '|'), ('భు', '|'), ('డం', 'U'), ('చ', '|'), ('ద్ర', 'U'), ('త్న', '|'), ('సౌ', 'U'), ('వ', 'U'), ('ర్ణ', '|'), ('పు', 'U'), ('ష్ప', '|'), ('ర', '|'), ('థం', 'U'), ('బె', 'U'), ('క్కి', '|'), ('సు', '|'), ('మి', '|'), ('త్ర', '|'), ('ప', 'U'), ('ట్టి', '|'), ('వె', '|'), ('ను', '|'), ('క', 'U'), ('న్ఛ', '|'), ('త్రం', 'U'), ('బు', '|'), ('బ', 'U'), ('ట్ట', 'U'), ('న్మ', '|'), ('హా', 'U'), ('భి', '|'), ('ర', '|'), ('తి', 'U'), ('న్ల', 'U'), ('క్ష్మ', '|'), ('ణు', '|'), ('డ', 'U'), ('వ్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('డొ', '|'), ('గి', 'U'), ('న్విం', 'U'), ('జా', 'U'), ('మ', '|'), ('ర', 'U'), ('ల్వీ', 'U'), ('వ', '|'), ('సుం', 'U'), ('ద', '|'), ('ర', '|'), ('సా', 'U'), ('కే', 'U'), ('త', '|'), ('ప', '|'), ('థం', 'U'), ('బు', '|'), ('బ', 'U'), ('ట్టి', '|'), ('చ', '|'), ('ను', '|'), ('చో', 'U'), ('ద', 'U'), ('త్పా', 'U'), ('దు', '|'), ('క', 'U'), ('ల్మౌ', 'U'), ('ళి', '|'), ('పై', 'U'), ('బ', '|'), ('ర', '|'), ('మ', '|'), ('ప్రీ', 'U'), ('తి', '|'), ('ధ', '|'), ('రిం', 'U'), ('చి', '|'), ('మ్రో', 'U'), ('ల', '|'), ('జ', '|'), ('న', '|'), ('వే', 'U'), ('వ', 'U'), ('ర్ణిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3498,7 +3498,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[('ప్ర', '|'), ('మ', '|'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('రా', 'U'), ('ము', '|'), ('డున్', 'U'), ('భ', '|'), ('వ', '|'), ('ద', '|'), ('భి', '|'), ('ప్రా', 'U'), ('యం', 'U'), ('బు', '|'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చ', 'U'), ('ద్ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తి', '|'), ('కిన్', 'U'), ('వి', '|'), ('మ', '|'), ('ల', '|'), ('ప్ర', 'U'), ('జ్ఞా', 'U'), ('యు', 'U'), ('క్తి', '|'), ('కిన్', 'U'), ('మె', 'U'), ('చ్చి', '|'), ('సం', 'U'), ('య', '|'), ('ము', '|'), ('లై', 'U'), ('నన్', 'U'), ('బ', '|'), ('డ', '|'), ('యం', 'U'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('మ', '|'), ('హ', '|'), ('నీ', 'U'), ('యా', 'U'), ('ధ్యా', 'U'), ('త్మ', '|'), ('వి', 'U'), ('ద్యో', 'U'), ('ప', '|'), ('దే', 'U'), ('శ', '|'), ('ము', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('డె', '|'), ('నీ', 'U'), ('కు', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('సు', '|'), ('తా', 'U'), ('సం', 'U'), ('యు', 'U'), ('క్తు', '|'), ('డై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ప్ర', '|'), ('మ', '|'), ('దం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('రా', 'U'), ('ము', '|'), ('డు', 'U'), ('న్భ', '|'), ('వ', '|'), ('ద', '|'), ('భి', '|'), ('ప్రా', 'U'), ('యం', 'U'), ('బు', '|'), ('నూ', 'U'), ('హిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చ', 'U'), ('ద్ప', '|'), ('ద', '|'), ('భ', 'U'), ('క్తి', '|'), ('కి', 'U'), ('న్వి', '|'), ('మ', '|'), ('ల', '|'), ('ప్ర', 'U'), ('జ్ఞా', 'U'), ('యు', 'U'), ('క్తి', '|'), ('కి', 'U'), ('న్మె', 'U'), ('చ్చి', '|'), ('సం', 'U'), ('య', '|'), ('ము', '|'), ('లై', 'U'), ('న', 'U'), ('న్బ', '|'), ('డ', '|'), ('యం', 'U'), ('గ', '|'), ('రా', 'U'), ('ని', '|'), ('మ', '|'), ('హ', '|'), ('నీ', 'U'), ('యా', 'U'), ('ధ్యా', 'U'), ('త్మ', '|'), ('వి', 'U'), ('ద్యో', 'U'), ('ప', '|'), ('దే', 'U'), ('శ', '|'), ('ము', '|'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('డె', '|'), ('నీ', 'U'), ('కు', '|'), ('మే', 'U'), ('ది', '|'), ('ని', '|'), ('సు', '|'), ('తా', 'U'), ('సం', 'U'), ('యు', 'U'), ('క్తు', '|'), ('డై', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3528,7 +3528,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యో', 'U'), ('రు', '|'), ('త', '|'), ('పః', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('ను', '|'), ('శ', 'U'), ('శ్వ', 'U'), ('త్సా', 'U'), ('ధు', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('యో', 'U'), ('గ్య', '|'), ('వి', '|'), ('వే', 'U'), ('కం', 'U'), ('బు', '|'), ('ను', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('పాం', 'U'), ('డి', '|'), ('తి', '|'), ('యు', '|'), ('ని', 'U'), ('ష్కా', 'U'), ('మ', 'U'), ('త్వ', '|'), ('మున్', 'U'), ('సం', 'U'), ('త', '|'), ('తా', 'U'), ('ర్జ', '|'), ('వ', '|'), ('మున్', 'U'), ('జూ', 'U'), ('చి', '|'), ('ర', '|'), ('ఘు', '|'), ('ప్ర', '|'), ('వీ', 'U'), ('రు', '|'), ('డు', '|'), ('భ', '|'), ('వి', 'U'), ('ష్య', 'U'), ('ద్బ్ర', 'U'), ('హ్మ', '|'), ('వౌ', 'U'), ('దం', 'U'), ('చు', '|'), ('నీ', 'U'), ('కు', '|'), ('వ', '|'), ('రం', 'U'), ('బ', 'U'), ('ర్థి', '|'), ('నొ', '|'), ('సం', 'U'), ('గ', '|'), ('డే', 'U'), ('బృ', '|'), ('హ', '|'), ('ద', '|'), ('ను', '|'), ('క్రో', 'U'), ('శం', 'U'), ('బు', '|'), ('నన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('భ', '|'), ('వ', '|'), ('దీ', 'U'), ('యో', 'U'), ('రు', '|'), ('త', '|'), ('పః', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('ము', '|'), ('ను', '|'), ('శ', 'U'), ('శ్వ', 'U'), ('త్సా', 'U'), ('ధు', '|'), ('భా', 'U'), ('వం', 'U'), ('బు', '|'), ('యో', 'U'), ('గ్య', '|'), ('వి', '|'), ('వే', 'U'), ('కం', 'U'), ('బు', '|'), ('ను', '|'), ('శా', 'U'), ('స్త్ర', '|'), ('పాం', 'U'), ('డి', '|'), ('తి', '|'), ('యు', '|'), ('ని', 'U'), ('ష్కా', 'U'), ('మ', 'U'), ('త్వ', '|'), ('ము', 'U'), ('న్సం', 'U'), ('త', '|'), ('తా', 'U'), ('ర్జ', '|'), ('వ', '|'), ('ము', 'U'), ('న్జూ', 'U'), ('చి', '|'), ('ర', '|'), ('ఘు', '|'), ('ప్ర', '|'), ('వీ', 'U'), ('రు', '|'), ('డు', '|'), ('భ', '|'), ('వి', 'U'), ('ష్య', 'U'), ('ద్బ్ర', 'U'), ('హ్మ', '|'), ('వౌ', 'U'), ('దం', 'U'), ('చు', '|'), ('నీ', 'U'), ('కు', '|'), ('వ', '|'), ('రం', 'U'), ('బ', 'U'), ('ర్థి', '|'), ('నొ', '|'), ('సం', 'U'), ('గ', '|'), ('డే', 'U'), ('బృ', '|'), ('హ', '|'), ('ద', '|'), ('ను', '|'), ('క్రో', 'U'), ('శం', 'U'), ('బు', '|'), ('న', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3558,7 +3558,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[('ము', '|'), ('ని', '|'), ('శా', 'U'), ('పం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బు', 'U'), ('న్శ', 'U'), ('క్తి', '|'), ('యున్', 'U'), ('నీ', 'U'), ('వె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ని', '|'), ('బీ', 'U'), ('జం', 'U'), ('బు', '|'), ('న', '|'), ('శై', 'U'), ('ల', '|'), ('సు', 'U'), ('ప్త', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('త్కం', 'U'), ('ఠీ', 'U'), ('ర', '|'), ('వేం', 'U'), ('ద్రం', 'U'), ('బు', '|'), ('లా', 'U'), ('గు', '|'), ('న', '|'), ('న', 'U'), ('ట్లుం', 'U'), ('టి', '|'), ('వి', '|'), ('గా', 'U'), ('క', '|'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('మ', '|'), ('దిన్', 'U'), ('గో', 'U'), ('పిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('ని', '|'), ('కా', 'U'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('నొ', 'U'), ('క్క', '|'), ('పె', 'U'), ('ట్ట', '|'), ('ను', '|'), ('ఱు', '|'), ('ముం', 'U'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ము', '|'), ('ని', '|'), ('శా', 'U'), ('పం', 'U'), ('బు', '|'), ('న', '|'), ('నీ', 'U'), ('ప్ర', '|'), ('భా', 'U'), ('వ', '|'), ('మ', '|'), ('హి', '|'), ('మం', 'U'), ('బు', 'U'), ('న్శ', 'U'), ('క్తి', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('వె', '|'), ('ఱుం', 'U'), ('గ', '|'), ('ని', '|'), ('బీ', 'U'), ('జం', 'U'), ('బు', '|'), ('న', '|'), ('శై', 'U'), ('ల', '|'), ('సు', 'U'), ('ప్త', '|'), ('వి', '|'), ('ల', '|'), ('స', 'U'), ('త్కం', 'U'), ('ఠీ', 'U'), ('ర', '|'), ('వేం', 'U'), ('ద్రం', 'U'), ('బు', '|'), ('లా', 'U'), ('గు', '|'), ('న', '|'), ('న', 'U'), ('ట్లుం', 'U'), ('టి', '|'), ('వి', '|'), ('గా', 'U'), ('క', '|'), ('ని', 'U'), ('క్క', '|'), ('ము', '|'), ('మ', '|'), ('ది', 'U'), ('న్గో', 'U'), ('పిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్స', 'U'), ('ర్వ', '|'), ('లో', 'U'), ('క', '|'), ('ని', '|'), ('కా', 'U'), ('యం', 'U'), ('బు', '|'), ('ల', '|'), ('నొ', 'U'), ('క్క', '|'), ('పె', 'U'), ('ట్ట', '|'), ('ను', '|'), ('ఱు', '|'), ('ముం', 'U'), ('గా', 'U'), ('విం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3618,7 +3618,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[('ధృ', '|'), ('తి', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('తి', '|'), ('యు', '|'), ('సా', 'U'), ('హ', '|'), ('సం', 'U'), ('బు', 'U'), ('స్మృ', '|'), ('తి', '|'), ('యు', 'U'), ('న్తే', 'U'), ('జం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వ', '|'), ('శ్రు', '|'), ('తి', 'U'), ('స్మృ', '|'), ('తి', '|'), ('పా', 'U'), ('రీ', 'U'), ('ణ', '|'), ('త', '|'), ('యు', 'U'), ('న్య', '|'), ('శం', 'U'), ('బు', '|'), ('వి', '|'), ('జ', '|'), ('యో', 'U'), ('న్మే', 'U'), ('షం', 'U'), ('బు', '|'), ('శా', 'U'), ('స్త్ర', 'U'), ('జ్ఞ', '|'), ('తా', 'U'), ('చ', '|'), ('తు', '|'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('శ', '|'), ('మ', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ది', '|'), ('గు', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్సా', 'U'), ('ధు', 'U'), ('త్వ', '|'), ('ము', 'U'), ('న్శౌ', 'U'), ('ర్య', '|'), ('మున్', 'U'), ('వి', '|'), ('త', '|'), ('త', '|'), ('ప్ర', 'U'), ('జ్ఞ', '|'), ('జి', '|'), ('తేం', 'U'), ('ద్రి', '|'), ('య', 'U'), ('త్వ', '|'), ('ము', '|'), ('ర', '|'), ('హిన్', 'U'), ('నీ', 'U'), ('కే', 'U'), ('త', '|'), ('గున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ధృ', '|'), ('తి', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('తి', '|'), ('యు', '|'), ('సా', 'U'), ('హ', '|'), ('సం', 'U'), ('బు', 'U'), ('స్మృ', '|'), ('తి', '|'), ('యు', 'U'), ('న్తే', 'U'), ('జం', 'U'), ('బు', '|'), ('స', 'U'), ('ర్వ', '|'), ('శ్రు', '|'), ('తి', 'U'), ('స్మృ', '|'), ('తి', '|'), ('పా', 'U'), ('రీ', 'U'), ('ణ', '|'), ('త', '|'), ('యు', 'U'), ('న్య', '|'), ('శం', 'U'), ('బు', '|'), ('వి', '|'), ('జ', '|'), ('యో', 'U'), ('న్మే', 'U'), ('షం', 'U'), ('బు', '|'), ('శా', 'U'), ('స్త్ర', 'U'), ('జ్ఞ', '|'), ('తా', 'U'), ('చ', '|'), ('తు', '|'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('శ', '|'), ('మ', 'U'), ('క్ష', '|'), ('మా', 'U'), ('ది', '|'), ('గు', '|'), ('ణ', '|'), ('ము', 'U'), ('ల్సా', 'U'), ('ధు', 'U'), ('త్వ', '|'), ('ము', 'U'), ('న్శౌ', 'U'), ('ర్య', '|'), ('మున్', 'U'), ('వి', '|'), ('త', '|'), ('త', '|'), ('ప్ర', 'U'), ('జ్ఞ', '|'), ('జి', '|'), ('తేం', 'U'), ('ద్రి', '|'), ('య', 'U'), ('త్వ', '|'), ('ము', '|'), ('ర', '|'), ('హి', 'U'), ('న్నీ', 'U'), ('కే', 'U'), ('త', '|'), ('గు', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3648,7 +3648,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('మా', 'U'), ('హా', 'U'), ('త్మ్య', '|'), ('ము', '|'), ('నీ', 'U'), ('ర', '|'), ('యో', 'U'), ('ప', '|'), ('చ', '|'), ('య', '|'), ('ము', 'U'), ('న్నీ', 'U'), ('స', 'U'), ('త్త్వ', '|'), ('సా', 'U'), ('మ', '|'), ('గ్రి', '|'), ('యున్', 'U'), ('సా', 'U'), ('మా', 'U'), ('న్యం', 'U'), ('బె', '|'), ('యొ', '|'), ('కిం', 'U'), ('త', '|'), ('వా', 'U'), ('యు', '|'), ('వు', '|'), ('న', '|'), ('కు', 'U'), ('న్నా', 'U'), ('గా', 'U'), ('రి', '|'), ('కిన్', 'U'), ('క', 'U'), ('ల్గి', '|'), ('తే', 'U'), ('నే', 'U'), ('మో', 'U'), ('కా', 'U'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('ప', '|'), ('ము', 'U'), ('జ్జ', '|'), ('గ', '|'), ('ము', '|'), ('లం', 'U'), ('దె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కిం', 'U'), ('గ', 'U'), ('ల్గ', '|'), ('దో', 'U'), ('హై', 'U'), ('మా', 'U'), ('ద్రి', '|'), ('ప్ర', '|'), ('తి', '|'), ('మో', 'U'), ('న్న', '|'), ('తీ', 'U'), ('గు', '|'), ('రు', '|'), ('మ', '|'), ('తీ', 'U'), ('అ', 'U'), ('ర్క', 'U'), ('ద్యు', '|'), ('తీ', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('నీ', 'U'), ('మా', 'U'), ('హా', 'U'), ('త్మ్య', '|'), ('ము', '|'), ('నీ', 'U'), ('ర', '|'), ('యో', 'U'), ('ప', '|'), ('చ', '|'), ('య', '|'), ('ము', 'U'), ('న్నీ', 'U'), ('స', 'U'), ('త్త్వ', '|'), ('సా', 'U'), ('మ', '|'), ('గ్రి', '|'), ('యున్', 'U'), ('సా', 'U'), ('మా', 'U'), ('న్యం', 'U'), ('బె', '|'), ('యొ', '|'), ('కిం', 'U'), ('త', '|'), ('వా', 'U'), ('యు', '|'), ('వు', '|'), ('న', '|'), ('కు', 'U'), ('న్నా', 'U'), ('గా', 'U'), ('రి', '|'), ('కి', 'U'), ('న్క', 'U'), ('ల్గి', '|'), ('తే', 'U'), ('నే', 'U'), ('మో', 'U'), ('కా', 'U'), ('ని', '|'), ('త', '|'), ('లం', 'U'), ('ప', '|'), ('ము', 'U'), ('జ్జ', '|'), ('గ', '|'), ('ము', '|'), ('లం', 'U'), ('దె', 'U'), ('వ్వా', 'U'), ('రి', '|'), ('కిం', 'U'), ('గ', 'U'), ('ల్గ', '|'), ('దో', 'U'), ('హై', 'U'), ('మా', 'U'), ('ద్రి', '|'), ('ప్ర', '|'), ('తి', '|'), ('మో', 'U'), ('న్న', '|'), ('తీ', 'U'), ('గు', '|'), ('రు', '|'), ('మ', '|'), ('తీ', 'U'), ('అ', 'U'), ('ర్క', 'U'), ('ద్యు', '|'), ('తీ', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3678,7 +3678,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[('ఉ', '|'), ('ద', '|'), ('యా', 'U'), ('స్తా', 'U'), ('ద్రు', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('పా', 'U'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళం', 'U'), ('బొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గా', 'U'), ('నుం', 'U'), ('చి', '|'), ('మే', 'U'), ('ను', '|'), ('ది', '|'), ('వం', 'U'), ('బం', 'U'), ('త', '|'), ('యు', '|'), ('నిం', 'U'), ('డ', '|'), ('బెం', 'U'), ('చి', '|'), ('య', '|'), ('ల', '|'), ('భా', 'U'), ('నుం', 'U'), ('డ', 'U'), ('ర్మి', '|'), ('లిం', 'U'), ('జె', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వుల్', 'U'), ('నే', 'U'), ('ర్చు', '|'), ('త', '|'), ('ఱిన్', 'U'), ('భ', '|'), ('వ', 'U'), ('త్త', '|'), ('ను', '|'), ('వి', '|'), ('లా', 'U'), ('సం', 'U'), ('బం', 'U'), ('త', '|'), ('యుం', 'U'), ('జూ', 'U'), ('చి', '|'), ('స', 'U'), ('ర్వ', '|'), ('ది', '|'), ('వౌ', 'U'), ('కుల్', 'U'), ('వె', '|'), ('ఱ', '|'), ('తో', 'U'), ('ద్రి', '|'), ('వి', '|'), ('క్ర', '|'), ('ము', '|'), ('ని', '|'), ('గా', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('రే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఉ', '|'), ('ద', '|'), ('యా', 'U'), ('స్తా', 'U'), ('ద్రు', '|'), ('ల', '|'), ('మీ', 'U'), ('ద', '|'), ('పా', 'U'), ('ద', '|'), ('యు', '|'), ('గ', '|'), ('ళం', 'U'), ('బొ', 'U'), ('ప్పా', 'U'), ('ర', '|'), ('గా', 'U'), ('నుం', 'U'), ('చి', '|'), ('మే', 'U'), ('ను', '|'), ('ది', '|'), ('వం', 'U'), ('బం', 'U'), ('త', '|'), ('యు', '|'), ('నిం', 'U'), ('డ', '|'), ('బెం', 'U'), ('చి', '|'), ('య', '|'), ('ల', '|'), ('భా', 'U'), ('నుం', 'U'), ('డ', 'U'), ('ర్మి', '|'), ('లిం', 'U'), ('జె', 'U'), ('ప్ప', '|'), ('గా', 'U'), ('జ', '|'), ('దు', '|'), ('వు', 'U'), ('ల్నే', 'U'), ('ర్చు', '|'), ('త', '|'), ('ఱి', 'U'), ('న్భ', '|'), ('వ', 'U'), ('త్త', '|'), ('ను', '|'), ('వి', '|'), ('లా', 'U'), ('సం', 'U'), ('బం', 'U'), ('త', '|'), ('యుం', 'U'), ('జూ', 'U'), ('చి', '|'), ('స', 'U'), ('ర్వ', '|'), ('ది', '|'), ('వౌ', 'U'), ('కు', 'U'), ('ల్వె', '|'), ('ఱ', '|'), ('తో', 'U'), ('ద్రి', '|'), ('వి', '|'), ('క్ర', '|'), ('ము', '|'), ('ని', '|'), ('గా', 'U'), ('భా', 'U'), ('విం', 'U'), ('ప', '|'), ('రే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[('అ', '|'), ('మ', '|'), ('రా', 'U'), ('ద్రి', '|'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('వి', '|'), ('గ్ర', '|'), ('హ', '|'), ('ము', '|'), ('బా', 'U'), ('లా', 'U'), ('ర్క', '|'), ('ప్ర', '|'), ('తీ', 'U'), ('కా', 'U'), ('శ', '|'), ('వ', 'U'), ('క్త్ర', '|'), ('ము', '|'), ('శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('గ', '|'), ('బా', 'U'), ('రి', '|'), ('జా', 'U'), ('త', '|'), ('త', '|'), ('రు', '|'), ('మూ', 'U'), ('లం', 'U'), ('బం', 'U'), ('దు', '|'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డి', '|'), ('యు', 'U'), ('త్త', '|'), ('మ', '|'), ('భ', 'U'), ('క్తిన్', 'U'), ('ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('ని', '|'), ('మ', '|'), ('దిన్', 'U'), ('ధ్యా', 'U'), ('నిం', 'U'), ('పు', '|'), ('చున్', 'U'), ('ద', 'U'), ('త్ప', '|'), ('వి', '|'), ('త్ర', '|'), ('మ', '|'), ('హా', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మొ', '|'), ('గిన్', 'U'), ('జ', '|'), ('పిం', 'U'), ('చు', '|'), ('ని', '|'), ('ను', '|'), ('నే', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('చె', '|'), ('దన్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('అ', '|'), ('మ', '|'), ('రా', 'U'), ('ద్రి', '|'), ('ప్ర', '|'), ('తి', '|'), ('మా', 'U'), ('న', '|'), ('వి', '|'), ('గ్ర', '|'), ('హ', '|'), ('ము', '|'), ('బా', 'U'), ('లా', 'U'), ('ర్క', '|'), ('ప్ర', '|'), ('తీ', 'U'), ('కా', 'U'), ('శ', '|'), ('వ', 'U'), ('క్త్ర', '|'), ('ము', '|'), ('శో', 'U'), ('భి', 'U'), ('ల్ల', '|'), ('గ', '|'), ('బా', 'U'), ('రి', '|'), ('జా', 'U'), ('త', '|'), ('త', '|'), ('రు', '|'), ('మూ', 'U'), ('లం', 'U'), ('బం', 'U'), ('దు', '|'), ('గూ', 'U'), ('ర్చుం', 'U'), ('డి', '|'), ('యు', 'U'), ('త్త', '|'), ('మ', '|'), ('భ', 'U'), ('క్తి', '|'), ('న్ర', '|'), ('ఘు', '|'), ('రా', 'U'), ('మ', '|'), ('మూ', 'U'), ('ర్తి', '|'), ('ని', '|'), ('మ', '|'), ('ది', 'U'), ('న్ధ్యా', 'U'), ('నిం', 'U'), ('పు', '|'), ('చు', 'U'), ('న్ద', 'U'), ('త్ప', '|'), ('వి', '|'), ('త్ర', '|'), ('మ', '|'), ('హా', 'U'), ('మం', 'U'), ('త్ర', '|'), ('మొ', '|'), ('గి', 'U'), ('న్జ', '|'), ('పిం', 'U'), ('చు', '|'), ('ని', '|'), ('ను', '|'), ('నే', 'U'), ('బ్రా', 'U'), ('ర్థిం', 'U'), ('చె', '|'), ('ద', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('క', 'U'), ('ళ్యా', 'U'), ('న', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్మ', '|'), ('హి', '|'), ('మ', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('రే', 'U'), ('జ', '|'), ('గ', 'U'), ('ర్భుం', 'U'), ('డు', '|'), ('తా', 'U'), ('రా', 'U'), ('కాం', 'U'), ('తుం', 'U'), ('డు', '|'), ('ను', '|'), ('భో', 'U'), ('గి', '|'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('డు', '|'), ('గీ', 'U'), ('ర్వా', 'U'), ('ణ', '|'), ('ప్ర', '|'), ('భుం', 'U'), ('డు', '|'), ('ను', '|'), ('భ', '|'), ('వా', 'U'), ('నీ', 'U'), ('కాం', 'U'), ('తుం', 'U'), ('డు', '|'), ('గ', '|'), ('ణిం', 'U'), ('ప', '|'), ('జా', 'U'), ('ల', '|'), ('ర', '|'), ('ని', '|'), ('నన్', 'U'), ('నే', 'U'), ('నెం', 'U'), ('త', '|'), ('వా', 'U'), ('డన్', 'U'), ('ర', '|'), ('హిన్', 'U'), ('నా', 'U'), ('కుం', 'U'), ('దో', 'U'), ('చి', '|'), ('న', '|'), ('భం', 'U'), ('గి', '|'), ('నె', 'U'), ('న్ని', '|'), ('తి', '|'), ('గృ', '|'), ('పన్', 'U'), ('మ', 'U'), ('న్నిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('నీ', 'U'), ('క', 'U'), ('ళ్యా', 'U'), ('న', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('లు', 'U'), ('న్మ', '|'), ('హి', '|'), ('మ', '|'), ('యు', 'U'), ('న్నీ', 'U'), ('రే', 'U'), ('జ', '|'), ('గ', 'U'), ('ర్భుం', 'U'), ('డు', '|'), ('తా', 'U'), ('రా', 'U'), ('కాం', 'U'), ('తుం', 'U'), ('డు', '|'), ('ను', '|'), ('భో', 'U'), ('గి', '|'), ('వ', 'U'), ('ల్ల', '|'), ('భు', '|'), ('డు', '|'), ('గీ', 'U'), ('ర్వా', 'U'), ('ణ', '|'), ('ప్ర', '|'), ('భుం', 'U'), ('డు', '|'), ('ను', '|'), ('భ', '|'), ('వా', 'U'), ('నీ', 'U'), ('కాం', 'U'), ('తుం', 'U'), ('డు', '|'), ('గ', '|'), ('ణిం', 'U'), ('ప', '|'), ('జా', 'U'), ('ల', '|'), ('ర', '|'), ('ని', '|'), ('న', 'U'), ('న్నే', 'U'), ('నెం', 'U'), ('త', '|'), ('వా', 'U'), ('డ', '|'), ('న్ర', '|'), ('హిన్', 'U'), ('నా', 'U'), ('కుం', 'U'), ('దో', 'U'), ('చి', '|'), ('న', '|'), ('భం', 'U'), ('గి', '|'), ('నె', 'U'), ('న్ని', '|'), ('తి', '|'), ('గృ', '|'), ('ప', 'U'), ('న్మ', 'U'), ('న్నిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('రా', 'U'), ('మా', 'U'), ('ధి', '|'), ('పు', '|'), ('నొ', 'U'), ('ద్ద', '|'), ('వా', 'U'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('నే', 'U'), ('కా', 'U'), ('క్షౌ', 'U'), ('హి', '|'), ('ణుల్', 'U'), ('లే', 'U'), ('రె', '|'), ('యె', 'U'), ('వ్వా', 'U'), ('రై', 'U'), ('నన్', 'U'), ('బ', '|'), ('హు', '|'), ('ల', 'U'), ('క్ష', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('ల', 'U'), ('వ్వా', 'U'), ('రా', 'U'), ('శి', '|'), ('లం', 'U'), ('ఘిం', 'U'), ('చి', '|'), ('సొం', 'U'), ('పా', 'U'), ('రన్', 'U'), ('యా', 'U'), ('మ', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('నౌ', 'U'), ('ష', '|'), ('ధి', '|'), ('న', '|'), ('గం', 'U'), ('బా', 'U'), ('స', 'U'), ('క్తి', '|'), ('తే', 'U'), ('జా', 'U'), ('లి', '|'), ('రే', 'U'), ('ఔ', 'U'), ('రా', 'U'), ('నీ', 'U'), ('క', '|'), ('ది', '|'), ('జె', 'U'), ('ల్లె', '|'), ('గా', 'U'), ('క', '|'), ('క', '|'), ('పి', '|'), ('వం', 'U'), ('శా', 'U'), ('గ్రే', 'U'), ('స', '|'), ('రా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఆ', 'U'), ('రా', 'U'), ('మా', 'U'), ('ధి', '|'), ('పు', '|'), ('నొ', 'U'), ('ద్ద', '|'), ('వా', 'U'), ('న', '|'), ('రు', '|'), ('ల', '|'), ('నే', 'U'), ('కా', 'U'), ('క్షౌ', 'U'), ('హి', '|'), ('ణు', 'U'), ('ల్లే', 'U'), ('రె', '|'), ('యె', 'U'), ('వ్వా', 'U'), ('రై', 'U'), ('న', 'U'), ('న్బ', '|'), ('హు', '|'), ('ల', 'U'), ('క్ష', '|'), ('యో', 'U'), ('జ', '|'), ('న', '|'), ('ము', '|'), ('ల', 'U'), ('వ్వా', 'U'), ('రా', 'U'), ('శి', '|'), ('లం', 'U'), ('ఘిం', 'U'), ('చి', '|'), ('సొం', 'U'), ('పా', 'U'), ('ర', 'U'), ('న్యా', 'U'), ('మ', '|'), ('ము', '|'), ('లో', 'U'), ('న', '|'), ('నౌ', 'U'), ('ష', '|'), ('ధి', '|'), ('న', '|'), ('గం', 'U'), ('బా', 'U'), ('స', 'U'), ('క్తి', '|'), ('తే', 'U'), ('జా', 'U'), ('లి', '|'), ('రే', 'U'), ('ఔ', 'U'), ('రా', 'U'), ('నీ', 'U'), ('క', '|'), ('ది', '|'), ('జె', 'U'), ('ల్లె', '|'), ('గా', 'U'), ('క', '|'), ('క', '|'), ('పి', '|'), ('వం', 'U'), ('శా', 'U'), ('గ్రే', 'U'), ('స', '|'), ('రా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3798,7 +3798,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ప', '|'), ('ఠిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('ని', '|'), ('ను', '|'), ('మ', '|'), ('దిం', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('నీ', 'U'), ('క', '|'), ('థా', 'U'), ('గా', 'U'), ('నం', 'U'), ('బు', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('స', 'U'), ('ల్పి', '|'), ('నం', 'U'), ('గ', '|'), ('ర', '|'), ('ము', '|'), ('వే', 'U'), ('డ్కన్', 'U'), ('ని', 'U'), ('న్ను', '|'), ('బూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('నా', 'U'), ('నా', 'U'), ('వ్యా', 'U'), ('ధు', '|'), ('ల', '|'), ('డం', 'U'), ('గు', '|'), ('వే', 'U'), ('లు', '|'), ('పు', '|'), ('ల', '|'), ('స', 'U'), ('న్మా', 'U'), ('నం', 'U'), ('బు', '|'), ('సం', 'U'), ('ధి', 'U'), ('ల్లు', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('నై', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('చే', 'U'), ('కు', '|'), ('ఱు', '|'), ('ను', '|'), ('దీ', 'U'), ('ర్ఘా', 'U'), ('యు', 'U'), ('ష్య', '|'), ('మున్', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('నీ', 'U'), ('నా', 'U'), ('మం', 'U'), ('బు', '|'), ('ప', '|'), ('ఠిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్ని', '|'), ('ను', '|'), ('మ', '|'), ('దిం', 'U'), ('జిం', 'U'), ('తిం', 'U'), ('చి', '|'), ('న', 'U'), ('న్నీ', 'U'), ('క', '|'), ('థా', 'U'), ('గా', 'U'), ('నం', 'U'), ('బు', 'U'), ('ద్ధ', '|'), ('తి', '|'), ('స', 'U'), ('ల్పి', '|'), ('నం', 'U'), ('గ', '|'), ('ర', '|'), ('ము', '|'), ('వే', 'U'), ('డ్క', 'U'), ('న్ని', 'U'), ('న్ను', '|'), ('బూ', 'U'), ('జిం', 'U'), ('చి', '|'), ('నన్', 'U'), ('నా', 'U'), ('నా', 'U'), ('వ్యా', 'U'), ('ధు', '|'), ('ల', '|'), ('డం', 'U'), ('గు', '|'), ('వే', 'U'), ('లు', '|'), ('పు', '|'), ('ల', '|'), ('స', 'U'), ('న్మా', 'U'), ('నం', 'U'), ('బు', '|'), ('సం', 'U'), ('ధి', 'U'), ('ల్లు', '|'), ('వి', 'U'), ('ద్యా', 'U'), ('నై', 'U'), ('పు', 'U'), ('ణ్య', '|'), ('ము', '|'), ('గ', 'U'), ('ల్గు', '|'), ('చే', 'U'), ('కు', '|'), ('ఱు', '|'), ('ను', '|'), ('దీ', 'U'), ('ర్ఘా', 'U'), ('యు', 'U'), ('ష్య', '|'), ('ము', 'U'), ('న్మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3828,7 +3828,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[('నీ', 'U'), ('పే', 'U'), ('రెం', 'U'), ('చి', '|'), ('న', '|'), ('శ', '|'), ('త్రు', '|'), ('వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('వె', '|'), ('సన్', 'U'), ('ని', 'U'), ('ర్మూ', 'U'), ('ల', '|'), ('మై', 'U'), ('పో', 'U'), ('వు', '|'), ('సం', 'U'), ('తా', 'U'), ('పం', 'U'), ('బుల్', 'U'), ('దొ', '|'), ('ల', '|'), ('గు', 'U'), ('న్స', '|'), ('మ', 'U'), ('స్త', '|'), ('దు', '|'), ('రి', '|'), ('తాం', 'U'), ('తం', 'U'), ('బౌ', 'U'), ('ను', '|'), ('కూ', 'U'), ('శ్మాం', 'U'), ('డ', '|'), ('మా', 'U'), ('రీ', 'U'), ('పై', 'U'), ('శా', 'U'), ('చి', '|'), ('క', '|'), ('య', 'U'), ('క్ష', '|'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('గ్ర', '|'), ('హ', '|'), ('ప్రే', 'U'), ('తో', 'U'), ('గ్ర', '|'), ('భూ', 'U'), ('తా', 'U'), ('ది', '|'), ('నా', 'U'), ('నా', 'U'), ('పీ', 'U'), ('డల్', 'U'), ('న', '|'), ('శి', '|'), ('యిం', 'U'), ('చు', '|'), ('భ', '|'), ('ద్ర', '|'), ('మొ', '|'), ('ద', '|'), ('వున్', 'U'), ('స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('నీ', 'U'), ('పే', 'U'), ('రెం', 'U'), ('చి', '|'), ('న', '|'), ('శ', '|'), ('త్రు', '|'), ('వ', 'U'), ('ర్గ', '|'), ('ము', '|'), ('వె', '|'), ('స', 'U'), ('న్ని', 'U'), ('ర్మూ', 'U'), ('ల', '|'), ('మై', 'U'), ('పో', 'U'), ('వు', '|'), ('సం', 'U'), ('తా', 'U'), ('పం', 'U'), ('బు', 'U'), ('ల్దొ', '|'), ('ల', '|'), ('గు', 'U'), ('న్స', '|'), ('మ', 'U'), ('స్త', '|'), ('దు', '|'), ('రి', '|'), ('తాం', 'U'), ('తం', 'U'), ('బౌ', 'U'), ('ను', '|'), ('కూ', 'U'), ('శ్మాం', 'U'), ('డ', '|'), ('మా', 'U'), ('రీ', 'U'), ('పై', 'U'), ('శా', 'U'), ('చి', '|'), ('క', '|'), ('య', 'U'), ('క్ష', '|'), ('రా', 'U'), ('క్ష', '|'), ('స', '|'), ('గ్ర', '|'), ('హ', '|'), ('ప్రే', 'U'), ('తో', 'U'), ('గ్ర', '|'), ('భూ', 'U'), ('తా', 'U'), ('ది', '|'), ('నా', 'U'), ('నా', 'U'), ('పీ', 'U'), ('డ', 'U'), ('ల్న', '|'), ('శి', '|'), ('యిం', 'U'), ('చు', '|'), ('భ', '|'), ('ద్ర', '|'), ('మొ', '|'), ('ద', '|'), ('వు', 'U'), ('న్స', 'U'), ('త్యం', 'U'), ('బు', '|'), ('గా', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[('ఆ', 'U'), ('సు', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', '|'), ('కీ', 'U'), ('శ', '|'), ('రా', 'U'), ('జ్య', '|'), ('ప', '|'), ('ద', '|'), ('విం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చు', '|'), ('టల్', 'U'), ('రా', 'U'), ('ము', '|'), ('డు', 'U'), ('ల్లా', 'U'), ('సం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('న', 'U'), ('వ్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('న', '|'), ('కున్', 'U'), ('లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రం', 'U'), ('బి', 'U'), ('చ్చు', '|'), ('టల్', 'U'), ('వా', 'U'), ('సిం', 'U'), ('గాం', 'U'), ('చి', '|'), ('త', '|'), ('రిం', 'U'), ('చు', '|'), ('టల్', 'U'), ('ద', '|'), ('శ', '|'), ('ము', '|'), ('ఖున్', 'U'), ('భం', 'U'), ('జిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ల్మూ', 'U'), ('ర్ఛి', '|'), ('తుం', 'U'), ('డౌ', 'U'), ('సౌ', 'U'), ('మి', '|'), ('త్రి', '|'), ('ని', '|'), ('దే', 'U'), ('ర్చు', '|'), ('ట', 'U'), ('ల్మ', '|'), ('ర', '|'), ('ల', '|'), ('సీ', 'U'), ('తా', 'U'), ('వా', 'U'), ('ప్తి', '|'), ('యున్', 'U'), ('స', 'U'), ('ర్వ', '|'), ('మున్', 'U'), ('నీ', 'U'), ('సా', 'U'), ('హా', 'U'), ('య', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('నే', 'U'), ('క', '|'), ('ద', '|'), ('ల', '|'), ('స', 'U'), ('న్మే', 'U'), ('ధా', 'U'), ('ని', '|'), ('ధీ', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ఆ', 'U'), ('సు', '|'), ('గ్రీ', 'U'), ('వు', '|'), ('డు', '|'), ('కీ', 'U'), ('శ', '|'), ('రా', 'U'), ('జ్య', '|'), ('ప', '|'), ('ద', '|'), ('విం', 'U'), ('బ్రా', 'U'), ('పిం', 'U'), ('చు', '|'), ('ట', '|'), ('ల్రా', 'U'), ('ము', '|'), ('డు', 'U'), ('ల్లా', 'U'), ('సం', 'U'), ('బొ', 'U'), ('ప్ప', '|'), ('గ', '|'), ('న', 'U'), ('వ్వి', '|'), ('భీ', 'U'), ('ష', '|'), ('ణు', '|'), ('న', '|'), ('కు', 'U'), ('న్లం', 'U'), ('కా', 'U'), ('పు', '|'), ('రం', 'U'), ('బి', 'U'), ('చ్చు', '|'), ('టల్', 'U'), ('వా', 'U'), ('సిం', 'U'), ('గాం', 'U'), ('చి', '|'), ('త', '|'), ('రిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ల్ద', '|'), ('శ', '|'), ('ము', '|'), ('ఖు', 'U'), ('న్భం', 'U'), ('జిం', 'U'), ('చు', '|'), ('ట', 'U'), ('ల్మూ', 'U'), ('ర్ఛి', '|'), ('తుం', 'U'), ('డౌ', 'U'), ('సౌ', 'U'), ('మి', '|'), ('త్రి', '|'), ('ని', '|'), ('దే', 'U'), ('ర్చు', '|'), ('ట', 'U'), ('ల్మ', '|'), ('ర', '|'), ('ల', '|'), ('సీ', 'U'), ('తా', 'U'), ('వా', 'U'), ('ప్తి', '|'), ('యు', 'U'), ('న్స', 'U'), ('ర్వ', '|'), ('మున్', 'U'), ('నీ', 'U'), ('సా', 'U'), ('హా', 'U'), ('య', '|'), ('ము', '|'), ('చే', 'U'), ('త', '|'), ('నే', 'U'), ('క', '|'), ('ద', '|'), ('ల', '|'), ('స', 'U'), ('న్మే', 'U'), ('ధా', 'U'), ('ని', '|'), ('ధీ', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[('ప', '|'), ('ద', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('సం', 'U'), ('ధి', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('య', '|'), ('తి', '|'), ('ప్రా', 'U'), ('సా', 'U'), ('ది', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లున్', 'U'), ('ప్ర', '|'), ('థి', '|'), ('త', 'U'), ('వ్య', 'U'), ('ర్థ', '|'), ('స', '|'), ('మా', 'U'), ('స', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('ర', '|'), ('సా', 'U'), ('ర్థ', '|'), ('ప్ర', '|'), ('క్రి', '|'), ('యా', 'U'), ('దో', 'U'), ('ష', '|'), ('ముల్', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('ల', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యు', 'U'), ('న్న', '|'), ('న', '|'), ('ను', '|'), ('కం', 'U'), ('పన్', 'U'), ('వా', 'U'), ('ని', '|'), ('న', 'U'), ('న్నిం', 'U'), ('టి', '|'), ('నీ', 'U'), ('మ', '|'), ('ది', '|'), ('సై', 'U'), ('రిం', 'U'), ('చి', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('గొ', '|'), ('ని', '|'), ('న', '|'), ('నుం', 'U'), ('బా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('ప', '|'), ('ద', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లు', '|'), ('సం', 'U'), ('ధి', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('య', '|'), ('తి', '|'), ('ప్రా', 'U'), ('సా', 'U'), ('ది', '|'), ('దో', 'U'), ('షం', 'U'), ('బు', '|'), ('లున్', 'U'), ('ప్ర', '|'), ('థి', '|'), ('త', 'U'), ('వ్య', 'U'), ('ర్థ', '|'), ('స', '|'), ('మా', 'U'), ('స', '|'), ('దో', 'U'), ('ష', '|'), ('ము', '|'), ('ర', '|'), ('సా', 'U'), ('ర్థ', '|'), ('ప్ర', '|'), ('క్రి', '|'), ('యా', 'U'), ('దో', 'U'), ('ష', '|'), ('ముల్', 'U'), ('ప', '|'), ('ద', '|'), ('ప', 'U'), ('ద్యం', 'U'), ('బు', '|'), ('ల', '|'), ('గ', 'U'), ('ల్గి', '|'), ('యు', 'U'), ('న్న', '|'), ('న', '|'), ('ను', '|'), ('కం', 'U'), ('ప', 'U'), ('న్వా', 'U'), ('ని', '|'), ('న', 'U'), ('న్నిం', 'U'), ('టి', '|'), ('నీ', 'U'), ('మ', '|'), ('ది', '|'), ('సై', 'U'), ('రిం', 'U'), ('చి', '|'), ('గు', '|'), ('ణం', 'U'), ('బు', '|'), ('గా', 'U'), ('గొ', '|'), ('ని', '|'), ('న', '|'), ('నుం', 'U'), ('బా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
@@ -3949,7 +3949,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[('చ', '|'), ('తు', '|'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('గో', 'U'), ('పి', '|'), ('నా', 'U'), ('థ', '|'), ('కు', '|'), ('ల', '|'), ('వి', 'U'), ('స్తా', 'U'), ('రుం', 'U'), ('డు', '|'), ('శ్రీ', 'U'), ('ప', 'U'), ('ద్మ', '|'), ('నా', 'U'), ('భ', '|'), ('త', '|'), ('నూ', 'U'), ('జుం', 'U'), ('డ', '|'), ('గు', '|'), ('వేం', 'U'), ('క', '|'), ('టా', 'U'), ('ఖ్య', '|'), ('క', '|'), ('వి', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('త్స', 'U'), ('మ్మ', '|'), ('తం', 'U'), ('బై', 'U'), ('న', '|'), ('యీ', 'U'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బున్', 'U'), ('ర', '|'), ('చి', '|'), ('యిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('కు', '|'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చ', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('న', 'U'), ('ర్పిం', 'U'), ('చె', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('తో', 'U'), ('దీ', 'U'), ('ని', '|'), ('బ', '|'), ('రి', '|'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('బా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
+          <t>[('చ', '|'), ('తు', '|'), ('ర', 'U'), ('త్వం', 'U'), ('బు', '|'), ('న', '|'), ('గో', 'U'), ('పి', '|'), ('నా', 'U'), ('థ', '|'), ('కు', '|'), ('ల', '|'), ('వి', 'U'), ('స్తా', 'U'), ('రుం', 'U'), ('డు', '|'), ('శ్రీ', 'U'), ('ప', 'U'), ('ద్మ', '|'), ('నా', 'U'), ('భ', '|'), ('త', '|'), ('నూ', 'U'), ('జుం', 'U'), ('డ', '|'), ('గు', '|'), ('వేం', 'U'), ('క', '|'), ('టా', 'U'), ('ఖ్య', '|'), ('క', '|'), ('వి', '|'), ('వి', 'U'), ('ద్వ', 'U'), ('త్స', 'U'), ('మ్మ', '|'), ('తం', 'U'), ('బై', 'U'), ('న', '|'), ('యీ', 'U'), ('శ', '|'), ('త', '|'), ('కం', 'U'), ('బు', '|'), ('న్ర', '|'), ('చి', '|'), ('యిం', 'U'), ('చి', '|'), ('నీ', 'U'), ('కు', '|'), ('స', '|'), ('ము', '|'), ('దం', 'U'), ('చ', 'U'), ('ద్భ', 'U'), ('క్తి', '|'), ('న', 'U'), ('ర్పిం', 'U'), ('చె', '|'), ('స', 'U'), ('మ్మ', '|'), ('తి', '|'), ('తో', 'U'), ('దీ', 'U'), ('ని', '|'), ('బ', '|'), ('రి', '|'), ('గ్ర', '|'), ('హిం', 'U'), ('చి', '|'), ('క', '|'), ('రు', '|'), ('ణ', '|'), ('బా', 'U'), ('లిం', 'U'), ('ప', '|'), ('వే', 'U'), ('మా', 'U'), ('రు', '|'), ('తీ', 'U')]</t>
         </is>
       </c>
     </row>
